--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -743,6 +743,6469 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>55</v>
+      </c>
+      <c r="B16">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>55</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>-3.068074861193663</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C17">
+        <v>0.01818181818181818</v>
+      </c>
+      <c r="D17">
+        <v>54</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>-3.087883068943429</v>
+      </c>
+      <c r="G17">
+        <v>-0.02449340916032217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>55</v>
+      </c>
+      <c r="B18">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C18">
+        <v>0.03636363636363636</v>
+      </c>
+      <c r="D18">
+        <v>53</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>-3.107691276693195</v>
+      </c>
+      <c r="G18">
+        <v>-0.04898681832064433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C19">
+        <v>0.05454545454545454</v>
+      </c>
+      <c r="D19">
+        <v>52</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>-3.127499484442962</v>
+      </c>
+      <c r="G19">
+        <v>-0.0734802274809665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>55</v>
+      </c>
+      <c r="B20">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C20">
+        <v>0.07272727272727272</v>
+      </c>
+      <c r="D20">
+        <v>51</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>-3.147307692192726</v>
+      </c>
+      <c r="G20">
+        <v>-0.09665484876249897</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>55</v>
+      </c>
+      <c r="B21">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C21">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>-3.165797112063706</v>
+      </c>
+      <c r="G21">
+        <v>-0.1128712306621549</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>55</v>
+      </c>
+      <c r="B22">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C22">
+        <v>0.1090909090909091</v>
+      </c>
+      <c r="D22">
+        <v>49</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>-3.182967744055897</v>
+      </c>
+      <c r="G22">
+        <v>-0.1390477276892059</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>55</v>
+      </c>
+      <c r="B23">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C23">
+        <v>0.1272727272727273</v>
+      </c>
+      <c r="D23">
+        <v>48</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>-3.198819588169299</v>
+      </c>
+      <c r="G23">
+        <v>-0.1635411368495263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>55</v>
+      </c>
+      <c r="B24">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C24">
+        <v>0.1454545454545454</v>
+      </c>
+      <c r="D24">
+        <v>47</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>-3.214671432282702</v>
+      </c>
+      <c r="G24">
+        <v>-0.1827593944946968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>55</v>
+      </c>
+      <c r="B25">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C25">
+        <v>0.1636363636363636</v>
+      </c>
+      <c r="D25">
+        <v>46</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>-3.230523276396104</v>
+      </c>
+      <c r="G25">
+        <v>-0.1976569885155643</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>55</v>
+      </c>
+      <c r="B26">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C26">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="D26">
+        <v>45</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>-3.239416881127628</v>
+      </c>
+      <c r="G26">
+        <v>-0.2181940340395228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>55</v>
+      </c>
+      <c r="B27">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C27">
+        <v>0.2</v>
+      </c>
+      <c r="D27">
+        <v>44</v>
+      </c>
+      <c r="E27">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>-3.253949937362243</v>
+      </c>
+      <c r="G27">
+        <v>-0.2319142790590285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C28">
+        <v>0.2181818181818182</v>
+      </c>
+      <c r="D28">
+        <v>43</v>
+      </c>
+      <c r="E28">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>-3.247601518922541</v>
+      </c>
+      <c r="G28">
+        <v>-0.2357490746555473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>55</v>
+      </c>
+      <c r="B29">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C29">
+        <v>0.2363636363636364</v>
+      </c>
+      <c r="D29">
+        <v>42</v>
+      </c>
+      <c r="E29">
+        <v>13</v>
+      </c>
+      <c r="F29">
+        <v>-3.262134575157155</v>
+      </c>
+      <c r="G29">
+        <v>-0.2498300422227193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>55</v>
+      </c>
+      <c r="B30">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C30">
+        <v>0.2545454545454545</v>
+      </c>
+      <c r="D30">
+        <v>41</v>
+      </c>
+      <c r="E30">
+        <v>14</v>
+      </c>
+      <c r="F30">
+        <v>-3.257607106021334</v>
+      </c>
+      <c r="G30">
+        <v>-0.2499877744974537</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>55</v>
+      </c>
+      <c r="B31">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C31">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="D31">
+        <v>40</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>-3.258216926963511</v>
+      </c>
+      <c r="G31">
+        <v>-0.260420086928185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>55</v>
+      </c>
+      <c r="B32">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C32">
+        <v>0.2909090909090909</v>
+      </c>
+      <c r="D32">
+        <v>39</v>
+      </c>
+      <c r="E32">
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <v>-3.258826747905689</v>
+      </c>
+      <c r="G32">
+        <v>-0.25544052912492</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>55</v>
+      </c>
+      <c r="B33">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C33">
+        <v>0.3090909090909091</v>
+      </c>
+      <c r="D33">
+        <v>38</v>
+      </c>
+      <c r="E33">
+        <v>17</v>
+      </c>
+      <c r="F33">
+        <v>-3.254299278769867</v>
+      </c>
+      <c r="G33">
+        <v>-0.2562007712459589</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>55</v>
+      </c>
+      <c r="B34">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C34">
+        <v>0.3272727272727273</v>
+      </c>
+      <c r="D34">
+        <v>37</v>
+      </c>
+      <c r="E34">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>-3.253238161040811</v>
+      </c>
+      <c r="G34">
+        <v>-0.2694969252371524</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>55</v>
+      </c>
+      <c r="B35">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C35">
+        <v>0.3454545454545455</v>
+      </c>
+      <c r="D35">
+        <v>36</v>
+      </c>
+      <c r="E35">
+        <v>19</v>
+      </c>
+      <c r="F35">
+        <v>-3.243629161807225</v>
+      </c>
+      <c r="G35">
+        <v>-0.2645173674338874</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>55</v>
+      </c>
+      <c r="B36">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C36">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <v>-3.242079765568314</v>
+      </c>
+      <c r="G36">
+        <v>-0.2677089325857669</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>55</v>
+      </c>
+      <c r="B37">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C37">
+        <v>0.3818181818181818</v>
+      </c>
+      <c r="D37">
+        <v>34</v>
+      </c>
+      <c r="E37">
+        <v>21</v>
+      </c>
+      <c r="F37">
+        <v>-3.235881357761259</v>
+      </c>
+      <c r="G37">
+        <v>-0.2661957261892682</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>55</v>
+      </c>
+      <c r="B38">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C38">
+        <v>0.4</v>
+      </c>
+      <c r="D38">
+        <v>33</v>
+      </c>
+      <c r="E38">
+        <v>22</v>
+      </c>
+      <c r="F38">
+        <v>-3.233260821321438</v>
+      </c>
+      <c r="G38">
+        <v>-0.2682603911600026</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>55</v>
+      </c>
+      <c r="B39">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C39">
+        <v>0.4181818181818182</v>
+      </c>
+      <c r="D39">
+        <v>32</v>
+      </c>
+      <c r="E39">
+        <v>23</v>
+      </c>
+      <c r="F39">
+        <v>-3.227550692024238</v>
+      </c>
+      <c r="G39">
+        <v>-0.2659770699034785</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>55</v>
+      </c>
+      <c r="B40">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C40">
+        <v>0.4363636363636363</v>
+      </c>
+      <c r="D40">
+        <v>31</v>
+      </c>
+      <c r="E40">
+        <v>24</v>
+      </c>
+      <c r="F40">
+        <v>-3.223671762214537</v>
+      </c>
+      <c r="G40">
+        <v>-0.2616561069997709</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>55</v>
+      </c>
+      <c r="B41">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C41">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D41">
+        <v>30</v>
+      </c>
+      <c r="E41">
+        <v>25</v>
+      </c>
+      <c r="F41">
+        <v>-3.217473354407481</v>
+      </c>
+      <c r="G41">
+        <v>-0.2665285284777132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>55</v>
+      </c>
+      <c r="B42">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C42">
+        <v>0.4727272727272727</v>
+      </c>
+      <c r="D42">
+        <v>29</v>
+      </c>
+      <c r="E42">
+        <v>26</v>
+      </c>
+      <c r="F42">
+        <v>-3.212709753328288</v>
+      </c>
+      <c r="G42">
+        <v>-0.2635866123216315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>55</v>
+      </c>
+      <c r="B43">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C43">
+        <v>0.4909090909090909</v>
+      </c>
+      <c r="D43">
+        <v>28</v>
+      </c>
+      <c r="E43">
+        <v>27</v>
+      </c>
+      <c r="F43">
+        <v>-3.213087263013645</v>
+      </c>
+      <c r="G43">
+        <v>-0.2685147937798094</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>55</v>
+      </c>
+      <c r="B44">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C44">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="D44">
+        <v>27</v>
+      </c>
+      <c r="E44">
+        <v>28</v>
+      </c>
+      <c r="F44">
+        <v>-3.20317645420162</v>
+      </c>
+      <c r="G44">
+        <v>-0.266287232503519</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>55</v>
+      </c>
+      <c r="B45">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C45">
+        <v>0.5272727272727272</v>
+      </c>
+      <c r="D45">
+        <v>26</v>
+      </c>
+      <c r="E45">
+        <v>29</v>
+      </c>
+      <c r="F45">
+        <v>-3.194350523931891</v>
+      </c>
+      <c r="G45">
+        <v>-0.2614321487645541</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C46">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D46">
+        <v>25</v>
+      </c>
+      <c r="E46">
+        <v>30</v>
+      </c>
+      <c r="F46">
+        <v>-3.185524593662161</v>
+      </c>
+      <c r="G46">
+        <v>-0.2580057747851721</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C47">
+        <v>0.5636363636363636</v>
+      </c>
+      <c r="D47">
+        <v>24</v>
+      </c>
+      <c r="E47">
+        <v>31</v>
+      </c>
+      <c r="F47">
+        <v>-3.17598430851264</v>
+      </c>
+      <c r="G47">
+        <v>-0.252436336166415</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>55</v>
+      </c>
+      <c r="B48">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C48">
+        <v>0.5818181818181818</v>
+      </c>
+      <c r="D48">
+        <v>23</v>
+      </c>
+      <c r="E48">
+        <v>32</v>
+      </c>
+      <c r="F48">
+        <v>-3.167872733122702</v>
+      </c>
+      <c r="G48">
+        <v>-0.2475812524274497</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>55</v>
+      </c>
+      <c r="B49">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C49">
+        <v>0.6</v>
+      </c>
+      <c r="D49">
+        <v>22</v>
+      </c>
+      <c r="E49">
+        <v>33</v>
+      </c>
+      <c r="F49">
+        <v>-3.157618093093389</v>
+      </c>
+      <c r="G49">
+        <v>-0.2434405235682757</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C50">
+        <v>0.6181818181818182</v>
+      </c>
+      <c r="D50">
+        <v>21</v>
+      </c>
+      <c r="E50">
+        <v>34</v>
+      </c>
+      <c r="F50">
+        <v>-3.147363453064076</v>
+      </c>
+      <c r="G50">
+        <v>-0.2385854398293104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C51">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D51">
+        <v>20</v>
+      </c>
+      <c r="E51">
+        <v>35</v>
+      </c>
+      <c r="F51">
+        <v>-3.137823167914555</v>
+      </c>
+      <c r="G51">
+        <v>-0.2330160012105533</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C52">
+        <v>0.6545454545454545</v>
+      </c>
+      <c r="D52">
+        <v>19</v>
+      </c>
+      <c r="E52">
+        <v>36</v>
+      </c>
+      <c r="F52">
+        <v>-3.127568527885243</v>
+      </c>
+      <c r="G52">
+        <v>-0.2281609174715882</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>55</v>
+      </c>
+      <c r="B53">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C53">
+        <v>0.6727272727272727</v>
+      </c>
+      <c r="D53">
+        <v>18</v>
+      </c>
+      <c r="E53">
+        <v>37</v>
+      </c>
+      <c r="F53">
+        <v>-3.118028242735721</v>
+      </c>
+      <c r="G53">
+        <v>-0.2233058337326224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C54">
+        <v>0.6909090909090909</v>
+      </c>
+      <c r="D54">
+        <v>17</v>
+      </c>
+      <c r="E54">
+        <v>38</v>
+      </c>
+      <c r="F54">
+        <v>-3.107773602706408</v>
+      </c>
+      <c r="G54">
+        <v>-0.2177363951138652</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C55">
+        <v>0.7090909090909091</v>
+      </c>
+      <c r="D55">
+        <v>16</v>
+      </c>
+      <c r="E55">
+        <v>39</v>
+      </c>
+      <c r="F55">
+        <v>-3.095231126943821</v>
+      </c>
+      <c r="G55">
+        <v>-0.2098791207618338</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C56">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="D56">
+        <v>15</v>
+      </c>
+      <c r="E56">
+        <v>40</v>
+      </c>
+      <c r="F56">
+        <v>-3.082688651181232</v>
+      </c>
+      <c r="G56">
+        <v>-0.2020218464098009</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C57">
+        <v>0.7454545454545455</v>
+      </c>
+      <c r="D57">
+        <v>14</v>
+      </c>
+      <c r="E57">
+        <v>41</v>
+      </c>
+      <c r="F57">
+        <v>-3.070146175418644</v>
+      </c>
+      <c r="G57">
+        <v>-0.1941645720577682</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C58">
+        <v>0.7636363636363637</v>
+      </c>
+      <c r="D58">
+        <v>13</v>
+      </c>
+      <c r="E58">
+        <v>42</v>
+      </c>
+      <c r="F58">
+        <v>-3.050645298569179</v>
+      </c>
+      <c r="G58">
+        <v>-0.1723904955319853</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>55</v>
+      </c>
+      <c r="B59">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C59">
+        <v>0.7818181818181819</v>
+      </c>
+      <c r="D59">
+        <v>12</v>
+      </c>
+      <c r="E59">
+        <v>43</v>
+      </c>
+      <c r="F59">
+        <v>-3.039295213468389</v>
+      </c>
+      <c r="G59">
+        <v>-0.1714916222668279</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>55</v>
+      </c>
+      <c r="B60">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C60">
+        <v>0.8</v>
+      </c>
+      <c r="D60">
+        <v>11</v>
+      </c>
+      <c r="E60">
+        <v>44</v>
+      </c>
+      <c r="F60">
+        <v>-3.025560347044002</v>
+      </c>
+      <c r="G60">
+        <v>-0.1636343479147943</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>55</v>
+      </c>
+      <c r="B61">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C61">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61">
+        <v>45</v>
+      </c>
+      <c r="F61">
+        <v>-3.006059470194539</v>
+      </c>
+      <c r="G61">
+        <v>-0.1488186724758866</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>55</v>
+      </c>
+      <c r="B62">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C62">
+        <v>0.8363636363636363</v>
+      </c>
+      <c r="D62">
+        <v>9</v>
+      </c>
+      <c r="E62">
+        <v>46</v>
+      </c>
+      <c r="F62">
+        <v>-2.986492401536395</v>
+      </c>
+      <c r="G62">
+        <v>-0.1339368052282983</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>55</v>
+      </c>
+      <c r="B63">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C63">
+        <v>0.8545454545454545</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>47</v>
+      </c>
+      <c r="F63">
+        <v>-2.96692533287825</v>
+      </c>
+      <c r="G63">
+        <v>-0.119054937980709</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>55</v>
+      </c>
+      <c r="B64">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C64">
+        <v>0.8727272727272727</v>
+      </c>
+      <c r="D64">
+        <v>7</v>
+      </c>
+      <c r="E64">
+        <v>48</v>
+      </c>
+      <c r="F64">
+        <v>-2.947358264220105</v>
+      </c>
+      <c r="G64">
+        <v>-0.1041730707331202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>55</v>
+      </c>
+      <c r="B65">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C65">
+        <v>0.8909090909090909</v>
+      </c>
+      <c r="D65">
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>49</v>
+      </c>
+      <c r="F65">
+        <v>-2.927791195561962</v>
+      </c>
+      <c r="G65">
+        <v>-0.08929120348553266</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>55</v>
+      </c>
+      <c r="B66">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C66">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>50</v>
+      </c>
+      <c r="F66">
+        <v>-2.908224126903817</v>
+      </c>
+      <c r="G66">
+        <v>-0.07440933623794382</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>55</v>
+      </c>
+      <c r="B67">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C67">
+        <v>0.9272727272727272</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>51</v>
+      </c>
+      <c r="F67">
+        <v>-2.888657058245673</v>
+      </c>
+      <c r="G67">
+        <v>-0.05952746899035496</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>55</v>
+      </c>
+      <c r="B68">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C68">
+        <v>0.9454545454545454</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>52</v>
+      </c>
+      <c r="F68">
+        <v>-2.869089989587529</v>
+      </c>
+      <c r="G68">
+        <v>-0.04464560174276699</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>55</v>
+      </c>
+      <c r="B69">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C69">
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>53</v>
+      </c>
+      <c r="F69">
+        <v>-2.849522920929385</v>
+      </c>
+      <c r="G69">
+        <v>-0.02976373449517859</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>55</v>
+      </c>
+      <c r="B70">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C70">
+        <v>0.9818181818181818</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>54</v>
+      </c>
+      <c r="F70">
+        <v>-2.829955852271239</v>
+      </c>
+      <c r="G70">
+        <v>-0.01488186724758885</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>55</v>
+      </c>
+      <c r="B71">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>55</v>
+      </c>
+      <c r="F71">
+        <v>-2.810388783613095</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>147</v>
+      </c>
+      <c r="B72">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>147</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>-3.279596764814819</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>147</v>
+      </c>
+      <c r="B73">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C73">
+        <v>0.006802721088435374</v>
+      </c>
+      <c r="D73">
+        <v>146</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>-3.287007999006907</v>
+      </c>
+      <c r="G73">
+        <v>-0.009285055258635211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>147</v>
+      </c>
+      <c r="B74">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C74">
+        <v>0.01360544217687075</v>
+      </c>
+      <c r="D74">
+        <v>145</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>-3.294419233198997</v>
+      </c>
+      <c r="G74">
+        <v>-0.01857011051727131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>147</v>
+      </c>
+      <c r="B75">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C75">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="D75">
+        <v>144</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>-3.301830467391085</v>
+      </c>
+      <c r="G75">
+        <v>-0.02785516577590608</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>147</v>
+      </c>
+      <c r="B76">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C76">
+        <v>0.0272108843537415</v>
+      </c>
+      <c r="D76">
+        <v>143</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>-3.309241701583174</v>
+      </c>
+      <c r="G76">
+        <v>-0.03361112187727944</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>147</v>
+      </c>
+      <c r="B77">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C77">
+        <v>0.03401360544217687</v>
+      </c>
+      <c r="D77">
+        <v>142</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+      <c r="F77">
+        <v>-3.314606061045756</v>
+      </c>
+      <c r="G77">
+        <v>-0.04388497752738996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>147</v>
+      </c>
+      <c r="B78">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C78">
+        <v>0.04081632653061224</v>
+      </c>
+      <c r="D78">
+        <v>141</v>
+      </c>
+      <c r="E78">
+        <v>6</v>
+      </c>
+      <c r="F78">
+        <v>-3.320535070810088</v>
+      </c>
+      <c r="G78">
+        <v>-0.04934580522489984</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>147</v>
+      </c>
+      <c r="B79">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C79">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="D79">
+        <v>140</v>
+      </c>
+      <c r="E79">
+        <v>7</v>
+      </c>
+      <c r="F79">
+        <v>-3.325406006236389</v>
+      </c>
+      <c r="G79">
+        <v>-0.0589259888873972</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>147</v>
+      </c>
+      <c r="B80">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C80">
+        <v>0.05442176870748299</v>
+      </c>
+      <c r="D80">
+        <v>139</v>
+      </c>
+      <c r="E80">
+        <v>8</v>
+      </c>
+      <c r="F80">
+        <v>-3.328849156860736</v>
+      </c>
+      <c r="G80">
+        <v>-0.06424296057828993</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>147</v>
+      </c>
+      <c r="B81">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C81">
+        <v>0.06122448979591837</v>
+      </c>
+      <c r="D81">
+        <v>138</v>
+      </c>
+      <c r="E81">
+        <v>9</v>
+      </c>
+      <c r="F81">
+        <v>-3.339735050584286</v>
+      </c>
+      <c r="G81">
+        <v>-0.07700267536838679</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>147</v>
+      </c>
+      <c r="B82">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C82">
+        <v>0.06802721088435375</v>
+      </c>
+      <c r="D82">
+        <v>137</v>
+      </c>
+      <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="F82">
+        <v>-3.340554024631798</v>
+      </c>
+      <c r="G82">
+        <v>-0.07600873925560636</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>147</v>
+      </c>
+      <c r="B83">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C83">
+        <v>0.07482993197278912</v>
+      </c>
+      <c r="D83">
+        <v>136</v>
+      </c>
+      <c r="E83">
+        <v>11</v>
+      </c>
+      <c r="F83">
+        <v>-3.345819959384063</v>
+      </c>
+      <c r="G83">
+        <v>-0.08484918569729372</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>147</v>
+      </c>
+      <c r="B84">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C84">
+        <v>0.08163265306122448</v>
+      </c>
+      <c r="D84">
+        <v>135</v>
+      </c>
+      <c r="E84">
+        <v>12</v>
+      </c>
+      <c r="F84">
+        <v>-3.346761172663706</v>
+      </c>
+      <c r="G84">
+        <v>-0.08965026064744652</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>147</v>
+      </c>
+      <c r="B85">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C85">
+        <v>0.08843537414965986</v>
+      </c>
+      <c r="D85">
+        <v>134</v>
+      </c>
+      <c r="E85">
+        <v>13</v>
+      </c>
+      <c r="F85">
+        <v>-3.345263699817572</v>
+      </c>
+      <c r="G85">
+        <v>-0.08825240197286455</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>147</v>
+      </c>
+      <c r="B86">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C86">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="D86">
+        <v>133</v>
+      </c>
+      <c r="E86">
+        <v>14</v>
+      </c>
+      <c r="F86">
+        <v>-3.350289739320389</v>
+      </c>
+      <c r="G86">
+        <v>-0.09101348802096609</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>147</v>
+      </c>
+      <c r="B87">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C87">
+        <v>0.1020408163265306</v>
+      </c>
+      <c r="D87">
+        <v>132</v>
+      </c>
+      <c r="E87">
+        <v>15</v>
+      </c>
+      <c r="F87">
+        <v>-3.347712349977122</v>
+      </c>
+      <c r="G87">
+        <v>-0.08928421892288707</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>147</v>
+      </c>
+      <c r="B88">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C88">
+        <v>0.108843537414966</v>
+      </c>
+      <c r="D88">
+        <v>131</v>
+      </c>
+      <c r="E88">
+        <v>16</v>
+      </c>
+      <c r="F88">
+        <v>-3.362987815583576</v>
+      </c>
+      <c r="G88">
+        <v>-0.1104120777850932</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>147</v>
+      </c>
+      <c r="B89">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C89">
+        <v>0.1156462585034014</v>
+      </c>
+      <c r="D89">
+        <v>130</v>
+      </c>
+      <c r="E89">
+        <v>17</v>
+      </c>
+      <c r="F89">
+        <v>-3.367719697559932</v>
+      </c>
+      <c r="G89">
+        <v>-0.119977890876406</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>147</v>
+      </c>
+      <c r="B90">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C90">
+        <v>0.1224489795918367</v>
+      </c>
+      <c r="D90">
+        <v>129</v>
+      </c>
+      <c r="E90">
+        <v>18</v>
+      </c>
+      <c r="F90">
+        <v>-3.371627611347483</v>
+      </c>
+      <c r="G90">
+        <v>-0.1257596257305034</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>147</v>
+      </c>
+      <c r="B91">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C91">
+        <v>0.1292517006802721</v>
+      </c>
+      <c r="D91">
+        <v>128</v>
+      </c>
+      <c r="E91">
+        <v>19</v>
+      </c>
+      <c r="F91">
+        <v>-3.370366600615798</v>
+      </c>
+      <c r="G91">
+        <v>-0.1145747770838432</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>147</v>
+      </c>
+      <c r="B92">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C92">
+        <v>0.1360544217687075</v>
+      </c>
+      <c r="D92">
+        <v>127</v>
+      </c>
+      <c r="E92">
+        <v>20</v>
+      </c>
+      <c r="F92">
+        <v>-3.373675442835551</v>
+      </c>
+      <c r="G92">
+        <v>-0.1315550993516643</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>147</v>
+      </c>
+      <c r="B93">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C93">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D93">
+        <v>126</v>
+      </c>
+      <c r="E93">
+        <v>21</v>
+      </c>
+      <c r="F93">
+        <v>-3.375144566845931</v>
+      </c>
+      <c r="G93">
+        <v>-0.1133794004239532</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>147</v>
+      </c>
+      <c r="B94">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C94">
+        <v>0.1496598639455782</v>
+      </c>
+      <c r="D94">
+        <v>125</v>
+      </c>
+      <c r="E94">
+        <v>22</v>
+      </c>
+      <c r="F94">
+        <v>-3.374634261149128</v>
+      </c>
+      <c r="G94">
+        <v>-0.1305519531027151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>147</v>
+      </c>
+      <c r="B95">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C95">
+        <v>0.1564625850340136</v>
+      </c>
+      <c r="D95">
+        <v>124</v>
+      </c>
+      <c r="E95">
+        <v>23</v>
+      </c>
+      <c r="F95">
+        <v>-3.372719953516902</v>
+      </c>
+      <c r="G95">
+        <v>-0.1294686801489888</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>147</v>
+      </c>
+      <c r="B96">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C96">
+        <v>0.163265306122449</v>
+      </c>
+      <c r="D96">
+        <v>123</v>
+      </c>
+      <c r="E96">
+        <v>24</v>
+      </c>
+      <c r="F96">
+        <v>-3.378241081953428</v>
+      </c>
+      <c r="G96">
+        <v>-0.1394175482500937</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>147</v>
+      </c>
+      <c r="B97">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C97">
+        <v>0.1700680272108843</v>
+      </c>
+      <c r="D97">
+        <v>122</v>
+      </c>
+      <c r="E97">
+        <v>25</v>
+      </c>
+      <c r="F97">
+        <v>-3.375083998288808</v>
+      </c>
+      <c r="G97">
+        <v>-0.1423327601376538</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>147</v>
+      </c>
+      <c r="B98">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C98">
+        <v>0.1768707482993197</v>
+      </c>
+      <c r="D98">
+        <v>121</v>
+      </c>
+      <c r="E98">
+        <v>26</v>
+      </c>
+      <c r="F98">
+        <v>-3.375289266158735</v>
+      </c>
+      <c r="G98">
+        <v>-0.1444118490741286</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>147</v>
+      </c>
+      <c r="B99">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C99">
+        <v>0.1836734693877551</v>
+      </c>
+      <c r="D99">
+        <v>120</v>
+      </c>
+      <c r="E99">
+        <v>27</v>
+      </c>
+      <c r="F99">
+        <v>-3.378149825458888</v>
+      </c>
+      <c r="G99">
+        <v>-0.1447902289103005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>147</v>
+      </c>
+      <c r="B100">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C100">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="D100">
+        <v>119</v>
+      </c>
+      <c r="E100">
+        <v>28</v>
+      </c>
+      <c r="F100">
+        <v>-3.384576259657819</v>
+      </c>
+      <c r="G100">
+        <v>-0.1469088819782813</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>147</v>
+      </c>
+      <c r="B101">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C101">
+        <v>0.1972789115646258</v>
+      </c>
+      <c r="D101">
+        <v>118</v>
+      </c>
+      <c r="E101">
+        <v>29</v>
+      </c>
+      <c r="F101">
+        <v>-3.393313363151528</v>
+      </c>
+      <c r="G101">
+        <v>-0.1643123216409852</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>147</v>
+      </c>
+      <c r="B102">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C102">
+        <v>0.2040816326530612</v>
+      </c>
+      <c r="D102">
+        <v>117</v>
+      </c>
+      <c r="E102">
+        <v>30</v>
+      </c>
+      <c r="F102">
+        <v>-3.394718689528054</v>
+      </c>
+      <c r="G102">
+        <v>-0.1581729868318993</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>147</v>
+      </c>
+      <c r="B103">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C103">
+        <v>0.2108843537414966</v>
+      </c>
+      <c r="D103">
+        <v>116</v>
+      </c>
+      <c r="E103">
+        <v>31</v>
+      </c>
+      <c r="F103">
+        <v>-3.379636683619347</v>
+      </c>
+      <c r="G103">
+        <v>-0.1536820056709445</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>147</v>
+      </c>
+      <c r="B104">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C104">
+        <v>0.217687074829932</v>
+      </c>
+      <c r="D104">
+        <v>115</v>
+      </c>
+      <c r="E104">
+        <v>32</v>
+      </c>
+      <c r="F104">
+        <v>-3.38243464998782</v>
+      </c>
+      <c r="G104">
+        <v>-0.1628001593024928</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>147</v>
+      </c>
+      <c r="B105">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C105">
+        <v>0.2244897959183673</v>
+      </c>
+      <c r="D105">
+        <v>114</v>
+      </c>
+      <c r="E105">
+        <v>33</v>
+      </c>
+      <c r="F105">
+        <v>-3.38426309375923</v>
+      </c>
+      <c r="G105">
+        <v>-0.159964403379929</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>147</v>
+      </c>
+      <c r="B106">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C106">
+        <v>0.2312925170068027</v>
+      </c>
+      <c r="D106">
+        <v>113</v>
+      </c>
+      <c r="E106">
+        <v>34</v>
+      </c>
+      <c r="F106">
+        <v>-3.394337743824282</v>
+      </c>
+      <c r="G106">
+        <v>-0.1681568285589825</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>147</v>
+      </c>
+      <c r="B107">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C107">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="D107">
+        <v>112</v>
+      </c>
+      <c r="E107">
+        <v>35</v>
+      </c>
+      <c r="F107">
+        <v>-3.398403558105541</v>
+      </c>
+      <c r="G107">
+        <v>-0.1795804102608165</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>147</v>
+      </c>
+      <c r="B108">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C108">
+        <v>0.2448979591836735</v>
+      </c>
+      <c r="D108">
+        <v>111</v>
+      </c>
+      <c r="E108">
+        <v>36</v>
+      </c>
+      <c r="F108">
+        <v>-3.392738919615987</v>
+      </c>
+      <c r="G108">
+        <v>-0.1805997131968469</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>147</v>
+      </c>
+      <c r="B109">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C109">
+        <v>0.2517006802721088</v>
+      </c>
+      <c r="D109">
+        <v>110</v>
+      </c>
+      <c r="E109">
+        <v>37</v>
+      </c>
+      <c r="F109">
+        <v>-3.392479866697534</v>
+      </c>
+      <c r="G109">
+        <v>-0.175495400799615</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>147</v>
+      </c>
+      <c r="B110">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C110">
+        <v>0.2585034013605442</v>
+      </c>
+      <c r="D110">
+        <v>109</v>
+      </c>
+      <c r="E110">
+        <v>38</v>
+      </c>
+      <c r="F110">
+        <v>-3.390741811834406</v>
+      </c>
+      <c r="G110">
+        <v>-0.1823502475483587</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>147</v>
+      </c>
+      <c r="B111">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C111">
+        <v>0.2653061224489796</v>
+      </c>
+      <c r="D111">
+        <v>108</v>
+      </c>
+      <c r="E111">
+        <v>39</v>
+      </c>
+      <c r="F111">
+        <v>-3.398586755853353</v>
+      </c>
+      <c r="G111">
+        <v>-0.1920690126338518</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>147</v>
+      </c>
+      <c r="B112">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C112">
+        <v>0.272108843537415</v>
+      </c>
+      <c r="D112">
+        <v>107</v>
+      </c>
+      <c r="E112">
+        <v>40</v>
+      </c>
+      <c r="F112">
+        <v>-3.422274862538167</v>
+      </c>
+      <c r="G112">
+        <v>-0.2176309403852135</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>147</v>
+      </c>
+      <c r="B113">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C113">
+        <v>0.2789115646258503</v>
+      </c>
+      <c r="D113">
+        <v>106</v>
+      </c>
+      <c r="E113">
+        <v>41</v>
+      </c>
+      <c r="F113">
+        <v>-3.405699284620003</v>
+      </c>
+      <c r="G113">
+        <v>-0.2029291835335951</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>147</v>
+      </c>
+      <c r="B114">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C114">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D114">
+        <v>105</v>
+      </c>
+      <c r="E114">
+        <v>42</v>
+      </c>
+      <c r="F114">
+        <v>-3.411100187523968</v>
+      </c>
+      <c r="G114">
+        <v>-0.2102039075041073</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>147</v>
+      </c>
+      <c r="B115">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C115">
+        <v>0.2925170068027211</v>
+      </c>
+      <c r="D115">
+        <v>104</v>
+      </c>
+      <c r="E115">
+        <v>43</v>
+      </c>
+      <c r="F115">
+        <v>-3.403757998981912</v>
+      </c>
+      <c r="G115">
+        <v>-0.2047355400285973</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>147</v>
+      </c>
+      <c r="B116">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C116">
+        <v>0.2993197278911565</v>
+      </c>
+      <c r="D116">
+        <v>103</v>
+      </c>
+      <c r="E116">
+        <v>44</v>
+      </c>
+      <c r="F116">
+        <v>-3.411301791621526</v>
+      </c>
+      <c r="G116">
+        <v>-0.1902833116781149</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>147</v>
+      </c>
+      <c r="B117">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C117">
+        <v>0.3061224489795918</v>
+      </c>
+      <c r="D117">
+        <v>102</v>
+      </c>
+      <c r="E117">
+        <v>45</v>
+      </c>
+      <c r="F117">
+        <v>-3.405902629403333</v>
+      </c>
+      <c r="G117">
+        <v>-0.2099496587531098</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>147</v>
+      </c>
+      <c r="B118">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C118">
+        <v>0.3129251700680272</v>
+      </c>
+      <c r="D118">
+        <v>101</v>
+      </c>
+      <c r="E118">
+        <v>46</v>
+      </c>
+      <c r="F118">
+        <v>-3.409354365189396</v>
+      </c>
+      <c r="G118">
+        <v>-0.215953369435721</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>147</v>
+      </c>
+      <c r="B119">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C119">
+        <v>0.3197278911564626</v>
+      </c>
+      <c r="D119">
+        <v>100</v>
+      </c>
+      <c r="E119">
+        <v>47</v>
+      </c>
+      <c r="F119">
+        <v>-3.405611301513372</v>
+      </c>
+      <c r="G119">
+        <v>-0.2050606721876065</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>147</v>
+      </c>
+      <c r="B120">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C120">
+        <v>0.3265306122448979</v>
+      </c>
+      <c r="D120">
+        <v>99</v>
+      </c>
+      <c r="E120">
+        <v>48</v>
+      </c>
+      <c r="F120">
+        <v>-3.407778718992303</v>
+      </c>
+      <c r="G120">
+        <v>-0.2167205927199762</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>147</v>
+      </c>
+      <c r="B121">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C121">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D121">
+        <v>98</v>
+      </c>
+      <c r="E121">
+        <v>49</v>
+      </c>
+      <c r="F121">
+        <v>-3.406256824024331</v>
+      </c>
+      <c r="G121">
+        <v>-0.2184772914702955</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>147</v>
+      </c>
+      <c r="B122">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C122">
+        <v>0.3401360544217687</v>
+      </c>
+      <c r="D122">
+        <v>97</v>
+      </c>
+      <c r="E122">
+        <v>50</v>
+      </c>
+      <c r="F122">
+        <v>-3.411873545432833</v>
+      </c>
+      <c r="G122">
+        <v>-0.2231403292795791</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>147</v>
+      </c>
+      <c r="B123">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C123">
+        <v>0.3469387755102041</v>
+      </c>
+      <c r="D123">
+        <v>96</v>
+      </c>
+      <c r="E123">
+        <v>51</v>
+      </c>
+      <c r="F123">
+        <v>-3.410627612456151</v>
+      </c>
+      <c r="G123">
+        <v>-0.2265957220352091</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>147</v>
+      </c>
+      <c r="B124">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C124">
+        <v>0.3537414965986395</v>
+      </c>
+      <c r="D124">
+        <v>95</v>
+      </c>
+      <c r="E124">
+        <v>52</v>
+      </c>
+      <c r="F124">
+        <v>-3.414340193319759</v>
+      </c>
+      <c r="G124">
+        <v>-0.2210702372970439</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>147</v>
+      </c>
+      <c r="B125">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C125">
+        <v>0.3605442176870748</v>
+      </c>
+      <c r="D125">
+        <v>94</v>
+      </c>
+      <c r="E125">
+        <v>53</v>
+      </c>
+      <c r="F125">
+        <v>-3.409398104415472</v>
+      </c>
+      <c r="G125">
+        <v>-0.2291138561276234</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>147</v>
+      </c>
+      <c r="B126">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C126">
+        <v>0.3673469387755102</v>
+      </c>
+      <c r="D126">
+        <v>93</v>
+      </c>
+      <c r="E126">
+        <v>54</v>
+      </c>
+      <c r="F126">
+        <v>-3.406333428198974</v>
+      </c>
+      <c r="G126">
+        <v>-0.2239826514652883</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <v>147</v>
+      </c>
+      <c r="B127">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C127">
+        <v>0.3741496598639456</v>
+      </c>
+      <c r="D127">
+        <v>92</v>
+      </c>
+      <c r="E127">
+        <v>55</v>
+      </c>
+      <c r="F127">
+        <v>-3.407260882858848</v>
+      </c>
+      <c r="G127">
+        <v>-0.2301649029104311</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <v>147</v>
+      </c>
+      <c r="B128">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C128">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="D128">
+        <v>91</v>
+      </c>
+      <c r="E128">
+        <v>56</v>
+      </c>
+      <c r="F128">
+        <v>-3.405566407596327</v>
+      </c>
+      <c r="G128">
+        <v>-0.2300882809256866</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129">
+        <v>147</v>
+      </c>
+      <c r="B129">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C129">
+        <v>0.3877551020408163</v>
+      </c>
+      <c r="D129">
+        <v>90</v>
+      </c>
+      <c r="E129">
+        <v>57</v>
+      </c>
+      <c r="F129">
+        <v>-3.405459200483644</v>
+      </c>
+      <c r="G129">
+        <v>-0.2326702364619821</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <v>147</v>
+      </c>
+      <c r="B130">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C130">
+        <v>0.3945578231292517</v>
+      </c>
+      <c r="D130">
+        <v>89</v>
+      </c>
+      <c r="E130">
+        <v>58</v>
+      </c>
+      <c r="F130">
+        <v>-3.403087105155083</v>
+      </c>
+      <c r="G130">
+        <v>-0.2317691204506258</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131">
+        <v>147</v>
+      </c>
+      <c r="B131">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C131">
+        <v>0.4013605442176871</v>
+      </c>
+      <c r="D131">
+        <v>88</v>
+      </c>
+      <c r="E131">
+        <v>59</v>
+      </c>
+      <c r="F131">
+        <v>-3.401574065410646</v>
+      </c>
+      <c r="G131">
+        <v>-0.2312992029325993</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132">
+        <v>147</v>
+      </c>
+      <c r="B132">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C132">
+        <v>0.4081632653061225</v>
+      </c>
+      <c r="D132">
+        <v>87</v>
+      </c>
+      <c r="E132">
+        <v>60</v>
+      </c>
+      <c r="F132">
+        <v>-3.400396779689264</v>
+      </c>
+      <c r="G132">
+        <v>-0.2326844253406632</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>147</v>
+      </c>
+      <c r="B133">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C133">
+        <v>0.4149659863945578</v>
+      </c>
+      <c r="D133">
+        <v>86</v>
+      </c>
+      <c r="E133">
+        <v>61</v>
+      </c>
+      <c r="F133">
+        <v>-3.398488520890495</v>
+      </c>
+      <c r="G133">
+        <v>-0.2331948411350191</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>147</v>
+      </c>
+      <c r="B134">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C134">
+        <v>0.4217687074829932</v>
+      </c>
+      <c r="D134">
+        <v>85</v>
+      </c>
+      <c r="E134">
+        <v>62</v>
+      </c>
+      <c r="F134">
+        <v>-3.397107834839547</v>
+      </c>
+      <c r="G134">
+        <v>-0.2336879761506181</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>147</v>
+      </c>
+      <c r="B135">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C135">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D135">
+        <v>84</v>
+      </c>
+      <c r="E135">
+        <v>63</v>
+      </c>
+      <c r="F135">
+        <v>-3.395986238496536</v>
+      </c>
+      <c r="G135">
+        <v>-0.2328643915014408</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>147</v>
+      </c>
+      <c r="B136">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C136">
+        <v>0.4353741496598639</v>
+      </c>
+      <c r="D136">
+        <v>83</v>
+      </c>
+      <c r="E136">
+        <v>64</v>
+      </c>
+      <c r="F136">
+        <v>-3.394095260476523</v>
+      </c>
+      <c r="G136">
+        <v>-0.2336498865907779</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>147</v>
+      </c>
+      <c r="B137">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C137">
+        <v>0.4421768707482993</v>
+      </c>
+      <c r="D137">
+        <v>82</v>
+      </c>
+      <c r="E137">
+        <v>65</v>
+      </c>
+      <c r="F137">
+        <v>-3.392545735653523</v>
+      </c>
+      <c r="G137">
+        <v>-0.2341430216063765</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>147</v>
+      </c>
+      <c r="B138">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C138">
+        <v>0.4489795918367347</v>
+      </c>
+      <c r="D138">
+        <v>81</v>
+      </c>
+      <c r="E138">
+        <v>66</v>
+      </c>
+      <c r="F138">
+        <v>-3.389656629741439</v>
+      </c>
+      <c r="G138">
+        <v>-0.233050181871072</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>147</v>
+      </c>
+      <c r="B139">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C139">
+        <v>0.4557823129251701</v>
+      </c>
+      <c r="D139">
+        <v>80</v>
+      </c>
+      <c r="E139">
+        <v>67</v>
+      </c>
+      <c r="F139">
+        <v>-3.386636108081449</v>
+      </c>
+      <c r="G139">
+        <v>-0.2320717234554059</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <v>147</v>
+      </c>
+      <c r="B140">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C140">
+        <v>0.4625850340136055</v>
+      </c>
+      <c r="D140">
+        <v>79</v>
+      </c>
+      <c r="E140">
+        <v>68</v>
+      </c>
+      <c r="F140">
+        <v>-3.385117369163055</v>
+      </c>
+      <c r="G140">
+        <v>-0.2307320672120563</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <v>147</v>
+      </c>
+      <c r="B141">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C141">
+        <v>0.4693877551020408</v>
+      </c>
+      <c r="D141">
+        <v>78</v>
+      </c>
+      <c r="E141">
+        <v>69</v>
+      </c>
+      <c r="F141">
+        <v>-3.381351638117282</v>
+      </c>
+      <c r="G141">
+        <v>-0.227492791512222</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <v>147</v>
+      </c>
+      <c r="B142">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C142">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="D142">
+        <v>77</v>
+      </c>
+      <c r="E142">
+        <v>70</v>
+      </c>
+      <c r="F142">
+        <v>-3.377416685487562</v>
+      </c>
+      <c r="G142">
+        <v>-0.2285013479764328</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143">
+        <v>147</v>
+      </c>
+      <c r="B143">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C143">
+        <v>0.4829931972789115</v>
+      </c>
+      <c r="D143">
+        <v>76</v>
+      </c>
+      <c r="E143">
+        <v>71</v>
+      </c>
+      <c r="F143">
+        <v>-3.376119833073512</v>
+      </c>
+      <c r="G143">
+        <v>-0.229564363983503</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144">
+        <v>147</v>
+      </c>
+      <c r="B144">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C144">
+        <v>0.4897959183673469</v>
+      </c>
+      <c r="D144">
+        <v>75</v>
+      </c>
+      <c r="E144">
+        <v>72</v>
+      </c>
+      <c r="F144">
+        <v>-3.370552427384908</v>
+      </c>
+      <c r="G144">
+        <v>-0.2258707793614456</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145">
+        <v>147</v>
+      </c>
+      <c r="B145">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C145">
+        <v>0.4965986394557823</v>
+      </c>
+      <c r="D145">
+        <v>74</v>
+      </c>
+      <c r="E145">
+        <v>73</v>
+      </c>
+      <c r="F145">
+        <v>-3.364377386684935</v>
+      </c>
+      <c r="G145">
+        <v>-0.2210763703002074</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146">
+        <v>147</v>
+      </c>
+      <c r="B146">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C146">
+        <v>0.5034013605442177</v>
+      </c>
+      <c r="D146">
+        <v>73</v>
+      </c>
+      <c r="E146">
+        <v>74</v>
+      </c>
+      <c r="F146">
+        <v>-3.364793556374906</v>
+      </c>
+      <c r="G146">
+        <v>-0.2238595504845362</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C147">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="D147">
+        <v>72</v>
+      </c>
+      <c r="E147">
+        <v>75</v>
+      </c>
+      <c r="F147">
+        <v>-3.359372048231991</v>
+      </c>
+      <c r="G147">
+        <v>-0.2203118634081678</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C148">
+        <v>0.5170068027210885</v>
+      </c>
+      <c r="D148">
+        <v>71</v>
+      </c>
+      <c r="E148">
+        <v>76</v>
+      </c>
+      <c r="F148">
+        <v>-3.358581638200494</v>
+      </c>
+      <c r="G148">
+        <v>-0.2176146409570185</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C149">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="D149">
+        <v>70</v>
+      </c>
+      <c r="E149">
+        <v>77</v>
+      </c>
+      <c r="F149">
+        <v>-3.352519940769666</v>
+      </c>
+      <c r="G149">
+        <v>-0.215265603062204</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150">
+        <v>147</v>
+      </c>
+      <c r="B150">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C150">
+        <v>0.5306122448979592</v>
+      </c>
+      <c r="D150">
+        <v>69</v>
+      </c>
+      <c r="E150">
+        <v>78</v>
+      </c>
+      <c r="F150">
+        <v>-3.352917001160646</v>
+      </c>
+      <c r="G150">
+        <v>-0.2133584521464564</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151">
+        <v>147</v>
+      </c>
+      <c r="B151">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C151">
+        <v>0.5374149659863946</v>
+      </c>
+      <c r="D151">
+        <v>68</v>
+      </c>
+      <c r="E151">
+        <v>79</v>
+      </c>
+      <c r="F151">
+        <v>-3.35010110385768</v>
+      </c>
+      <c r="G151">
+        <v>-0.2131173100966113</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152">
+        <v>147</v>
+      </c>
+      <c r="B152">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C152">
+        <v>0.54421768707483</v>
+      </c>
+      <c r="D152">
+        <v>67</v>
+      </c>
+      <c r="E152">
+        <v>80</v>
+      </c>
+      <c r="F152">
+        <v>-3.346623321977878</v>
+      </c>
+      <c r="G152">
+        <v>-0.2169322424867879</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153">
+        <v>147</v>
+      </c>
+      <c r="B153">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C153">
+        <v>0.5510204081632653</v>
+      </c>
+      <c r="D153">
+        <v>66</v>
+      </c>
+      <c r="E153">
+        <v>81</v>
+      </c>
+      <c r="F153">
+        <v>-3.344083611118159</v>
+      </c>
+      <c r="G153">
+        <v>-0.2162663526936157</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154">
+        <v>147</v>
+      </c>
+      <c r="B154">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C154">
+        <v>0.5578231292517006</v>
+      </c>
+      <c r="D154">
+        <v>65</v>
+      </c>
+      <c r="E154">
+        <v>82</v>
+      </c>
+      <c r="F154">
+        <v>-3.338633098535693</v>
+      </c>
+      <c r="G154">
+        <v>-0.2125760450168246</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155">
+        <v>147</v>
+      </c>
+      <c r="B155">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C155">
+        <v>0.564625850340136</v>
+      </c>
+      <c r="D155">
+        <v>64</v>
+      </c>
+      <c r="E155">
+        <v>83</v>
+      </c>
+      <c r="F155">
+        <v>-3.337192350859191</v>
+      </c>
+      <c r="G155">
+        <v>-0.207802003874644</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156">
+        <v>147</v>
+      </c>
+      <c r="B156">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C156">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D156">
+        <v>63</v>
+      </c>
+      <c r="E156">
+        <v>84</v>
+      </c>
+      <c r="F156">
+        <v>-3.332307631829746</v>
+      </c>
+      <c r="G156">
+        <v>-0.2082173062125914</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157">
+        <v>147</v>
+      </c>
+      <c r="B157">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C157">
+        <v>0.5782312925170068</v>
+      </c>
+      <c r="D157">
+        <v>62</v>
+      </c>
+      <c r="E157">
+        <v>85</v>
+      </c>
+      <c r="F157">
+        <v>-3.329895635857927</v>
+      </c>
+      <c r="G157">
+        <v>-0.2025682834270099</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158">
+        <v>147</v>
+      </c>
+      <c r="B158">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C158">
+        <v>0.5850340136054422</v>
+      </c>
+      <c r="D158">
+        <v>61</v>
+      </c>
+      <c r="E158">
+        <v>86</v>
+      </c>
+      <c r="F158">
+        <v>-3.324788499993522</v>
+      </c>
+      <c r="G158">
+        <v>-0.1982961908894465</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159">
+        <v>147</v>
+      </c>
+      <c r="B159">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C159">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="D159">
+        <v>60</v>
+      </c>
+      <c r="E159">
+        <v>87</v>
+      </c>
+      <c r="F159">
+        <v>-3.32110359817156</v>
+      </c>
+      <c r="G159">
+        <v>-0.2021477905358631</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160">
+        <v>147</v>
+      </c>
+      <c r="B160">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C160">
+        <v>0.5986394557823129</v>
+      </c>
+      <c r="D160">
+        <v>59</v>
+      </c>
+      <c r="E160">
+        <v>88</v>
+      </c>
+      <c r="F160">
+        <v>-3.315661398919463</v>
+      </c>
+      <c r="G160">
+        <v>-0.2009061191696664</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161">
+        <v>147</v>
+      </c>
+      <c r="B161">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C161">
+        <v>0.6054421768707483</v>
+      </c>
+      <c r="D161">
+        <v>58</v>
+      </c>
+      <c r="E161">
+        <v>89</v>
+      </c>
+      <c r="F161">
+        <v>-3.31289131181742</v>
+      </c>
+      <c r="G161">
+        <v>-0.1969458248955078</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162">
+        <v>147</v>
+      </c>
+      <c r="B162">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C162">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="D162">
+        <v>57</v>
+      </c>
+      <c r="E162">
+        <v>90</v>
+      </c>
+      <c r="F162">
+        <v>-3.310508734787596</v>
+      </c>
+      <c r="G162">
+        <v>-0.1949503845778888</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163">
+        <v>147</v>
+      </c>
+      <c r="B163">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C163">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="D163">
+        <v>56</v>
+      </c>
+      <c r="E163">
+        <v>91</v>
+      </c>
+      <c r="F163">
+        <v>-3.304236163148754</v>
+      </c>
+      <c r="G163">
+        <v>-0.1945908350570758</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164">
+        <v>147</v>
+      </c>
+      <c r="B164">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C164">
+        <v>0.6258503401360545</v>
+      </c>
+      <c r="D164">
+        <v>55</v>
+      </c>
+      <c r="E164">
+        <v>92</v>
+      </c>
+      <c r="F164">
+        <v>-3.30271208098987</v>
+      </c>
+      <c r="G164">
+        <v>-0.1910160131409877</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165">
+        <v>147</v>
+      </c>
+      <c r="B165">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C165">
+        <v>0.6326530612244898</v>
+      </c>
+      <c r="D165">
+        <v>54</v>
+      </c>
+      <c r="E165">
+        <v>93</v>
+      </c>
+      <c r="F165">
+        <v>-3.295954550075303</v>
+      </c>
+      <c r="G165">
+        <v>-0.1893338767083659</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166">
+        <v>147</v>
+      </c>
+      <c r="B166">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C166">
+        <v>0.6394557823129252</v>
+      </c>
+      <c r="D166">
+        <v>53</v>
+      </c>
+      <c r="E166">
+        <v>94</v>
+      </c>
+      <c r="F166">
+        <v>-3.294080447658019</v>
+      </c>
+      <c r="G166">
+        <v>-0.1906228630985818</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167">
+        <v>147</v>
+      </c>
+      <c r="B167">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C167">
+        <v>0.6462585034013606</v>
+      </c>
+      <c r="D167">
+        <v>52</v>
+      </c>
+      <c r="E167">
+        <v>95</v>
+      </c>
+      <c r="F167">
+        <v>-3.287870263641572</v>
+      </c>
+      <c r="G167">
+        <v>-0.1843819933822457</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168">
+        <v>147</v>
+      </c>
+      <c r="B168">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C168">
+        <v>0.6530612244897959</v>
+      </c>
+      <c r="D168">
+        <v>51</v>
+      </c>
+      <c r="E168">
+        <v>96</v>
+      </c>
+      <c r="F168">
+        <v>-3.284713288882029</v>
+      </c>
+      <c r="G168">
+        <v>-0.1820475885604986</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169">
+        <v>147</v>
+      </c>
+      <c r="B169">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C169">
+        <v>0.6598639455782312</v>
+      </c>
+      <c r="D169">
+        <v>50</v>
+      </c>
+      <c r="E169">
+        <v>97</v>
+      </c>
+      <c r="F169">
+        <v>-3.283016484943867</v>
+      </c>
+      <c r="G169">
+        <v>-0.1851803635840692</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170">
+        <v>147</v>
+      </c>
+      <c r="B170">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C170">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D170">
+        <v>49</v>
+      </c>
+      <c r="E170">
+        <v>98</v>
+      </c>
+      <c r="F170">
+        <v>-3.279307227218276</v>
+      </c>
+      <c r="G170">
+        <v>-0.1793001924441542</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171">
+        <v>147</v>
+      </c>
+      <c r="B171">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C171">
+        <v>0.673469387755102</v>
+      </c>
+      <c r="D171">
+        <v>48</v>
+      </c>
+      <c r="E171">
+        <v>99</v>
+      </c>
+      <c r="F171">
+        <v>-3.273995614287013</v>
+      </c>
+      <c r="G171">
+        <v>-0.1791409764184122</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172">
+        <v>147</v>
+      </c>
+      <c r="B172">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C172">
+        <v>0.6802721088435374</v>
+      </c>
+      <c r="D172">
+        <v>47</v>
+      </c>
+      <c r="E172">
+        <v>100</v>
+      </c>
+      <c r="F172">
+        <v>-3.270604263245523</v>
+      </c>
+      <c r="G172">
+        <v>-0.1756850645357291</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173">
+        <v>147</v>
+      </c>
+      <c r="B173">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C173">
+        <v>0.6870748299319728</v>
+      </c>
+      <c r="D173">
+        <v>46</v>
+      </c>
+      <c r="E173">
+        <v>101</v>
+      </c>
+      <c r="F173">
+        <v>-3.263853755710016</v>
+      </c>
+      <c r="G173">
+        <v>-0.1715644402749996</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174">
+        <v>147</v>
+      </c>
+      <c r="B174">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C174">
+        <v>0.6938775510204082</v>
+      </c>
+      <c r="D174">
+        <v>45</v>
+      </c>
+      <c r="E174">
+        <v>102</v>
+      </c>
+      <c r="F174">
+        <v>-3.259929387007038</v>
+      </c>
+      <c r="G174">
+        <v>-0.1712163735733518</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175">
+        <v>147</v>
+      </c>
+      <c r="B175">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C175">
+        <v>0.7006802721088435</v>
+      </c>
+      <c r="D175">
+        <v>44</v>
+      </c>
+      <c r="E175">
+        <v>103</v>
+      </c>
+      <c r="F175">
+        <v>-3.254753671885561</v>
+      </c>
+      <c r="G175">
+        <v>-0.1668815230604718</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176">
+        <v>147</v>
+      </c>
+      <c r="B176">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C176">
+        <v>0.7074829931972789</v>
+      </c>
+      <c r="D176">
+        <v>43</v>
+      </c>
+      <c r="E176">
+        <v>104</v>
+      </c>
+      <c r="F176">
+        <v>-3.250612892768001</v>
+      </c>
+      <c r="G176">
+        <v>-0.1655222361654407</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177">
+        <v>147</v>
+      </c>
+      <c r="B177">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C177">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D177">
+        <v>42</v>
+      </c>
+      <c r="E177">
+        <v>105</v>
+      </c>
+      <c r="F177">
+        <v>-3.246108559957794</v>
+      </c>
+      <c r="G177">
+        <v>-0.1632630071303691</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178">
+        <v>147</v>
+      </c>
+      <c r="B178">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C178">
+        <v>0.7210884353741497</v>
+      </c>
+      <c r="D178">
+        <v>41</v>
+      </c>
+      <c r="E178">
+        <v>106</v>
+      </c>
+      <c r="F178">
+        <v>-3.241062496322646</v>
+      </c>
+      <c r="G178">
+        <v>-0.158936057637772</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179">
+        <v>147</v>
+      </c>
+      <c r="B179">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C179">
+        <v>0.7278911564625851</v>
+      </c>
+      <c r="D179">
+        <v>40</v>
+      </c>
+      <c r="E179">
+        <v>107</v>
+      </c>
+      <c r="F179">
+        <v>-3.237162482070296</v>
+      </c>
+      <c r="G179">
+        <v>-0.157458786953658</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180">
+        <v>147</v>
+      </c>
+      <c r="B180">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C180">
+        <v>0.7346938775510204</v>
+      </c>
+      <c r="D180">
+        <v>39</v>
+      </c>
+      <c r="E180">
+        <v>108</v>
+      </c>
+      <c r="F180">
+        <v>-3.231983031027585</v>
+      </c>
+      <c r="G180">
+        <v>-0.1547589413998007</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181">
+        <v>147</v>
+      </c>
+      <c r="B181">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C181">
+        <v>0.7414965986394558</v>
+      </c>
+      <c r="D181">
+        <v>38</v>
+      </c>
+      <c r="E181">
+        <v>109</v>
+      </c>
+      <c r="F181">
+        <v>-3.228395509840349</v>
+      </c>
+      <c r="G181">
+        <v>-0.1530452412791101</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182">
+        <v>147</v>
+      </c>
+      <c r="B182">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C182">
+        <v>0.7482993197278912</v>
+      </c>
+      <c r="D182">
+        <v>37</v>
+      </c>
+      <c r="E182">
+        <v>110</v>
+      </c>
+      <c r="F182">
+        <v>-3.221807453446737</v>
+      </c>
+      <c r="G182">
+        <v>-0.1479805858210953</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183">
+        <v>147</v>
+      </c>
+      <c r="B183">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C183">
+        <v>0.7551020408163265</v>
+      </c>
+      <c r="D183">
+        <v>36</v>
+      </c>
+      <c r="E183">
+        <v>111</v>
+      </c>
+      <c r="F183">
+        <v>-3.216927844833229</v>
+      </c>
+      <c r="G183">
+        <v>-0.1453252184050839</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184">
+        <v>147</v>
+      </c>
+      <c r="B184">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C184">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="D184">
+        <v>35</v>
+      </c>
+      <c r="E184">
+        <v>112</v>
+      </c>
+      <c r="F184">
+        <v>-3.212794794731611</v>
+      </c>
+      <c r="G184">
+        <v>-0.1430659893700127</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185">
+        <v>147</v>
+      </c>
+      <c r="B185">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C185">
+        <v>0.7687074829931972</v>
+      </c>
+      <c r="D185">
+        <v>34</v>
+      </c>
+      <c r="E185">
+        <v>113</v>
+      </c>
+      <c r="F185">
+        <v>-3.208539701589981</v>
+      </c>
+      <c r="G185">
+        <v>-0.139947597371337</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186">
+        <v>147</v>
+      </c>
+      <c r="B186">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C186">
+        <v>0.7755102040816326</v>
+      </c>
+      <c r="D186">
+        <v>33</v>
+      </c>
+      <c r="E186">
+        <v>114</v>
+      </c>
+      <c r="F186">
+        <v>-3.20354859409969</v>
+      </c>
+      <c r="G186">
+        <v>-0.1375674308711843</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187">
+        <v>147</v>
+      </c>
+      <c r="B187">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C187">
+        <v>0.782312925170068</v>
+      </c>
+      <c r="D187">
+        <v>32</v>
+      </c>
+      <c r="E187">
+        <v>115</v>
+      </c>
+      <c r="F187">
+        <v>-3.198114884340555</v>
+      </c>
+      <c r="G187">
+        <v>-0.1340075421785969</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188">
+        <v>147</v>
+      </c>
+      <c r="B188">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C188">
+        <v>0.7891156462585034</v>
+      </c>
+      <c r="D188">
+        <v>31</v>
+      </c>
+      <c r="E188">
+        <v>116</v>
+      </c>
+      <c r="F188">
+        <v>-3.193935609921418</v>
+      </c>
+      <c r="G188">
+        <v>-0.1317020888260066</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189">
+        <v>147</v>
+      </c>
+      <c r="B189">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C189">
+        <v>0.7959183673469388</v>
+      </c>
+      <c r="D189">
+        <v>30</v>
+      </c>
+      <c r="E189">
+        <v>117</v>
+      </c>
+      <c r="F189">
+        <v>-3.188710440628721</v>
+      </c>
+      <c r="G189">
+        <v>-0.1283507405998555</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190">
+        <v>147</v>
+      </c>
+      <c r="B190">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C190">
+        <v>0.8027210884353742</v>
+      </c>
+      <c r="D190">
+        <v>29</v>
+      </c>
+      <c r="E190">
+        <v>118</v>
+      </c>
+      <c r="F190">
+        <v>-3.182555894387097</v>
+      </c>
+      <c r="G190">
+        <v>-0.1240700154247778</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191">
+        <v>147</v>
+      </c>
+      <c r="B191">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C191">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="D191">
+        <v>28</v>
+      </c>
+      <c r="E191">
+        <v>119</v>
+      </c>
+      <c r="F191">
+        <v>-3.178234220417839</v>
+      </c>
+      <c r="G191">
+        <v>-0.1210682209725289</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192">
+        <v>147</v>
+      </c>
+      <c r="B192">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C192">
+        <v>0.8163265306122449</v>
+      </c>
+      <c r="D192">
+        <v>27</v>
+      </c>
+      <c r="E192">
+        <v>120</v>
+      </c>
+      <c r="F192">
+        <v>-3.173776631810758</v>
+      </c>
+      <c r="G192">
+        <v>-0.1177168727463781</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193">
+        <v>147</v>
+      </c>
+      <c r="B193">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C193">
+        <v>0.8231292517006803</v>
+      </c>
+      <c r="D193">
+        <v>26</v>
+      </c>
+      <c r="E193">
+        <v>121</v>
+      </c>
+      <c r="F193">
+        <v>-3.168318426668794</v>
+      </c>
+      <c r="G193">
+        <v>-0.1154540109061147</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194">
+        <v>147</v>
+      </c>
+      <c r="B194">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C194">
+        <v>0.8299319727891157</v>
+      </c>
+      <c r="D194">
+        <v>25</v>
+      </c>
+      <c r="E194">
+        <v>122</v>
+      </c>
+      <c r="F194">
+        <v>-3.162701112089868</v>
+      </c>
+      <c r="G194">
+        <v>-0.1110141762940766</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195">
+        <v>147</v>
+      </c>
+      <c r="B195">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C195">
+        <v>0.8367346938775511</v>
+      </c>
+      <c r="D195">
+        <v>24</v>
+      </c>
+      <c r="E195">
+        <v>123</v>
+      </c>
+      <c r="F195">
+        <v>-3.15679753254625</v>
+      </c>
+      <c r="G195">
+        <v>-0.1074297922186587</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196">
+        <v>147</v>
+      </c>
+      <c r="B196">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C196">
+        <v>0.8435374149659864</v>
+      </c>
+      <c r="D196">
+        <v>23</v>
+      </c>
+      <c r="E196">
+        <v>124</v>
+      </c>
+      <c r="F196">
+        <v>-3.15234140980362</v>
+      </c>
+      <c r="G196">
+        <v>-0.1043114798417756</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197">
+        <v>147</v>
+      </c>
+      <c r="B197">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C197">
+        <v>0.8503401360544217</v>
+      </c>
+      <c r="D197">
+        <v>22</v>
+      </c>
+      <c r="E197">
+        <v>125</v>
+      </c>
+      <c r="F197">
+        <v>-3.146329263112117</v>
+      </c>
+      <c r="G197">
+        <v>-0.1009601316156245</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198">
+        <v>147</v>
+      </c>
+      <c r="B198">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C198">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D198">
+        <v>21</v>
+      </c>
+      <c r="E198">
+        <v>126</v>
+      </c>
+      <c r="F198">
+        <v>-3.142116156290743</v>
+      </c>
+      <c r="G198">
+        <v>-0.09788061266511716</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199">
+        <v>147</v>
+      </c>
+      <c r="B199">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C199">
+        <v>0.8639455782312925</v>
+      </c>
+      <c r="D199">
+        <v>20</v>
+      </c>
+      <c r="E199">
+        <v>127</v>
+      </c>
+      <c r="F199">
+        <v>-3.136259320950249</v>
+      </c>
+      <c r="G199">
+        <v>-0.09463783158684974</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200">
+        <v>147</v>
+      </c>
+      <c r="B200">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C200">
+        <v>0.8707482993197279</v>
+      </c>
+      <c r="D200">
+        <v>19</v>
+      </c>
+      <c r="E200">
+        <v>128</v>
+      </c>
+      <c r="F200">
+        <v>-3.129560849816468</v>
+      </c>
+      <c r="G200">
+        <v>-0.08910683906523764</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201">
+        <v>147</v>
+      </c>
+      <c r="B201">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C201">
+        <v>0.8775510204081632</v>
+      </c>
+      <c r="D201">
+        <v>18</v>
+      </c>
+      <c r="E201">
+        <v>129</v>
+      </c>
+      <c r="F201">
+        <v>-3.125972244492614</v>
+      </c>
+      <c r="G201">
+        <v>-0.08589140547690821</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202">
+        <v>147</v>
+      </c>
+      <c r="B202">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C202">
+        <v>0.8843537414965986</v>
+      </c>
+      <c r="D202">
+        <v>17</v>
+      </c>
+      <c r="E202">
+        <v>130</v>
+      </c>
+      <c r="F202">
+        <v>-3.120185182873629</v>
+      </c>
+      <c r="G202">
+        <v>-0.08348734974576039</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203">
+        <v>147</v>
+      </c>
+      <c r="B203">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C203">
+        <v>0.891156462585034</v>
+      </c>
+      <c r="D203">
+        <v>16</v>
+      </c>
+      <c r="E203">
+        <v>131</v>
+      </c>
+      <c r="F203">
+        <v>-3.113586743397462</v>
+      </c>
+      <c r="G203">
+        <v>-0.07946053830024968</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204">
+        <v>147</v>
+      </c>
+      <c r="B204">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C204">
+        <v>0.8979591836734694</v>
+      </c>
+      <c r="D204">
+        <v>15</v>
+      </c>
+      <c r="E204">
+        <v>132</v>
+      </c>
+      <c r="F204">
+        <v>-3.107799681778478</v>
+      </c>
+      <c r="G204">
+        <v>-0.0755472977478116</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205">
+        <v>147</v>
+      </c>
+      <c r="B205">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C205">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="D205">
+        <v>14</v>
+      </c>
+      <c r="E205">
+        <v>133</v>
+      </c>
+      <c r="F205">
+        <v>-3.102012620159492</v>
+      </c>
+      <c r="G205">
+        <v>-0.07012487237408238</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206">
+        <v>147</v>
+      </c>
+      <c r="B206">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C206">
+        <v>0.9115646258503401</v>
+      </c>
+      <c r="D206">
+        <v>13</v>
+      </c>
+      <c r="E206">
+        <v>134</v>
+      </c>
+      <c r="F206">
+        <v>-3.097734743361797</v>
+      </c>
+      <c r="G206">
+        <v>-0.06621163182164386</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207">
+        <v>147</v>
+      </c>
+      <c r="B207">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C207">
+        <v>0.9183673469387755</v>
+      </c>
+      <c r="D207">
+        <v>12</v>
+      </c>
+      <c r="E207">
+        <v>135</v>
+      </c>
+      <c r="F207">
+        <v>-3.090438496921522</v>
+      </c>
+      <c r="G207">
+        <v>-0.06229839126920533</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208">
+        <v>147</v>
+      </c>
+      <c r="B208">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C208">
+        <v>0.9251700680272109</v>
+      </c>
+      <c r="D208">
+        <v>11</v>
+      </c>
+      <c r="E208">
+        <v>136</v>
+      </c>
+      <c r="F208">
+        <v>-3.083206655273238</v>
+      </c>
+      <c r="G208">
+        <v>-0.0584495555087588</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209">
+        <v>147</v>
+      </c>
+      <c r="B209">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C209">
+        <v>0.9319727891156463</v>
+      </c>
+      <c r="D209">
+        <v>10</v>
+      </c>
+      <c r="E209">
+        <v>137</v>
+      </c>
+      <c r="F209">
+        <v>-3.077355188862261</v>
+      </c>
+      <c r="G209">
+        <v>-0.05447191016432829</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210">
+        <v>147</v>
+      </c>
+      <c r="B210">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C210">
+        <v>0.9387755102040817</v>
+      </c>
+      <c r="D210">
+        <v>9</v>
+      </c>
+      <c r="E210">
+        <v>138</v>
+      </c>
+      <c r="F210">
+        <v>-3.070034176779282</v>
+      </c>
+      <c r="G210">
+        <v>-0.04902471914789536</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211">
+        <v>147</v>
+      </c>
+      <c r="B211">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C211">
+        <v>0.9455782312925171</v>
+      </c>
+      <c r="D211">
+        <v>8</v>
+      </c>
+      <c r="E211">
+        <v>139</v>
+      </c>
+      <c r="F211">
+        <v>-3.062713164696302</v>
+      </c>
+      <c r="G211">
+        <v>-0.04357752813146243</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212">
+        <v>147</v>
+      </c>
+      <c r="B212">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C212">
+        <v>0.9523809523809523</v>
+      </c>
+      <c r="D212">
+        <v>7</v>
+      </c>
+      <c r="E212">
+        <v>140</v>
+      </c>
+      <c r="F212">
+        <v>-3.055392152613323</v>
+      </c>
+      <c r="G212">
+        <v>-0.03813033711503003</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213">
+        <v>147</v>
+      </c>
+      <c r="B213">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C213">
+        <v>0.9591836734693877</v>
+      </c>
+      <c r="D213">
+        <v>6</v>
+      </c>
+      <c r="E213">
+        <v>141</v>
+      </c>
+      <c r="F213">
+        <v>-3.048071140530344</v>
+      </c>
+      <c r="G213">
+        <v>-0.03268314609859665</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214">
+        <v>147</v>
+      </c>
+      <c r="B214">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C214">
+        <v>0.9659863945578231</v>
+      </c>
+      <c r="D214">
+        <v>5</v>
+      </c>
+      <c r="E214">
+        <v>142</v>
+      </c>
+      <c r="F214">
+        <v>-3.040750128447364</v>
+      </c>
+      <c r="G214">
+        <v>-0.02723595508216418</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215">
+        <v>147</v>
+      </c>
+      <c r="B215">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C215">
+        <v>0.9727891156462585</v>
+      </c>
+      <c r="D215">
+        <v>4</v>
+      </c>
+      <c r="E215">
+        <v>143</v>
+      </c>
+      <c r="F215">
+        <v>-3.033429116364385</v>
+      </c>
+      <c r="G215">
+        <v>-0.0217887640657317</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216">
+        <v>147</v>
+      </c>
+      <c r="B216">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C216">
+        <v>0.9795918367346939</v>
+      </c>
+      <c r="D216">
+        <v>3</v>
+      </c>
+      <c r="E216">
+        <v>144</v>
+      </c>
+      <c r="F216">
+        <v>-3.026108104281406</v>
+      </c>
+      <c r="G216">
+        <v>-0.01634157304929877</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217">
+        <v>147</v>
+      </c>
+      <c r="B217">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C217">
+        <v>0.9863945578231292</v>
+      </c>
+      <c r="D217">
+        <v>2</v>
+      </c>
+      <c r="E217">
+        <v>145</v>
+      </c>
+      <c r="F217">
+        <v>-3.018787092198426</v>
+      </c>
+      <c r="G217">
+        <v>-0.01089438203286585</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218">
+        <v>147</v>
+      </c>
+      <c r="B218">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C218">
+        <v>0.9931972789115646</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218">
+        <v>146</v>
+      </c>
+      <c r="F218">
+        <v>-3.011466080115447</v>
+      </c>
+      <c r="G218">
+        <v>-0.005447191016433369</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219">
+        <v>147</v>
+      </c>
+      <c r="B219">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>147</v>
+      </c>
+      <c r="F219">
+        <v>-3.004145068032467</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220">
+        <v>309</v>
+      </c>
+      <c r="B220">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>309</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>-3.39825701976517</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221">
+        <v>309</v>
+      </c>
+      <c r="B221">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C221">
+        <v>0.0970873786407767</v>
+      </c>
+      <c r="D221">
+        <v>279</v>
+      </c>
+      <c r="E221">
+        <v>30</v>
+      </c>
+      <c r="F221">
+        <v>-3.447122314094338</v>
+      </c>
+      <c r="G221">
+        <v>-0.07616847893275391</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222">
+        <v>309</v>
+      </c>
+      <c r="B222">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C222">
+        <v>0.1974110032362459</v>
+      </c>
+      <c r="D222">
+        <v>248</v>
+      </c>
+      <c r="E222">
+        <v>61</v>
+      </c>
+      <c r="F222">
+        <v>-3.46780327671861</v>
+      </c>
+      <c r="G222">
+        <v>-0.1258908933861074</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223">
+        <v>309</v>
+      </c>
+      <c r="B223">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C223">
+        <v>0.2977346278317152</v>
+      </c>
+      <c r="D223">
+        <v>217</v>
+      </c>
+      <c r="E223">
+        <v>92</v>
+      </c>
+      <c r="F223">
+        <v>-3.483238961054659</v>
+      </c>
+      <c r="G223">
+        <v>-0.1530901700083933</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224">
+        <v>309</v>
+      </c>
+      <c r="B224">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C224">
+        <v>0.3980582524271845</v>
+      </c>
+      <c r="D224">
+        <v>186</v>
+      </c>
+      <c r="E224">
+        <v>123</v>
+      </c>
+      <c r="F224">
+        <v>-3.485855289195128</v>
+      </c>
+      <c r="G224">
+        <v>-0.198918720573305</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225">
+        <v>309</v>
+      </c>
+      <c r="B225">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C225">
+        <v>0.4983818770226537</v>
+      </c>
+      <c r="D225">
+        <v>155</v>
+      </c>
+      <c r="E225">
+        <v>154</v>
+      </c>
+      <c r="F225">
+        <v>-3.455939452516012</v>
+      </c>
+      <c r="G225">
+        <v>-0.1999295476792156</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226">
+        <v>309</v>
+      </c>
+      <c r="B226">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C226">
+        <v>0.598705501618123</v>
+      </c>
+      <c r="D226">
+        <v>124</v>
+      </c>
+      <c r="E226">
+        <v>185</v>
+      </c>
+      <c r="F226">
+        <v>-3.413247120138754</v>
+      </c>
+      <c r="G226">
+        <v>-0.1858713748005263</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227">
+        <v>309</v>
+      </c>
+      <c r="B227">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C227">
+        <v>0.6990291262135923</v>
+      </c>
+      <c r="D227">
+        <v>93</v>
+      </c>
+      <c r="E227">
+        <v>216</v>
+      </c>
+      <c r="F227">
+        <v>-3.356685089921478</v>
+      </c>
+      <c r="G227">
+        <v>-0.157943504081818</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228">
+        <v>309</v>
+      </c>
+      <c r="B228">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C228">
+        <v>0.7993527508090615</v>
+      </c>
+      <c r="D228">
+        <v>62</v>
+      </c>
+      <c r="E228">
+        <v>247</v>
+      </c>
+      <c r="F228">
+        <v>-3.286595417041898</v>
+      </c>
+      <c r="G228">
+        <v>-0.1164879907008068</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229">
+        <v>309</v>
+      </c>
+      <c r="B229">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C229">
+        <v>0.8996763754045307</v>
+      </c>
+      <c r="D229">
+        <v>31</v>
+      </c>
+      <c r="E229">
+        <v>278</v>
+      </c>
+      <c r="F229">
+        <v>-3.207781169849781</v>
+      </c>
+      <c r="G229">
+        <v>-0.06621312459654805</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230">
+        <v>309</v>
+      </c>
+      <c r="B230">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>309</v>
+      </c>
+      <c r="F230">
+        <v>-3.112839107343953</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231">
+        <v>561</v>
+      </c>
+      <c r="B231">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>561</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>-3.47384349626491</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232">
+        <v>561</v>
+      </c>
+      <c r="B232">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C232">
+        <v>0.09982174688057041</v>
+      </c>
+      <c r="D232">
+        <v>505</v>
+      </c>
+      <c r="E232">
+        <v>56</v>
+      </c>
+      <c r="F232">
+        <v>-3.512215791912553</v>
+      </c>
+      <c r="G232">
+        <v>-0.06749692566858467</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233">
+        <v>561</v>
+      </c>
+      <c r="B233">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C233">
+        <v>0.1996434937611408</v>
+      </c>
+      <c r="D233">
+        <v>449</v>
+      </c>
+      <c r="E233">
+        <v>112</v>
+      </c>
+      <c r="F233">
+        <v>-3.528701577675315</v>
+      </c>
+      <c r="G233">
+        <v>-0.1078262388067013</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234">
+        <v>561</v>
+      </c>
+      <c r="B234">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C234">
+        <v>0.2994652406417112</v>
+      </c>
+      <c r="D234">
+        <v>393</v>
+      </c>
+      <c r="E234">
+        <v>168</v>
+      </c>
+      <c r="F234">
+        <v>-3.533725828360986</v>
+      </c>
+      <c r="G234">
+        <v>-0.1459978776274147</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235">
+        <v>561</v>
+      </c>
+      <c r="B235">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C235">
+        <v>0.3992869875222816</v>
+      </c>
+      <c r="D235">
+        <v>337</v>
+      </c>
+      <c r="E235">
+        <v>224</v>
+      </c>
+      <c r="F235">
+        <v>-3.527273085883067</v>
+      </c>
+      <c r="G235">
+        <v>-0.1570678269093611</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236">
+        <v>561</v>
+      </c>
+      <c r="B236">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C236">
+        <v>0.499108734402852</v>
+      </c>
+      <c r="D236">
+        <v>281</v>
+      </c>
+      <c r="E236">
+        <v>280</v>
+      </c>
+      <c r="F236">
+        <v>-3.504877274241315</v>
+      </c>
+      <c r="G236">
+        <v>-0.1756070836852346</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237">
+        <v>561</v>
+      </c>
+      <c r="B237">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C237">
+        <v>0.5989304812834224</v>
+      </c>
+      <c r="D237">
+        <v>225</v>
+      </c>
+      <c r="E237">
+        <v>336</v>
+      </c>
+      <c r="F237">
+        <v>-3.470198759909089</v>
+      </c>
+      <c r="G237">
+        <v>-0.1692255472155559</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238">
+        <v>561</v>
+      </c>
+      <c r="B238">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C238">
+        <v>0.6987522281639929</v>
+      </c>
+      <c r="D238">
+        <v>169</v>
+      </c>
+      <c r="E238">
+        <v>392</v>
+      </c>
+      <c r="F238">
+        <v>-3.417745738498856</v>
+      </c>
+      <c r="G238">
+        <v>-0.1475987623783936</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239">
+        <v>561</v>
+      </c>
+      <c r="B239">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C239">
+        <v>0.7985739750445633</v>
+      </c>
+      <c r="D239">
+        <v>113</v>
+      </c>
+      <c r="E239">
+        <v>448</v>
+      </c>
+      <c r="F239">
+        <v>-3.352296317839797</v>
+      </c>
+      <c r="G239">
+        <v>-0.1092627032664408</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240">
+        <v>561</v>
+      </c>
+      <c r="B240">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C240">
+        <v>0.8983957219251337</v>
+      </c>
+      <c r="D240">
+        <v>57</v>
+      </c>
+      <c r="E240">
+        <v>504</v>
+      </c>
+      <c r="F240">
+        <v>-3.275685361331703</v>
+      </c>
+      <c r="G240">
+        <v>-0.06295947494581317</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241">
+        <v>561</v>
+      </c>
+      <c r="B241">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>561</v>
+      </c>
+      <c r="F241">
+        <v>-3.182077113376551</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242">
+        <v>923</v>
+      </c>
+      <c r="B242">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>923</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>-3.526105169360068</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243">
+        <v>923</v>
+      </c>
+      <c r="B243">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C243">
+        <v>0.09967497291440953</v>
+      </c>
+      <c r="D243">
+        <v>831</v>
+      </c>
+      <c r="E243">
+        <v>92</v>
+      </c>
+      <c r="F243">
+        <v>-3.556298047850264</v>
+      </c>
+      <c r="G243">
+        <v>-0.05809997355836849</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244">
+        <v>923</v>
+      </c>
+      <c r="B244">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C244">
+        <v>0.1993499458288191</v>
+      </c>
+      <c r="D244">
+        <v>739</v>
+      </c>
+      <c r="E244">
+        <v>184</v>
+      </c>
+      <c r="F244">
+        <v>-3.57179602015422</v>
+      </c>
+      <c r="G244">
+        <v>-0.09966186420595724</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245">
+        <v>923</v>
+      </c>
+      <c r="B245">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C245">
+        <v>0.2990249187432286</v>
+      </c>
+      <c r="D245">
+        <v>647</v>
+      </c>
+      <c r="E245">
+        <v>276</v>
+      </c>
+      <c r="F245">
+        <v>-3.571622842300549</v>
+      </c>
+      <c r="G245">
+        <v>-0.1277474113956698</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246">
+        <v>923</v>
+      </c>
+      <c r="B246">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C246">
+        <v>0.399783315276273</v>
+      </c>
+      <c r="D246">
+        <v>554</v>
+      </c>
+      <c r="E246">
+        <v>369</v>
+      </c>
+      <c r="F246">
+        <v>-3.560871895085728</v>
+      </c>
+      <c r="G246">
+        <v>-0.1462332857207449</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247">
+        <v>923</v>
+      </c>
+      <c r="B247">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C247">
+        <v>0.4994582881906826</v>
+      </c>
+      <c r="D247">
+        <v>462</v>
+      </c>
+      <c r="E247">
+        <v>461</v>
+      </c>
+      <c r="F247">
+        <v>-3.538723734766109</v>
+      </c>
+      <c r="G247">
+        <v>-0.1605360416784984</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248">
+        <v>923</v>
+      </c>
+      <c r="B248">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C248">
+        <v>0.5991332611050921</v>
+      </c>
+      <c r="D248">
+        <v>370</v>
+      </c>
+      <c r="E248">
+        <v>553</v>
+      </c>
+      <c r="F248">
+        <v>-3.504107634246066</v>
+      </c>
+      <c r="G248">
+        <v>-0.154714995394845</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249">
+        <v>923</v>
+      </c>
+      <c r="B249">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C249">
+        <v>0.6998916576381365</v>
+      </c>
+      <c r="D249">
+        <v>277</v>
+      </c>
+      <c r="E249">
+        <v>646</v>
+      </c>
+      <c r="F249">
+        <v>-3.456810021582855</v>
+      </c>
+      <c r="G249">
+        <v>-0.1379818363269243</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250">
+        <v>923</v>
+      </c>
+      <c r="B250">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C250">
+        <v>0.7995666305525461</v>
+      </c>
+      <c r="D250">
+        <v>185</v>
+      </c>
+      <c r="E250">
+        <v>738</v>
+      </c>
+      <c r="F250">
+        <v>-3.393872746346356</v>
+      </c>
+      <c r="G250">
+        <v>-0.1042490705988937</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251">
+        <v>923</v>
+      </c>
+      <c r="B251">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C251">
+        <v>0.8992416034669556</v>
+      </c>
+      <c r="D251">
+        <v>93</v>
+      </c>
+      <c r="E251">
+        <v>830</v>
+      </c>
+      <c r="F251">
+        <v>-3.31954541689903</v>
+      </c>
+      <c r="G251">
+        <v>-0.05975587727028298</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252">
+        <v>923</v>
+      </c>
+      <c r="B252">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>923</v>
+      </c>
+      <c r="F252">
+        <v>-3.229949354610659</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253">
+        <v>1415</v>
+      </c>
+      <c r="B253">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>1415</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>-3.564359030990466</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254">
+        <v>1415</v>
+      </c>
+      <c r="B254">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C254">
+        <v>0.09964664310954063</v>
+      </c>
+      <c r="D254">
+        <v>1274</v>
+      </c>
+      <c r="E254">
+        <v>141</v>
+      </c>
+      <c r="F254">
+        <v>-3.591334853519693</v>
+      </c>
+      <c r="G254">
+        <v>-0.05680691227413792</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255">
+        <v>1415</v>
+      </c>
+      <c r="B255">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C255">
+        <v>0.2</v>
+      </c>
+      <c r="D255">
+        <v>1132</v>
+      </c>
+      <c r="E255">
+        <v>283</v>
+      </c>
+      <c r="F255">
+        <v>-3.600962000030282</v>
+      </c>
+      <c r="G255">
+        <v>-0.09640327927995118</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256">
+        <v>1415</v>
+      </c>
+      <c r="B256">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C256">
+        <v>0.2996466431095406</v>
+      </c>
+      <c r="D256">
+        <v>991</v>
+      </c>
+      <c r="E256">
+        <v>424</v>
+      </c>
+      <c r="F256">
+        <v>-3.602542926678477</v>
+      </c>
+      <c r="G256">
+        <v>-0.1244814850404321</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257">
+        <v>1415</v>
+      </c>
+      <c r="B257">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C257">
+        <v>0.4</v>
+      </c>
+      <c r="D257">
+        <v>849</v>
+      </c>
+      <c r="E257">
+        <v>566</v>
+      </c>
+      <c r="F257">
+        <v>-3.585824101095037</v>
+      </c>
+      <c r="G257">
+        <v>-0.1406834929882246</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258">
+        <v>1415</v>
+      </c>
+      <c r="B258">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C258">
+        <v>0.4996466431095407</v>
+      </c>
+      <c r="D258">
+        <v>708</v>
+      </c>
+      <c r="E258">
+        <v>707</v>
+      </c>
+      <c r="F258">
+        <v>-3.562773098972065</v>
+      </c>
+      <c r="G258">
+        <v>-0.1438954172464451</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259">
+        <v>1415</v>
+      </c>
+      <c r="B259">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C259">
+        <v>0.6</v>
+      </c>
+      <c r="D259">
+        <v>566</v>
+      </c>
+      <c r="E259">
+        <v>849</v>
+      </c>
+      <c r="F259">
+        <v>-3.528867869602727</v>
+      </c>
+      <c r="G259">
+        <v>-0.1393848653661767</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260">
+        <v>1415</v>
+      </c>
+      <c r="B260">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C260">
+        <v>0.6996466431095406</v>
+      </c>
+      <c r="D260">
+        <v>425</v>
+      </c>
+      <c r="E260">
+        <v>990</v>
+      </c>
+      <c r="F260">
+        <v>-3.484445202130554</v>
+      </c>
+      <c r="G260">
+        <v>-0.1289264090343183</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261">
+        <v>1415</v>
+      </c>
+      <c r="B261">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C261">
+        <v>0.8</v>
+      </c>
+      <c r="D261">
+        <v>283</v>
+      </c>
+      <c r="E261">
+        <v>1132</v>
+      </c>
+      <c r="F261">
+        <v>-3.425874427516233</v>
+      </c>
+      <c r="G261">
+        <v>-0.100580683939869</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262">
+        <v>1415</v>
+      </c>
+      <c r="B262">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C262">
+        <v>0.8996466431095407</v>
+      </c>
+      <c r="D262">
+        <v>142</v>
+      </c>
+      <c r="E262">
+        <v>1273</v>
+      </c>
+      <c r="F262">
+        <v>-3.353065305862427</v>
+      </c>
+      <c r="G262">
+        <v>-0.05803235462567008</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263">
+        <v>1415</v>
+      </c>
+      <c r="B263">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>1415</v>
+      </c>
+      <c r="F263">
+        <v>-3.26499029347947</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264">
+        <v>2057</v>
+      </c>
+      <c r="B264">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>2057</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>-3.593556185708066</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265">
+        <v>2057</v>
+      </c>
+      <c r="B265">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C265">
+        <v>0.09965969859017987</v>
+      </c>
+      <c r="D265">
+        <v>1852</v>
+      </c>
+      <c r="E265">
+        <v>205</v>
+      </c>
+      <c r="F265">
+        <v>-3.615498090814959</v>
+      </c>
+      <c r="G265">
+        <v>-0.0489212574449529</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266">
+        <v>2057</v>
+      </c>
+      <c r="B266">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C266">
+        <v>0.1998055420515314</v>
+      </c>
+      <c r="D266">
+        <v>1646</v>
+      </c>
+      <c r="E266">
+        <v>411</v>
+      </c>
+      <c r="F266">
+        <v>-3.625327142848711</v>
+      </c>
+      <c r="G266">
+        <v>-0.08815219948901909</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267">
+        <v>2057</v>
+      </c>
+      <c r="B267">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C267">
+        <v>0.2999513855128829</v>
+      </c>
+      <c r="D267">
+        <v>1440</v>
+      </c>
+      <c r="E267">
+        <v>617</v>
+      </c>
+      <c r="F267">
+        <v>-3.624469323549441</v>
+      </c>
+      <c r="G267">
+        <v>-0.1183791627993411</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268">
+        <v>2057</v>
+      </c>
+      <c r="B268">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C268">
+        <v>0.3996110841030627</v>
+      </c>
+      <c r="D268">
+        <v>1235</v>
+      </c>
+      <c r="E268">
+        <v>822</v>
+      </c>
+      <c r="F268">
+        <v>-3.611175506941403</v>
+      </c>
+      <c r="G268">
+        <v>-0.1348384899372044</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269">
+        <v>2057</v>
+      </c>
+      <c r="B269">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C269">
+        <v>0.4997569275644142</v>
+      </c>
+      <c r="D269">
+        <v>1029</v>
+      </c>
+      <c r="E269">
+        <v>1028</v>
+      </c>
+      <c r="F269">
+        <v>-3.586555686711873</v>
+      </c>
+      <c r="G269">
+        <v>-0.1411220284489183</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270">
+        <v>2057</v>
+      </c>
+      <c r="B270">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C270">
+        <v>0.5999027710257657</v>
+      </c>
+      <c r="D270">
+        <v>823</v>
+      </c>
+      <c r="E270">
+        <v>1234</v>
+      </c>
+      <c r="F270">
+        <v>-3.547310045083961</v>
+      </c>
+      <c r="G270">
+        <v>-0.1348171088158139</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271">
+        <v>2057</v>
+      </c>
+      <c r="B271">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C271">
+        <v>0.6995624696159456</v>
+      </c>
+      <c r="D271">
+        <v>618</v>
+      </c>
+      <c r="E271">
+        <v>1439</v>
+      </c>
+      <c r="F271">
+        <v>-3.503353853689128</v>
+      </c>
+      <c r="G271">
+        <v>-0.119341779525334</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272">
+        <v>2057</v>
+      </c>
+      <c r="B272">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C272">
+        <v>0.7997083130772971</v>
+      </c>
+      <c r="D272">
+        <v>412</v>
+      </c>
+      <c r="E272">
+        <v>1645</v>
+      </c>
+      <c r="F272">
+        <v>-3.449020394828937</v>
+      </c>
+      <c r="G272">
+        <v>-0.09683296546500908</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273">
+        <v>2057</v>
+      </c>
+      <c r="B273">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C273">
+        <v>0.8998541565386485</v>
+      </c>
+      <c r="D273">
+        <v>206</v>
+      </c>
+      <c r="E273">
+        <v>1851</v>
+      </c>
+      <c r="F273">
+        <v>-3.378371062767552</v>
+      </c>
+      <c r="G273">
+        <v>-0.05564420073846643</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274">
+        <v>2057</v>
+      </c>
+      <c r="B274">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>2057</v>
+      </c>
+      <c r="F274">
+        <v>-3.291735193732447</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275">
+        <v>2869</v>
+      </c>
+      <c r="B275">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>2869</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <v>-3.616565425851922</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276">
+        <v>2869</v>
+      </c>
+      <c r="B276">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C276">
+        <v>0.09968630184733357</v>
+      </c>
+      <c r="D276">
+        <v>2583</v>
+      </c>
+      <c r="E276">
+        <v>286</v>
+      </c>
+      <c r="F276">
+        <v>-3.63571408594657</v>
+      </c>
+      <c r="G276">
+        <v>-0.04942872583258895</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277">
+        <v>2869</v>
+      </c>
+      <c r="B277">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C277">
+        <v>0.1997211571976298</v>
+      </c>
+      <c r="D277">
+        <v>2296</v>
+      </c>
+      <c r="E277">
+        <v>573</v>
+      </c>
+      <c r="F277">
+        <v>-3.642493018482054</v>
+      </c>
+      <c r="G277">
+        <v>-0.08640433396718405</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278">
+        <v>2869</v>
+      </c>
+      <c r="B278">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C278">
+        <v>0.2997560125479261</v>
+      </c>
+      <c r="D278">
+        <v>2009</v>
+      </c>
+      <c r="E278">
+        <v>860</v>
+      </c>
+      <c r="F278">
+        <v>-3.640647520064646</v>
+      </c>
+      <c r="G278">
+        <v>-0.1151340401379999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279">
+        <v>2869</v>
+      </c>
+      <c r="B279">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C279">
+        <v>0.3997908678982224</v>
+      </c>
+      <c r="D279">
+        <v>1722</v>
+      </c>
+      <c r="E279">
+        <v>1147</v>
+      </c>
+      <c r="F279">
+        <v>-3.627944876943744</v>
+      </c>
+      <c r="G279">
+        <v>-0.1257899535178972</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280">
+        <v>2869</v>
+      </c>
+      <c r="B280">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C280">
+        <v>0.4998257232485186</v>
+      </c>
+      <c r="D280">
+        <v>1435</v>
+      </c>
+      <c r="E280">
+        <v>1434</v>
+      </c>
+      <c r="F280">
+        <v>-3.600338692685163</v>
+      </c>
+      <c r="G280">
+        <v>-0.1337038364798744</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281">
+        <v>2869</v>
+      </c>
+      <c r="B281">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C281">
+        <v>0.5998605785988149</v>
+      </c>
+      <c r="D281">
+        <v>1148</v>
+      </c>
+      <c r="E281">
+        <v>1721</v>
+      </c>
+      <c r="F281">
+        <v>-3.563982642719883</v>
+      </c>
+      <c r="G281">
+        <v>-0.1296269830742385</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282">
+        <v>2869</v>
+      </c>
+      <c r="B282">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C282">
+        <v>0.6998954339491111</v>
+      </c>
+      <c r="D282">
+        <v>861</v>
+      </c>
+      <c r="E282">
+        <v>2008</v>
+      </c>
+      <c r="F282">
+        <v>-3.517199108564885</v>
+      </c>
+      <c r="G282">
+        <v>-0.1127440811528229</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283">
+        <v>2869</v>
+      </c>
+      <c r="B283">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C283">
+        <v>0.7999302892994075</v>
+      </c>
+      <c r="D283">
+        <v>574</v>
+      </c>
+      <c r="E283">
+        <v>2295</v>
+      </c>
+      <c r="F283">
+        <v>-3.466887099261346</v>
+      </c>
+      <c r="G283">
+        <v>-0.09309588732021556</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284">
+        <v>2869</v>
+      </c>
+      <c r="B284">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C284">
+        <v>0.8999651446497037</v>
+      </c>
+      <c r="D284">
+        <v>287</v>
+      </c>
+      <c r="E284">
+        <v>2582</v>
+      </c>
+      <c r="F284">
+        <v>-3.398581664729062</v>
+      </c>
+      <c r="G284">
+        <v>-0.05428039731936468</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285">
+        <v>2869</v>
+      </c>
+      <c r="B285">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>2869</v>
+      </c>
+      <c r="F285">
+        <v>-3.312811899270975</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286">
+        <v>3871</v>
+      </c>
+      <c r="B286">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>3871</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>-3.635161825666167</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287">
+        <v>3871</v>
+      </c>
+      <c r="B287">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C287">
+        <v>0.09997416688194265</v>
+      </c>
+      <c r="D287">
+        <v>3484</v>
+      </c>
+      <c r="E287">
+        <v>387</v>
+      </c>
+      <c r="F287">
+        <v>-3.654695341166304</v>
+      </c>
+      <c r="G287">
+        <v>-0.04853408406655424</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288">
+        <v>3871</v>
+      </c>
+      <c r="B288">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C288">
+        <v>0.1999483337638853</v>
+      </c>
+      <c r="D288">
+        <v>3097</v>
+      </c>
+      <c r="E288">
+        <v>774</v>
+      </c>
+      <c r="F288">
+        <v>-3.659519779158968</v>
+      </c>
+      <c r="G288">
+        <v>-0.08424200050009301</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289">
+        <v>3871</v>
+      </c>
+      <c r="B289">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C289">
+        <v>0.2999225006458279</v>
+      </c>
+      <c r="D289">
+        <v>2710</v>
+      </c>
+      <c r="E289">
+        <v>1161</v>
+      </c>
+      <c r="F289">
+        <v>-3.652893575029117</v>
+      </c>
+      <c r="G289">
+        <v>-0.1086445770335449</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290">
+        <v>3871</v>
+      </c>
+      <c r="B290">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C290">
+        <v>0.3998966675277706</v>
+      </c>
+      <c r="D290">
+        <v>2323</v>
+      </c>
+      <c r="E290">
+        <v>1548</v>
+      </c>
+      <c r="F290">
+        <v>-3.6398398419023</v>
+      </c>
+      <c r="G290">
+        <v>-0.126772638809038</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291">
+        <v>3871</v>
+      </c>
+      <c r="B291">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C291">
+        <v>0.4998708344097132</v>
+      </c>
+      <c r="D291">
+        <v>1936</v>
+      </c>
+      <c r="E291">
+        <v>1935</v>
+      </c>
+      <c r="F291">
+        <v>-3.613377026037021</v>
+      </c>
+      <c r="G291">
+        <v>-0.1282639793163354</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292">
+        <v>3871</v>
+      </c>
+      <c r="B292">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C292">
+        <v>0.5998450012916559</v>
+      </c>
+      <c r="D292">
+        <v>1549</v>
+      </c>
+      <c r="E292">
+        <v>2322</v>
+      </c>
+      <c r="F292">
+        <v>-3.577184507569556</v>
+      </c>
+      <c r="G292">
+        <v>-0.1222728099897032</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293">
+        <v>3871</v>
+      </c>
+      <c r="B293">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C293">
+        <v>0.6998191681735986</v>
+      </c>
+      <c r="D293">
+        <v>1162</v>
+      </c>
+      <c r="E293">
+        <v>2709</v>
+      </c>
+      <c r="F293">
+        <v>-3.531207578373011</v>
+      </c>
+      <c r="G293">
+        <v>-0.1097113422094262</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294">
+        <v>3871</v>
+      </c>
+      <c r="B294">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C294">
+        <v>0.7997933350555412</v>
+      </c>
+      <c r="D294">
+        <v>775</v>
+      </c>
+      <c r="E294">
+        <v>3096</v>
+      </c>
+      <c r="F294">
+        <v>-3.481839274744096</v>
+      </c>
+      <c r="G294">
+        <v>-0.09064246232749507</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295">
+        <v>3871</v>
+      </c>
+      <c r="B295">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C295">
+        <v>0.8997675019374839</v>
+      </c>
+      <c r="D295">
+        <v>388</v>
+      </c>
+      <c r="E295">
+        <v>3483</v>
+      </c>
+      <c r="F295">
+        <v>-3.414804529450239</v>
+      </c>
+      <c r="G295">
+        <v>-0.05429580161063896</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296">
+        <v>3871</v>
+      </c>
+      <c r="B296">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <v>3871</v>
+      </c>
+      <c r="F296">
+        <v>-3.329846396738705</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-3.253238161040811</v>
+        <v>-3.253293921021045</v>
       </c>
       <c r="G34">
         <v>-0.2694969252371524</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-3.243629161807225</v>
+        <v>-3.245424574542757</v>
       </c>
       <c r="G35">
         <v>-0.2645173674338874</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.212709753328288</v>
+        <v>-3.214138463087869</v>
       </c>
       <c r="G42">
         <v>-0.2635866123216315</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-3.157618093093389</v>
+        <v>-3.158332447973181</v>
       </c>
       <c r="G49">
         <v>-0.2434405235682757</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.147363453064076</v>
+        <v>-3.148077807943868</v>
       </c>
       <c r="G50">
         <v>-0.2385854398293104</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-3.050645298569179</v>
+        <v>-3.057603699656055</v>
       </c>
       <c r="G58">
         <v>-0.1723904955319853</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-3.320535070810088</v>
+        <v>-3.321954171105651</v>
       </c>
       <c r="G78">
         <v>-0.04934580522489984</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-3.325406006236389</v>
+        <v>-3.326825106531953</v>
       </c>
       <c r="G79">
         <v>-0.0589259888873972</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-3.328849156860736</v>
+        <v>-3.329286188952303</v>
       </c>
       <c r="G80">
         <v>-0.06424296057828993</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-3.340554024631798</v>
+        <v>-3.343671625244915</v>
       </c>
       <c r="G82">
         <v>-0.07600873925560636</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-3.345263699817572</v>
+        <v>-3.349248632426342</v>
       </c>
       <c r="G85">
         <v>-0.08825240197286455</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-3.350289739320389</v>
+        <v>-3.359239708287904</v>
       </c>
       <c r="G86">
         <v>-0.09101348802096609</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-3.347712349977122</v>
+        <v>-3.357205934845022</v>
       </c>
       <c r="G87">
         <v>-0.08928421892288707</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-3.362987815583576</v>
+        <v>-3.363317247130718</v>
       </c>
       <c r="G88">
         <v>-0.1104120777850932</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-3.375083998288808</v>
+        <v>-3.379979287494227</v>
       </c>
       <c r="G97">
         <v>-0.1423327601376538</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-3.375289266158735</v>
+        <v>-3.386134219705829</v>
       </c>
       <c r="G98">
         <v>-0.1444118490741286</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-3.379636683619347</v>
+        <v>-3.388595656315105</v>
       </c>
       <c r="G103">
         <v>-0.1536820056709445</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-3.394337743824282</v>
+        <v>-3.39651918227836</v>
       </c>
       <c r="G106">
         <v>-0.1681568285589825</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-3.392738919615987</v>
+        <v>-3.399587424617267</v>
       </c>
       <c r="G108">
         <v>-0.1805997131968469</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-3.409354365189396</v>
+        <v>-3.412871955018921</v>
       </c>
       <c r="G118">
         <v>-0.215953369435721</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-3.405611301513372</v>
+        <v>-3.406150978112427</v>
       </c>
       <c r="G119">
         <v>-0.2050606721876065</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-3.405566407596327</v>
+        <v>-3.405961626650659</v>
       </c>
       <c r="G128">
         <v>-0.2300882809256866</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-3.398488520890495</v>
+        <v>-3.398507725190302</v>
       </c>
       <c r="G133">
         <v>-0.2331948411350191</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.364377386684935</v>
+        <v>-3.366760502099098</v>
       </c>
       <c r="G145">
         <v>-0.2210763703002074</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.359372048231991</v>
+        <v>-3.360835009528</v>
       </c>
       <c r="G147">
         <v>-0.2203118634081678</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.304236163148754</v>
+        <v>-3.305484739287091</v>
       </c>
       <c r="G163">
         <v>-0.1945908350570758</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.30271208098987</v>
+        <v>-3.302832872308479</v>
       </c>
       <c r="G164">
         <v>-0.1910160131409877</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.295954550075303</v>
+        <v>-3.298479070156221</v>
       </c>
       <c r="G165">
         <v>-0.1893338767083659</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.287870263641572</v>
+        <v>-3.289535693874191</v>
       </c>
       <c r="G167">
         <v>-0.1843819933822457</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.284713288882029</v>
+        <v>-3.287272924378664</v>
       </c>
       <c r="G168">
         <v>-0.1820475885604986</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.263853755710016</v>
+        <v>-3.264018513550107</v>
       </c>
       <c r="G173">
         <v>-0.1715644402749996</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.241062496322646</v>
+        <v>-3.241337257327191</v>
       </c>
       <c r="G178">
         <v>-0.158936057637772</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.237162482070296</v>
+        <v>-3.237341587727846</v>
       </c>
       <c r="G179">
         <v>-0.157458786953658</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.212794794731611</v>
+        <v>-3.212864488831325</v>
       </c>
       <c r="G184">
         <v>-0.1430659893700127</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.182555894387097</v>
+        <v>-3.183226353861268</v>
       </c>
       <c r="G190">
         <v>-0.1240700154247778</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.15679753254625</v>
+        <v>-3.157004686770029</v>
       </c>
       <c r="G195">
         <v>-0.1074297922186587</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.146329263112117</v>
+        <v>-3.146554348184635</v>
       </c>
       <c r="G197">
         <v>-0.1009601316156245</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.129560849816468</v>
+        <v>-3.13106149914749</v>
       </c>
       <c r="G200">
         <v>-0.08910683906523764</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.125972244492614</v>
+        <v>-3.12606141492731</v>
       </c>
       <c r="G201">
         <v>-0.08589140547690821</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.120185182873629</v>
+        <v>-3.120882989837738</v>
       </c>
       <c r="G202">
         <v>-0.08348734974576039</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.113586743397462</v>
+        <v>-3.114398121254644</v>
       </c>
       <c r="G203">
         <v>-0.07946053830024968</v>
@@ -5176,7 +5176,7 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-3.083206655273238</v>
+        <v>-3.084651435302537</v>
       </c>
       <c r="G208">
         <v>-0.0584495555087588</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-3.447122314094338</v>
+        <v>-3.447980899032223</v>
       </c>
       <c r="G221">
         <v>-0.07616847893275391</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.413247120138754</v>
+        <v>-3.414654471517561</v>
       </c>
       <c r="G226">
         <v>-0.1858713748005263</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.504877274241315</v>
+        <v>-3.507608865731854</v>
       </c>
       <c r="G236">
         <v>-0.1756070836852346</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.470198759909089</v>
+        <v>-3.470575133481999</v>
       </c>
       <c r="G237">
         <v>-0.1692255472155559</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.352296317839797</v>
+        <v>-3.352419937883466</v>
       </c>
       <c r="G239">
         <v>-0.1092627032664408</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-3.556298047850264</v>
+        <v>-3.55728571743983</v>
       </c>
       <c r="G243">
         <v>-0.05809997355836849</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.393872746346356</v>
+        <v>-3.39438248457474</v>
       </c>
       <c r="G250">
         <v>-0.1042490705988937</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.585824101095037</v>
+        <v>-3.589163855250576</v>
       </c>
       <c r="G257">
         <v>-0.1406834929882246</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.484445202130554</v>
+        <v>-3.484962217887098</v>
       </c>
       <c r="G260">
         <v>-0.1289264090343183</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.624469323549441</v>
+        <v>-3.626796298380545</v>
       </c>
       <c r="G267">
         <v>-0.1183791627993411</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.378371062767552</v>
+        <v>-3.378669360647576</v>
       </c>
       <c r="G273">
         <v>-0.05564420073846643</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.63571408594657</v>
+        <v>-3.636042473312931</v>
       </c>
       <c r="G276">
         <v>-0.04942872583258895</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.600338692685163</v>
+        <v>-3.601837703610383</v>
       </c>
       <c r="G280">
         <v>-0.1337038364798744</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.6398398419023</v>
+        <v>-3.642397703816083</v>
       </c>
       <c r="G290">
         <v>-0.126772638809038</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-3.242079765568314</v>
+        <v>-3.242568044078168</v>
       </c>
       <c r="G36">
         <v>-0.2677089325857669</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.233260821321438</v>
+        <v>-3.237326971198526</v>
       </c>
       <c r="G38">
         <v>-0.2682603911600026</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-3.223671762214537</v>
+        <v>-3.226066973420393</v>
       </c>
       <c r="G40">
         <v>-0.2616561069997709</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-3.217473354407481</v>
+        <v>-3.220336870894926</v>
       </c>
       <c r="G41">
         <v>-0.2665285284777132</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.214138463087869</v>
+        <v>-3.217001979575312</v>
       </c>
       <c r="G42">
         <v>-0.2635866123216315</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-3.185524593662161</v>
+        <v>-3.189715217603549</v>
       </c>
       <c r="G46">
         <v>-0.2580057747851721</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-3.17598430851264</v>
+        <v>-3.176698663392432</v>
       </c>
       <c r="G47">
         <v>-0.252436336166415</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-3.127568527885243</v>
+        <v>-3.128282882765034</v>
       </c>
       <c r="G52">
         <v>-0.2281609174715882</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-3.329286188952303</v>
+        <v>-3.332852878694339</v>
       </c>
       <c r="G80">
         <v>-0.06424296057828993</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-3.349248632426342</v>
+        <v>-3.360089796372701</v>
       </c>
       <c r="G85">
         <v>-0.08825240197286455</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-3.357205934845022</v>
+        <v>-3.357500126971585</v>
       </c>
       <c r="G87">
         <v>-0.08928421892288707</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-3.363317247130718</v>
+        <v>-3.36870247867511</v>
       </c>
       <c r="G88">
         <v>-0.1104120777850932</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-3.372719953516902</v>
+        <v>-3.383510404715024</v>
       </c>
       <c r="G95">
         <v>-0.1294686801489888</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-3.386134219705829</v>
+        <v>-3.387414090779713</v>
       </c>
       <c r="G98">
         <v>-0.1444118490741286</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-3.378149825458888</v>
+        <v>-3.379488201045683</v>
       </c>
       <c r="G99">
         <v>-0.1447902289103005</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-3.384576259657819</v>
+        <v>-3.394105443564672</v>
       </c>
       <c r="G100">
         <v>-0.1469088819782813</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-3.394718689528054</v>
+        <v>-3.401893313768267</v>
       </c>
       <c r="G102">
         <v>-0.1581729868318993</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-3.38243464998782</v>
+        <v>-3.393060657960501</v>
       </c>
       <c r="G104">
         <v>-0.1628001593024928</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-3.38426309375923</v>
+        <v>-3.40324034921845</v>
       </c>
       <c r="G105">
         <v>-0.159964403379929</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-3.399587424617267</v>
+        <v>-3.403477739765656</v>
       </c>
       <c r="G108">
         <v>-0.1805997131968469</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-3.392479866697534</v>
+        <v>-3.397571060996313</v>
       </c>
       <c r="G109">
         <v>-0.175495400799615</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-3.390741811834406</v>
+        <v>-3.402254338001886</v>
       </c>
       <c r="G110">
         <v>-0.1823502475483587</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-3.405699284620003</v>
+        <v>-3.417377083298421</v>
       </c>
       <c r="G113">
         <v>-0.2029291835335951</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-3.403757998981912</v>
+        <v>-3.406776065016933</v>
       </c>
       <c r="G115">
         <v>-0.2047355400285973</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-3.407778718992303</v>
+        <v>-3.409159111915179</v>
       </c>
       <c r="G120">
         <v>-0.2167205927199762</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-3.406256824024331</v>
+        <v>-3.409045736399467</v>
       </c>
       <c r="G121">
         <v>-0.2184772914702955</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-3.409398104415472</v>
+        <v>-3.41270702916076</v>
       </c>
       <c r="G125">
         <v>-0.2291138561276234</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-3.406333428198974</v>
+        <v>-3.408727968757467</v>
       </c>
       <c r="G126">
         <v>-0.2239826514652883</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-3.398507725190302</v>
+        <v>-3.399069859495636</v>
       </c>
       <c r="G133">
         <v>-0.2331948411350191</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.392545735653523</v>
+        <v>-3.393426921992265</v>
       </c>
       <c r="G137">
         <v>-0.2341430216063765</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.386636108081449</v>
+        <v>-3.38748620263964</v>
       </c>
       <c r="G139">
         <v>-0.2320717234554059</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.370552427384908</v>
+        <v>-3.37220624215451</v>
       </c>
       <c r="G144">
         <v>-0.2258707793614456</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-3.358581638200494</v>
+        <v>-3.360861471990057</v>
       </c>
       <c r="G148">
         <v>-0.2176146409570185</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.352519940769666</v>
+        <v>-3.356113430189636</v>
       </c>
       <c r="G149">
         <v>-0.215265603062204</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.324788499993522</v>
+        <v>-3.32562999122119</v>
       </c>
       <c r="G158">
         <v>-0.1982961908894465</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.315661398919463</v>
+        <v>-3.317826967710571</v>
       </c>
       <c r="G160">
         <v>-0.2009061191696664</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.305484739287091</v>
+        <v>-3.305776635435003</v>
       </c>
       <c r="G163">
         <v>-0.1945908350570758</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.287272924378664</v>
+        <v>-3.288484314556112</v>
       </c>
       <c r="G168">
         <v>-0.1820475885604986</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.264018513550107</v>
+        <v>-3.264793742003821</v>
       </c>
       <c r="G173">
         <v>-0.1715644402749996</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.254753671885561</v>
+        <v>-3.256512214027683</v>
       </c>
       <c r="G175">
         <v>-0.1668815230604718</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.231983031027585</v>
+        <v>-3.232212073782143</v>
       </c>
       <c r="G180">
         <v>-0.1547589413998007</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.221807453446737</v>
+        <v>-3.222614853511869</v>
       </c>
       <c r="G182">
         <v>-0.1479805858210953</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.216927844833229</v>
+        <v>-3.217328562350706</v>
       </c>
       <c r="G183">
         <v>-0.1453252184050839</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.212864488831325</v>
+        <v>-3.213561269842297</v>
       </c>
       <c r="G184">
         <v>-0.1430659893700127</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.198114884340555</v>
+        <v>-3.198200421970059</v>
       </c>
       <c r="G187">
         <v>-0.1340075421785969</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.178234220417839</v>
+        <v>-3.178885283178821</v>
       </c>
       <c r="G191">
         <v>-0.1210682209725289</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.168318426668794</v>
+        <v>-3.168454341306616</v>
       </c>
       <c r="G193">
         <v>-0.1154540109061147</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.162701112089868</v>
+        <v>-3.162764400899077</v>
       </c>
       <c r="G194">
         <v>-0.1110141762940766</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.13106149914749</v>
+        <v>-3.131150669582186</v>
       </c>
       <c r="G200">
         <v>-0.08910683906523764</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.120882989837738</v>
+        <v>-3.121061330707131</v>
       </c>
       <c r="G202">
         <v>-0.08348734974576039</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.102012620159492</v>
+        <v>-3.103521804980783</v>
       </c>
       <c r="G205">
         <v>-0.07012487237408238</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.455939452516012</v>
+        <v>-3.456750194919137</v>
       </c>
       <c r="G225">
         <v>-0.1999295476792156</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.414654471517561</v>
+        <v>-3.415736594417238</v>
       </c>
       <c r="G226">
         <v>-0.1858713748005263</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-3.528701577675315</v>
+        <v>-3.53261642148251</v>
       </c>
       <c r="G233">
         <v>-0.1078262388067013</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.527273085883067</v>
+        <v>-3.52874670261102</v>
       </c>
       <c r="G235">
         <v>-0.1570678269093611</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.417745738498856</v>
+        <v>-3.417953102559174</v>
       </c>
       <c r="G238">
         <v>-0.1475987623783936</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-3.55728571743983</v>
+        <v>-3.559121173037496</v>
       </c>
       <c r="G243">
         <v>-0.05809997355836849</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.571622842300549</v>
+        <v>-3.573111800235739</v>
       </c>
       <c r="G245">
         <v>-0.1277474113956698</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.560871895085728</v>
+        <v>-3.560999649406899</v>
       </c>
       <c r="G246">
         <v>-0.1462332857207449</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.538723734766109</v>
+        <v>-3.540880667995849</v>
       </c>
       <c r="G247">
         <v>-0.1605360416784984</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.456810021582855</v>
+        <v>-3.457359882179246</v>
       </c>
       <c r="G249">
         <v>-0.1379818363269243</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.39438248457474</v>
+        <v>-3.39552992443766</v>
       </c>
       <c r="G250">
         <v>-0.1042490705988937</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.600962000030282</v>
+        <v>-3.601366317184089</v>
       </c>
       <c r="G255">
         <v>-0.09640327927995118</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.642493018482054</v>
+        <v>-3.646960058630826</v>
       </c>
       <c r="G277">
         <v>-0.08640433396718405</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.398581664729062</v>
+        <v>-3.399117129054514</v>
       </c>
       <c r="G284">
         <v>-0.05428039731936468</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.659519779158968</v>
+        <v>-3.661016251538173</v>
       </c>
       <c r="G288">
         <v>-0.08424200050009301</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.652893575029117</v>
+        <v>-3.654283672965516</v>
       </c>
       <c r="G289">
         <v>-0.1086445770335449</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.613377026037021</v>
+        <v>-3.61401959335869</v>
       </c>
       <c r="G291">
         <v>-0.1282639793163354</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.414804529450239</v>
+        <v>-3.415124561429299</v>
       </c>
       <c r="G295">
         <v>-0.05429580161063896</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-3.247601518922541</v>
+        <v>-3.261524754214979</v>
       </c>
       <c r="G28">
         <v>-0.2357490746555473</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-3.257607106021334</v>
+        <v>-3.262744396099333</v>
       </c>
       <c r="G30">
         <v>-0.2499877744974537</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-3.235881357761259</v>
+        <v>-3.243413859045113</v>
       </c>
       <c r="G37">
         <v>-0.2661957261892682</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-3.158332447973181</v>
+        <v>-3.159665652395402</v>
       </c>
       <c r="G49">
         <v>-0.2434405235682757</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-3.137823167914555</v>
+        <v>-3.138537522794347</v>
       </c>
       <c r="G51">
         <v>-0.2330160012105533</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.118028242735721</v>
+        <v>-3.11922063339752</v>
       </c>
       <c r="G53">
         <v>-0.2233058337326224</v>
@@ -1749,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-3.039295213468389</v>
+        <v>-3.045061223893466</v>
       </c>
       <c r="G59">
         <v>-0.1714916222668279</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-3.326825106531953</v>
+        <v>-3.33147540415944</v>
       </c>
       <c r="G79">
         <v>-0.0589259888873972</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-3.343671625244915</v>
+        <v>-3.344604033691675</v>
       </c>
       <c r="G82">
         <v>-0.07600873925560636</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-3.346761172663706</v>
+        <v>-3.352836194250187</v>
       </c>
       <c r="G84">
         <v>-0.08965026064744652</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-3.357500126971585</v>
+        <v>-3.358796638435282</v>
       </c>
       <c r="G87">
         <v>-0.08928421892288707</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-3.367719697559932</v>
+        <v>-3.367934316082449</v>
       </c>
       <c r="G89">
         <v>-0.119977890876406</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-3.370366600615798</v>
+        <v>-3.375379699741791</v>
       </c>
       <c r="G91">
         <v>-0.1145747770838432</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-3.373675442835551</v>
+        <v>-3.380468550040945</v>
       </c>
       <c r="G92">
         <v>-0.1315550993516643</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-3.375144566845931</v>
+        <v>-3.38634017400484</v>
       </c>
       <c r="G93">
         <v>-0.1133794004239532</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-3.378241081953428</v>
+        <v>-3.383538758072993</v>
       </c>
       <c r="G96">
         <v>-0.1394175482500937</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-3.379979287494227</v>
+        <v>-3.385676458154926</v>
       </c>
       <c r="G97">
         <v>-0.1423327601376538</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-3.387414090779713</v>
+        <v>-3.394643649187555</v>
       </c>
       <c r="G98">
         <v>-0.1444118490741286</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-3.379488201045683</v>
+        <v>-3.382615785220771</v>
       </c>
       <c r="G99">
         <v>-0.1447902289103005</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-3.393060657960501</v>
+        <v>-3.397338662259792</v>
       </c>
       <c r="G104">
         <v>-0.1628001593024928</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-3.39651918227836</v>
+        <v>-3.406518194325581</v>
       </c>
       <c r="G106">
         <v>-0.1681568285589825</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-3.398403558105541</v>
+        <v>-3.402967126567328</v>
       </c>
       <c r="G107">
         <v>-0.1795804102608165</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-3.403477739765656</v>
+        <v>-3.409439262407605</v>
       </c>
       <c r="G108">
         <v>-0.1805997131968469</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-3.397571060996313</v>
+        <v>-3.40603851401809</v>
       </c>
       <c r="G109">
         <v>-0.175495400799615</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-3.398586755853353</v>
+        <v>-3.401296665172259</v>
       </c>
       <c r="G111">
         <v>-0.1920690126338518</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-3.406776065016933</v>
+        <v>-3.41260303343529</v>
       </c>
       <c r="G115">
         <v>-0.2047355400285973</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-3.405902629403333</v>
+        <v>-3.415168197495018</v>
       </c>
       <c r="G117">
         <v>-0.2099496587531098</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-3.412871955018921</v>
+        <v>-3.418749411773013</v>
       </c>
       <c r="G118">
         <v>-0.215953369435721</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-3.406150978112427</v>
+        <v>-3.412560905134644</v>
       </c>
       <c r="G119">
         <v>-0.2050606721876065</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-3.409159111915179</v>
+        <v>-3.411397773817014</v>
       </c>
       <c r="G120">
         <v>-0.2167205927199762</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-3.409045736399467</v>
+        <v>-3.412438880711061</v>
       </c>
       <c r="G121">
         <v>-0.2184772914702955</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-3.395986238496536</v>
+        <v>-3.396263955475519</v>
       </c>
       <c r="G135">
         <v>-0.2328643915014408</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-3.394095260476523</v>
+        <v>-3.394296231645471</v>
       </c>
       <c r="G136">
         <v>-0.2336498865907779</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.389656629741439</v>
+        <v>-3.389818359619415</v>
       </c>
       <c r="G138">
         <v>-0.233050181871072</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.377416685487562</v>
+        <v>-3.378107764137127</v>
       </c>
       <c r="G142">
         <v>-0.2285013479764328</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.376119833073512</v>
+        <v>-3.378068076565327</v>
       </c>
       <c r="G143">
         <v>-0.229564363983503</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.37220624215451</v>
+        <v>-3.37269800791296</v>
       </c>
       <c r="G144">
         <v>-0.2258707793614456</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.366760502099098</v>
+        <v>-3.369326341444368</v>
       </c>
       <c r="G145">
         <v>-0.2210763703002074</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.364793556374906</v>
+        <v>-3.365128791252491</v>
       </c>
       <c r="G146">
         <v>-0.2238595504845362</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.360835009528</v>
+        <v>-3.362722295921947</v>
       </c>
       <c r="G147">
         <v>-0.2203118634081678</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.356113430189636</v>
+        <v>-3.356415737096493</v>
       </c>
       <c r="G149">
         <v>-0.215265603062204</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.352917001160646</v>
+        <v>-3.35297727527166</v>
       </c>
       <c r="G150">
         <v>-0.2133584521464564</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.346623321977878</v>
+        <v>-3.348170277952169</v>
       </c>
       <c r="G152">
         <v>-0.2169322424867879</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.31289131181742</v>
+        <v>-3.314884054861565</v>
       </c>
       <c r="G161">
         <v>-0.1969458248955078</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.305776635435003</v>
+        <v>-3.305931332967053</v>
       </c>
       <c r="G163">
         <v>-0.1945908350570758</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.302832872308479</v>
+        <v>-3.302947301214209</v>
       </c>
       <c r="G164">
         <v>-0.1910160131409877</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.298479070156221</v>
+        <v>-3.299128380893001</v>
       </c>
       <c r="G165">
         <v>-0.1893338767083659</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.294080447658019</v>
+        <v>-3.294374558803183</v>
       </c>
       <c r="G166">
         <v>-0.1906228630985818</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.289535693874191</v>
+        <v>-3.290366053823399</v>
       </c>
       <c r="G167">
         <v>-0.1843819933822457</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.264793742003821</v>
+        <v>-3.264841667144041</v>
       </c>
       <c r="G173">
         <v>-0.1715644402749996</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.250612892768001</v>
+        <v>-3.25077048050384</v>
       </c>
       <c r="G176">
         <v>-0.1655222361654407</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.246108559957794</v>
+        <v>-3.2468919841732</v>
       </c>
       <c r="G177">
         <v>-0.1632630071303691</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.241337257327191</v>
+        <v>-3.241849473721451</v>
       </c>
       <c r="G178">
         <v>-0.158936057637772</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.237341587727846</v>
+        <v>-3.23797534109459</v>
       </c>
       <c r="G179">
         <v>-0.157458786953658</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.232212073782143</v>
+        <v>-3.23281639234</v>
       </c>
       <c r="G180">
         <v>-0.1547589413998007</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.228395509840349</v>
+        <v>-3.228562325151508</v>
       </c>
       <c r="G181">
         <v>-0.1530452412791101</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.222614853511869</v>
+        <v>-3.223265995894645</v>
       </c>
       <c r="G182">
         <v>-0.1479805858210953</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.217328562350706</v>
+        <v>-3.218462406697063</v>
       </c>
       <c r="G183">
         <v>-0.1453252184050839</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.213561269842297</v>
+        <v>-3.215040674867844</v>
       </c>
       <c r="G184">
         <v>-0.1430659893700127</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.208539701589981</v>
+        <v>-3.210053560472264</v>
       </c>
       <c r="G185">
         <v>-0.139947597371337</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.20354859409969</v>
+        <v>-3.203944732480628</v>
       </c>
       <c r="G186">
         <v>-0.1375674308711843</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.198200421970059</v>
+        <v>-3.198347920189822</v>
       </c>
       <c r="G187">
         <v>-0.1340075421785969</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.193935609921418</v>
+        <v>-3.194327755207647</v>
       </c>
       <c r="G188">
         <v>-0.1317020888260066</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.183226353861268</v>
+        <v>-3.183993934546885</v>
       </c>
       <c r="G190">
         <v>-0.1240700154247778</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.168454341306616</v>
+        <v>-3.168667980442695</v>
       </c>
       <c r="G193">
         <v>-0.1154540109061147</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.162764400899077</v>
+        <v>-3.162791748389014</v>
       </c>
       <c r="G194">
         <v>-0.1110141762940766</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.157004686770029</v>
+        <v>-3.1582176418573</v>
       </c>
       <c r="G195">
         <v>-0.1074297922186587</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.146554348184635</v>
+        <v>-3.147205410945618</v>
       </c>
       <c r="G197">
         <v>-0.1009601316156245</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.136259320950249</v>
+        <v>-3.136937731201171</v>
       </c>
       <c r="G199">
         <v>-0.09463783158684974</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.131150669582186</v>
+        <v>-3.131239840016882</v>
       </c>
       <c r="G200">
         <v>-0.08910683906523764</v>
@@ -5084,7 +5084,7 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.107799681778478</v>
+        <v>-3.108611059635658</v>
       </c>
       <c r="G204">
         <v>-0.0755472977478116</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-3.447980899032223</v>
+        <v>-3.453120121678962</v>
       </c>
       <c r="G221">
         <v>-0.07616847893275391</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-3.46780327671861</v>
+        <v>-3.471187218317659</v>
       </c>
       <c r="G222">
         <v>-0.1258908933861074</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-3.483238961054659</v>
+        <v>-3.494679573639676</v>
       </c>
       <c r="G223">
         <v>-0.1530901700083933</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.456750194919137</v>
+        <v>-3.45805144978819</v>
       </c>
       <c r="G225">
         <v>-0.1999295476792156</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.415736594417238</v>
+        <v>-3.416086297191086</v>
       </c>
       <c r="G226">
         <v>-0.1858713748005263</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.286595417041898</v>
+        <v>-3.288184835851397</v>
       </c>
       <c r="G228">
         <v>-0.1164879907008068</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.207781169849781</v>
+        <v>-3.208839324119722</v>
       </c>
       <c r="G229">
         <v>-0.06621312459654805</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-3.512215791912553</v>
+        <v>-3.517629088542257</v>
       </c>
       <c r="G232">
         <v>-0.06749692566858467</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.533725828360986</v>
+        <v>-3.535219958499652</v>
       </c>
       <c r="G234">
         <v>-0.1459978776274147</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.470575133481999</v>
+        <v>-3.470991105540398</v>
       </c>
       <c r="G237">
         <v>-0.1692255472155559</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.573111800235739</v>
+        <v>-3.573341619045466</v>
       </c>
       <c r="G245">
         <v>-0.1277474113956698</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.560999649406899</v>
+        <v>-3.562377843248071</v>
       </c>
       <c r="G246">
         <v>-0.1462332857207449</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.540880667995849</v>
+        <v>-3.542351865439564</v>
       </c>
       <c r="G247">
         <v>-0.1605360416784984</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.457359882179246</v>
+        <v>-3.457414578733674</v>
       </c>
       <c r="G249">
         <v>-0.1379818363269243</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.601366317184089</v>
+        <v>-3.601497553118419</v>
       </c>
       <c r="G255">
         <v>-0.09640327927995118</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.602542926678477</v>
+        <v>-3.602660099082383</v>
       </c>
       <c r="G256">
         <v>-0.1244814850404321</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.562773098972065</v>
+        <v>-3.565502548299121</v>
       </c>
       <c r="G258">
         <v>-0.1438954172464451</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.353065305862427</v>
+        <v>-3.353229718290558</v>
       </c>
       <c r="G262">
         <v>-0.05803235462567008</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.625327142848711</v>
+        <v>-3.62809032077885</v>
       </c>
       <c r="G266">
         <v>-0.08815219948901909</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.547310045083961</v>
+        <v>-3.549340518491019</v>
       </c>
       <c r="G270">
         <v>-0.1348171088158139</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.636042473312931</v>
+        <v>-3.636404602208761</v>
       </c>
       <c r="G276">
         <v>-0.04942872583258895</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.640647520064646</v>
+        <v>-3.641095999177133</v>
       </c>
       <c r="G278">
         <v>-0.1151340401379999</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.627944876943744</v>
+        <v>-3.632132764680025</v>
       </c>
       <c r="G279">
         <v>-0.1257899535178972</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.563982642719883</v>
+        <v>-3.565362341097336</v>
       </c>
       <c r="G281">
         <v>-0.1296269830742385</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.517199108564885</v>
+        <v>-3.517430538985269</v>
       </c>
       <c r="G282">
         <v>-0.1127440811528229</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.654283672965516</v>
+        <v>-3.656914558271218</v>
       </c>
       <c r="G289">
         <v>-0.1086445770335449</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.415124561429299</v>
+        <v>-3.415312128937622</v>
       </c>
       <c r="G295">
         <v>-0.05429580161063896</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-3.245424574542757</v>
+        <v>-3.247095513213991</v>
       </c>
       <c r="G35">
         <v>-0.2645173674338874</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-3.226066973420393</v>
+        <v>-3.22653527870198</v>
       </c>
       <c r="G40">
         <v>-0.2616561069997709</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-3.220336870894926</v>
+        <v>-3.223334917020103</v>
       </c>
       <c r="G41">
         <v>-0.2665285284777132</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-3.176698663392432</v>
+        <v>-3.180174932454028</v>
       </c>
       <c r="G47">
         <v>-0.252436336166415</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.148077807943868</v>
+        <v>-3.149270198605667</v>
       </c>
       <c r="G50">
         <v>-0.2385854398293104</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-3.359239708287904</v>
+        <v>-3.370694337755345</v>
       </c>
       <c r="G86">
         <v>-0.09101348802096609</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.371627611347483</v>
+        <v>-3.375086060136535</v>
       </c>
       <c r="G90">
         <v>-0.1257596257305034</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-3.374634261149128</v>
+        <v>-3.376496600315843</v>
       </c>
       <c r="G94">
         <v>-0.1305519531027151</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-3.383510404715024</v>
+        <v>-3.385596363699024</v>
       </c>
       <c r="G95">
         <v>-0.1294686801489888</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-3.383538758072993</v>
+        <v>-3.389989646207021</v>
       </c>
       <c r="G96">
         <v>-0.1394175482500937</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-3.402254338001886</v>
+        <v>-3.403857886286108</v>
       </c>
       <c r="G110">
         <v>-0.1823502475483587</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-3.401296665172259</v>
+        <v>-3.402110592914957</v>
       </c>
       <c r="G111">
         <v>-0.1920690126338518</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-3.412560905134644</v>
+        <v>-3.415320727195441</v>
       </c>
       <c r="G119">
         <v>-0.2050606721876065</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-3.412438880711061</v>
+        <v>-3.413862201030466</v>
       </c>
       <c r="G121">
         <v>-0.2184772914702955</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-3.403087105155083</v>
+        <v>-3.403104385933839</v>
       </c>
       <c r="G130">
         <v>-0.2317691204506258</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-3.401574065410646</v>
+        <v>-3.40244253868217</v>
       </c>
       <c r="G131">
         <v>-0.2312992029325993</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-3.400396779689264</v>
+        <v>-3.400458168241593</v>
       </c>
       <c r="G132">
         <v>-0.2326844253406632</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-3.397107834839547</v>
+        <v>-3.397725658523253</v>
       </c>
       <c r="G134">
         <v>-0.2336879761506181</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.389818359619415</v>
+        <v>-3.390631777680795</v>
       </c>
       <c r="G138">
         <v>-0.233050181871072</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-3.360861471990057</v>
+        <v>-3.361003820036867</v>
       </c>
       <c r="G148">
         <v>-0.2176146409570185</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.338633098535693</v>
+        <v>-3.342050245017009</v>
       </c>
       <c r="G154">
         <v>-0.2125760450168246</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.332307631829746</v>
+        <v>-3.332428063873297</v>
       </c>
       <c r="G156">
         <v>-0.2082173062125914</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.259929387007038</v>
+        <v>-3.260349640547117</v>
       </c>
       <c r="G174">
         <v>-0.1712163735733518</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.25077048050384</v>
+        <v>-3.251129456999146</v>
       </c>
       <c r="G176">
         <v>-0.1655222361654407</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.183993934546885</v>
+        <v>-3.184226970396153</v>
       </c>
       <c r="G190">
         <v>-0.1240700154247778</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.178885283178821</v>
+        <v>-3.178904679892011</v>
       </c>
       <c r="G191">
         <v>-0.1210682209725289</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.162791748389014</v>
+        <v>-3.163326293225364</v>
       </c>
       <c r="G194">
         <v>-0.1110141762940766</v>
@@ -5153,7 +5153,7 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-3.090438496921522</v>
+        <v>-3.091947681742812</v>
       </c>
       <c r="G207">
         <v>-0.06229839126920533</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.535219958499652</v>
+        <v>-3.539207624976723</v>
       </c>
       <c r="G234">
         <v>-0.1459978776274147</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.573341619045466</v>
+        <v>-3.574718724680099</v>
       </c>
       <c r="G245">
         <v>-0.1277474113956698</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.457414578733674</v>
+        <v>-3.45753824271774</v>
       </c>
       <c r="G249">
         <v>-0.1379818363269243</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.591334853519693</v>
+        <v>-3.591595496324337</v>
       </c>
       <c r="G254">
         <v>-0.05680691227413792</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.601497553118419</v>
+        <v>-3.604640322553365</v>
       </c>
       <c r="G255">
         <v>-0.09640327927995118</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.425874427516233</v>
+        <v>-3.426193381728795</v>
       </c>
       <c r="G261">
         <v>-0.100580683939869</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.517430538985269</v>
+        <v>-3.517818454847635</v>
       </c>
       <c r="G282">
         <v>-0.1127440811528229</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.577184507569556</v>
+        <v>-3.578165192430749</v>
       </c>
       <c r="G292">
         <v>-0.1222728099897032</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>n_atoms</t>
+    <t>num_atoms</t>
   </si>
   <si>
     <t>diameter</t>
@@ -426,7 +426,7 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -438,10 +438,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-2.599353686235276</v>
+        <v>-2.599353686235273</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3.552713678800501e-15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -449,7 +449,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C3">
         <v>0.07692307692307693</v>
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>-2.818148429930265</v>
+        <v>-2.818148429930264</v>
       </c>
       <c r="G3">
-        <v>-0.2355884682981646</v>
+        <v>-0.2355884682981628</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -472,7 +472,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C4">
         <v>0.1538461538461539</v>
@@ -484,10 +484,10 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>-2.826338210165071</v>
+        <v>-2.82633821016507</v>
       </c>
       <c r="G4">
-        <v>-0.2605719731361456</v>
+        <v>-0.2605719731361442</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -495,7 +495,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C5">
         <v>0.2307692307692308</v>
@@ -510,7 +510,7 @@
         <v>-2.834527990399875</v>
       </c>
       <c r="G5">
-        <v>-0.2855554779741263</v>
+        <v>-0.2855554779741258</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -518,7 +518,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C6">
         <v>0.3076923076923077</v>
@@ -541,7 +541,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C7">
         <v>0.3846153846153846</v>
@@ -564,7 +564,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C8">
         <v>0.4615384615384616</v>
@@ -587,7 +587,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C9">
         <v>0.5384615384615384</v>
@@ -610,7 +610,7 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C10">
         <v>0.6153846153846154</v>
@@ -633,7 +633,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C11">
         <v>0.6923076923076923</v>
@@ -648,7 +648,7 @@
         <v>-2.614294582220023</v>
       </c>
       <c r="G11">
-        <v>-0.1660844174133275</v>
+        <v>-0.1660844174133279</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -656,7 +656,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C12">
         <v>0.7692307692307693</v>
@@ -679,7 +679,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C13">
         <v>0.8461538461538461</v>
@@ -694,7 +694,7 @@
         <v>-2.497664924307008</v>
       </c>
       <c r="G13">
-        <v>-0.08304220870666407</v>
+        <v>-0.08304220870666362</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -702,7 +702,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C14">
         <v>0.9230769230769231</v>
@@ -714,10 +714,10 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>-2.439350095350501</v>
+        <v>-2.439350095350498</v>
       </c>
       <c r="G14">
-        <v>-0.04152110435333195</v>
+        <v>-0.04152110435332973</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -725,7 +725,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -737,10 +737,10 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>-2.381035266393993</v>
+        <v>-2.381035266393989</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>3.996802888650564e-15</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -748,7 +748,7 @@
         <v>55</v>
       </c>
       <c r="B16">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>-3.068074861193663</v>
+        <v>-3.068074861193655</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>7.993605777301127e-15</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -771,7 +771,7 @@
         <v>55</v>
       </c>
       <c r="B17">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C17">
         <v>0.01818181818181818</v>
@@ -783,10 +783,10 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>-3.087883068943429</v>
+        <v>-3.087883068943425</v>
       </c>
       <c r="G17">
-        <v>-0.02449340916032217</v>
+        <v>-0.02449340916031861</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -794,7 +794,7 @@
         <v>55</v>
       </c>
       <c r="B18">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C18">
         <v>0.03636363636363636</v>
@@ -806,10 +806,10 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>-3.107691276693195</v>
+        <v>-3.107691276693196</v>
       </c>
       <c r="G18">
-        <v>-0.04898681832064433</v>
+        <v>-0.04898681832064478</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -817,7 +817,7 @@
         <v>55</v>
       </c>
       <c r="B19">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C19">
         <v>0.05454545454545454</v>
@@ -832,7 +832,7 @@
         <v>-3.127499484442962</v>
       </c>
       <c r="G19">
-        <v>-0.0734802274809665</v>
+        <v>-0.07348022748096694</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -840,7 +840,7 @@
         <v>55</v>
       </c>
       <c r="B20">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C20">
         <v>0.07272727272727272</v>
@@ -852,10 +852,10 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-3.147307692192726</v>
+        <v>-3.147307692192719</v>
       </c>
       <c r="G20">
-        <v>-0.09665484876249897</v>
+        <v>-0.09797363664127934</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -863,7 +863,7 @@
         <v>55</v>
       </c>
       <c r="B21">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C21">
         <v>0.09090909090909091</v>
@@ -875,10 +875,10 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-3.165797112063706</v>
+        <v>-3.163159536306127</v>
       </c>
       <c r="G21">
-        <v>-0.1128712306621549</v>
+        <v>-0.1185106821652435</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -886,7 +886,7 @@
         <v>55</v>
       </c>
       <c r="B22">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C22">
         <v>0.1090909090909091</v>
@@ -898,10 +898,10 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-3.182967744055897</v>
+        <v>-3.181648956177103</v>
       </c>
       <c r="G22">
-        <v>-0.1390477276892059</v>
+        <v>-0.1416853034467755</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -909,7 +909,7 @@
         <v>55</v>
       </c>
       <c r="B23">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C23">
         <v>0.1272727272727273</v>
@@ -921,10 +921,10 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-3.198819588169299</v>
+        <v>-3.184903109405532</v>
       </c>
       <c r="G23">
-        <v>-0.1635411368495263</v>
+        <v>-0.149624658085759</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -932,7 +932,7 @@
         <v>55</v>
       </c>
       <c r="B24">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C24">
         <v>0.1454545454545454</v>
@@ -944,10 +944,10 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-3.214671432282702</v>
+        <v>-3.206394405022026</v>
       </c>
       <c r="G24">
-        <v>-0.1827593944946968</v>
+        <v>-0.1758011551128096</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -955,7 +955,7 @@
         <v>55</v>
       </c>
       <c r="B25">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C25">
         <v>0.1636363636363636</v>
@@ -967,10 +967,10 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-3.230523276396104</v>
+        <v>-3.2305232763961</v>
       </c>
       <c r="G25">
-        <v>-0.1976569885155643</v>
+        <v>-0.2046152278974387</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -978,7 +978,7 @@
         <v>55</v>
       </c>
       <c r="B26">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C26">
         <v>0.1818181818181818</v>
@@ -990,10 +990,10 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-3.239416881127628</v>
+        <v>-3.232458641745743</v>
       </c>
       <c r="G26">
-        <v>-0.2181940340395228</v>
+        <v>-0.2112357946576378</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1001,7 +1001,7 @@
         <v>55</v>
       </c>
       <c r="B27">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C27">
         <v>0.2</v>
@@ -1013,10 +1013,10 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-3.253949937362243</v>
+        <v>-3.22661238473114</v>
       </c>
       <c r="G27">
-        <v>-0.2319142790590285</v>
+        <v>-0.2100747390535909</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1024,7 +1024,7 @@
         <v>55</v>
       </c>
       <c r="B28">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C28">
         <v>0.2181818181818182</v>
@@ -1036,10 +1036,10 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-3.261524754214979</v>
+        <v>-3.243986972109666</v>
       </c>
       <c r="G28">
-        <v>-0.2357490746555473</v>
+        <v>-0.2321345278426721</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1047,7 +1047,7 @@
         <v>55</v>
       </c>
       <c r="B29">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C29">
         <v>0.2363636363636364</v>
@@ -1059,10 +1059,10 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-3.262134575157155</v>
+        <v>-3.256997285079152</v>
       </c>
       <c r="G29">
-        <v>-0.2498300422227193</v>
+        <v>-0.2498300422227149</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1070,7 +1070,7 @@
         <v>55</v>
       </c>
       <c r="B30">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C30">
         <v>0.2545454545454545</v>
@@ -1082,10 +1082,10 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-3.262744396099333</v>
+        <v>-3.257607106021329</v>
       </c>
       <c r="G30">
-        <v>-0.2499877744974537</v>
+        <v>-0.2551250645754477</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1093,7 +1093,7 @@
         <v>55</v>
       </c>
       <c r="B31">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C31">
         <v>0.2727272727272727</v>
@@ -1105,10 +1105,10 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-3.258216926963511</v>
+        <v>-3.25307963688551</v>
       </c>
       <c r="G31">
-        <v>-0.260420086928185</v>
+        <v>-0.2552827968501838</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1116,7 +1116,7 @@
         <v>55</v>
       </c>
       <c r="B32">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C32">
         <v>0.2909090909090909</v>
@@ -1128,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-3.258826747905689</v>
+        <v>-3.253689457827685</v>
       </c>
       <c r="G32">
-        <v>-0.25544052912492</v>
+        <v>-0.2605778192029145</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1139,7 +1139,7 @@
         <v>55</v>
       </c>
       <c r="B33">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C33">
         <v>0.3090909090909091</v>
@@ -1151,10 +1151,10 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-3.254299278769867</v>
+        <v>-3.250957401427397</v>
       </c>
       <c r="G33">
-        <v>-0.2562007712459589</v>
+        <v>-0.2625309642131826</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1162,7 +1162,7 @@
         <v>55</v>
       </c>
       <c r="B34">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C34">
         <v>0.3272727272727273</v>
@@ -1174,10 +1174,10 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-3.253293921021045</v>
+        <v>-3.244034721085716</v>
       </c>
       <c r="G34">
-        <v>-0.2694969252371524</v>
+        <v>-0.2602934852820571</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1185,7 +1185,7 @@
         <v>55</v>
       </c>
       <c r="B35">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C35">
         <v>0.3454545454545455</v>
@@ -1197,10 +1197,10 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-3.247095513213991</v>
+        <v>-3.248766451885217</v>
       </c>
       <c r="G35">
-        <v>-0.2645173674338874</v>
+        <v>-0.2697104174921141</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1208,7 +1208,7 @@
         <v>55</v>
       </c>
       <c r="B36">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C36">
         <v>0.3636363636363636</v>
@@ -1220,10 +1220,10 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-3.242568044078168</v>
+        <v>-3.237430754000168</v>
       </c>
       <c r="G36">
-        <v>-0.2677089325857669</v>
+        <v>-0.2630599210176212</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1231,7 +1231,7 @@
         <v>55</v>
       </c>
       <c r="B37">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C37">
         <v>0.3818181818181818</v>
@@ -1243,10 +1243,10 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-3.243413859045113</v>
+        <v>-3.238689114268459</v>
       </c>
       <c r="G37">
-        <v>-0.2661957261892682</v>
+        <v>-0.269003482696468</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1254,7 +1254,7 @@
         <v>55</v>
       </c>
       <c r="B38">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C38">
         <v>0.4</v>
@@ -1266,10 +1266,10 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.237326971198526</v>
+        <v>-3.229692867609032</v>
       </c>
       <c r="G38">
-        <v>-0.2682603911600026</v>
+        <v>-0.2646924374475963</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1277,7 +1277,7 @@
         <v>55</v>
       </c>
       <c r="B39">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C39">
         <v>0.4181818181818182</v>
@@ -1289,10 +1289,10 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-3.227550692024238</v>
+        <v>-3.223484542147145</v>
       </c>
       <c r="G39">
-        <v>-0.2659770699034785</v>
+        <v>-0.2631693133962654</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1300,7 +1300,7 @@
         <v>55</v>
       </c>
       <c r="B40">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C40">
         <v>0.4363636363636363</v>
@@ -1312,10 +1312,10 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-3.22653527870198</v>
+        <v>-3.229533324827153</v>
       </c>
       <c r="G40">
-        <v>-0.2616561069997709</v>
+        <v>-0.2739032974868292</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1323,7 +1323,7 @@
         <v>55</v>
       </c>
       <c r="B41">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C41">
         <v>0.4545454545454545</v>
@@ -1335,10 +1335,10 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-3.223334917020103</v>
+        <v>-3.224347260791773</v>
       </c>
       <c r="G41">
-        <v>-0.2665285284777132</v>
+        <v>-0.2734024348620054</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1346,7 +1346,7 @@
         <v>55</v>
       </c>
       <c r="B42">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C42">
         <v>0.4727272727272727</v>
@@ -1358,10 +1358,10 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.217001979575312</v>
+        <v>-3.218329087029252</v>
       </c>
       <c r="G42">
-        <v>-0.2635866123216315</v>
+        <v>-0.2720694625100399</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1369,7 +1369,7 @@
         <v>55</v>
       </c>
       <c r="B43">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C43">
         <v>0.4909090909090909</v>
@@ -1381,10 +1381,10 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-3.213087263013645</v>
+        <v>-3.21499419570964</v>
       </c>
       <c r="G43">
-        <v>-0.2685147937798094</v>
+        <v>-0.2734197726009839</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1392,7 +1392,7 @@
         <v>55</v>
       </c>
       <c r="B44">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C44">
         <v>0.509090909090909</v>
@@ -1404,10 +1404,10 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-3.20317645420162</v>
+        <v>-3.203176454201611</v>
       </c>
       <c r="G44">
-        <v>-0.266287232503519</v>
+        <v>-0.2662872325035106</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1415,7 +1415,7 @@
         <v>55</v>
       </c>
       <c r="B45">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C45">
         <v>0.5272727272727272</v>
@@ -1427,10 +1427,10 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-3.194350523931891</v>
+        <v>-3.193636169052092</v>
       </c>
       <c r="G45">
-        <v>-0.2614321487645541</v>
+        <v>-0.2614321487645475</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1438,7 +1438,7 @@
         <v>55</v>
       </c>
       <c r="B46">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C46">
         <v>0.5454545454545454</v>
@@ -1450,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-3.189715217603549</v>
+        <v>-3.189715217603545</v>
       </c>
       <c r="G46">
-        <v>-0.2580057747851721</v>
+        <v>-0.2621963987265559</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1461,7 +1461,7 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C47">
         <v>0.5636363636363636</v>
@@ -1473,10 +1473,10 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-3.180174932454028</v>
+        <v>-3.180889287333818</v>
       </c>
       <c r="G47">
-        <v>-0.252436336166415</v>
+        <v>-0.2580556698673844</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1484,7 +1484,7 @@
         <v>55</v>
       </c>
       <c r="B48">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C48">
         <v>0.5818181818181818</v>
@@ -1496,10 +1496,10 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-3.167872733122702</v>
+        <v>-3.165015313603532</v>
       </c>
       <c r="G48">
-        <v>-0.2475812524274497</v>
+        <v>-0.2468668975476549</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1507,7 +1507,7 @@
         <v>55</v>
       </c>
       <c r="B49">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C49">
         <v>0.6</v>
@@ -1519,10 +1519,10 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-3.159665652395402</v>
+        <v>-3.156189383333807</v>
       </c>
       <c r="G49">
-        <v>-0.2434405235682757</v>
+        <v>-0.242726168688485</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1530,7 +1530,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C50">
         <v>0.6181818181818182</v>
@@ -1542,10 +1542,10 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.149270198605667</v>
+        <v>-3.146649098184285</v>
       </c>
       <c r="G50">
-        <v>-0.2385854398293104</v>
+        <v>-0.2378710849495187</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1553,7 +1553,7 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C51">
         <v>0.6363636363636364</v>
@@ -1565,10 +1565,10 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-3.138537522794347</v>
+        <v>-3.13639445815497</v>
       </c>
       <c r="G51">
-        <v>-0.2330160012105533</v>
+        <v>-0.2323016463307599</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1576,7 +1576,7 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C52">
         <v>0.6545454545454545</v>
@@ -1588,10 +1588,10 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-3.128282882765034</v>
+        <v>-3.127568527885244</v>
       </c>
       <c r="G52">
-        <v>-0.2281609174715882</v>
+        <v>-0.2281609174715895</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1599,7 +1599,7 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C53">
         <v>0.6727272727272727</v>
@@ -1611,10 +1611,10 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.11922063339752</v>
+        <v>-3.117313887855933</v>
       </c>
       <c r="G53">
-        <v>-0.2233058337326224</v>
+        <v>-0.2225914788528338</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1622,7 +1622,7 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C54">
         <v>0.6909090909090909</v>
@@ -1634,10 +1634,10 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.107773602706408</v>
+        <v>-3.107773602706414</v>
       </c>
       <c r="G54">
-        <v>-0.2177363951138652</v>
+        <v>-0.217736395113871</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1645,7 +1645,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C55">
         <v>0.7090909090909091</v>
@@ -1657,10 +1657,10 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.095231126943821</v>
+        <v>-3.095231126943825</v>
       </c>
       <c r="G55">
-        <v>-0.2098791207618338</v>
+        <v>-0.2098791207618382</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1668,7 +1668,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C56">
         <v>0.7272727272727273</v>
@@ -1680,10 +1680,10 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.082688651181232</v>
+        <v>-3.082688651181239</v>
       </c>
       <c r="G56">
-        <v>-0.2020218464098009</v>
+        <v>-0.2020218464098076</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1691,7 +1691,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C57">
         <v>0.7454545454545455</v>
@@ -1703,10 +1703,10 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-3.070146175418644</v>
+        <v>-3.07014617541865</v>
       </c>
       <c r="G57">
-        <v>-0.1941645720577682</v>
+        <v>-0.1941645720577739</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1714,7 +1714,7 @@
         <v>55</v>
       </c>
       <c r="B58">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C58">
         <v>0.7636363636363637</v>
@@ -1726,10 +1726,10 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-3.057603699656055</v>
+        <v>-3.057603699656061</v>
       </c>
       <c r="G58">
-        <v>-0.1723904955319853</v>
+        <v>-0.1863072977057416</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1737,7 +1737,7 @@
         <v>55</v>
       </c>
       <c r="B59">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C59">
         <v>0.7818181818181819</v>
@@ -1749,10 +1749,10 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-3.045061223893466</v>
+        <v>-3.045061223893473</v>
       </c>
       <c r="G59">
-        <v>-0.1714916222668279</v>
+        <v>-0.178450023353709</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1760,7 +1760,7 @@
         <v>55</v>
       </c>
       <c r="B60">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C60">
         <v>0.8</v>
@@ -1772,10 +1772,10 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-3.025560347044002</v>
+        <v>-3.018601945957133</v>
       </c>
       <c r="G60">
-        <v>-0.1636343479147943</v>
+        <v>-0.1566759468279252</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1783,7 +1783,7 @@
         <v>55</v>
       </c>
       <c r="B61">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C61">
         <v>0.8181818181818182</v>
@@ -1795,10 +1795,10 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-3.006059470194539</v>
+        <v>-3.006059470194545</v>
       </c>
       <c r="G61">
-        <v>-0.1488186724758866</v>
+        <v>-0.1488186724758924</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1806,7 +1806,7 @@
         <v>55</v>
       </c>
       <c r="B62">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C62">
         <v>0.8363636363636363</v>
@@ -1818,10 +1818,10 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.986492401536395</v>
+        <v>-2.986492401536401</v>
       </c>
       <c r="G62">
-        <v>-0.1339368052282983</v>
+        <v>-0.1339368052283045</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1829,7 +1829,7 @@
         <v>55</v>
       </c>
       <c r="B63">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C63">
         <v>0.8545454545454545</v>
@@ -1841,10 +1841,10 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-2.96692533287825</v>
+        <v>-2.966925332878257</v>
       </c>
       <c r="G63">
-        <v>-0.119054937980709</v>
+        <v>-0.1190549379807161</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1852,7 +1852,7 @@
         <v>55</v>
       </c>
       <c r="B64">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C64">
         <v>0.8727272727272727</v>
@@ -1864,10 +1864,10 @@
         <v>48</v>
       </c>
       <c r="F64">
-        <v>-2.947358264220105</v>
+        <v>-2.947358264220115</v>
       </c>
       <c r="G64">
-        <v>-0.1041730707331202</v>
+        <v>-0.1041730707331295</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1875,7 +1875,7 @@
         <v>55</v>
       </c>
       <c r="B65">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C65">
         <v>0.8909090909090909</v>
@@ -1887,10 +1887,10 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <v>-2.927791195561962</v>
+        <v>-2.927791195561968</v>
       </c>
       <c r="G65">
-        <v>-0.08929120348553266</v>
+        <v>-0.08929120348553932</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1898,7 +1898,7 @@
         <v>55</v>
       </c>
       <c r="B66">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C66">
         <v>0.9090909090909091</v>
@@ -1910,10 +1910,10 @@
         <v>50</v>
       </c>
       <c r="F66">
-        <v>-2.908224126903817</v>
+        <v>-2.908224126903825</v>
       </c>
       <c r="G66">
-        <v>-0.07440933623794382</v>
+        <v>-0.07440933623795182</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1921,7 +1921,7 @@
         <v>55</v>
       </c>
       <c r="B67">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C67">
         <v>0.9272727272727272</v>
@@ -1933,10 +1933,10 @@
         <v>51</v>
       </c>
       <c r="F67">
-        <v>-2.888657058245673</v>
+        <v>-2.88865705824568</v>
       </c>
       <c r="G67">
-        <v>-0.05952746899035496</v>
+        <v>-0.05952746899036207</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1944,7 +1944,7 @@
         <v>55</v>
       </c>
       <c r="B68">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C68">
         <v>0.9454545454545454</v>
@@ -1956,10 +1956,10 @@
         <v>52</v>
       </c>
       <c r="F68">
-        <v>-2.869089989587529</v>
+        <v>-2.869089989587535</v>
       </c>
       <c r="G68">
-        <v>-0.04464560174276699</v>
+        <v>-0.04464560174277321</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1967,7 +1967,7 @@
         <v>55</v>
       </c>
       <c r="B69">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C69">
         <v>0.9636363636363636</v>
@@ -1979,10 +1979,10 @@
         <v>53</v>
       </c>
       <c r="F69">
-        <v>-2.849522920929385</v>
+        <v>-2.84952292092939</v>
       </c>
       <c r="G69">
-        <v>-0.02976373449517859</v>
+        <v>-0.02976373449518348</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1990,7 +1990,7 @@
         <v>55</v>
       </c>
       <c r="B70">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C70">
         <v>0.9818181818181818</v>
@@ -2002,10 +2002,10 @@
         <v>54</v>
       </c>
       <c r="F70">
-        <v>-2.829955852271239</v>
+        <v>-2.829955852271245</v>
       </c>
       <c r="G70">
-        <v>-0.01488186724758885</v>
+        <v>-0.01488186724759418</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2013,7 +2013,7 @@
         <v>55</v>
       </c>
       <c r="B71">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2025,10 +2025,10 @@
         <v>55</v>
       </c>
       <c r="F71">
-        <v>-2.810388783613095</v>
+        <v>-2.810388783613099</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>-4.884981308350689e-15</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2036,7 +2036,7 @@
         <v>147</v>
       </c>
       <c r="B72">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2048,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>-3.279596764814819</v>
+        <v>-3.279596764814823</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>-4.440892098500626e-15</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2059,7 +2059,7 @@
         <v>147</v>
       </c>
       <c r="B73">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C73">
         <v>0.006802721088435374</v>
@@ -2071,10 +2071,10 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>-3.287007999006907</v>
+        <v>-3.287007999006915</v>
       </c>
       <c r="G73">
-        <v>-0.009285055258635211</v>
+        <v>-0.00928505525864276</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2082,7 +2082,7 @@
         <v>147</v>
       </c>
       <c r="B74">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C74">
         <v>0.01360544217687075</v>
@@ -2094,10 +2094,10 @@
         <v>2</v>
       </c>
       <c r="F74">
-        <v>-3.294419233198997</v>
+        <v>-3.294419233199006</v>
       </c>
       <c r="G74">
-        <v>-0.01857011051727131</v>
+        <v>-0.01857011051728108</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2105,7 +2105,7 @@
         <v>147</v>
       </c>
       <c r="B75">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C75">
         <v>0.02040816326530612</v>
@@ -2117,10 +2117,10 @@
         <v>3</v>
       </c>
       <c r="F75">
-        <v>-3.301830467391085</v>
+        <v>-3.301830467391095</v>
       </c>
       <c r="G75">
-        <v>-0.02785516577590608</v>
+        <v>-0.0278551657759154</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2128,7 +2128,7 @@
         <v>147</v>
       </c>
       <c r="B76">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C76">
         <v>0.0272108843537415</v>
@@ -2140,10 +2140,10 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>-3.309241701583174</v>
+        <v>-3.30924170158318</v>
       </c>
       <c r="G76">
-        <v>-0.03361112187727944</v>
+        <v>-0.0371402210345475</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2151,7 +2151,7 @@
         <v>147</v>
       </c>
       <c r="B77">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C77">
         <v>0.03401360544217687</v>
@@ -2163,10 +2163,10 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-3.314606061045756</v>
+        <v>-3.314542936913571</v>
       </c>
       <c r="G77">
-        <v>-0.04388497752738996</v>
+        <v>-0.04431527743148589</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2174,7 +2174,7 @@
         <v>147</v>
       </c>
       <c r="B78">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C78">
         <v>0.04081632653061224</v>
@@ -2186,10 +2186,10 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-3.321954171105651</v>
+        <v>-3.313476872495566</v>
       </c>
       <c r="G78">
-        <v>-0.04934580522489984</v>
+        <v>-0.0451230340800266</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2197,7 +2197,7 @@
         <v>147</v>
       </c>
       <c r="B79">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C79">
         <v>0.04761904761904762</v>
@@ -2209,10 +2209,10 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-3.33147540415944</v>
+        <v>-3.324910629881199</v>
       </c>
       <c r="G79">
-        <v>-0.0589259888873972</v>
+        <v>-0.05843061253220672</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2220,7 +2220,7 @@
         <v>147</v>
       </c>
       <c r="B80">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C80">
         <v>0.05442176870748299</v>
@@ -2232,10 +2232,10 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-3.332852878694339</v>
+        <v>-3.324635891324818</v>
       </c>
       <c r="G80">
-        <v>-0.06424296057828993</v>
+        <v>-0.06002969504237221</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2243,7 +2243,7 @@
         <v>147</v>
       </c>
       <c r="B81">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C81">
         <v>0.06122448979591837</v>
@@ -2255,10 +2255,10 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-3.339735050584286</v>
+        <v>-3.33019294544869</v>
       </c>
       <c r="G81">
-        <v>-0.07700267536838679</v>
+        <v>-0.0674605702327904</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2266,7 +2266,7 @@
         <v>147</v>
       </c>
       <c r="B82">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C82">
         <v>0.06802721088435375</v>
@@ -2278,10 +2278,10 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-3.344604033691675</v>
+        <v>-3.328417825429248</v>
       </c>
       <c r="G82">
-        <v>-0.07600873925560636</v>
+        <v>-0.06755927127989558</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2289,7 +2289,7 @@
         <v>147</v>
       </c>
       <c r="B83">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C83">
         <v>0.07482993197278912</v>
@@ -2301,10 +2301,10 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-3.345819959384063</v>
+        <v>-3.34116092698394</v>
       </c>
       <c r="G83">
-        <v>-0.08484918569729372</v>
+        <v>-0.08217619390113384</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2312,7 +2312,7 @@
         <v>147</v>
       </c>
       <c r="B84">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C84">
         <v>0.08163265306122448</v>
@@ -2324,10 +2324,10 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-3.352836194250187</v>
+        <v>-3.34840217251251</v>
       </c>
       <c r="G84">
-        <v>-0.08965026064744652</v>
+        <v>-0.0912912604962508</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2335,7 +2335,7 @@
         <v>147</v>
       </c>
       <c r="B85">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C85">
         <v>0.08843537414965986</v>
@@ -2347,10 +2347,10 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-3.360089796372701</v>
+        <v>-3.344422420341553</v>
       </c>
       <c r="G85">
-        <v>-0.08825240197286455</v>
+        <v>-0.08918532939184054</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2358,7 +2358,7 @@
         <v>147</v>
       </c>
       <c r="B86">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C86">
         <v>0.09523809523809523</v>
@@ -2370,10 +2370,10 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-3.370694337755345</v>
+        <v>-3.339347090563797</v>
       </c>
       <c r="G86">
-        <v>-0.09101348802096609</v>
+        <v>-0.08598382068063071</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2381,7 +2381,7 @@
         <v>147</v>
       </c>
       <c r="B87">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C87">
         <v>0.1020408163265306</v>
@@ -2393,10 +2393,10 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-3.358796638435282</v>
+        <v>-3.351835250199908</v>
       </c>
       <c r="G87">
-        <v>-0.08928421892288707</v>
+        <v>-0.1003458013832881</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2404,7 +2404,7 @@
         <v>147</v>
       </c>
       <c r="B88">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C88">
         <v>0.108843537414966</v>
@@ -2416,10 +2416,10 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-3.36870247867511</v>
+        <v>-3.352146253311877</v>
       </c>
       <c r="G88">
-        <v>-0.1104120777850932</v>
+        <v>-0.1025306255618035</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2427,7 +2427,7 @@
         <v>147</v>
       </c>
       <c r="B89">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C89">
         <v>0.1156462585034014</v>
@@ -2439,10 +2439,10 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-3.367934316082449</v>
+        <v>-3.34861703575165</v>
       </c>
       <c r="G89">
-        <v>-0.119977890876406</v>
+        <v>-0.1008752290681234</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2450,7 +2450,7 @@
         <v>147</v>
       </c>
       <c r="B90">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C90">
         <v>0.1224489795918367</v>
@@ -2462,10 +2462,10 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.375086060136535</v>
+        <v>-3.349920111253549</v>
       </c>
       <c r="G90">
-        <v>-0.1257596257305034</v>
+        <v>-0.1040521256365698</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2473,7 +2473,7 @@
         <v>147</v>
       </c>
       <c r="B91">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C91">
         <v>0.1292517006802721</v>
@@ -2485,10 +2485,10 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-3.375379699741791</v>
+        <v>-3.373162142277823</v>
       </c>
       <c r="G91">
-        <v>-0.1145747770838432</v>
+        <v>-0.1291679777273895</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2496,7 +2496,7 @@
         <v>147</v>
       </c>
       <c r="B92">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C92">
         <v>0.1360544217687075</v>
@@ -2508,10 +2508,10 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-3.380468550040945</v>
+        <v>-3.362835431846743</v>
       </c>
       <c r="G92">
-        <v>-0.1315550993516643</v>
+        <v>-0.1207150883628567</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2519,7 +2519,7 @@
         <v>147</v>
       </c>
       <c r="B93">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C93">
         <v>0.1428571428571428</v>
@@ -2531,10 +2531,10 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-3.38634017400484</v>
+        <v>-3.369938000848022</v>
       </c>
       <c r="G93">
-        <v>-0.1133794004239532</v>
+        <v>-0.129691478430682</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2542,7 +2542,7 @@
         <v>147</v>
       </c>
       <c r="B94">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C94">
         <v>0.1496598639455782</v>
@@ -2554,10 +2554,10 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-3.376496600315843</v>
+        <v>-3.358218592963137</v>
       </c>
       <c r="G94">
-        <v>-0.1305519531027151</v>
+        <v>-0.1198458916123433</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2565,7 +2565,7 @@
         <v>147</v>
       </c>
       <c r="B95">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C95">
         <v>0.1564625850340136</v>
@@ -2577,10 +2577,10 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-3.385596363699024</v>
+        <v>-3.353646473073372</v>
       </c>
       <c r="G95">
-        <v>-0.1294686801489888</v>
+        <v>-0.1171475927891255</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2588,7 +2588,7 @@
         <v>147</v>
       </c>
       <c r="B96">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C96">
         <v>0.163265306122449</v>
@@ -2600,10 +2600,10 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-3.389989646207021</v>
+        <v>-3.368552599983818</v>
       </c>
       <c r="G96">
-        <v>-0.1394175482500937</v>
+        <v>-0.1339275407661176</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2611,7 +2611,7 @@
         <v>147</v>
       </c>
       <c r="B97">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C97">
         <v>0.1700680272108843</v>
@@ -2623,10 +2623,10 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-3.385676458154926</v>
+        <v>-3.375547218075465</v>
       </c>
       <c r="G97">
-        <v>-0.1423327601376538</v>
+        <v>-0.142795979924311</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2634,7 +2634,7 @@
         <v>147</v>
       </c>
       <c r="B98">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C98">
         <v>0.1768707482993197</v>
@@ -2646,10 +2646,10 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-3.394643649187555</v>
+        <v>-3.370849215896617</v>
       </c>
       <c r="G98">
-        <v>-0.1444118490741286</v>
+        <v>-0.1399717988120099</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2657,7 +2657,7 @@
         <v>147</v>
       </c>
       <c r="B99">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C99">
         <v>0.1836734693877551</v>
@@ -2669,10 +2669,10 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-3.382615785220771</v>
+        <v>-3.384837728258374</v>
       </c>
       <c r="G99">
-        <v>-0.1447902289103005</v>
+        <v>-0.1558341322403134</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2680,7 +2680,7 @@
         <v>147</v>
       </c>
       <c r="B100">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C100">
         <v>0.1904761904761905</v>
@@ -2692,10 +2692,10 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-3.394105443564672</v>
+        <v>-3.357134057154605</v>
       </c>
       <c r="G100">
-        <v>-0.1469088819782813</v>
+        <v>-0.1300042822030916</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2703,7 +2703,7 @@
         <v>147</v>
       </c>
       <c r="B101">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C101">
         <v>0.1972789115646258</v>
@@ -2715,10 +2715,10 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-3.393313363151528</v>
+        <v>-3.385581625826558</v>
       </c>
       <c r="G101">
-        <v>-0.1643123216409852</v>
+        <v>-0.1603256719415911</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2726,7 +2726,7 @@
         <v>147</v>
       </c>
       <c r="B102">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C102">
         <v>0.2040816326530612</v>
@@ -2738,10 +2738,10 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-3.401893313768267</v>
+        <v>-3.373406096277651</v>
       </c>
       <c r="G102">
-        <v>-0.1581729868318993</v>
+        <v>-0.1500239634592311</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2749,7 +2749,7 @@
         <v>147</v>
       </c>
       <c r="B103">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C103">
         <v>0.2108843537414966</v>
@@ -2761,10 +2761,10 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-3.388595656315105</v>
+        <v>-3.383202622546899</v>
       </c>
       <c r="G103">
-        <v>-0.1536820056709445</v>
+        <v>-0.1616943107950251</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2772,7 +2772,7 @@
         <v>147</v>
       </c>
       <c r="B104">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C104">
         <v>0.217687074829932</v>
@@ -2784,10 +2784,10 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-3.397338662259792</v>
+        <v>-3.372138569275543</v>
       </c>
       <c r="G104">
-        <v>-0.1628001593024928</v>
+        <v>-0.1525040785902165</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2795,7 +2795,7 @@
         <v>147</v>
       </c>
       <c r="B105">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C105">
         <v>0.2244897959183673</v>
@@ -2807,10 +2807,10 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-3.40324034921845</v>
+        <v>-3.374261747977673</v>
       </c>
       <c r="G105">
-        <v>-0.159964403379929</v>
+        <v>-0.1565010783588923</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2818,7 +2818,7 @@
         <v>147</v>
       </c>
       <c r="B106">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C106">
         <v>0.2312925170068027</v>
@@ -2830,10 +2830,10 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-3.406518194325581</v>
+        <v>-3.393972948747968</v>
       </c>
       <c r="G106">
-        <v>-0.1681568285589825</v>
+        <v>-0.1780861001957339</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2841,7 +2841,7 @@
         <v>147</v>
       </c>
       <c r="B107">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C107">
         <v>0.2380952380952381</v>
@@ -2853,10 +2853,10 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-3.402967126567328</v>
+        <v>-3.366341186528293</v>
       </c>
       <c r="G107">
-        <v>-0.1795804102608165</v>
+        <v>-0.1523281590426055</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2864,7 +2864,7 @@
         <v>147</v>
       </c>
       <c r="B108">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C108">
         <v>0.2448979591836735</v>
@@ -2876,10 +2876,10 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-3.409439262407605</v>
+        <v>-3.397817888067836</v>
       </c>
       <c r="G108">
-        <v>-0.1805997131968469</v>
+        <v>-0.1856786816486955</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2887,7 +2887,7 @@
         <v>147</v>
       </c>
       <c r="B109">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C109">
         <v>0.2517006802721088</v>
@@ -2899,10 +2899,10 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-3.40603851401809</v>
+        <v>-3.38826577848866</v>
       </c>
       <c r="G109">
-        <v>-0.175495400799615</v>
+        <v>-0.1780003931360663</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2910,7 +2910,7 @@
         <v>147</v>
       </c>
       <c r="B110">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C110">
         <v>0.2585034013605442</v>
@@ -2922,10 +2922,10 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-3.403857886286108</v>
+        <v>-3.39397508995246</v>
       </c>
       <c r="G110">
-        <v>-0.1823502475483587</v>
+        <v>-0.1855835256664125</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2933,7 +2933,7 @@
         <v>147</v>
       </c>
       <c r="B111">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C111">
         <v>0.2653061224489796</v>
@@ -2945,10 +2945,10 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-3.402110592914957</v>
+        <v>-3.394730338987231</v>
       </c>
       <c r="G111">
-        <v>-0.1920690126338518</v>
+        <v>-0.1882125957677303</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2956,7 +2956,7 @@
         <v>147</v>
       </c>
       <c r="B112">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C112">
         <v>0.272108843537415</v>
@@ -2968,10 +2968,10 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-3.422274862538167</v>
+        <v>-3.389871394962058</v>
       </c>
       <c r="G112">
-        <v>-0.2176309403852135</v>
+        <v>-0.1852274728091046</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2979,7 +2979,7 @@
         <v>147</v>
       </c>
       <c r="B113">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C113">
         <v>0.2789115646258503</v>
@@ -2991,10 +2991,10 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-3.417377083298421</v>
+        <v>-3.405356275520742</v>
       </c>
       <c r="G113">
-        <v>-0.2029291835335951</v>
+        <v>-0.2025861744343338</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3002,7 +3002,7 @@
         <v>147</v>
       </c>
       <c r="B114">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C114">
         <v>0.2857142857142857</v>
@@ -3014,10 +3014,10 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-3.411100187523968</v>
+        <v>-3.388487759077516</v>
       </c>
       <c r="G114">
-        <v>-0.2102039075041073</v>
+        <v>-0.1875914790576547</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3025,7 +3025,7 @@
         <v>147</v>
       </c>
       <c r="B115">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C115">
         <v>0.2925170068027211</v>
@@ -3037,10 +3037,10 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-3.41260303343529</v>
+        <v>-3.390722685712904</v>
       </c>
       <c r="G115">
-        <v>-0.2047355400285973</v>
+        <v>-0.1917002267595898</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3048,7 +3048,7 @@
         <v>147</v>
       </c>
       <c r="B116">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C116">
         <v>0.2993197278911565</v>
@@ -3060,10 +3060,10 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-3.411301791621526</v>
+        <v>-3.394067318624568</v>
       </c>
       <c r="G116">
-        <v>-0.1902833116781149</v>
+        <v>-0.1969186807377996</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3071,7 +3071,7 @@
         <v>147</v>
       </c>
       <c r="B117">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C117">
         <v>0.3061224489795918</v>
@@ -3083,10 +3083,10 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-3.415168197495018</v>
+        <v>-3.421414733231661</v>
       </c>
       <c r="G117">
-        <v>-0.2099496587531098</v>
+        <v>-0.2261399164114395</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3094,7 +3094,7 @@
         <v>147</v>
       </c>
       <c r="B118">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C118">
         <v>0.3129251700680272</v>
@@ -3106,10 +3106,10 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-3.418749411773013</v>
+        <v>-3.401804403320661</v>
       </c>
       <c r="G118">
-        <v>-0.215953369435721</v>
+        <v>-0.2084034075669865</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3117,7 +3117,7 @@
         <v>147</v>
       </c>
       <c r="B119">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C119">
         <v>0.3197278911564626</v>
@@ -3129,10 +3129,10 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-3.415320727195441</v>
+        <v>-3.402209535646442</v>
       </c>
       <c r="G119">
-        <v>-0.2050606721876065</v>
+        <v>-0.2106823609593143</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3140,7 +3140,7 @@
         <v>147</v>
       </c>
       <c r="B120">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C120">
         <v>0.3265306122448979</v>
@@ -3152,10 +3152,10 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-3.411397773817014</v>
+        <v>-3.396525195586651</v>
       </c>
       <c r="G120">
-        <v>-0.2167205927199762</v>
+        <v>-0.2068718419660698</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3163,7 +3163,7 @@
         <v>147</v>
       </c>
       <c r="B121">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C121">
         <v>0.3333333333333333</v>
@@ -3175,10 +3175,10 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-3.413862201030466</v>
+        <v>-3.410222395428433</v>
       </c>
       <c r="G121">
-        <v>-0.2184772914702955</v>
+        <v>-0.2224428628743973</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3186,7 +3186,7 @@
         <v>147</v>
       </c>
       <c r="B122">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C122">
         <v>0.3401360544217687</v>
@@ -3198,10 +3198,10 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-3.411873545432833</v>
+        <v>-3.407264604318009</v>
       </c>
       <c r="G122">
-        <v>-0.2231403292795791</v>
+        <v>-0.2213588928305201</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3209,7 +3209,7 @@
         <v>147</v>
       </c>
       <c r="B123">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C123">
         <v>0.3469387755102041</v>
@@ -3221,10 +3221,10 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-3.410627612456151</v>
+        <v>-3.401650374856453</v>
       </c>
       <c r="G123">
-        <v>-0.2265957220352091</v>
+        <v>-0.2176184844355107</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3232,7 +3232,7 @@
         <v>147</v>
       </c>
       <c r="B124">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C124">
         <v>0.3537414965986395</v>
@@ -3244,10 +3244,10 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-3.414340193319759</v>
+        <v>-3.411740493579421</v>
       </c>
       <c r="G124">
-        <v>-0.2210702372970439</v>
+        <v>-0.2295824242250259</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3255,7 +3255,7 @@
         <v>147</v>
       </c>
       <c r="B125">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C125">
         <v>0.3605442176870748</v>
@@ -3267,10 +3267,10 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-3.41270702916076</v>
+        <v>-3.401139210242253</v>
       </c>
       <c r="G125">
-        <v>-0.2291138561276234</v>
+        <v>-0.2208549619544038</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3278,7 +3278,7 @@
         <v>147</v>
       </c>
       <c r="B126">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C126">
         <v>0.3673469387755102</v>
@@ -3290,10 +3290,10 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-3.408727968757467</v>
+        <v>-3.407931018516845</v>
       </c>
       <c r="G126">
-        <v>-0.2239826514652883</v>
+        <v>-0.2295205912955431</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3301,7 +3301,7 @@
         <v>147</v>
       </c>
       <c r="B127">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C127">
         <v>0.3741496598639456</v>
@@ -3313,10 +3313,10 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-3.407260882858848</v>
+        <v>-3.405281848924892</v>
       </c>
       <c r="G127">
-        <v>-0.2301649029104311</v>
+        <v>-0.2287452427701364</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3324,7 +3324,7 @@
         <v>147</v>
       </c>
       <c r="B128">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C128">
         <v>0.3809523809523809</v>
@@ -3336,10 +3336,10 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-3.405961626650659</v>
+        <v>-3.406172649675225</v>
       </c>
       <c r="G128">
-        <v>-0.2300882809256866</v>
+        <v>-0.2315098645870166</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3347,7 +3347,7 @@
         <v>147</v>
       </c>
       <c r="B129">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C129">
         <v>0.3877551020408163</v>
@@ -3359,10 +3359,10 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-3.405459200483644</v>
+        <v>-3.403406865041504</v>
       </c>
       <c r="G129">
-        <v>-0.2326702364619821</v>
+        <v>-0.2306179010198424</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3370,7 +3370,7 @@
         <v>147</v>
       </c>
       <c r="B130">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C130">
         <v>0.3945578231292517</v>
@@ -3382,10 +3382,10 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-3.403104385933839</v>
+        <v>-3.403482324209409</v>
       </c>
       <c r="G130">
-        <v>-0.2317691204506258</v>
+        <v>-0.2325671812542933</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3393,7 +3393,7 @@
         <v>147</v>
       </c>
       <c r="B131">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C131">
         <v>0.4013605442176871</v>
@@ -3405,10 +3405,10 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-3.40244253868217</v>
+        <v>-3.401364965907115</v>
       </c>
       <c r="G131">
-        <v>-0.2312992029325993</v>
+        <v>-0.2323236440185459</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3416,7 +3416,7 @@
         <v>147</v>
       </c>
       <c r="B132">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C132">
         <v>0.4081632653061225</v>
@@ -3428,10 +3428,10 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-3.400458168241593</v>
+        <v>-3.397920426280409</v>
       </c>
       <c r="G132">
-        <v>-0.2326844253406632</v>
+        <v>-0.2307529254583873</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3439,7 +3439,7 @@
         <v>147</v>
       </c>
       <c r="B133">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C133">
         <v>0.4149659863945578</v>
@@ -3451,10 +3451,10 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-3.399069859495636</v>
+        <v>-3.396864710901148</v>
       </c>
       <c r="G133">
-        <v>-0.2331948411350191</v>
+        <v>-0.231571031145672</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3462,7 +3462,7 @@
         <v>147</v>
       </c>
       <c r="B134">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C134">
         <v>0.4217687074829932</v>
@@ -3474,10 +3474,10 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-3.397725658523253</v>
+        <v>-3.396215828941992</v>
       </c>
       <c r="G134">
-        <v>-0.2336879761506181</v>
+        <v>-0.2327959702530633</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3485,7 +3485,7 @@
         <v>147</v>
       </c>
       <c r="B135">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C135">
         <v>0.4285714285714285</v>
@@ -3497,10 +3497,10 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-3.396263955475519</v>
+        <v>-3.393271322159787</v>
       </c>
       <c r="G135">
-        <v>-0.2328643915014408</v>
+        <v>-0.2317252845374052</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3508,7 +3508,7 @@
         <v>147</v>
       </c>
       <c r="B136">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C136">
         <v>0.4353741496598639</v>
@@ -3520,10 +3520,10 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-3.394296231645471</v>
+        <v>-3.393680837122377</v>
       </c>
       <c r="G136">
-        <v>-0.2336498865907779</v>
+        <v>-0.2340086205665419</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3531,7 +3531,7 @@
         <v>147</v>
       </c>
       <c r="B137">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C137">
         <v>0.4421768707482993</v>
@@ -3543,10 +3543,10 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.393426921992265</v>
+        <v>-3.392187001677749</v>
       </c>
       <c r="G137">
-        <v>-0.2341430216063765</v>
+        <v>-0.2343886061884601</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3554,7 +3554,7 @@
         <v>147</v>
       </c>
       <c r="B138">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C138">
         <v>0.4489795918367347</v>
@@ -3566,10 +3566,10 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.390631777680795</v>
+        <v>-3.390063944201498</v>
       </c>
       <c r="G138">
-        <v>-0.233050181871072</v>
+        <v>-0.2341393697787564</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3577,7 +3577,7 @@
         <v>147</v>
       </c>
       <c r="B139">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C139">
         <v>0.4557823129251701</v>
@@ -3589,10 +3589,10 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.38748620263964</v>
+        <v>-3.38562782084936</v>
       </c>
       <c r="G139">
-        <v>-0.2320717234554059</v>
+        <v>-0.2315770674931639</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3600,7 +3600,7 @@
         <v>147</v>
       </c>
       <c r="B140">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C140">
         <v>0.4625850340136055</v>
@@ -3612,10 +3612,10 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.385117369163055</v>
+        <v>-3.38277044299288</v>
       </c>
       <c r="G140">
-        <v>-0.2307320672120563</v>
+        <v>-0.2305935107032309</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3623,7 +3623,7 @@
         <v>147</v>
       </c>
       <c r="B141">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C141">
         <v>0.4693877551020408</v>
@@ -3635,10 +3635,10 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.381351638117282</v>
+        <v>-3.380210250283382</v>
       </c>
       <c r="G141">
-        <v>-0.227492791512222</v>
+        <v>-0.2299071390602794</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3646,7 +3646,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C142">
         <v>0.4761904761904762</v>
@@ -3658,10 +3658,10 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.378107764137127</v>
+        <v>-3.379590796399011</v>
       </c>
       <c r="G142">
-        <v>-0.2285013479764328</v>
+        <v>-0.231161506242455</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3669,7 +3669,7 @@
         <v>147</v>
       </c>
       <c r="B143">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C143">
         <v>0.4829931972789115</v>
@@ -3681,10 +3681,10 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.378068076565327</v>
+        <v>-3.373898598878496</v>
       </c>
       <c r="G143">
-        <v>-0.229564363983503</v>
+        <v>-0.2273431297884863</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3692,7 +3692,7 @@
         <v>147</v>
       </c>
       <c r="B144">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C144">
         <v>0.4897959183673469</v>
@@ -3704,10 +3704,10 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.37269800791296</v>
+        <v>-3.370737792985103</v>
       </c>
       <c r="G144">
-        <v>-0.2258707793614456</v>
+        <v>-0.2260561449616407</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3715,7 +3715,7 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C145">
         <v>0.4965986394557823</v>
@@ -3727,10 +3727,10 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.369326341444368</v>
+        <v>-3.367113280371397</v>
       </c>
       <c r="G145">
-        <v>-0.2210763703002074</v>
+        <v>-0.2243054534144808</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3738,7 +3738,7 @@
         <v>147</v>
       </c>
       <c r="B146">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C146">
         <v>0.5034013605442177</v>
@@ -3750,10 +3750,10 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.365128791252491</v>
+        <v>-3.365392822040912</v>
       </c>
       <c r="G146">
-        <v>-0.2238595504845362</v>
+        <v>-0.2244588161505425</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3761,7 +3761,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C147">
         <v>0.5102040816326531</v>
@@ -3773,10 +3773,10 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.362722295921947</v>
+        <v>-3.359932596515183</v>
       </c>
       <c r="G147">
-        <v>-0.2203118634081678</v>
+        <v>-0.2208724116913601</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3784,7 +3784,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C148">
         <v>0.5170068027210885</v>
@@ -3796,10 +3796,10 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-3.361003820036867</v>
+        <v>-3.356306605760823</v>
       </c>
       <c r="G148">
-        <v>-0.2176146409570185</v>
+        <v>-0.219120242003547</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3807,7 +3807,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C149">
         <v>0.5238095238095238</v>
@@ -3819,10 +3819,10 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.356415737096493</v>
+        <v>-3.357579049561511</v>
       </c>
       <c r="G149">
-        <v>-0.215265603062204</v>
+        <v>-0.222266506870781</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3830,7 +3830,7 @@
         <v>147</v>
       </c>
       <c r="B150">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C150">
         <v>0.5306122448979592</v>
@@ -3842,10 +3842,10 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.35297727527166</v>
+        <v>-3.351857929676606</v>
       </c>
       <c r="G150">
-        <v>-0.2133584521464564</v>
+        <v>-0.2184192080524225</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3853,7 +3853,7 @@
         <v>147</v>
       </c>
       <c r="B151">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C151">
         <v>0.5374149659863946</v>
@@ -3865,10 +3865,10 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.35010110385768</v>
+        <v>-3.345035254064288</v>
       </c>
       <c r="G151">
-        <v>-0.2131173100966113</v>
+        <v>-0.2134703535066518</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3876,7 +3876,7 @@
         <v>147</v>
       </c>
       <c r="B152">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C152">
         <v>0.54421768707483</v>
@@ -3888,10 +3888,10 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.348170277952169</v>
+        <v>-3.345573432842019</v>
       </c>
       <c r="G152">
-        <v>-0.2169322424867879</v>
+        <v>-0.2158823533509286</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3899,7 +3899,7 @@
         <v>147</v>
       </c>
       <c r="B153">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C153">
         <v>0.5510204081632653</v>
@@ -3911,10 +3911,10 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.344083611118159</v>
+        <v>-3.340569229999092</v>
       </c>
       <c r="G153">
-        <v>-0.2162663526936157</v>
+        <v>-0.2127519715745487</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3922,7 +3922,7 @@
         <v>147</v>
       </c>
       <c r="B154">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C154">
         <v>0.5578231292517006</v>
@@ -3934,10 +3934,10 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.342050245017009</v>
+        <v>-3.338822512052856</v>
       </c>
       <c r="G154">
-        <v>-0.2125760450168246</v>
+        <v>-0.212879074694859</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3945,7 +3945,7 @@
         <v>147</v>
       </c>
       <c r="B155">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C155">
         <v>0.564625850340136</v>
@@ -3957,10 +3957,10 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.337192350859191</v>
+        <v>-3.332112876019532</v>
       </c>
       <c r="G155">
-        <v>-0.207802003874644</v>
+        <v>-0.2080432597280819</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3968,7 +3968,7 @@
         <v>147</v>
       </c>
       <c r="B156">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C156">
         <v>0.5714285714285714</v>
@@ -3980,10 +3980,10 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.332428063873297</v>
+        <v>-3.332832751910782</v>
       </c>
       <c r="G156">
-        <v>-0.2082173062125914</v>
+        <v>-0.2106369566858783</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3991,7 +3991,7 @@
         <v>147</v>
       </c>
       <c r="B157">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C157">
         <v>0.5782312925170068</v>
@@ -4003,10 +4003,10 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.329895635857927</v>
+        <v>-3.325582061956817</v>
       </c>
       <c r="G157">
-        <v>-0.2025682834270099</v>
+        <v>-0.2052600877984603</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4014,7 +4014,7 @@
         <v>147</v>
       </c>
       <c r="B158">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C158">
         <v>0.5850340136054422</v>
@@ -4026,10 +4026,10 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.32562999122119</v>
+        <v>-3.32247156732759</v>
       </c>
       <c r="G158">
-        <v>-0.1982961908894465</v>
+        <v>-0.2040234142357793</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4037,7 +4037,7 @@
         <v>147</v>
       </c>
       <c r="B159">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C159">
         <v>0.5918367346938775</v>
@@ -4049,10 +4049,10 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.32110359817156</v>
+        <v>-3.321040555205081</v>
       </c>
       <c r="G159">
-        <v>-0.2021477905358631</v>
+        <v>-0.2044662231798173</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4060,7 +4060,7 @@
         <v>147</v>
       </c>
       <c r="B160">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C160">
         <v>0.5986394557823129</v>
@@ -4072,10 +4072,10 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.317826967710571</v>
+        <v>-3.315011162676281</v>
       </c>
       <c r="G160">
-        <v>-0.2009061191696664</v>
+        <v>-0.2003106517175635</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4083,7 +4083,7 @@
         <v>147</v>
       </c>
       <c r="B161">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C161">
         <v>0.6054421768707483</v>
@@ -4095,10 +4095,10 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.314884054861565</v>
+        <v>-3.308002975667403</v>
       </c>
       <c r="G161">
-        <v>-0.1969458248955078</v>
+        <v>-0.1951762857752324</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4106,7 +4106,7 @@
         <v>147</v>
       </c>
       <c r="B162">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C162">
         <v>0.6122448979591837</v>
@@ -4118,10 +4118,10 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.310508734787596</v>
+        <v>-3.306348283190176</v>
       </c>
       <c r="G162">
-        <v>-0.1949503845778888</v>
+        <v>-0.1953954143645522</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4129,7 +4129,7 @@
         <v>147</v>
       </c>
       <c r="B163">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C163">
         <v>0.6190476190476191</v>
@@ -4141,10 +4141,10 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.305931332967053</v>
+        <v>-3.305239317647373</v>
       </c>
       <c r="G163">
-        <v>-0.1945908350570758</v>
+        <v>-0.196160269888296</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4152,7 +4152,7 @@
         <v>147</v>
       </c>
       <c r="B164">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C164">
         <v>0.6258503401360545</v>
@@ -4164,10 +4164,10 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.302947301214209</v>
+        <v>-3.298222940868841</v>
       </c>
       <c r="G164">
-        <v>-0.1910160131409877</v>
+        <v>-0.1910177141763105</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4175,7 +4175,7 @@
         <v>147</v>
       </c>
       <c r="B165">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C165">
         <v>0.6326530612244898</v>
@@ -4187,10 +4187,10 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.299128380893001</v>
+        <v>-3.298327307572297</v>
       </c>
       <c r="G165">
-        <v>-0.1893338767083659</v>
+        <v>-0.1929959019463126</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4198,7 +4198,7 @@
         <v>147</v>
       </c>
       <c r="B166">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C166">
         <v>0.6394557823129252</v>
@@ -4210,10 +4210,10 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.294374558803183</v>
+        <v>-3.2919618721656</v>
       </c>
       <c r="G166">
-        <v>-0.1906228630985818</v>
+        <v>-0.1885042876061629</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4221,7 +4221,7 @@
         <v>147</v>
       </c>
       <c r="B167">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C167">
         <v>0.6462585034013606</v>
@@ -4233,10 +4233,10 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.290366053823399</v>
+        <v>-3.288278651345147</v>
       </c>
       <c r="G167">
-        <v>-0.1843819933822457</v>
+        <v>-0.1866948878522565</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4244,7 +4244,7 @@
         <v>147</v>
       </c>
       <c r="B168">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C168">
         <v>0.6530612244897959</v>
@@ -4256,10 +4256,10 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.288484314556112</v>
+        <v>-3.282828787600266</v>
       </c>
       <c r="G168">
-        <v>-0.1820475885604986</v>
+        <v>-0.1831188451739216</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4267,7 +4267,7 @@
         <v>147</v>
       </c>
       <c r="B169">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C169">
         <v>0.6598639455782312</v>
@@ -4279,10 +4279,10 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.283016484943867</v>
+        <v>-3.280761421942833</v>
       </c>
       <c r="G169">
-        <v>-0.1851803635840692</v>
+        <v>-0.1829253005830356</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4290,7 +4290,7 @@
         <v>147</v>
       </c>
       <c r="B170">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C170">
         <v>0.6666666666666666</v>
@@ -4302,10 +4302,10 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.279307227218276</v>
+        <v>-3.277780863318002</v>
       </c>
       <c r="G170">
-        <v>-0.1793001924441542</v>
+        <v>-0.1818185630247513</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4313,7 +4313,7 @@
         <v>147</v>
       </c>
       <c r="B171">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C171">
         <v>0.673469387755102</v>
@@ -4325,10 +4325,10 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.273995614287013</v>
+        <v>-3.273992017282865</v>
       </c>
       <c r="G171">
-        <v>-0.1791409764184122</v>
+        <v>-0.1799035380561609</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4336,7 +4336,7 @@
         <v>147</v>
       </c>
       <c r="B172">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C172">
         <v>0.6802721088435374</v>
@@ -4348,10 +4348,10 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.270604263245523</v>
+        <v>-3.268472925443318</v>
       </c>
       <c r="G172">
-        <v>-0.1756850645357291</v>
+        <v>-0.1762582672831596</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4359,7 +4359,7 @@
         <v>147</v>
       </c>
       <c r="B173">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C173">
         <v>0.6870748299319728</v>
@@ -4371,10 +4371,10 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.264841667144041</v>
+        <v>-3.265133536922976</v>
       </c>
       <c r="G173">
-        <v>-0.1715644402749996</v>
+        <v>-0.1747926998293652</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4382,7 +4382,7 @@
         <v>147</v>
       </c>
       <c r="B174">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C174">
         <v>0.6938775510204082</v>
@@ -4394,10 +4394,10 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.260349640547117</v>
+        <v>-3.258261540851662</v>
       </c>
       <c r="G174">
-        <v>-0.1712163735733518</v>
+        <v>-0.1697945248245978</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4405,7 +4405,7 @@
         <v>147</v>
       </c>
       <c r="B175">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C175">
         <v>0.7006802721088435</v>
@@ -4417,10 +4417,10 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.256512214027683</v>
+        <v>-3.255931691008737</v>
       </c>
       <c r="G175">
-        <v>-0.1668815230604718</v>
+        <v>-0.169338496048219</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4428,7 +4428,7 @@
         <v>147</v>
       </c>
       <c r="B176">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C176">
         <v>0.7074829931972789</v>
@@ -4440,10 +4440,10 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.251129456999146</v>
+        <v>-3.250083366979478</v>
       </c>
       <c r="G176">
-        <v>-0.1655222361654407</v>
+        <v>-0.1653639930855073</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4451,7 +4451,7 @@
         <v>147</v>
       </c>
       <c r="B177">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C177">
         <v>0.7142857142857143</v>
@@ -4463,10 +4463,10 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.2468919841732</v>
+        <v>-3.246266803037682</v>
       </c>
       <c r="G177">
-        <v>-0.1632630071303691</v>
+        <v>-0.1634212502102577</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4474,7 +4474,7 @@
         <v>147</v>
       </c>
       <c r="B178">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C178">
         <v>0.7210884353741497</v>
@@ -4486,10 +4486,10 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.241849473721451</v>
+        <v>-3.241666814880479</v>
       </c>
       <c r="G178">
-        <v>-0.158936057637772</v>
+        <v>-0.1606950831196005</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4497,7 +4497,7 @@
         <v>147</v>
       </c>
       <c r="B179">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C179">
         <v>0.7278911564625851</v>
@@ -4509,10 +4509,10 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.23797534109459</v>
+        <v>-3.237925043708042</v>
       </c>
       <c r="G179">
-        <v>-0.157458786953658</v>
+        <v>-0.1588271330137104</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4520,7 +4520,7 @@
         <v>147</v>
       </c>
       <c r="B180">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C180">
         <v>0.7346938775510204</v>
@@ -4532,10 +4532,10 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.23281639234</v>
+        <v>-3.232095555857486</v>
       </c>
       <c r="G180">
-        <v>-0.1547589413998007</v>
+        <v>-0.1548714662297017</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4543,7 +4543,7 @@
         <v>147</v>
       </c>
       <c r="B181">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C181">
         <v>0.7414965986394558</v>
@@ -4555,10 +4555,10 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.228562325151508</v>
+        <v>-3.227082559836421</v>
       </c>
       <c r="G181">
-        <v>-0.1530452412791101</v>
+        <v>-0.1517322912751826</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4566,7 +4566,7 @@
         <v>147</v>
       </c>
       <c r="B182">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C182">
         <v>0.7482993197278912</v>
@@ -4578,10 +4578,10 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.223265995894645</v>
+        <v>-3.222619952181492</v>
       </c>
       <c r="G182">
-        <v>-0.1479805858210953</v>
+        <v>-0.1491435046868</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4589,7 +4589,7 @@
         <v>147</v>
       </c>
       <c r="B183">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C183">
         <v>0.7551020408163265</v>
@@ -4601,10 +4601,10 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.218462406697063</v>
+        <v>-3.217415645466431</v>
       </c>
       <c r="G183">
-        <v>-0.1453252184050839</v>
+        <v>-0.145813019038286</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4612,7 +4612,7 @@
         <v>147</v>
       </c>
       <c r="B184">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C184">
         <v>0.7619047619047619</v>
@@ -4624,10 +4624,10 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.215040674867844</v>
+        <v>-3.213765896835796</v>
       </c>
       <c r="G184">
-        <v>-0.1430659893700127</v>
+        <v>-0.1440370914741976</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4635,7 +4635,7 @@
         <v>147</v>
       </c>
       <c r="B185">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C185">
         <v>0.7687074829931972</v>
@@ -4647,10 +4647,10 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.210053560472264</v>
+        <v>-3.208519864965459</v>
       </c>
       <c r="G185">
-        <v>-0.139947597371337</v>
+        <v>-0.1406648806704068</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4658,7 +4658,7 @@
         <v>147</v>
       </c>
       <c r="B186">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C186">
         <v>0.7755102040816326</v>
@@ -4670,10 +4670,10 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.203944732480628</v>
+        <v>-3.204894611717659</v>
       </c>
       <c r="G186">
-        <v>-0.1375674308711843</v>
+        <v>-0.1389134484891539</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4681,7 +4681,7 @@
         <v>147</v>
       </c>
       <c r="B187">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C187">
         <v>0.782312925170068</v>
@@ -4693,10 +4693,10 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.198347920189822</v>
+        <v>-3.197352322702764</v>
       </c>
       <c r="G187">
-        <v>-0.1340075421785969</v>
+        <v>-0.133244980540806</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4704,7 +4704,7 @@
         <v>147</v>
       </c>
       <c r="B188">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C188">
         <v>0.7891156462585034</v>
@@ -4716,10 +4716,10 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.194327755207647</v>
+        <v>-3.193006232972472</v>
       </c>
       <c r="G188">
-        <v>-0.1317020888260066</v>
+        <v>-0.1307727118770597</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4727,7 +4727,7 @@
         <v>147</v>
       </c>
       <c r="B189">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C189">
         <v>0.7959183673469388</v>
@@ -4739,10 +4739,10 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.188710440628721</v>
+        <v>-3.189219103839561</v>
       </c>
       <c r="G189">
-        <v>-0.1283507405998555</v>
+        <v>-0.1288594038106959</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4750,7 +4750,7 @@
         <v>147</v>
       </c>
       <c r="B190">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C190">
         <v>0.8027210884353742</v>
@@ -4762,10 +4762,10 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.184226970396153</v>
+        <v>-3.184780911945668</v>
       </c>
       <c r="G190">
-        <v>-0.1240700154247778</v>
+        <v>-0.126295032983349</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4773,7 +4773,7 @@
         <v>147</v>
       </c>
       <c r="B191">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C191">
         <v>0.8095238095238095</v>
@@ -4785,10 +4785,10 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.178904679892011</v>
+        <v>-3.178396016681127</v>
       </c>
       <c r="G191">
-        <v>-0.1210682209725289</v>
+        <v>-0.1217839587853553</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4796,7 +4796,7 @@
         <v>147</v>
       </c>
       <c r="B192">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C192">
         <v>0.8163265306122449</v>
@@ -4808,10 +4808,10 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.173776631810758</v>
+        <v>-3.1736601138861</v>
       </c>
       <c r="G192">
-        <v>-0.1177168727463781</v>
+        <v>-0.1189218770568751</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4819,7 +4819,7 @@
         <v>147</v>
       </c>
       <c r="B193">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C193">
         <v>0.8231292517006803</v>
@@ -4831,10 +4831,10 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.168667980442695</v>
+        <v>-3.168016917681693</v>
       </c>
       <c r="G193">
-        <v>-0.1154540109061147</v>
+        <v>-0.1151525019190135</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4842,7 +4842,7 @@
         <v>147</v>
       </c>
       <c r="B194">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C194">
         <v>0.8299319727891157</v>
@@ -4854,10 +4854,10 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.163326293225364</v>
+        <v>-3.162558712539722</v>
       </c>
       <c r="G194">
-        <v>-0.1110141762940766</v>
+        <v>-0.1115681178435897</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4865,7 +4865,7 @@
         <v>147</v>
       </c>
       <c r="B195">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C195">
         <v>0.8367346938775511</v>
@@ -4877,10 +4877,10 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.1582176418573</v>
+        <v>-3.156663083772854</v>
       </c>
       <c r="G195">
-        <v>-0.1074297922186587</v>
+        <v>-0.1075463101432679</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4888,7 +4888,7 @@
         <v>147</v>
       </c>
       <c r="B196">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C196">
         <v>0.8435374149659864</v>
@@ -4900,10 +4900,10 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.15234140980362</v>
+        <v>-3.153011869277767</v>
       </c>
       <c r="G196">
-        <v>-0.1043114798417756</v>
+        <v>-0.1057689167147279</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4911,7 +4911,7 @@
         <v>147</v>
       </c>
       <c r="B197">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C197">
         <v>0.8503401360544217</v>
@@ -4923,10 +4923,10 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.147205410945618</v>
+        <v>-3.146329263112093</v>
       </c>
       <c r="G197">
-        <v>-0.1009601316156245</v>
+        <v>-0.1009601316156005</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4934,7 +4934,7 @@
         <v>147</v>
       </c>
       <c r="B198">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C198">
         <v>0.8571428571428571</v>
@@ -4946,10 +4946,10 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.142116156290743</v>
+        <v>-3.141240008457217</v>
       </c>
       <c r="G198">
-        <v>-0.09788061266511716</v>
+        <v>-0.09774469802727148</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4957,7 +4957,7 @@
         <v>147</v>
       </c>
       <c r="B199">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C199">
         <v>0.8639455782312925</v>
@@ -4969,10 +4969,10 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.136937731201171</v>
+        <v>-3.136150753802342</v>
       </c>
       <c r="G199">
-        <v>-0.09463783158684974</v>
+        <v>-0.09452926443894244</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4980,7 +4980,7 @@
         <v>147</v>
       </c>
       <c r="B200">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C200">
         <v>0.8707482993197279</v>
@@ -4992,10 +4992,10 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.131239840016882</v>
+        <v>-3.130363692183356</v>
       </c>
       <c r="G200">
-        <v>-0.08910683906523764</v>
+        <v>-0.09061602388650392</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5003,7 +5003,7 @@
         <v>147</v>
       </c>
       <c r="B201">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C201">
         <v>0.8775510204081632</v>
@@ -5015,10 +5015,10 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.12606141492731</v>
+        <v>-3.12597224449259</v>
       </c>
       <c r="G201">
-        <v>-0.08589140547690821</v>
+        <v>-0.08809839726228352</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5026,7 +5026,7 @@
         <v>147</v>
       </c>
       <c r="B202">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C202">
         <v>0.8843537414965986</v>
@@ -5038,10 +5038,10 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.121061330707131</v>
+        <v>-3.119487375909495</v>
       </c>
       <c r="G202">
-        <v>-0.08348734974576039</v>
+        <v>-0.08348734974573507</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5049,7 +5049,7 @@
         <v>147</v>
       </c>
       <c r="B203">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C203">
         <v>0.891156462585034</v>
@@ -5061,10 +5061,10 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.114398121254644</v>
+        <v>-3.114398121254618</v>
       </c>
       <c r="G203">
-        <v>-0.07946053830024968</v>
+        <v>-0.08027191615740559</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5072,7 +5072,7 @@
         <v>147</v>
       </c>
       <c r="B204">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C204">
         <v>0.8979591836734694</v>
@@ -5084,10 +5084,10 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.108611059635658</v>
+        <v>-3.109308866599743</v>
       </c>
       <c r="G204">
-        <v>-0.0755472977478116</v>
+        <v>-0.07705648256907655</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5095,7 +5095,7 @@
         <v>147</v>
       </c>
       <c r="B205">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C205">
         <v>0.9047619047619048</v>
@@ -5107,10 +5107,10 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.103521804980783</v>
+        <v>-3.102012620159468</v>
       </c>
       <c r="G205">
-        <v>-0.07012487237408238</v>
+        <v>-0.07163405719534821</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5118,7 +5118,7 @@
         <v>147</v>
       </c>
       <c r="B206">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C206">
         <v>0.9115646258503401</v>
@@ -5130,10 +5130,10 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.097734743361797</v>
+        <v>-3.096225558540482</v>
       </c>
       <c r="G206">
-        <v>-0.06621163182164386</v>
+        <v>-0.06772081664290924</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5141,7 +5141,7 @@
         <v>147</v>
       </c>
       <c r="B207">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C207">
         <v>0.9183673469387755</v>
@@ -5153,10 +5153,10 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-3.091947681742812</v>
+        <v>-3.090438496921497</v>
       </c>
       <c r="G207">
-        <v>-0.06229839126920533</v>
+        <v>-0.06380757609047072</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5164,7 +5164,7 @@
         <v>147</v>
       </c>
       <c r="B208">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C208">
         <v>0.9251700680272109</v>
@@ -5176,10 +5176,10 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-3.084651435302537</v>
+        <v>-3.084651435302513</v>
       </c>
       <c r="G208">
-        <v>-0.0584495555087588</v>
+        <v>-0.05989433553803308</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5187,7 +5187,7 @@
         <v>147</v>
       </c>
       <c r="B209">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C209">
         <v>0.9319727891156463</v>
@@ -5199,10 +5199,10 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.077355188862261</v>
+        <v>-3.077355188862236</v>
       </c>
       <c r="G209">
-        <v>-0.05447191016432829</v>
+        <v>-0.05447191016430342</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5210,7 +5210,7 @@
         <v>147</v>
       </c>
       <c r="B210">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C210">
         <v>0.9387755102040817</v>
@@ -5222,10 +5222,10 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.070034176779282</v>
+        <v>-3.07003417677926</v>
       </c>
       <c r="G210">
-        <v>-0.04902471914789536</v>
+        <v>-0.04902471914787315</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5233,7 +5233,7 @@
         <v>147</v>
       </c>
       <c r="B211">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C211">
         <v>0.9455782312925171</v>
@@ -5245,10 +5245,10 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-3.062713164696302</v>
+        <v>-3.062713164696283</v>
       </c>
       <c r="G211">
-        <v>-0.04357752813146243</v>
+        <v>-0.04357752813144289</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5256,7 +5256,7 @@
         <v>147</v>
       </c>
       <c r="B212">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C212">
         <v>0.9523809523809523</v>
@@ -5268,10 +5268,10 @@
         <v>140</v>
       </c>
       <c r="F212">
-        <v>-3.055392152613323</v>
+        <v>-3.055392152613306</v>
       </c>
       <c r="G212">
-        <v>-0.03813033711503003</v>
+        <v>-0.03813033711501315</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5279,7 +5279,7 @@
         <v>147</v>
       </c>
       <c r="B213">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C213">
         <v>0.9591836734693877</v>
@@ -5291,10 +5291,10 @@
         <v>141</v>
       </c>
       <c r="F213">
-        <v>-3.048071140530344</v>
+        <v>-3.048071140530329</v>
       </c>
       <c r="G213">
-        <v>-0.03268314609859665</v>
+        <v>-0.032683146098582</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5302,7 +5302,7 @@
         <v>147</v>
       </c>
       <c r="B214">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C214">
         <v>0.9659863945578231</v>
@@ -5314,10 +5314,10 @@
         <v>142</v>
       </c>
       <c r="F214">
-        <v>-3.040750128447364</v>
+        <v>-3.040750128447352</v>
       </c>
       <c r="G214">
-        <v>-0.02723595508216418</v>
+        <v>-0.02723595508215219</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5325,7 +5325,7 @@
         <v>147</v>
       </c>
       <c r="B215">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C215">
         <v>0.9727891156462585</v>
@@ -5337,10 +5337,10 @@
         <v>143</v>
       </c>
       <c r="F215">
-        <v>-3.033429116364385</v>
+        <v>-3.033429116364376</v>
       </c>
       <c r="G215">
-        <v>-0.0217887640657317</v>
+        <v>-0.02178876406572237</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5348,7 +5348,7 @@
         <v>147</v>
       </c>
       <c r="B216">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C216">
         <v>0.9795918367346939</v>
@@ -5360,10 +5360,10 @@
         <v>144</v>
       </c>
       <c r="F216">
-        <v>-3.026108104281406</v>
+        <v>-3.026108104281399</v>
       </c>
       <c r="G216">
-        <v>-0.01634157304929877</v>
+        <v>-0.01634157304929211</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5371,7 +5371,7 @@
         <v>147</v>
       </c>
       <c r="B217">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C217">
         <v>0.9863945578231292</v>
@@ -5383,10 +5383,10 @@
         <v>145</v>
       </c>
       <c r="F217">
-        <v>-3.018787092198426</v>
+        <v>-3.018787092198422</v>
       </c>
       <c r="G217">
-        <v>-0.01089438203286585</v>
+        <v>-0.01089438203286141</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5394,7 +5394,7 @@
         <v>147</v>
       </c>
       <c r="B218">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C218">
         <v>0.9931972789115646</v>
@@ -5406,10 +5406,10 @@
         <v>146</v>
       </c>
       <c r="F218">
-        <v>-3.011466080115447</v>
+        <v>-3.011466080115445</v>
       </c>
       <c r="G218">
-        <v>-0.005447191016433369</v>
+        <v>-0.005447191016431149</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5417,7 +5417,7 @@
         <v>147</v>
       </c>
       <c r="B219">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -5429,10 +5429,10 @@
         <v>147</v>
       </c>
       <c r="F219">
-        <v>-3.004145068032467</v>
+        <v>-3.004145068032468</v>
       </c>
       <c r="G219">
-        <v>0</v>
+        <v>-4.440892098500626e-16</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5440,7 +5440,7 @@
         <v>309</v>
       </c>
       <c r="B220">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -5452,10 +5452,10 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>-3.39825701976517</v>
+        <v>-3.398257019765125</v>
       </c>
       <c r="G220">
-        <v>0</v>
+        <v>4.529709940470639e-14</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5463,7 +5463,7 @@
         <v>309</v>
       </c>
       <c r="B221">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C221">
         <v>0.0970873786407767</v>
@@ -5475,10 +5475,10 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-3.453120121678962</v>
+        <v>-3.437614608048194</v>
       </c>
       <c r="G221">
-        <v>-0.07616847893275391</v>
+        <v>-0.06706806521712272</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5486,7 +5486,7 @@
         <v>309</v>
       </c>
       <c r="B222">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C222">
         <v>0.1974110032362459</v>
@@ -5498,10 +5498,10 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-3.471187218317659</v>
+        <v>-3.456572416963855</v>
       </c>
       <c r="G222">
-        <v>-0.1258908933861074</v>
+        <v>-0.1146600336313526</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5509,7 +5509,7 @@
         <v>309</v>
       </c>
       <c r="B223">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C223">
         <v>0.2977346278317152</v>
@@ -5521,10 +5521,10 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-3.494679573639676</v>
+        <v>-3.492832558027073</v>
       </c>
       <c r="G223">
-        <v>-0.1530901700083933</v>
+        <v>-0.1795543341931398</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5532,7 +5532,7 @@
         <v>309</v>
       </c>
       <c r="B224">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C224">
         <v>0.3980582524271845</v>
@@ -5544,10 +5544,10 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.485855289195128</v>
+        <v>-3.475981796804778</v>
       </c>
       <c r="G224">
-        <v>-0.198918720573305</v>
+        <v>-0.191337732469413</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5555,7 +5555,7 @@
         <v>309</v>
       </c>
       <c r="B225">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C225">
         <v>0.4983818770226537</v>
@@ -5567,10 +5567,10 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.45805144978819</v>
+        <v>-3.458224138127845</v>
       </c>
       <c r="G225">
-        <v>-0.1999295476792156</v>
+        <v>-0.2022142332910486</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5578,7 +5578,7 @@
         <v>309</v>
       </c>
       <c r="B226">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C226">
         <v>0.598705501618123</v>
@@ -5590,10 +5590,10 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.416086297191086</v>
+        <v>-3.417366918291893</v>
       </c>
       <c r="G226">
-        <v>-0.1858713748005263</v>
+        <v>-0.1899911729536647</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5601,7 +5601,7 @@
         <v>309</v>
       </c>
       <c r="B227">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C227">
         <v>0.6990291262135923</v>
@@ -5613,10 +5613,10 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.356685089921478</v>
+        <v>-3.354568992694215</v>
       </c>
       <c r="G227">
-        <v>-0.157943504081818</v>
+        <v>-0.1558274068545558</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5624,7 +5624,7 @@
         <v>309</v>
       </c>
       <c r="B228">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C228">
         <v>0.7993527508090615</v>
@@ -5636,10 +5636,10 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.288184835851397</v>
+        <v>-3.289081549766744</v>
       </c>
       <c r="G228">
-        <v>-0.1164879907008068</v>
+        <v>-0.1189741234256537</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5647,7 +5647,7 @@
         <v>309</v>
       </c>
       <c r="B229">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C229">
         <v>0.8996763754045307</v>
@@ -5659,10 +5659,10 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.208839324119722</v>
+        <v>-3.211553348358101</v>
       </c>
       <c r="G229">
-        <v>-0.06621312459654805</v>
+        <v>-0.07008008151557865</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5670,7 +5670,7 @@
         <v>309</v>
       </c>
       <c r="B230">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -5682,10 +5682,10 @@
         <v>309</v>
       </c>
       <c r="F230">
-        <v>-3.112839107343953</v>
+        <v>-3.11283910734396</v>
       </c>
       <c r="G230">
-        <v>0</v>
+        <v>-6.217248937900877e-15</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5693,7 +5693,7 @@
         <v>561</v>
       </c>
       <c r="B231">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -5705,10 +5705,10 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>-3.47384349626491</v>
+        <v>-3.47384349626528</v>
       </c>
       <c r="G231">
-        <v>0</v>
+        <v>-3.708144902248023e-13</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5716,7 +5716,7 @@
         <v>561</v>
       </c>
       <c r="B232">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C232">
         <v>0.09982174688057041</v>
@@ -5728,10 +5728,10 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-3.517629088542257</v>
+        <v>-3.519793985176692</v>
       </c>
       <c r="G232">
-        <v>-0.06749692566858467</v>
+        <v>-0.07507511893272412</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5739,7 +5739,7 @@
         <v>561</v>
       </c>
       <c r="B233">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C233">
         <v>0.1996434937611408</v>
@@ -5751,10 +5751,10 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-3.53261642148251</v>
+        <v>-3.52924410078144</v>
       </c>
       <c r="G233">
-        <v>-0.1078262388067013</v>
+        <v>-0.113649864558413</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5762,7 +5762,7 @@
         <v>561</v>
       </c>
       <c r="B234">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C234">
         <v>0.2994652406417112</v>
@@ -5774,10 +5774,10 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.539207624976723</v>
+        <v>-3.533401417544246</v>
       </c>
       <c r="G234">
-        <v>-0.1459978776274147</v>
+        <v>-0.14693181134216</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5785,7 +5785,7 @@
         <v>561</v>
       </c>
       <c r="B235">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C235">
         <v>0.3992869875222816</v>
@@ -5797,10 +5797,10 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.52874670261102</v>
+        <v>-3.525515748327506</v>
       </c>
       <c r="G235">
-        <v>-0.1570678269093611</v>
+        <v>-0.1681707721463619</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -5808,7 +5808,7 @@
         <v>561</v>
       </c>
       <c r="B236">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C236">
         <v>0.499108734402852</v>
@@ -5820,10 +5820,10 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.507608865731854</v>
+        <v>-3.513235262838922</v>
       </c>
       <c r="G236">
-        <v>-0.1756070836852346</v>
+        <v>-0.1850149166787185</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5831,7 +5831,7 @@
         <v>561</v>
       </c>
       <c r="B237">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C237">
         <v>0.5989304812834224</v>
@@ -5843,10 +5843,10 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.470991105540398</v>
+        <v>-3.473598330530936</v>
       </c>
       <c r="G237">
-        <v>-0.1692255472155559</v>
+        <v>-0.1745026143916744</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5854,7 +5854,7 @@
         <v>561</v>
       </c>
       <c r="B238">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C238">
         <v>0.6987522281639929</v>
@@ -5866,10 +5866,10 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.417953102559174</v>
+        <v>-3.419946059606923</v>
       </c>
       <c r="G238">
-        <v>-0.1475987623783936</v>
+        <v>-0.1499749734886024</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5877,7 +5877,7 @@
         <v>561</v>
       </c>
       <c r="B239">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C239">
         <v>0.7985739750445633</v>
@@ -5889,10 +5889,10 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.352419937883466</v>
+        <v>-3.35371115712812</v>
       </c>
       <c r="G239">
-        <v>-0.1092627032664408</v>
+        <v>-0.1128647010307415</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5900,7 +5900,7 @@
         <v>561</v>
       </c>
       <c r="B240">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C240">
         <v>0.8983957219251337</v>
@@ -5912,10 +5912,10 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.275685361331703</v>
+        <v>-3.276393417151851</v>
       </c>
       <c r="G240">
-        <v>-0.06295947494581317</v>
+        <v>-0.06467159107541282</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5923,7 +5923,7 @@
         <v>561</v>
       </c>
       <c r="B241">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -5935,10 +5935,10 @@
         <v>561</v>
       </c>
       <c r="F241">
-        <v>-3.182077113376551</v>
+        <v>-3.182077113376498</v>
       </c>
       <c r="G241">
-        <v>0</v>
+        <v>5.284661597215745e-14</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5946,7 +5946,7 @@
         <v>923</v>
       </c>
       <c r="B242">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -5958,10 +5958,10 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>-3.526105169360068</v>
+        <v>-3.526105169360524</v>
       </c>
       <c r="G242">
-        <v>0</v>
+        <v>-4.560796185160143e-13</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5969,7 +5969,7 @@
         <v>923</v>
       </c>
       <c r="B243">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C243">
         <v>0.09967497291440953</v>
@@ -5981,10 +5981,10 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-3.559121173037496</v>
+        <v>-3.560873811001175</v>
       </c>
       <c r="G243">
-        <v>-0.05809997355836849</v>
+        <v>-0.06428796445469986</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -5992,7 +5992,7 @@
         <v>923</v>
       </c>
       <c r="B244">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C244">
         <v>0.1993499458288191</v>
@@ -6004,10 +6004,10 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.57179602015422</v>
+        <v>-3.568084642236371</v>
       </c>
       <c r="G244">
-        <v>-0.09966186420595724</v>
+        <v>-0.1010181185034882</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6015,7 +6015,7 @@
         <v>923</v>
       </c>
       <c r="B245">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C245">
         <v>0.2990249187432286</v>
@@ -6027,10 +6027,10 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.574718724680099</v>
+        <v>-3.575404066606269</v>
       </c>
       <c r="G245">
-        <v>-0.1277474113956698</v>
+        <v>-0.1378568656869783</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6038,7 +6038,7 @@
         <v>923</v>
       </c>
       <c r="B246">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C246">
         <v>0.399783315276273</v>
@@ -6050,10 +6050,10 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.562377843248071</v>
+        <v>-3.563154260405142</v>
       </c>
       <c r="G246">
-        <v>-0.1462332857207449</v>
+        <v>-0.155447244503939</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6061,7 +6061,7 @@
         <v>923</v>
       </c>
       <c r="B247">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C247">
         <v>0.4994582881906826</v>
@@ -6073,10 +6073,10 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.542351865439564</v>
+        <v>-3.547953466446538</v>
       </c>
       <c r="G247">
-        <v>-0.1605360416784984</v>
+        <v>-0.1697657733589271</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6084,7 +6084,7 @@
         <v>923</v>
       </c>
       <c r="B248">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C248">
         <v>0.5991332611050921</v>
@@ -6096,10 +6096,10 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.504107634246066</v>
+        <v>-3.513791047984184</v>
       </c>
       <c r="G248">
-        <v>-0.154714995394845</v>
+        <v>-0.1651226777101646</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6107,7 +6107,7 @@
         <v>923</v>
       </c>
       <c r="B249">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C249">
         <v>0.6998916576381365</v>
@@ -6119,10 +6119,10 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.45753824271774</v>
+        <v>-3.459181566630327</v>
       </c>
       <c r="G249">
-        <v>-0.1379818363269243</v>
+        <v>-0.140353381374396</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6130,7 +6130,7 @@
         <v>923</v>
       </c>
       <c r="B250">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C250">
         <v>0.7995666305525461</v>
@@ -6142,10 +6142,10 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.39552992443766</v>
+        <v>-3.397023308856945</v>
       </c>
       <c r="G250">
-        <v>-0.1042490705988937</v>
+        <v>-0.1077144464146063</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6153,7 +6153,7 @@
         <v>923</v>
       </c>
       <c r="B251">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C251">
         <v>0.8992416034669556</v>
@@ -6165,10 +6165,10 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.31954541689903</v>
+        <v>-3.322048563717133</v>
       </c>
       <c r="G251">
-        <v>-0.05975587727028298</v>
+        <v>-0.06225902408838591</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6176,7 +6176,7 @@
         <v>923</v>
       </c>
       <c r="B252">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -6188,10 +6188,10 @@
         <v>923</v>
       </c>
       <c r="F252">
-        <v>-3.229949354610659</v>
+        <v>-3.229949354610418</v>
       </c>
       <c r="G252">
-        <v>0</v>
+        <v>2.41140440948584e-13</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6199,7 +6199,7 @@
         <v>1415</v>
       </c>
       <c r="B253">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -6211,10 +6211,10 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>-3.564359030990466</v>
+        <v>-3.564359030990779</v>
       </c>
       <c r="G253">
-        <v>0</v>
+        <v>-3.130828929442941e-13</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6222,7 +6222,7 @@
         <v>1415</v>
       </c>
       <c r="B254">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C254">
         <v>0.09964664310954063</v>
@@ -6234,10 +6234,10 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.591595496324337</v>
+        <v>-3.590402711700606</v>
       </c>
       <c r="G254">
-        <v>-0.05680691227413792</v>
+        <v>-0.05587477045505107</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6245,7 +6245,7 @@
         <v>1415</v>
       </c>
       <c r="B255">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C255">
         <v>0.2</v>
@@ -6257,10 +6257,10 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.604640322553365</v>
+        <v>-3.6031663615044</v>
       </c>
       <c r="G255">
-        <v>-0.09640327927995118</v>
+        <v>-0.09868107801613224</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6268,7 +6268,7 @@
         <v>1415</v>
       </c>
       <c r="B256">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C256">
         <v>0.2996466431095406</v>
@@ -6280,10 +6280,10 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.602660099082383</v>
+        <v>-3.606618004710327</v>
       </c>
       <c r="G256">
-        <v>-0.1244814850404321</v>
+        <v>-0.1319638109669721</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6291,7 +6291,7 @@
         <v>1415</v>
       </c>
       <c r="B257">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C257">
         <v>0.4</v>
@@ -6303,10 +6303,10 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.589163855250576</v>
+        <v>-3.591363454509146</v>
       </c>
       <c r="G257">
-        <v>-0.1406834929882246</v>
+        <v>-0.1467519185230781</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6314,7 +6314,7 @@
         <v>1415</v>
       </c>
       <c r="B258">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C258">
         <v>0.4996466431095407</v>
@@ -6326,10 +6326,10 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.565502548299121</v>
+        <v>-3.57739609369283</v>
       </c>
       <c r="G258">
-        <v>-0.1438954172464451</v>
+        <v>-0.1626156474516747</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -6337,7 +6337,7 @@
         <v>1415</v>
       </c>
       <c r="B259">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C259">
         <v>0.6</v>
@@ -6349,10 +6349,10 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.528867869602727</v>
+        <v>-3.541285156705185</v>
       </c>
       <c r="G259">
-        <v>-0.1393848653661767</v>
+        <v>-0.1565473682213163</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6360,7 +6360,7 @@
         <v>1415</v>
       </c>
       <c r="B260">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C260">
         <v>0.6996466431095406</v>
@@ -6372,10 +6372,10 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.484962217887098</v>
+        <v>-3.487615226907755</v>
       </c>
       <c r="G260">
-        <v>-0.1289264090343183</v>
+        <v>-0.1327085281687985</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6383,7 +6383,7 @@
         <v>1415</v>
       </c>
       <c r="B261">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C261">
         <v>0.8</v>
@@ -6395,10 +6395,10 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.426193381728795</v>
+        <v>-3.426834075298964</v>
       </c>
       <c r="G261">
-        <v>-0.100580683939869</v>
+        <v>-0.1019700343172952</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6406,7 +6406,7 @@
         <v>1415</v>
       </c>
       <c r="B262">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C262">
         <v>0.8996466431095407</v>
@@ -6418,10 +6418,10 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.353229718290558</v>
+        <v>-3.35479168309785</v>
       </c>
       <c r="G262">
-        <v>-0.05803235462567008</v>
+        <v>-0.0597587318610931</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6429,7 +6429,7 @@
         <v>1415</v>
       </c>
       <c r="B263">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -6441,10 +6441,10 @@
         <v>1415</v>
       </c>
       <c r="F263">
-        <v>-3.26499029347947</v>
+        <v>-3.26499029348004</v>
       </c>
       <c r="G263">
-        <v>0</v>
+        <v>-5.702105454474804e-13</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6452,7 +6452,7 @@
         <v>2057</v>
       </c>
       <c r="B264">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -6464,10 +6464,10 @@
         <v>0</v>
       </c>
       <c r="F264">
-        <v>-3.593556185708066</v>
+        <v>-3.593556185708505</v>
       </c>
       <c r="G264">
-        <v>0</v>
+        <v>-4.383160501220118e-13</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6475,7 +6475,7 @@
         <v>2057</v>
       </c>
       <c r="B265">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C265">
         <v>0.09965969859017987</v>
@@ -6487,10 +6487,10 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.615498090814959</v>
+        <v>-3.618639592929835</v>
       </c>
       <c r="G265">
-        <v>-0.0489212574449529</v>
+        <v>-0.05516279631024723</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6498,7 +6498,7 @@
         <v>2057</v>
       </c>
       <c r="B266">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C266">
         <v>0.1998055420515314</v>
@@ -6510,10 +6510,10 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.62809032077885</v>
+        <v>-3.630691170219061</v>
       </c>
       <c r="G266">
-        <v>-0.08815219948901909</v>
+        <v>-0.09744049141521405</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6521,7 +6521,7 @@
         <v>2057</v>
       </c>
       <c r="B267">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C267">
         <v>0.2999513855128829</v>
@@ -6533,10 +6533,10 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.626796298380545</v>
+        <v>-3.632712044111822</v>
       </c>
       <c r="G267">
-        <v>-0.1183791627993411</v>
+        <v>-0.1296874831237149</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6544,7 +6544,7 @@
         <v>2057</v>
       </c>
       <c r="B268">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C268">
         <v>0.3996110841030627</v>
@@ -6556,10 +6556,10 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.611175506941403</v>
+        <v>-3.616147132708929</v>
       </c>
       <c r="G268">
-        <v>-0.1348384899372044</v>
+        <v>-0.1432019608093009</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6567,7 +6567,7 @@
         <v>2057</v>
       </c>
       <c r="B269">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C269">
         <v>0.4997569275644142</v>
@@ -6579,10 +6579,10 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.586555686711873</v>
+        <v>-3.597272745657253</v>
       </c>
       <c r="G269">
-        <v>-0.1411220284489183</v>
+        <v>-0.1545536915733654</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6590,7 +6590,7 @@
         <v>2057</v>
       </c>
       <c r="B270">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C270">
         <v>0.5999027710257657</v>
@@ -6602,10 +6602,10 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.549340518491019</v>
+        <v>-3.562250235316928</v>
       </c>
       <c r="G270">
-        <v>-0.1348171088158139</v>
+        <v>-0.1497572990487808</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6613,7 +6613,7 @@
         <v>2057</v>
       </c>
       <c r="B271">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C271">
         <v>0.6995624696159456</v>
@@ -6625,10 +6625,10 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.503353853689128</v>
+        <v>-3.512407488940135</v>
       </c>
       <c r="G271">
-        <v>-0.119341779525334</v>
+        <v>-0.1299939417604672</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6636,7 +6636,7 @@
         <v>2057</v>
       </c>
       <c r="B272">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C272">
         <v>0.7997083130772971</v>
@@ -6648,10 +6648,10 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.449020394828937</v>
+        <v>-3.449337225678788</v>
       </c>
       <c r="G272">
-        <v>-0.09683296546500908</v>
+        <v>-0.09714979631485998</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6659,7 +6659,7 @@
         <v>2057</v>
       </c>
       <c r="B273">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C273">
         <v>0.8998541565386485</v>
@@ -6671,10 +6671,10 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.378669360647576</v>
+        <v>-3.380294070138824</v>
       </c>
       <c r="G273">
-        <v>-0.05564420073846643</v>
+        <v>-0.05833275859063669</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6682,7 +6682,7 @@
         <v>2057</v>
       </c>
       <c r="B274">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -6694,10 +6694,10 @@
         <v>2057</v>
       </c>
       <c r="F274">
-        <v>-3.291735193732447</v>
+        <v>-3.2917351937335</v>
       </c>
       <c r="G274">
-        <v>0</v>
+        <v>-1.052935516554498e-12</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6705,7 +6705,7 @@
         <v>2869</v>
       </c>
       <c r="B275">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -6717,10 +6717,10 @@
         <v>0</v>
       </c>
       <c r="F275">
-        <v>-3.616565425851922</v>
+        <v>-3.616565425852349</v>
       </c>
       <c r="G275">
-        <v>0</v>
+        <v>-4.267697306659102e-13</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6728,7 +6728,7 @@
         <v>2869</v>
       </c>
       <c r="B276">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C276">
         <v>0.09968630184733357</v>
@@ -6740,10 +6740,10 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.636404602208761</v>
+        <v>-3.639015760979723</v>
       </c>
       <c r="G276">
-        <v>-0.04942872583258895</v>
+        <v>-0.05273040086574143</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6751,7 +6751,7 @@
         <v>2869</v>
       </c>
       <c r="B277">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C277">
         <v>0.1997211571976298</v>
@@ -6763,10 +6763,10 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.646960058630826</v>
+        <v>-3.649397548462832</v>
       </c>
       <c r="G277">
-        <v>-0.08640433396718405</v>
+        <v>-0.0934981284425187</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6774,7 +6774,7 @@
         <v>2869</v>
       </c>
       <c r="B278">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C278">
         <v>0.2997560125479261</v>
@@ -6786,10 +6786,10 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.641095999177133</v>
+        <v>-3.646215244862291</v>
       </c>
       <c r="G278">
-        <v>-0.1151340401379999</v>
+        <v>-0.1207017649356446</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6797,7 +6797,7 @@
         <v>2869</v>
       </c>
       <c r="B279">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C279">
         <v>0.3997908678982224</v>
@@ -6809,10 +6809,10 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.632132764680025</v>
+        <v>-3.638475289985259</v>
       </c>
       <c r="G279">
-        <v>-0.1257899535178972</v>
+        <v>-0.1433477501522797</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6820,7 +6820,7 @@
         <v>2869</v>
       </c>
       <c r="B280">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C280">
         <v>0.4998257232485186</v>
@@ -6832,10 +6832,10 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.601837703610383</v>
+        <v>-3.606098124932533</v>
       </c>
       <c r="G280">
-        <v>-0.1337038364798744</v>
+        <v>-0.1413565251932209</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6843,7 +6843,7 @@
         <v>2869</v>
       </c>
       <c r="B281">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C281">
         <v>0.5998605785988149</v>
@@ -6855,10 +6855,10 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.565362341097336</v>
+        <v>-3.576842248962204</v>
       </c>
       <c r="G281">
-        <v>-0.1296269830742385</v>
+        <v>-0.1424865893165594</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -6866,7 +6866,7 @@
         <v>2869</v>
       </c>
       <c r="B282">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C282">
         <v>0.6998954339491111</v>
@@ -6878,10 +6878,10 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.517818454847635</v>
+        <v>-3.530133718448401</v>
       </c>
       <c r="G282">
-        <v>-0.1127440811528229</v>
+        <v>-0.1261639988964243</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6889,7 +6889,7 @@
         <v>2869</v>
       </c>
       <c r="B283">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C283">
         <v>0.7999302892994075</v>
@@ -6901,10 +6901,10 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.466887099261346</v>
+        <v>-3.467867486615084</v>
       </c>
       <c r="G283">
-        <v>-0.09309588732021556</v>
+        <v>-0.09428370715677448</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6912,7 +6912,7 @@
         <v>2869</v>
       </c>
       <c r="B284">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C284">
         <v>0.8999651446497037</v>
@@ -6924,10 +6924,10 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.399117129054514</v>
+        <v>-3.399594214357095</v>
       </c>
       <c r="G284">
-        <v>-0.05428039731936468</v>
+        <v>-0.05639637499245281</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6935,7 +6935,7 @@
         <v>2869</v>
       </c>
       <c r="B285">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C285">
         <v>1</v>
@@ -6947,10 +6947,10 @@
         <v>2869</v>
       </c>
       <c r="F285">
-        <v>-3.312811899270975</v>
+        <v>-3.312811899271309</v>
       </c>
       <c r="G285">
-        <v>0</v>
+        <v>-3.343991750170971e-13</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -6958,7 +6958,7 @@
         <v>3871</v>
       </c>
       <c r="B286">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -6970,10 +6970,10 @@
         <v>0</v>
       </c>
       <c r="F286">
-        <v>-3.635161825666167</v>
+        <v>-3.635161825664823</v>
       </c>
       <c r="G286">
-        <v>0</v>
+        <v>1.343369859796439e-12</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -6981,7 +6981,7 @@
         <v>3871</v>
       </c>
       <c r="B287">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C287">
         <v>0.09997416688194265</v>
@@ -6993,10 +6993,10 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.654695341166304</v>
+        <v>-3.656415039271307</v>
       </c>
       <c r="G287">
-        <v>-0.04853408406655424</v>
+        <v>-0.05177686924836644</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -7004,7 +7004,7 @@
         <v>3871</v>
       </c>
       <c r="B288">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C288">
         <v>0.1999483337638853</v>
@@ -7016,10 +7016,10 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.661016251538173</v>
+        <v>-3.664720511184622</v>
       </c>
       <c r="G288">
-        <v>-0.08424200050009301</v>
+        <v>-0.09060599680490755</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -7027,7 +7027,7 @@
         <v>3871</v>
       </c>
       <c r="B289">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C289">
         <v>0.2999225006458279</v>
@@ -7039,10 +7039,10 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.656914558271218</v>
+        <v>-3.660580028258035</v>
       </c>
       <c r="G289">
-        <v>-0.1086445770335449</v>
+        <v>-0.1169891695215464</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -7050,7 +7050,7 @@
         <v>3871</v>
       </c>
       <c r="B290">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C290">
         <v>0.3998966675277706</v>
@@ -7062,10 +7062,10 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.642397703816083</v>
+        <v>-3.649019487120716</v>
       </c>
       <c r="G290">
-        <v>-0.126772638809038</v>
+        <v>-0.1359522840274541</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -7073,7 +7073,7 @@
         <v>3871</v>
       </c>
       <c r="B291">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C291">
         <v>0.4998708344097132</v>
@@ -7085,10 +7085,10 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.61401959335869</v>
+        <v>-3.622138457883143</v>
       </c>
       <c r="G291">
-        <v>-0.1282639793163354</v>
+        <v>-0.1395949104331058</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7096,7 +7096,7 @@
         <v>3871</v>
       </c>
       <c r="B292">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C292">
         <v>0.5998450012916559</v>
@@ -7108,10 +7108,10 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.578165192430749</v>
+        <v>-3.590214496177395</v>
       </c>
       <c r="G292">
-        <v>-0.1222728099897032</v>
+        <v>-0.138194604370584</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -7119,7 +7119,7 @@
         <v>3871</v>
       </c>
       <c r="B293">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C293">
         <v>0.6998191681735986</v>
@@ -7131,10 +7131,10 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.531207578373011</v>
+        <v>-3.543153336148416</v>
       </c>
       <c r="G293">
-        <v>-0.1097113422094262</v>
+        <v>-0.1216570999848312</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7142,7 +7142,7 @@
         <v>3871</v>
       </c>
       <c r="B294">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C294">
         <v>0.7997933350555412</v>
@@ -7154,10 +7154,10 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.481839274744096</v>
+        <v>-3.483050669112709</v>
       </c>
       <c r="G294">
-        <v>-0.09064246232749507</v>
+        <v>-0.09207808859235</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -7165,7 +7165,7 @@
         <v>3871</v>
       </c>
       <c r="B295">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C295">
         <v>0.8997675019374839</v>
@@ -7177,10 +7177,10 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.415312128937622</v>
+        <v>-3.415517396415594</v>
       </c>
       <c r="G295">
-        <v>-0.05429580161063896</v>
+        <v>-0.05506847153846062</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7188,7 +7188,7 @@
         <v>3871</v>
       </c>
       <c r="B296">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C296">
         <v>1</v>
@@ -7200,10 +7200,10 @@
         <v>3871</v>
       </c>
       <c r="F296">
-        <v>-3.329846396738705</v>
+        <v>-3.329846396737072</v>
       </c>
       <c r="G296">
-        <v>0</v>
+        <v>1.63247193540883e-12</v>
       </c>
     </row>
   </sheetData>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-3.163159536306127</v>
+        <v>-3.165797112063703</v>
       </c>
       <c r="G21">
         <v>-0.1185106821652435</v>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-3.181648956177103</v>
+        <v>-3.182967744055892</v>
       </c>
       <c r="G22">
         <v>-0.1416853034467755</v>
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-3.184903109405532</v>
+        <v>-3.198819588169299</v>
       </c>
       <c r="G23">
         <v>-0.149624658085759</v>
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-3.206394405022026</v>
+        <v>-3.209031980779605</v>
       </c>
       <c r="G24">
         <v>-0.1758011551128096</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-3.22661238473114</v>
+        <v>-3.241847651373682</v>
       </c>
       <c r="G27">
         <v>-0.2100747390535909</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.229692867609032</v>
+        <v>-3.233693339851057</v>
       </c>
       <c r="G38">
         <v>-0.2646924374475963</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-3.13639445815497</v>
+        <v>-3.138536498339491</v>
       </c>
       <c r="G51">
         <v>-0.2323016463307599</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-3.127568527885244</v>
+        <v>-3.134143933150229</v>
       </c>
       <c r="G52">
         <v>-0.2281609174715895</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.107773602706414</v>
+        <v>-3.109606704160793</v>
       </c>
       <c r="G54">
         <v>-0.217736395113871</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-3.07014617541865</v>
+        <v>-3.072530956742245</v>
       </c>
       <c r="G57">
         <v>-0.1941645720577739</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-3.057603699656061</v>
+        <v>-3.058796090317859</v>
       </c>
       <c r="G58">
         <v>-0.1863072977057416</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-3.018601945957133</v>
+        <v>-3.025560347044009</v>
       </c>
       <c r="G60">
         <v>-0.1566759468279252</v>
@@ -2163,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-3.314542936913571</v>
+        <v>-3.316652935775271</v>
       </c>
       <c r="G77">
         <v>-0.04431527743148589</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-3.313476872495566</v>
+        <v>-3.321028494846378</v>
       </c>
       <c r="G78">
         <v>-0.0451230340800266</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-3.324910629881199</v>
+        <v>-3.325836306140488</v>
       </c>
       <c r="G79">
         <v>-0.05843061253220672</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-3.324635891324818</v>
+        <v>-3.334729764760331</v>
       </c>
       <c r="G80">
         <v>-0.06002969504237221</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-3.33019294544869</v>
+        <v>-3.335830091148746</v>
       </c>
       <c r="G81">
         <v>-0.0674605702327904</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-3.328417825429248</v>
+        <v>-3.340086134142944</v>
       </c>
       <c r="G82">
         <v>-0.06755927127989558</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-3.344422420341553</v>
+        <v>-3.352382519657263</v>
       </c>
       <c r="G85">
         <v>-0.08918532939184054</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-3.339347090563797</v>
+        <v>-3.348572982404806</v>
       </c>
       <c r="G86">
         <v>-0.08598382068063071</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-3.351835250199908</v>
+        <v>-3.356371951108595</v>
       </c>
       <c r="G87">
         <v>-0.1003458013832881</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-3.352146253311877</v>
+        <v>-3.355858152877409</v>
       </c>
       <c r="G88">
         <v>-0.1025306255618035</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-3.34861703575165</v>
+        <v>-3.358744803095887</v>
       </c>
       <c r="G89">
         <v>-0.1008752290681234</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.349920111253549</v>
+        <v>-3.352326269161792</v>
       </c>
       <c r="G90">
         <v>-0.1040521256365698</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-3.369938000848022</v>
+        <v>-3.372443689809694</v>
       </c>
       <c r="G93">
         <v>-0.129691478430682</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-3.358218592963137</v>
+        <v>-3.370006810279658</v>
       </c>
       <c r="G94">
         <v>-0.1198458916123433</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-3.353646473073372</v>
+        <v>-3.357193597181517</v>
       </c>
       <c r="G95">
         <v>-0.1171475927891255</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-3.357134057154605</v>
+        <v>-3.373489862685791</v>
       </c>
       <c r="G100">
         <v>-0.1300042822030916</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-3.373406096277651</v>
+        <v>-3.37454739320893</v>
       </c>
       <c r="G102">
         <v>-0.1500239634592311</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-3.383202622546899</v>
+        <v>-3.385644428882369</v>
       </c>
       <c r="G103">
         <v>-0.1616943107950251</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-3.372138569275543</v>
+        <v>-3.387908328663443</v>
       </c>
       <c r="G104">
         <v>-0.1525040785902165</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-3.374261747977673</v>
+        <v>-3.379126826505105</v>
       </c>
       <c r="G105">
         <v>-0.1565010783588923</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-3.366341186528293</v>
+        <v>-3.375501608988944</v>
       </c>
       <c r="G107">
         <v>-0.1523281590426055</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-3.437614608048194</v>
+        <v>-3.448550065400314</v>
       </c>
       <c r="G221">
         <v>-0.06706806521712272</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-3.456572416963855</v>
+        <v>-3.460445368484057</v>
       </c>
       <c r="G222">
         <v>-0.1146600336313526</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.590402711700606</v>
+        <v>-3.591092366674498</v>
       </c>
       <c r="G254">
         <v>-0.05587477045505107</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-3.223484542147145</v>
+        <v>-3.225018684606787</v>
       </c>
       <c r="G39">
         <v>-0.2631693133962654</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.352326269161792</v>
+        <v>-3.352414111707921</v>
       </c>
       <c r="G90">
         <v>-0.1040521256365698</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
@@ -441,7 +441,7 @@
         <v>-2.599353686235273</v>
       </c>
       <c r="G2">
-        <v>3.552713678800501e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,7 +464,7 @@
         <v>-2.818148429930264</v>
       </c>
       <c r="G3">
-        <v>-0.2355884682981628</v>
+        <v>-0.2355884682981664</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,7 +487,7 @@
         <v>-2.82633821016507</v>
       </c>
       <c r="G4">
-        <v>-0.2605719731361442</v>
+        <v>-0.2605719731361482</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,7 +510,7 @@
         <v>-2.834527990399875</v>
       </c>
       <c r="G5">
-        <v>-0.2855554779741258</v>
+        <v>-0.2855554779741294</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,7 +533,7 @@
         <v>-2.802144274555206</v>
       </c>
       <c r="G6">
-        <v>-0.2699654867326324</v>
+        <v>-0.2699654867326362</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,7 +556,7 @@
         <v>-2.769760558710538</v>
       </c>
       <c r="G7">
-        <v>-0.2543754954911395</v>
+        <v>-0.254375495491143</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,7 +579,7 @@
         <v>-2.737376842865868</v>
       </c>
       <c r="G8">
-        <v>-0.2387855042496461</v>
+        <v>-0.2387855042496496</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -602,7 +602,7 @@
         <v>-2.704993127021199</v>
       </c>
       <c r="G9">
-        <v>-0.2231955130081524</v>
+        <v>-0.2231955130081564</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -625,7 +625,7 @@
         <v>-2.663965706805917</v>
       </c>
       <c r="G10">
-        <v>-0.1989618173960462</v>
+        <v>-0.1989618173960502</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -648,7 +648,7 @@
         <v>-2.614294582220023</v>
       </c>
       <c r="G11">
-        <v>-0.1660844174133279</v>
+        <v>-0.1660844174133318</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -671,7 +671,7 @@
         <v>-2.555979753263515</v>
       </c>
       <c r="G12">
-        <v>-0.1245633130599956</v>
+        <v>-0.1245633130599995</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -694,7 +694,7 @@
         <v>-2.497664924307008</v>
       </c>
       <c r="G13">
-        <v>-0.08304220870666362</v>
+        <v>-0.08304220870666723</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -717,7 +717,7 @@
         <v>-2.439350095350498</v>
       </c>
       <c r="G14">
-        <v>-0.04152110435332973</v>
+        <v>-0.04152110435333356</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -740,7 +740,7 @@
         <v>-2.381035266393989</v>
       </c>
       <c r="G15">
-        <v>3.996802888650564e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -763,7 +763,7 @@
         <v>-3.068074861193655</v>
       </c>
       <c r="G16">
-        <v>7.993605777301127e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -786,7 +786,7 @@
         <v>-3.087883068943425</v>
       </c>
       <c r="G17">
-        <v>-0.02449340916031861</v>
+        <v>-0.02449340916032572</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -809,7 +809,7 @@
         <v>-3.107691276693196</v>
       </c>
       <c r="G18">
-        <v>-0.04898681832064478</v>
+        <v>-0.04898681832065233</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -832,7 +832,7 @@
         <v>-3.127499484442962</v>
       </c>
       <c r="G19">
-        <v>-0.07348022748096694</v>
+        <v>-0.07348022748097405</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -852,10 +852,10 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-3.147307692192719</v>
+        <v>-3.147307692192723</v>
       </c>
       <c r="G20">
-        <v>-0.09797363664127934</v>
+        <v>-0.09797363664129044</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -875,10 +875,10 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-3.165797112063703</v>
+        <v>-3.163159536306124</v>
       </c>
       <c r="G21">
-        <v>-0.1185106821652435</v>
+        <v>-0.1185106821652466</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -898,10 +898,10 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-3.182967744055892</v>
+        <v>-3.18033016829832</v>
       </c>
       <c r="G22">
-        <v>-0.1416853034467755</v>
+        <v>-0.1403665155679987</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -921,10 +921,10 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-3.198819588169299</v>
+        <v>-3.186511531567855</v>
       </c>
       <c r="G23">
-        <v>-0.149624658085759</v>
+        <v>-0.151233080248089</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -944,10 +944,10 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-3.209031980779605</v>
+        <v>-3.194700029806156</v>
       </c>
       <c r="G24">
-        <v>-0.1758011551128096</v>
+        <v>-0.164106779896946</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -967,10 +967,10 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-3.2305232763961</v>
+        <v>-3.210143963146879</v>
       </c>
       <c r="G25">
-        <v>-0.2046152278974387</v>
+        <v>-0.1842359146482244</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -990,10 +990,10 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-3.232458641745743</v>
+        <v>-3.194949457163897</v>
       </c>
       <c r="G26">
-        <v>-0.2112357946576378</v>
+        <v>-0.1737266100757977</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1013,10 +1013,10 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-3.241847651373682</v>
+        <v>-3.214510098742585</v>
       </c>
       <c r="G27">
-        <v>-0.2100747390535909</v>
+        <v>-0.1979724530650411</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1036,10 +1036,10 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-3.243986972109666</v>
+        <v>-3.223545142351526</v>
       </c>
       <c r="G28">
-        <v>-0.2321345278426721</v>
+        <v>-0.2116926980845379</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1059,10 +1059,10 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-3.256997285079152</v>
+        <v>-3.22330098476303</v>
       </c>
       <c r="G29">
-        <v>-0.2498300422227149</v>
+        <v>-0.2161337419065972</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1082,10 +1082,10 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-3.257607106021329</v>
+        <v>-3.242437023085973</v>
       </c>
       <c r="G30">
-        <v>-0.2551250645754477</v>
+        <v>-0.2399549816400963</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1105,10 +1105,10 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-3.25307963688551</v>
+        <v>-3.204139526572458</v>
       </c>
       <c r="G31">
-        <v>-0.2552827968501838</v>
+        <v>-0.2063426865371363</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1128,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-3.253689457827685</v>
+        <v>-3.224049389733821</v>
       </c>
       <c r="G32">
-        <v>-0.2605778192029145</v>
+        <v>-0.2309377511090549</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1151,10 +1151,10 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-3.250957401427397</v>
+        <v>-3.227773411290317</v>
       </c>
       <c r="G33">
-        <v>-0.2625309642131826</v>
+        <v>-0.2393469740761067</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1174,10 +1174,10 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-3.244034721085716</v>
+        <v>-3.187958184489181</v>
       </c>
       <c r="G34">
-        <v>-0.2602934852820571</v>
+        <v>-0.2042169486855263</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1197,10 +1197,10 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-3.248766451885217</v>
+        <v>-3.205706448519218</v>
       </c>
       <c r="G35">
-        <v>-0.2697104174921141</v>
+        <v>-0.2266504141261185</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1220,10 +1220,10 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-3.237430754000168</v>
+        <v>-3.17574930993131</v>
       </c>
       <c r="G36">
-        <v>-0.2630599210176212</v>
+        <v>-0.2013784769487663</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1243,10 +1243,10 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-3.238689114268459</v>
+        <v>-3.216995125707391</v>
       </c>
       <c r="G37">
-        <v>-0.269003482696468</v>
+        <v>-0.2473094941354026</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1266,10 +1266,10 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.233693339851057</v>
+        <v>-3.190974137197672</v>
       </c>
       <c r="G38">
-        <v>-0.2646924374475963</v>
+        <v>-0.2259737070362386</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1289,10 +1289,10 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-3.225018684606787</v>
+        <v>-3.213736072413305</v>
       </c>
       <c r="G39">
-        <v>-0.2631693133962654</v>
+        <v>-0.2534208436624279</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1312,10 +1312,10 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-3.229533324827153</v>
+        <v>-3.197411279856365</v>
       </c>
       <c r="G40">
-        <v>-0.2739032974868292</v>
+        <v>-0.2417812525160432</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1335,10 +1335,10 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-3.224347260791773</v>
+        <v>-3.190495435271625</v>
       </c>
       <c r="G41">
-        <v>-0.2734024348620054</v>
+        <v>-0.2395506093418593</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1358,10 +1358,10 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.218329087029252</v>
+        <v>-3.183342208999109</v>
       </c>
       <c r="G42">
-        <v>-0.2720694625100399</v>
+        <v>-0.2370825844798983</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1381,10 +1381,10 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-3.21499419570964</v>
+        <v>-3.178930268942426</v>
       </c>
       <c r="G43">
-        <v>-0.2734197726009839</v>
+        <v>-0.2373558458337717</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1404,10 +1404,10 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-3.203176454201611</v>
+        <v>-3.181994557961926</v>
       </c>
       <c r="G44">
-        <v>-0.2662872325035106</v>
+        <v>-0.2451053362638271</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1427,10 +1427,10 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-3.193636169052092</v>
+        <v>-3.164867461817841</v>
       </c>
       <c r="G45">
-        <v>-0.2614321487645475</v>
+        <v>-0.2326634415302968</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1450,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-3.189715217603545</v>
+        <v>-3.1621167186377</v>
       </c>
       <c r="G46">
-        <v>-0.2621963987265559</v>
+        <v>-0.2345978997607117</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1473,10 +1473,10 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-3.180889287333818</v>
+        <v>-3.161521285215663</v>
       </c>
       <c r="G47">
-        <v>-0.2580556698673844</v>
+        <v>-0.23868766774923</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1496,10 +1496,10 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-3.165015313603532</v>
+        <v>-3.127073486619299</v>
       </c>
       <c r="G48">
-        <v>-0.2468668975476549</v>
+        <v>-0.2089250705634222</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1519,10 +1519,10 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-3.156189383333807</v>
+        <v>-3.136652576483928</v>
       </c>
       <c r="G49">
-        <v>-0.242726168688485</v>
+        <v>-0.2231893618386069</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1542,10 +1542,10 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.146649098184285</v>
+        <v>-3.130794141783571</v>
       </c>
       <c r="G50">
-        <v>-0.2378710849495187</v>
+        <v>-0.2220161285488045</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1565,10 +1565,10 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-3.138536498339491</v>
+        <v>-3.124850583705433</v>
       </c>
       <c r="G51">
-        <v>-0.2323016463307599</v>
+        <v>-0.2207577718812224</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1588,10 +1588,10 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-3.134143933150229</v>
+        <v>-3.104656094169318</v>
       </c>
       <c r="G52">
-        <v>-0.2281609174715895</v>
+        <v>-0.2052484837556632</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1611,10 +1611,10 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.117313887855933</v>
+        <v>-3.100266829900137</v>
       </c>
       <c r="G53">
-        <v>-0.2225914788528338</v>
+        <v>-0.2055444208970374</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1634,10 +1634,10 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.109606704160793</v>
+        <v>-3.084157525081034</v>
       </c>
       <c r="G54">
-        <v>-0.217736395113871</v>
+        <v>-0.1941203174884897</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1657,10 +1657,10 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.095231126943825</v>
+        <v>-3.082336819775278</v>
       </c>
       <c r="G55">
-        <v>-0.2098791207618382</v>
+        <v>-0.1969848135932898</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1680,10 +1680,10 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.082688651181239</v>
+        <v>-3.067479495581108</v>
       </c>
       <c r="G56">
-        <v>-0.2020218464098076</v>
+        <v>-0.1868126908096756</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1703,10 +1703,10 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-3.072530956742245</v>
+        <v>-3.066665436796145</v>
       </c>
       <c r="G57">
-        <v>-0.1941645720577739</v>
+        <v>-0.1906838334352677</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1726,10 +1726,10 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-3.058796090317859</v>
+        <v>-3.043273941237352</v>
       </c>
       <c r="G58">
-        <v>-0.1863072977057416</v>
+        <v>-0.1719775392870307</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1749,10 +1749,10 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-3.045061223893473</v>
+        <v>-3.039229021659714</v>
       </c>
       <c r="G59">
-        <v>-0.178450023353709</v>
+        <v>-0.1726178211199482</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1772,10 +1772,10 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-3.025560347044009</v>
+        <v>-3.015533563535384</v>
       </c>
       <c r="G60">
-        <v>-0.1566759468279252</v>
+        <v>-0.1536075644061735</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1795,10 +1795,10 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-3.006059470194545</v>
+        <v>-3.00092273804069</v>
       </c>
       <c r="G61">
-        <v>-0.1488186724758924</v>
+        <v>-0.1436819403220352</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1821,7 +1821,7 @@
         <v>-2.986492401536401</v>
       </c>
       <c r="G62">
-        <v>-0.1339368052283045</v>
+        <v>-0.1339368052283019</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1841,10 +1841,10 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-2.966925332878257</v>
+        <v>-2.961093130644498</v>
       </c>
       <c r="G63">
-        <v>-0.1190549379807161</v>
+        <v>-0.1132227357469544</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1864,10 +1864,10 @@
         <v>48</v>
       </c>
       <c r="F64">
-        <v>-2.947358264220115</v>
+        <v>-2.947358264220113</v>
       </c>
       <c r="G64">
-        <v>-0.1041730707331295</v>
+        <v>-0.1041730707331243</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1887,10 +1887,10 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <v>-2.927791195561968</v>
+        <v>-2.927791195561971</v>
       </c>
       <c r="G65">
-        <v>-0.08929120348553932</v>
+        <v>-0.08929120348553798</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1910,10 +1910,10 @@
         <v>50</v>
       </c>
       <c r="F66">
-        <v>-2.908224126903825</v>
+        <v>-2.908224126903824</v>
       </c>
       <c r="G66">
-        <v>-0.07440933623795182</v>
+        <v>-0.07440933623794632</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1936,7 +1936,7 @@
         <v>-2.88865705824568</v>
       </c>
       <c r="G67">
-        <v>-0.05952746899036207</v>
+        <v>-0.05952746899035821</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1959,7 +1959,7 @@
         <v>-2.869089989587535</v>
       </c>
       <c r="G68">
-        <v>-0.04464560174277321</v>
+        <v>-0.04464560174276921</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1982,7 +1982,7 @@
         <v>-2.84952292092939</v>
       </c>
       <c r="G69">
-        <v>-0.02976373449518348</v>
+        <v>-0.02976373449517888</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2005,7 +2005,7 @@
         <v>-2.829955852271245</v>
       </c>
       <c r="G70">
-        <v>-0.01488186724759418</v>
+        <v>-0.01488186724758989</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2028,7 +2028,7 @@
         <v>-2.810388783613099</v>
       </c>
       <c r="G71">
-        <v>-4.884981308350689e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2051,7 +2051,7 @@
         <v>-3.279596764814823</v>
       </c>
       <c r="G72">
-        <v>-4.440892098500626e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2074,7 +2074,7 @@
         <v>-3.287007999006915</v>
       </c>
       <c r="G73">
-        <v>-0.00928505525864276</v>
+        <v>-0.009285055258638319</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2097,7 +2097,7 @@
         <v>-3.294419233199006</v>
       </c>
       <c r="G74">
-        <v>-0.01857011051728108</v>
+        <v>-0.01857011051727664</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2117,10 +2117,10 @@
         <v>3</v>
       </c>
       <c r="F75">
-        <v>-3.301830467391095</v>
+        <v>-3.301830467391091</v>
       </c>
       <c r="G75">
-        <v>-0.0278551657759154</v>
+        <v>-0.02785516577590741</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2140,10 +2140,10 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>-3.30924170158318</v>
+        <v>-3.309241701583182</v>
       </c>
       <c r="G76">
-        <v>-0.0371402210345475</v>
+        <v>-0.03714022103454573</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2163,10 +2163,10 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-3.316652935775271</v>
+        <v>-3.313617260654289</v>
       </c>
       <c r="G77">
-        <v>-0.04431527743148589</v>
+        <v>-0.04338960117219859</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2186,10 +2186,10 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-3.321028494846378</v>
+        <v>-3.320535070810099</v>
       </c>
       <c r="G78">
-        <v>-0.0451230340800266</v>
+        <v>-0.05218123239455563</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2209,10 +2209,10 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-3.325836306140488</v>
+        <v>-3.320758305252442</v>
       </c>
       <c r="G79">
-        <v>-0.05843061253220672</v>
+        <v>-0.05427828790344558</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2232,10 +2232,10 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-3.334729764760331</v>
+        <v>-3.327841555109328</v>
       </c>
       <c r="G80">
-        <v>-0.06002969504237221</v>
+        <v>-0.0632353588268777</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2255,10 +2255,10 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-3.335830091148746</v>
+        <v>-3.325539080871123</v>
       </c>
       <c r="G81">
-        <v>-0.0674605702327904</v>
+        <v>-0.06280670565521884</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2278,10 +2278,10 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-3.340086134142944</v>
+        <v>-3.344110609655397</v>
       </c>
       <c r="G82">
-        <v>-0.06755927127989558</v>
+        <v>-0.08325205550603965</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2301,10 +2301,10 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-3.34116092698394</v>
+        <v>-3.328155443466805</v>
       </c>
       <c r="G83">
-        <v>-0.08217619390113384</v>
+        <v>-0.06917071038399492</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2324,10 +2324,10 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-3.34840217251251</v>
+        <v>-3.342028140576639</v>
       </c>
       <c r="G84">
-        <v>-0.0912912604962508</v>
+        <v>-0.08491722856037542</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2347,10 +2347,10 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-3.352382519657263</v>
+        <v>-3.335323973931304</v>
       </c>
       <c r="G85">
-        <v>-0.08918532939184054</v>
+        <v>-0.08008688298158706</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2370,10 +2370,10 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-3.348572982404806</v>
+        <v>-3.344644710099962</v>
       </c>
       <c r="G86">
-        <v>-0.08598382068063071</v>
+        <v>-0.09128144021679141</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2393,10 +2393,10 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-3.356371951108595</v>
+        <v>-3.35146469324746</v>
       </c>
       <c r="G87">
-        <v>-0.1003458013832881</v>
+        <v>-0.09997524443083616</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2416,10 +2416,10 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-3.355858152877409</v>
+        <v>-3.345305144810976</v>
       </c>
       <c r="G88">
-        <v>-0.1025306255618035</v>
+        <v>-0.09568951706089868</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2439,10 +2439,10 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-3.358744803095887</v>
+        <v>-3.349385993561359</v>
       </c>
       <c r="G89">
-        <v>-0.1008752290681234</v>
+        <v>-0.1016441868778286</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2462,10 +2462,10 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.352414111707921</v>
+        <v>-3.357459108889682</v>
       </c>
       <c r="G90">
-        <v>-0.1040521256365698</v>
+        <v>-0.1115911232726985</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2485,10 +2485,10 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-3.373162142277823</v>
+        <v>-3.358668345738302</v>
       </c>
       <c r="G91">
-        <v>-0.1291679777273895</v>
+        <v>-0.1146741811878647</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2508,10 +2508,10 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-3.362835431846743</v>
+        <v>-3.355677613647631</v>
       </c>
       <c r="G92">
-        <v>-0.1207150883628567</v>
+        <v>-0.1135572701637408</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2531,10 +2531,10 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-3.372443689809694</v>
+        <v>-3.347073426068479</v>
       </c>
       <c r="G93">
-        <v>-0.129691478430682</v>
+        <v>-0.1068269036511351</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2554,10 +2554,10 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-3.370006810279658</v>
+        <v>-3.35076787738993</v>
       </c>
       <c r="G94">
-        <v>-0.1198458916123433</v>
+        <v>-0.1123951760391328</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2577,10 +2577,10 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-3.357193597181517</v>
+        <v>-3.366044539575852</v>
       </c>
       <c r="G95">
-        <v>-0.1171475927891255</v>
+        <v>-0.1295456592916011</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2600,10 +2600,10 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-3.368552599983818</v>
+        <v>-3.374558492614508</v>
       </c>
       <c r="G96">
-        <v>-0.1339275407661176</v>
+        <v>-0.1399334333968039</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2623,10 +2623,10 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-3.375547218075465</v>
+        <v>-3.347620921281879</v>
       </c>
       <c r="G97">
-        <v>-0.142795979924311</v>
+        <v>-0.1148696831307214</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2646,10 +2646,10 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-3.370849215896617</v>
+        <v>-3.35979620668533</v>
       </c>
       <c r="G98">
-        <v>-0.1399717988120099</v>
+        <v>-0.1289187896007187</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2669,10 +2669,10 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-3.384837728258374</v>
+        <v>-3.351598019699176</v>
       </c>
       <c r="G99">
-        <v>-0.1558341322403134</v>
+        <v>-0.1225944236811123</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2692,10 +2692,10 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-3.373489862685791</v>
+        <v>-3.349220119607966</v>
       </c>
       <c r="G100">
-        <v>-0.1300042822030916</v>
+        <v>-0.1220903446564487</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2715,10 +2715,10 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-3.385581625826558</v>
+        <v>-3.356081810956683</v>
       </c>
       <c r="G101">
-        <v>-0.1603256719415911</v>
+        <v>-0.130825857071712</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2738,10 +2738,10 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-3.37454739320893</v>
+        <v>-3.361253656959982</v>
       </c>
       <c r="G102">
-        <v>-0.1500239634592311</v>
+        <v>-0.1378715241415578</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2761,10 +2761,10 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-3.385644428882369</v>
+        <v>-3.356323959093551</v>
       </c>
       <c r="G103">
-        <v>-0.1616943107950251</v>
+        <v>-0.1348156473416737</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2784,10 +2784,10 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-3.387908328663443</v>
+        <v>-3.363500564026005</v>
       </c>
       <c r="G104">
-        <v>-0.1525040785902165</v>
+        <v>-0.143866073340674</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2807,10 +2807,10 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-3.379126826505105</v>
+        <v>-3.368877110570699</v>
       </c>
       <c r="G105">
-        <v>-0.1565010783588923</v>
+        <v>-0.1511164409519146</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2830,10 +2830,10 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-3.393972948747968</v>
+        <v>-3.34658784411431</v>
       </c>
       <c r="G106">
-        <v>-0.1780861001957339</v>
+        <v>-0.1307009955620728</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2853,10 +2853,10 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-3.375501608988944</v>
+        <v>-3.368384676896227</v>
       </c>
       <c r="G107">
-        <v>-0.1523281590426055</v>
+        <v>-0.1543716494105367</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2876,10 +2876,10 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-3.397817888067836</v>
+        <v>-3.358068340107835</v>
       </c>
       <c r="G108">
-        <v>-0.1856786816486955</v>
+        <v>-0.145929133688691</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2899,10 +2899,10 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-3.38826577848866</v>
+        <v>-3.373012531006472</v>
       </c>
       <c r="G109">
-        <v>-0.1780003931360663</v>
+        <v>-0.1627471456538743</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2922,10 +2922,10 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-3.39397508995246</v>
+        <v>-3.368328118335912</v>
       </c>
       <c r="G110">
-        <v>-0.1855835256664125</v>
+        <v>-0.1599365540498612</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2945,10 +2945,10 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-3.394730338987231</v>
+        <v>-3.359325416551102</v>
       </c>
       <c r="G111">
-        <v>-0.1882125957677303</v>
+        <v>-0.1528076733315982</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2968,10 +2968,10 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-3.389871394962058</v>
+        <v>-3.360229173696623</v>
       </c>
       <c r="G112">
-        <v>-0.1852274728091046</v>
+        <v>-0.1555852515436649</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2991,10 +2991,10 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-3.405356275520742</v>
+        <v>-3.38090407577658</v>
       </c>
       <c r="G113">
-        <v>-0.2025861744343338</v>
+        <v>-0.1781339746901689</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3014,10 +3014,10 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-3.388487759077516</v>
+        <v>-3.359073166234638</v>
       </c>
       <c r="G114">
-        <v>-0.1875914790576547</v>
+        <v>-0.1581768862147732</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3037,10 +3037,10 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-3.390722685712904</v>
+        <v>-3.35785208849789</v>
       </c>
       <c r="G115">
-        <v>-0.1917002267595898</v>
+        <v>-0.1588296295445719</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3060,10 +3060,10 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-3.394067318624568</v>
+        <v>-3.373952225635657</v>
       </c>
       <c r="G116">
-        <v>-0.1969186807377996</v>
+        <v>-0.176803587748886</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3083,10 +3083,10 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-3.421414733231661</v>
+        <v>-3.358780986774586</v>
       </c>
       <c r="G117">
-        <v>-0.2261399164114395</v>
+        <v>-0.1635061699543621</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3106,10 +3106,10 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-3.401804403320661</v>
+        <v>-3.351874261261287</v>
       </c>
       <c r="G118">
-        <v>-0.2084034075669865</v>
+        <v>-0.1584732655076091</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3129,10 +3129,10 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-3.402209535646442</v>
+        <v>-3.36735223448776</v>
       </c>
       <c r="G119">
-        <v>-0.2106823609593143</v>
+        <v>-0.175825059800629</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3152,10 +3152,10 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-3.396525195586651</v>
+        <v>-3.364463100548866</v>
       </c>
       <c r="G120">
-        <v>-0.2068718419660698</v>
+        <v>-0.1748097469282812</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3175,10 +3175,10 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-3.410222395428433</v>
+        <v>-3.370878082876402</v>
       </c>
       <c r="G121">
-        <v>-0.2224428628743973</v>
+        <v>-0.1830985503223639</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3198,10 +3198,10 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-3.407264604318009</v>
+        <v>-3.345714829926346</v>
       </c>
       <c r="G122">
-        <v>-0.2213588928305201</v>
+        <v>-0.1598091184388548</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3221,10 +3221,10 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-3.401650374856453</v>
+        <v>-3.367783036738372</v>
       </c>
       <c r="G123">
-        <v>-0.2176184844355107</v>
+        <v>-0.1837511463174275</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3244,10 +3244,10 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-3.411740493579421</v>
+        <v>-3.366382107354126</v>
       </c>
       <c r="G124">
-        <v>-0.2295824242250259</v>
+        <v>-0.1842240379997278</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3267,10 +3267,10 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-3.401139210242253</v>
+        <v>-3.3560473364825</v>
       </c>
       <c r="G125">
-        <v>-0.2208549619544038</v>
+        <v>-0.1757630881946484</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3290,10 +3290,10 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-3.407931018516845</v>
+        <v>-3.370076741189721</v>
       </c>
       <c r="G126">
-        <v>-0.2295205912955431</v>
+        <v>-0.1916663139684158</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3313,10 +3313,10 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-3.405281848924892</v>
+        <v>-3.36089615443103</v>
       </c>
       <c r="G127">
-        <v>-0.2287452427701364</v>
+        <v>-0.1843595482762708</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3336,10 +3336,10 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-3.406172649675225</v>
+        <v>-3.362780524715451</v>
       </c>
       <c r="G128">
-        <v>-0.2315098645870166</v>
+        <v>-0.1881177396272391</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3359,10 +3359,10 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-3.403406865041504</v>
+        <v>-3.347931812900547</v>
       </c>
       <c r="G129">
-        <v>-0.2306179010198424</v>
+        <v>-0.175142848878882</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3382,10 +3382,10 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-3.403482324209409</v>
+        <v>-3.348611678427622</v>
       </c>
       <c r="G130">
-        <v>-0.2325671812542933</v>
+        <v>-0.1776965354725037</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3405,10 +3405,10 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-3.401364965907115</v>
+        <v>-3.33555796925759</v>
       </c>
       <c r="G131">
-        <v>-0.2323236440185459</v>
+        <v>-0.1665166473690183</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3428,10 +3428,10 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-3.397920426280409</v>
+        <v>-3.353216972939501</v>
       </c>
       <c r="G132">
-        <v>-0.2307529254583873</v>
+        <v>-0.1860494721174757</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3451,10 +3451,10 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-3.396864710901148</v>
+        <v>-3.35503348319638</v>
       </c>
       <c r="G133">
-        <v>-0.231571031145672</v>
+        <v>-0.1897398034409017</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3474,10 +3474,10 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-3.396215828941992</v>
+        <v>-3.341601588469171</v>
       </c>
       <c r="G134">
-        <v>-0.2327959702530633</v>
+        <v>-0.1781817297802391</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3497,10 +3497,10 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-3.393271322159787</v>
+        <v>-3.343418393040845</v>
       </c>
       <c r="G135">
-        <v>-0.2317252845374052</v>
+        <v>-0.1818723554184607</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3520,10 +3520,10 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-3.393680837122377</v>
+        <v>-3.36288943453756</v>
       </c>
       <c r="G136">
-        <v>-0.2340086205665419</v>
+        <v>-0.2032172179817222</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3543,10 +3543,10 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.392187001677749</v>
+        <v>-3.340505046751903</v>
       </c>
       <c r="G137">
-        <v>-0.2343886061884601</v>
+        <v>-0.182706651262611</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3566,10 +3566,10 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.390063944201498</v>
+        <v>-3.354817932536442</v>
       </c>
       <c r="G138">
-        <v>-0.2341393697787564</v>
+        <v>-0.1988933581136971</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3589,10 +3589,10 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.38562782084936</v>
+        <v>-3.34827457440415</v>
       </c>
       <c r="G139">
-        <v>-0.2315770674931639</v>
+        <v>-0.1942238210479517</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3612,10 +3612,10 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.38277044299288</v>
+        <v>-3.338097215540919</v>
       </c>
       <c r="G140">
-        <v>-0.2305935107032309</v>
+        <v>-0.1859202832512676</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3635,10 +3635,10 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.380210250283382</v>
+        <v>-3.33764853714582</v>
       </c>
       <c r="G141">
-        <v>-0.2299071390602794</v>
+        <v>-0.1873454259227154</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3658,10 +3658,10 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.379590796399011</v>
+        <v>-3.341908498757328</v>
       </c>
       <c r="G142">
-        <v>-0.231161506242455</v>
+        <v>-0.1934792086007699</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3681,10 +3681,10 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.373898598878496</v>
+        <v>-3.355459333280155</v>
       </c>
       <c r="G143">
-        <v>-0.2273431297884863</v>
+        <v>-0.2089038641901428</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3704,10 +3704,10 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.370737792985103</v>
+        <v>-3.332071138347483</v>
       </c>
       <c r="G144">
-        <v>-0.2260561449616407</v>
+        <v>-0.1873894903240181</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3727,10 +3727,10 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.367113280371397</v>
+        <v>-3.341756949092896</v>
       </c>
       <c r="G145">
-        <v>-0.2243054534144808</v>
+        <v>-0.1989491221359774</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3750,10 +3750,10 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.365392822040912</v>
+        <v>-3.333048700209451</v>
       </c>
       <c r="G146">
-        <v>-0.2244588161505425</v>
+        <v>-0.1921146943190786</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3773,10 +3773,10 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.359932596515183</v>
+        <v>-3.328587250857969</v>
       </c>
       <c r="G147">
-        <v>-0.2208724116913601</v>
+        <v>-0.1895270660341437</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3796,10 +3796,10 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-3.356306605760823</v>
+        <v>-3.312528362250829</v>
       </c>
       <c r="G148">
-        <v>-0.219120242003547</v>
+        <v>-0.1753419984935505</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3819,10 +3819,10 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.357579049561511</v>
+        <v>-3.317740224965427</v>
       </c>
       <c r="G149">
-        <v>-0.222266506870781</v>
+        <v>-0.1824276822746946</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3842,10 +3842,10 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.351857929676606</v>
+        <v>-3.299771936829328</v>
       </c>
       <c r="G150">
-        <v>-0.2184192080524225</v>
+        <v>-0.1663332152051427</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3865,10 +3865,10 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.345035254064288</v>
+        <v>-3.320759832466405</v>
       </c>
       <c r="G151">
-        <v>-0.2134703535066518</v>
+        <v>-0.1891949319087665</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3888,10 +3888,10 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.345573432842019</v>
+        <v>-3.333166907788889</v>
       </c>
       <c r="G152">
-        <v>-0.2158823533509286</v>
+        <v>-0.2034758282977966</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3911,10 +3911,10 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.340569229999092</v>
+        <v>-3.305961424060865</v>
       </c>
       <c r="G153">
-        <v>-0.2127519715745487</v>
+        <v>-0.178144165636319</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3934,10 +3934,10 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.338822512052856</v>
+        <v>-3.299739787613246</v>
       </c>
       <c r="G154">
-        <v>-0.212879074694859</v>
+        <v>-0.1737963502552471</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3957,10 +3957,10 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.332112876019532</v>
+        <v>-3.292273032444355</v>
       </c>
       <c r="G155">
-        <v>-0.2080432597280819</v>
+        <v>-0.1682034161529027</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3980,10 +3980,10 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.332832751910782</v>
+        <v>-3.307348193841781</v>
       </c>
       <c r="G156">
-        <v>-0.2106369566858783</v>
+        <v>-0.185152398616875</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4003,10 +4003,10 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.325582061956817</v>
+        <v>-3.29422253724251</v>
       </c>
       <c r="G157">
-        <v>-0.2052600877984603</v>
+        <v>-0.1739005630841515</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4026,10 +4026,10 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.32247156732759</v>
+        <v>-3.294815982681914</v>
       </c>
       <c r="G158">
-        <v>-0.2040234142357793</v>
+        <v>-0.1763678295901017</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4049,10 +4049,10 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.321040555205081</v>
+        <v>-3.302103870521152</v>
       </c>
       <c r="G159">
-        <v>-0.2044662231798173</v>
+        <v>-0.1855295384958866</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4072,10 +4072,10 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.315011162676281</v>
+        <v>-3.299963641886373</v>
       </c>
       <c r="G160">
-        <v>-0.2003106517175635</v>
+        <v>-0.1852631309276542</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4095,10 +4095,10 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.308002975667403</v>
+        <v>-3.293242472946651</v>
       </c>
       <c r="G161">
-        <v>-0.1951762857752324</v>
+        <v>-0.1804157830544784</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4118,10 +4118,10 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.306348283190176</v>
+        <v>-3.278310281897888</v>
       </c>
       <c r="G162">
-        <v>-0.1953954143645522</v>
+        <v>-0.1673574130722626</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4141,10 +4141,10 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.305239317647373</v>
+        <v>-3.283625663095043</v>
       </c>
       <c r="G163">
-        <v>-0.196160269888296</v>
+        <v>-0.1745466153359638</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4164,10 +4164,10 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.298222940868841</v>
+        <v>-3.278099907090383</v>
       </c>
       <c r="G164">
-        <v>-0.1910177141763105</v>
+        <v>-0.1708946803978508</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4187,10 +4187,10 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.298327307572297</v>
+        <v>-3.280348084373168</v>
       </c>
       <c r="G165">
-        <v>-0.1929959019463126</v>
+        <v>-0.1750166787471821</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4210,10 +4210,10 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.2919618721656</v>
+        <v>-3.27286180571265</v>
       </c>
       <c r="G166">
-        <v>-0.1885042876061629</v>
+        <v>-0.169404221153211</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4233,10 +4233,10 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.288278651345147</v>
+        <v>-3.27364728003291</v>
       </c>
       <c r="G167">
-        <v>-0.1866948878522565</v>
+        <v>-0.1720635165400171</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4256,10 +4256,10 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.282828787600266</v>
+        <v>-3.253083059608207</v>
       </c>
       <c r="G168">
-        <v>-0.1831188451739216</v>
+        <v>-0.1533731171818609</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4279,10 +4279,10 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.280761421942833</v>
+        <v>-3.264453336375833</v>
       </c>
       <c r="G169">
-        <v>-0.1829253005830356</v>
+        <v>-0.1666172150160337</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4302,10 +4302,10 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.277780863318002</v>
+        <v>-3.255162107139615</v>
       </c>
       <c r="G170">
-        <v>-0.1818185630247513</v>
+        <v>-0.1591998068463625</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4325,10 +4325,10 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.273992017282865</v>
+        <v>-3.256335504708077</v>
       </c>
       <c r="G171">
-        <v>-0.1799035380561609</v>
+        <v>-0.162247025481371</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4348,10 +4348,10 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.268472925443318</v>
+        <v>-3.249061195806828</v>
       </c>
       <c r="G172">
-        <v>-0.1762582672831596</v>
+        <v>-0.156846537646669</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4371,10 +4371,10 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.265133536922976</v>
+        <v>-3.248276809730327</v>
       </c>
       <c r="G173">
-        <v>-0.1747926998293652</v>
+        <v>-0.1579359726367138</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4394,10 +4394,10 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.258261540851662</v>
+        <v>-3.241105298937784</v>
       </c>
       <c r="G174">
-        <v>-0.1697945248245978</v>
+        <v>-0.1526382829107171</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4417,10 +4417,10 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.255931691008737</v>
+        <v>-3.243683387962632</v>
       </c>
       <c r="G175">
-        <v>-0.169338496048219</v>
+        <v>-0.1570901930021121</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4440,10 +4440,10 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.250083366979478</v>
+        <v>-3.233867604662143</v>
       </c>
       <c r="G176">
-        <v>-0.1653639930855073</v>
+        <v>-0.1491482307681697</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4463,10 +4463,10 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.246266803037682</v>
+        <v>-3.240390949673704</v>
       </c>
       <c r="G177">
-        <v>-0.1634212502102577</v>
+        <v>-0.1575453968462781</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4486,10 +4486,10 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.241666814880479</v>
+        <v>-3.226950601387319</v>
       </c>
       <c r="G178">
-        <v>-0.1606950831196005</v>
+        <v>-0.1459788696264397</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4509,10 +4509,10 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.237925043708042</v>
+        <v>-3.225737040219359</v>
       </c>
       <c r="G179">
-        <v>-0.1588271330137104</v>
+        <v>-0.146639129525026</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4532,10 +4532,10 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.232095555857486</v>
+        <v>-3.220687723448207</v>
       </c>
       <c r="G180">
-        <v>-0.1548714662297017</v>
+        <v>-0.1434636338204203</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4555,10 +4555,10 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.227082559836421</v>
+        <v>-3.219774249352163</v>
       </c>
       <c r="G181">
-        <v>-0.1517322912751826</v>
+        <v>-0.144423980790923</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4578,10 +4578,10 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.222619952181492</v>
+        <v>-3.217916833330687</v>
       </c>
       <c r="G182">
-        <v>-0.1491435046868</v>
+        <v>-0.1444403858359941</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4601,10 +4601,10 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.217415645466431</v>
+        <v>-3.214364363766121</v>
       </c>
       <c r="G183">
-        <v>-0.145813019038286</v>
+        <v>-0.1427617373379741</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4624,10 +4624,10 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.213765896835796</v>
+        <v>-3.204606964909266</v>
       </c>
       <c r="G184">
-        <v>-0.1440370914741976</v>
+        <v>-0.1348781595476662</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4647,10 +4647,10 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.208519864965459</v>
+        <v>-3.19062465168685</v>
       </c>
       <c r="G185">
-        <v>-0.1406648806704068</v>
+        <v>-0.1227696673917965</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4670,10 +4670,10 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.204894611717659</v>
+        <v>-3.195999693724426</v>
       </c>
       <c r="G186">
-        <v>-0.1389134484891539</v>
+        <v>-0.1300185304959197</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4693,10 +4693,10 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.197352322702764</v>
+        <v>-3.194442021985358</v>
       </c>
       <c r="G187">
-        <v>-0.133244980540806</v>
+        <v>-0.1303346798233985</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4716,10 +4716,10 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.193006232972472</v>
+        <v>-3.190798259255495</v>
       </c>
       <c r="G188">
-        <v>-0.1307727118770597</v>
+        <v>-0.1285647381600822</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4739,10 +4739,10 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.189219103839561</v>
+        <v>-3.182504315111539</v>
       </c>
       <c r="G189">
-        <v>-0.1288594038106959</v>
+        <v>-0.1221446150826729</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4762,10 +4762,10 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.184780911945668</v>
+        <v>-3.178193165610887</v>
       </c>
       <c r="G190">
-        <v>-0.126295032983349</v>
+        <v>-0.1197072866485669</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4785,10 +4785,10 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.178396016681127</v>
+        <v>-3.167365412095787</v>
       </c>
       <c r="G191">
-        <v>-0.1217839587853553</v>
+        <v>-0.1107533542000132</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4808,10 +4808,10 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.1736601138861</v>
+        <v>-3.158321269520087</v>
       </c>
       <c r="G192">
-        <v>-0.1189218770568751</v>
+        <v>-0.10358303269086</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4831,10 +4831,10 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.168016917681693</v>
+        <v>-3.159258136097495</v>
       </c>
       <c r="G193">
-        <v>-0.1151525019190135</v>
+        <v>-0.1063937203348151</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4854,10 +4854,10 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.162558712539722</v>
+        <v>-3.150563734875917</v>
       </c>
       <c r="G194">
-        <v>-0.1115681178435897</v>
+        <v>-0.09957314017978303</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4877,10 +4877,10 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.156663083772854</v>
+        <v>-3.154736094830758</v>
       </c>
       <c r="G195">
-        <v>-0.1075463101432679</v>
+        <v>-0.1056193212011708</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4900,10 +4900,10 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.153011869277767</v>
+        <v>-3.144712498305559</v>
       </c>
       <c r="G196">
-        <v>-0.1057689167147279</v>
+        <v>-0.09746954574251865</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4923,10 +4923,10 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.146329263112093</v>
+        <v>-3.142214401356103</v>
       </c>
       <c r="G197">
-        <v>-0.1009601316156005</v>
+        <v>-0.0968452698596089</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4946,10 +4946,10 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.141240008457217</v>
+        <v>-3.134127450321841</v>
       </c>
       <c r="G198">
-        <v>-0.09774469802727148</v>
+        <v>-0.09063213989189406</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4969,10 +4969,10 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.136150753802342</v>
+        <v>-3.128781175540954</v>
       </c>
       <c r="G199">
-        <v>-0.09452926443894244</v>
+        <v>-0.08715968617755404</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4992,10 +4992,10 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.130363692183356</v>
+        <v>-3.13198580729208</v>
       </c>
       <c r="G200">
-        <v>-0.09061602388650392</v>
+        <v>-0.09223813899522659</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5015,10 +5015,10 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.12597224449259</v>
+        <v>-3.121695868918312</v>
       </c>
       <c r="G201">
-        <v>-0.08809839726228352</v>
+        <v>-0.08382202168800468</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5038,10 +5038,10 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.119487375909495</v>
+        <v>-3.113923078647318</v>
       </c>
       <c r="G202">
-        <v>-0.08348734974573507</v>
+        <v>-0.0779230524835573</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5061,10 +5061,10 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.114398121254618</v>
+        <v>-3.109291261705225</v>
       </c>
       <c r="G203">
-        <v>-0.08027191615740559</v>
+        <v>-0.07516505660801159</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5084,10 +5084,10 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.109308866599743</v>
+        <v>-3.100789496653682</v>
       </c>
       <c r="G204">
-        <v>-0.07705648256907655</v>
+        <v>-0.06853711262301504</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5107,10 +5107,10 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.102012620159468</v>
+        <v>-3.097930548461884</v>
       </c>
       <c r="G205">
-        <v>-0.07163405719534821</v>
+        <v>-0.06755198549776398</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5130,10 +5130,10 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.096225558540482</v>
+        <v>-3.088922292161808</v>
       </c>
       <c r="G206">
-        <v>-0.06772081664290924</v>
+        <v>-0.06041755026423434</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5153,10 +5153,10 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-3.090438496921497</v>
+        <v>-3.089700059346582</v>
       </c>
       <c r="G207">
-        <v>-0.06380757609047072</v>
+        <v>-0.06306913851555479</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5176,10 +5176,10 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-3.084651435302513</v>
+        <v>-3.083823827292901</v>
       </c>
       <c r="G208">
-        <v>-0.05989433553803308</v>
+        <v>-0.05906672752842018</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5199,10 +5199,10 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.077355188862236</v>
+        <v>-3.075058035180628</v>
       </c>
       <c r="G209">
-        <v>-0.05447191016430342</v>
+        <v>-0.05217475648269479</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5222,10 +5222,10 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.07003417677926</v>
+        <v>-3.067786554383053</v>
       </c>
       <c r="G210">
-        <v>-0.04902471914787315</v>
+        <v>-0.04677709675166575</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5245,10 +5245,10 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-3.062713164696283</v>
+        <v>-3.061082714319761</v>
       </c>
       <c r="G211">
-        <v>-0.04357752813144289</v>
+        <v>-0.04194707775491988</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5268,10 +5268,10 @@
         <v>140</v>
       </c>
       <c r="F212">
-        <v>-3.055392152613306</v>
+        <v>-3.054589310246396</v>
       </c>
       <c r="G212">
-        <v>-0.03813033711501315</v>
+        <v>-0.03732749474810187</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5291,10 +5291,10 @@
         <v>141</v>
       </c>
       <c r="F213">
-        <v>-3.048071140530329</v>
+        <v>-3.048046374887629</v>
       </c>
       <c r="G213">
-        <v>-0.032683146098582</v>
+        <v>-0.03265838045588124</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5314,10 +5314,10 @@
         <v>142</v>
       </c>
       <c r="F214">
-        <v>-3.040750128447352</v>
+        <v>-3.039947286080442</v>
       </c>
       <c r="G214">
-        <v>-0.02723595508215219</v>
+        <v>-0.02643311271524096</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5337,10 +5337,10 @@
         <v>143</v>
       </c>
       <c r="F215">
-        <v>-3.033429116364376</v>
+        <v>-3.033429116364375</v>
       </c>
       <c r="G215">
-        <v>-0.02178876406572237</v>
+        <v>-0.02178876406572136</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5363,7 +5363,7 @@
         <v>-3.026108104281399</v>
       </c>
       <c r="G216">
-        <v>-0.01634157304929211</v>
+        <v>-0.01634157304929158</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5386,7 +5386,7 @@
         <v>-3.018787092198422</v>
       </c>
       <c r="G217">
-        <v>-0.01089438203286141</v>
+        <v>-0.0108943820328609</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5409,7 +5409,7 @@
         <v>-3.011466080115445</v>
       </c>
       <c r="G218">
-        <v>-0.005447191016431149</v>
+        <v>-0.005447191016430673</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5432,7 +5432,7 @@
         <v>-3.004145068032468</v>
       </c>
       <c r="G219">
-        <v>-4.440892098500626e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5455,7 +5455,7 @@
         <v>-3.398257019765125</v>
       </c>
       <c r="G220">
-        <v>4.529709940470639e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5475,10 +5475,10 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-3.448550065400314</v>
+        <v>-3.438903276480726</v>
       </c>
       <c r="G221">
-        <v>-0.06706806521712272</v>
+        <v>-0.0683567336496953</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5498,10 +5498,10 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-3.460445368484057</v>
+        <v>-3.469116491615516</v>
       </c>
       <c r="G222">
-        <v>-0.1146600336313526</v>
+        <v>-0.1272041082830486</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5521,10 +5521,10 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-3.492832558027073</v>
+        <v>-3.451600249485017</v>
       </c>
       <c r="G223">
-        <v>-0.1795543341931398</v>
+        <v>-0.1383220256511128</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5544,10 +5544,10 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.475981796804778</v>
+        <v>-3.444486851835263</v>
       </c>
       <c r="G224">
-        <v>-0.191337732469413</v>
+        <v>-0.1598427874999229</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5567,10 +5567,10 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.458224138127845</v>
+        <v>-3.438478944805692</v>
       </c>
       <c r="G225">
-        <v>-0.2022142332910486</v>
+        <v>-0.1824690399689151</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5590,10 +5590,10 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.417366918291893</v>
+        <v>-3.397225834880874</v>
       </c>
       <c r="G226">
-        <v>-0.1899911729536647</v>
+        <v>-0.1698500895426602</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5613,10 +5613,10 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.354568992694215</v>
+        <v>-3.339726618206201</v>
       </c>
       <c r="G227">
-        <v>-0.1558274068545558</v>
+        <v>-0.1409850323665507</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5636,10 +5636,10 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.289081549766744</v>
+        <v>-3.280001012701185</v>
       </c>
       <c r="G228">
-        <v>-0.1189741234256537</v>
+        <v>-0.1098935863600984</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5659,10 +5659,10 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.211553348358101</v>
+        <v>-3.208995989266411</v>
       </c>
       <c r="G229">
-        <v>-0.07008008151557865</v>
+        <v>-0.06752272242388779</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5685,7 +5685,7 @@
         <v>-3.11283910734396</v>
       </c>
       <c r="G230">
-        <v>-6.217248937900877e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5708,7 +5708,7 @@
         <v>-3.47384349626528</v>
       </c>
       <c r="G231">
-        <v>-3.708144902248023e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5728,10 +5728,10 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-3.519793985176692</v>
+        <v>-3.508388974192697</v>
       </c>
       <c r="G232">
-        <v>-0.07507511893272412</v>
+        <v>-0.06367010794840011</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5751,10 +5751,10 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-3.52924410078144</v>
+        <v>-3.525093836374601</v>
       </c>
       <c r="G233">
-        <v>-0.113649864558413</v>
+        <v>-0.1094996001512882</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5774,10 +5774,10 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.533401417544246</v>
+        <v>-3.518963239091865</v>
       </c>
       <c r="G234">
-        <v>-0.14693181134216</v>
+        <v>-0.1324936328895352</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5797,10 +5797,10 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.525515748327506</v>
+        <v>-3.509750449874222</v>
       </c>
       <c r="G235">
-        <v>-0.1681707721463619</v>
+        <v>-0.1524054736928764</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -5820,10 +5820,10 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.513235262838922</v>
+        <v>-3.482128411622204</v>
       </c>
       <c r="G236">
-        <v>-0.1850149166787185</v>
+        <v>-0.1539080654618417</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5843,10 +5843,10 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.473598330530936</v>
+        <v>-3.452368533861246</v>
       </c>
       <c r="G237">
-        <v>-0.1745026143916744</v>
+        <v>-0.1532728177218672</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5866,10 +5866,10 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.419946059606923</v>
+        <v>-3.397722814750023</v>
       </c>
       <c r="G238">
-        <v>-0.1499749734886024</v>
+        <v>-0.1277517286316281</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5889,10 +5889,10 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.35371115712812</v>
+        <v>-3.342702259260905</v>
       </c>
       <c r="G239">
-        <v>-0.1128647010307415</v>
+        <v>-0.1018558031634939</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5912,10 +5912,10 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.276393417151851</v>
+        <v>-3.272349850900283</v>
       </c>
       <c r="G240">
-        <v>-0.06467159107541282</v>
+        <v>-0.06062802482385499</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5938,7 +5938,7 @@
         <v>-3.182077113376498</v>
       </c>
       <c r="G241">
-        <v>5.284661597215745e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5961,7 +5961,7 @@
         <v>-3.526105169360524</v>
       </c>
       <c r="G242">
-        <v>-4.560796185160143e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5981,10 +5981,10 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-3.560873811001175</v>
+        <v>-3.552050530688693</v>
       </c>
       <c r="G243">
-        <v>-0.06428796445469986</v>
+        <v>-0.05546468414183092</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6004,10 +6004,10 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.568084642236371</v>
+        <v>-3.562228554980729</v>
       </c>
       <c r="G244">
-        <v>-0.1010181185034882</v>
+        <v>-0.09516203124752831</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6027,10 +6027,10 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.575404066606269</v>
+        <v>-3.557518058496996</v>
       </c>
       <c r="G245">
-        <v>-0.1378568656869783</v>
+        <v>-0.1199708575774574</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6050,10 +6050,10 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.563154260405142</v>
+        <v>-3.547361567841388</v>
       </c>
       <c r="G246">
-        <v>-0.155447244503939</v>
+        <v>-0.1396545519400081</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6073,10 +6073,10 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.547953466446538</v>
+        <v>-3.529777466286975</v>
       </c>
       <c r="G247">
-        <v>-0.1697657733589271</v>
+        <v>-0.1515897731992562</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6096,10 +6096,10 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.513791047984184</v>
+        <v>-3.49155145437382</v>
       </c>
       <c r="G248">
-        <v>-0.1651226777101646</v>
+        <v>-0.1428830840997626</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6119,10 +6119,10 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.459181566630327</v>
+        <v>-3.443295645368724</v>
       </c>
       <c r="G249">
-        <v>-0.140353381374396</v>
+        <v>-0.1244674601128246</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6142,10 +6142,10 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.397023308856945</v>
+        <v>-3.385216863161599</v>
       </c>
       <c r="G250">
-        <v>-0.1077144464146063</v>
+        <v>-0.09590800071936123</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6165,10 +6165,10 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.322048563717133</v>
+        <v>-3.316784064418276</v>
       </c>
       <c r="G251">
-        <v>-0.06225902408838591</v>
+        <v>-0.0569945247896998</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6191,7 +6191,7 @@
         <v>-3.229949354610418</v>
       </c>
       <c r="G252">
-        <v>2.41140440948584e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6214,7 +6214,7 @@
         <v>-3.564359030990779</v>
       </c>
       <c r="G253">
-        <v>-3.130828929442941e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6234,10 +6234,10 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.591092366674498</v>
+        <v>-3.584448404084274</v>
       </c>
       <c r="G254">
-        <v>-0.05587477045505107</v>
+        <v>-0.04992046283838159</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6257,10 +6257,10 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.6031663615044</v>
+        <v>-3.595797764427407</v>
       </c>
       <c r="G255">
-        <v>-0.09868107801613224</v>
+        <v>-0.09131248093877486</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6280,10 +6280,10 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.606618004710327</v>
+        <v>-3.591428318135904</v>
       </c>
       <c r="G256">
-        <v>-0.1319638109669721</v>
+        <v>-0.1167741243921592</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6303,10 +6303,10 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.591363454509146</v>
+        <v>-3.57862652973437</v>
       </c>
       <c r="G257">
-        <v>-0.1467519185230781</v>
+        <v>-0.1340149937478867</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6326,10 +6326,10 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.57739609369283</v>
+        <v>-3.556431686645081</v>
       </c>
       <c r="G258">
-        <v>-0.1626156474516747</v>
+        <v>-0.1416512404034835</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -6349,10 +6349,10 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.541285156705185</v>
+        <v>-3.517946906469184</v>
       </c>
       <c r="G259">
-        <v>-0.1565473682213163</v>
+        <v>-0.1332091179848487</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6372,10 +6372,10 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.487615226907755</v>
+        <v>-3.475108231618584</v>
       </c>
       <c r="G260">
-        <v>-0.1327085281687985</v>
+        <v>-0.1202015328791342</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6395,10 +6395,10 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.426834075298964</v>
+        <v>-3.417295767169187</v>
       </c>
       <c r="G261">
-        <v>-0.1019700343172952</v>
+        <v>-0.09243172618699924</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6418,10 +6418,10 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.35479168309785</v>
+        <v>-3.349158611088373</v>
       </c>
       <c r="G262">
-        <v>-0.0597587318610931</v>
+        <v>-0.05412565985107215</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6444,7 +6444,7 @@
         <v>-3.26499029348004</v>
       </c>
       <c r="G263">
-        <v>-5.702105454474804e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6467,7 +6467,7 @@
         <v>-3.593556185708505</v>
       </c>
       <c r="G264">
-        <v>-4.383160501220118e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6487,10 +6487,10 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.618639592929835</v>
+        <v>-3.615277427257174</v>
       </c>
       <c r="G265">
-        <v>-0.05516279631024723</v>
+        <v>-0.05180063063708751</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6510,10 +6510,10 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.630691170219061</v>
+        <v>-3.621032867254061</v>
       </c>
       <c r="G266">
-        <v>-0.09744049141521405</v>
+        <v>-0.08778218844965346</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6533,10 +6533,10 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.632712044111822</v>
+        <v>-3.616680105522736</v>
       </c>
       <c r="G267">
-        <v>-0.1296874831237149</v>
+        <v>-0.1136555445340068</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6556,10 +6556,10 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.616147132708929</v>
+        <v>-3.607412434028379</v>
       </c>
       <c r="G268">
-        <v>-0.1432019608093009</v>
+        <v>-0.1344672621280671</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6579,10 +6579,10 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.597272745657253</v>
+        <v>-3.577681433237735</v>
       </c>
       <c r="G269">
-        <v>-0.1545536915733654</v>
+        <v>-0.1349623791531021</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6602,10 +6602,10 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.562250235316928</v>
+        <v>-3.543485496268263</v>
       </c>
       <c r="G270">
-        <v>-0.1497572990487808</v>
+        <v>-0.1309925599993087</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6625,10 +6625,10 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.512407488940135</v>
+        <v>-3.498135263241741</v>
       </c>
       <c r="G271">
-        <v>-0.1299939417604672</v>
+        <v>-0.1157217160612052</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6648,10 +6648,10 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.449337225678788</v>
+        <v>-3.441263688723251</v>
       </c>
       <c r="G272">
-        <v>-0.09714979631485998</v>
+        <v>-0.08907625935839281</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6671,10 +6671,10 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.380294070138824</v>
+        <v>-3.373125949464482</v>
       </c>
       <c r="G273">
-        <v>-0.05833275859063669</v>
+        <v>-0.05116463791530251</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6697,7 +6697,7 @@
         <v>-3.2917351937335</v>
       </c>
       <c r="G274">
-        <v>-1.052935516554498e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6720,7 +6720,7 @@
         <v>-3.616565425852349</v>
       </c>
       <c r="G275">
-        <v>-4.267697306659102e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6740,10 +6740,10 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.639015760979723</v>
+        <v>-3.636523576113533</v>
       </c>
       <c r="G276">
-        <v>-0.05273040086574143</v>
+        <v>-0.05023821599913392</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6763,10 +6763,10 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.649397548462832</v>
+        <v>-3.64173969948159</v>
       </c>
       <c r="G277">
-        <v>-0.0934981284425187</v>
+        <v>-0.08584027946086792</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6786,10 +6786,10 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.646215244862291</v>
+        <v>-3.638299105313562</v>
       </c>
       <c r="G278">
-        <v>-0.1207017649356446</v>
+        <v>-0.1127856253865165</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6809,10 +6809,10 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.638475289985259</v>
+        <v>-3.621144016774585</v>
       </c>
       <c r="G279">
-        <v>-0.1433477501522797</v>
+        <v>-0.1260164769412162</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6832,10 +6832,10 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.606098124932533</v>
+        <v>-3.59830995749024</v>
       </c>
       <c r="G280">
-        <v>-0.1413565251932209</v>
+        <v>-0.1335683577505475</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6855,10 +6855,10 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.576842248962204</v>
+        <v>-3.558120309785543</v>
       </c>
       <c r="G281">
-        <v>-0.1424865893165594</v>
+        <v>-0.1237646501395271</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -6878,10 +6878,10 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.530133718448401</v>
+        <v>-3.513738012605417</v>
       </c>
       <c r="G282">
-        <v>-0.1261639988964243</v>
+        <v>-0.1097682930530783</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6901,10 +6901,10 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.467867486615084</v>
+        <v>-3.458594493617567</v>
       </c>
       <c r="G283">
-        <v>-0.09428370715677448</v>
+        <v>-0.08501071415890449</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6924,10 +6924,10 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.399594214357095</v>
+        <v>-3.392997704967621</v>
       </c>
       <c r="G284">
-        <v>-0.05639637499245281</v>
+        <v>-0.04979986560263572</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6950,7 +6950,7 @@
         <v>-3.312811899271309</v>
       </c>
       <c r="G285">
-        <v>-3.343991750170971e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -6973,7 +6973,7 @@
         <v>-3.635161825664823</v>
       </c>
       <c r="G286">
-        <v>1.343369859796439e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -6993,10 +6993,10 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.656415039271307</v>
+        <v>-3.653345526871045</v>
       </c>
       <c r="G287">
-        <v>-0.05177686924836644</v>
+        <v>-0.04870735684947647</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -7016,10 +7016,10 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.664720511184622</v>
+        <v>-3.656798961740089</v>
       </c>
       <c r="G288">
-        <v>-0.09060599680490755</v>
+        <v>-0.08268444736177516</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -7039,10 +7039,10 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.660580028258035</v>
+        <v>-3.651799425938139</v>
       </c>
       <c r="G289">
-        <v>-0.1169891695215464</v>
+        <v>-0.1082085672030799</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -7062,10 +7062,10 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.649019487120716</v>
+        <v>-3.636597521284801</v>
       </c>
       <c r="G290">
-        <v>-0.1359522840274541</v>
+        <v>-0.1235303181929979</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -7085,10 +7085,10 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.622138457883143</v>
+        <v>-3.60834646187643</v>
       </c>
       <c r="G291">
-        <v>-0.1395949104331058</v>
+        <v>-0.1258029144278809</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7108,10 +7108,10 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.590214496177395</v>
+        <v>-3.573683587924908</v>
       </c>
       <c r="G292">
-        <v>-0.138194604370584</v>
+        <v>-0.1216636961196143</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -7131,10 +7131,10 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.543153336148416</v>
+        <v>-3.528140310169797</v>
       </c>
       <c r="G293">
-        <v>-0.1216570999848312</v>
+        <v>-0.1066440740077581</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7154,10 +7154,10 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.483050669112709</v>
+        <v>-3.474101593252468</v>
       </c>
       <c r="G294">
-        <v>-0.09207808859235</v>
+        <v>-0.08312901273368389</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -7177,10 +7177,10 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.415517396415594</v>
+        <v>-3.408670915188094</v>
       </c>
       <c r="G295">
-        <v>-0.05506847153846062</v>
+        <v>-0.04822199031256436</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7203,7 +7203,7 @@
         <v>-3.329846396737072</v>
       </c>
       <c r="G296">
-        <v>1.63247193540883e-12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-3.163159536306124</v>
+        <v>-3.165797112063703</v>
       </c>
       <c r="G21">
         <v>-0.1185106821652466</v>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-3.18033016829832</v>
+        <v>-3.182967744055891</v>
       </c>
       <c r="G22">
         <v>-0.1403665155679987</v>
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-3.186511531567855</v>
+        <v>-3.197500800290511</v>
       </c>
       <c r="G23">
         <v>-0.151233080248089</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-3.210143963146879</v>
+        <v>-3.211108785006676</v>
       </c>
       <c r="G25">
         <v>-0.1842359146482244</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-3.194949457163897</v>
+        <v>-3.22035635575719</v>
       </c>
       <c r="G26">
         <v>-0.1737266100757977</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-3.214510098742585</v>
+        <v>-3.2348894119918</v>
       </c>
       <c r="G27">
         <v>-0.1979724530650411</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-3.223545142351526</v>
+        <v>-3.242464228844538</v>
       </c>
       <c r="G28">
         <v>-0.2116926980845379</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-3.204139526572458</v>
+        <v>-3.247377668873504</v>
       </c>
       <c r="G31">
         <v>-0.2063426865371363</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-3.224049389733821</v>
+        <v>-3.244521138408916</v>
       </c>
       <c r="G32">
         <v>-0.2309377511090549</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-3.227773411290317</v>
+        <v>-3.22800965977369</v>
       </c>
       <c r="G33">
         <v>-0.2393469740761067</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-3.187958184489181</v>
+        <v>-3.234962449246356</v>
       </c>
       <c r="G34">
         <v>-0.2042169486855263</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-3.205706448519218</v>
+        <v>-3.214222183459161</v>
       </c>
       <c r="G35">
         <v>-0.2266504141261185</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-3.17574930993131</v>
+        <v>-3.210759656949096</v>
       </c>
       <c r="G36">
         <v>-0.2013784769487663</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-3.216995125707391</v>
+        <v>-3.2207901610234</v>
       </c>
       <c r="G37">
         <v>-0.2473094941354026</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.190974137197672</v>
+        <v>-3.220487795311571</v>
       </c>
       <c r="G38">
         <v>-0.2259737070362386</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-3.213736072413305</v>
+        <v>-3.214769380701917</v>
       </c>
       <c r="G39">
         <v>-0.2534208436624279</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-3.197411279856365</v>
+        <v>-3.206139324791008</v>
       </c>
       <c r="G40">
         <v>-0.2417812525160432</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-3.190495435271625</v>
+        <v>-3.202123923842725</v>
       </c>
       <c r="G41">
         <v>-0.2395506093418593</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.183342208999109</v>
+        <v>-3.185852437056667</v>
       </c>
       <c r="G42">
         <v>-0.2370825844798983</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-3.178930268942426</v>
+        <v>-3.194588836371272</v>
       </c>
       <c r="G43">
         <v>-0.2373558458337717</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-3.164867461817841</v>
+        <v>-3.18809910062217</v>
       </c>
       <c r="G45">
         <v>-0.2326634415302968</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-3.161521285215663</v>
+        <v>-3.161894890294975</v>
       </c>
       <c r="G47">
         <v>-0.23868766774923</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-3.127073486619299</v>
+        <v>-3.155705752546107</v>
       </c>
       <c r="G48">
         <v>-0.2089250705634222</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-3.136652576483928</v>
+        <v>-3.145617932015254</v>
       </c>
       <c r="G49">
         <v>-0.2231893618386069</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.130794141783571</v>
+        <v>-3.138467084904649</v>
       </c>
       <c r="G50">
         <v>-0.2220161285488045</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-3.124850583705433</v>
+        <v>-3.126403157151493</v>
       </c>
       <c r="G51">
         <v>-0.2207577718812224</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-3.104656094169318</v>
+        <v>-3.109693389648419</v>
       </c>
       <c r="G52">
         <v>-0.2052484837556632</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.100266829900137</v>
+        <v>-3.109159832794721</v>
       </c>
       <c r="G53">
         <v>-0.2055444208970374</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.084157525081034</v>
+        <v>-3.106608470881203</v>
       </c>
       <c r="G54">
         <v>-0.1941203174884897</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.082336819775278</v>
+        <v>-3.08836967144727</v>
       </c>
       <c r="G55">
         <v>-0.1969848135932898</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.067479495581108</v>
+        <v>-3.077300979862734</v>
       </c>
       <c r="G56">
         <v>-0.1868126908096756</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-3.066665436796145</v>
+        <v>-3.072530956742245</v>
       </c>
       <c r="G57">
         <v>-0.1906838334352677</v>
@@ -1795,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-3.00092273804069</v>
+        <v>-3.005993278385866</v>
       </c>
       <c r="G61">
         <v>-0.1436819403220352</v>
@@ -1841,7 +1841,7 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-2.961093130644498</v>
+        <v>-2.966925332878257</v>
       </c>
       <c r="G63">
         <v>-0.1132227357469544</v>
@@ -2163,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-3.313617260654289</v>
+        <v>-3.316652935775266</v>
       </c>
       <c r="G77">
         <v>-0.04338960117219859</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-3.320535070810099</v>
+        <v>-3.324064169967357</v>
       </c>
       <c r="G78">
         <v>-0.05218123239455563</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-3.320758305252442</v>
+        <v>-3.326825106531956</v>
       </c>
       <c r="G79">
         <v>-0.05427828790344558</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-3.327841555109328</v>
+        <v>-3.331884831981728</v>
       </c>
       <c r="G80">
         <v>-0.0632353588268777</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-3.325539080871123</v>
+        <v>-3.338118475758876</v>
       </c>
       <c r="G81">
         <v>-0.06280670565521884</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-3.328155443466805</v>
+        <v>-3.336536162903869</v>
       </c>
       <c r="G83">
         <v>-0.06917071038399492</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-3.342028140576639</v>
+        <v>-3.343626735144678</v>
       </c>
       <c r="G84">
         <v>-0.08491722856037542</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-3.335323973931304</v>
+        <v>-3.359222989784953</v>
       </c>
       <c r="G85">
         <v>-0.08008688298158706</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-3.344644710099962</v>
+        <v>-3.358128914092723</v>
       </c>
       <c r="G86">
         <v>-0.09128144021679141</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-3.345305144810976</v>
+        <v>-3.353334501981471</v>
       </c>
       <c r="G88">
         <v>-0.09568951706089868</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-3.358668345738302</v>
+        <v>-3.362343282741203</v>
       </c>
       <c r="G91">
         <v>-0.1146741811878647</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-3.355677613647631</v>
+        <v>-3.358936039545775</v>
       </c>
       <c r="G92">
         <v>-0.1135572701637408</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-3.347073426068479</v>
+        <v>-3.357045165652</v>
       </c>
       <c r="G93">
         <v>-0.1068269036511351</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-3.35076787738993</v>
+        <v>-3.359640810358435</v>
       </c>
       <c r="G94">
         <v>-0.1123951760391328</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-3.347620921281879</v>
+        <v>-3.368053470679448</v>
       </c>
       <c r="G97">
         <v>-0.1148696831307214</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-3.35979620668533</v>
+        <v>-3.375055007734169</v>
       </c>
       <c r="G98">
         <v>-0.1289187896007187</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-3.351598019699176</v>
+        <v>-3.357185702510499</v>
       </c>
       <c r="G99">
         <v>-0.1225944236811123</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-3.349220119607966</v>
+        <v>-3.367918931507982</v>
       </c>
       <c r="G100">
         <v>-0.1220903446564487</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-3.356081810956683</v>
+        <v>-3.379331123248686</v>
       </c>
       <c r="G101">
         <v>-0.130825857071712</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-3.361253656959982</v>
+        <v>-3.383970610186083</v>
       </c>
       <c r="G102">
         <v>-0.1378715241415578</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-3.356323959093551</v>
+        <v>-3.36607077746178</v>
       </c>
       <c r="G103">
         <v>-0.1348156473416737</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-3.363500564026005</v>
+        <v>-3.368318440242982</v>
       </c>
       <c r="G104">
         <v>-0.143866073340674</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-3.368877110570699</v>
+        <v>-3.370781194857792</v>
       </c>
       <c r="G105">
         <v>-0.1511164409519146</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-3.34658784411431</v>
+        <v>-3.374757115064892</v>
       </c>
       <c r="G106">
         <v>-0.1307009955620728</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-3.358068340107835</v>
+        <v>-3.380530272679219</v>
       </c>
       <c r="G108">
         <v>-0.145929133688691</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-3.373012531006472</v>
+        <v>-3.379238447271179</v>
       </c>
       <c r="G109">
         <v>-0.1627471456538743</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-3.368328118335912</v>
+        <v>-3.372291340042106</v>
       </c>
       <c r="G110">
         <v>-0.1599365540498612</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-3.359325416551102</v>
+        <v>-3.382353636952233</v>
       </c>
       <c r="G111">
         <v>-0.1528076733315982</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-3.360229173696623</v>
+        <v>-3.371717885631317</v>
       </c>
       <c r="G112">
         <v>-0.1555852515436649</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-3.359073166234638</v>
+        <v>-3.363980346870582</v>
       </c>
       <c r="G114">
         <v>-0.1581768862147732</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-3.35785208849789</v>
+        <v>-3.372051529553146</v>
       </c>
       <c r="G115">
         <v>-0.1588296295445719</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-3.358780986774586</v>
+        <v>-3.383257281987717</v>
       </c>
       <c r="G117">
         <v>-0.1635061699543621</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-3.351874261261287</v>
+        <v>-3.374350012783151</v>
       </c>
       <c r="G118">
         <v>-0.1584732655076091</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-3.36735223448776</v>
+        <v>-3.380885567787473</v>
       </c>
       <c r="G119">
         <v>-0.175825059800629</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-3.364463100548866</v>
+        <v>-3.374106567186228</v>
       </c>
       <c r="G120">
         <v>-0.1748097469282812</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-3.345714829926346</v>
+        <v>-3.379468169672614</v>
       </c>
       <c r="G122">
         <v>-0.1598091184388548</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-3.3560473364825</v>
+        <v>-3.381053972155678</v>
       </c>
       <c r="G125">
         <v>-0.1757630881946484</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-3.347931812900547</v>
+        <v>-3.36004015753793</v>
       </c>
       <c r="G129">
         <v>-0.175142848878882</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-3.348611678427622</v>
+        <v>-3.365044951571961</v>
       </c>
       <c r="G130">
         <v>-0.1776965354725037</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-3.33555796925759</v>
+        <v>-3.365230782871719</v>
       </c>
       <c r="G131">
         <v>-0.1665166473690183</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-3.353216972939501</v>
+        <v>-3.36285862244159</v>
       </c>
       <c r="G132">
         <v>-0.1860494721174757</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-3.35503348319638</v>
+        <v>-3.355235423081056</v>
       </c>
       <c r="G133">
         <v>-0.1897398034409017</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-3.341601588469171</v>
+        <v>-3.364500222150353</v>
       </c>
       <c r="G134">
         <v>-0.1781817297802391</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-3.343418393040845</v>
+        <v>-3.354650395324893</v>
       </c>
       <c r="G135">
         <v>-0.1818723554184607</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.34827457440415</v>
+        <v>-3.354200611664794</v>
       </c>
       <c r="G139">
         <v>-0.1942238210479517</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.338097215540919</v>
+        <v>-3.343367162065342</v>
       </c>
       <c r="G140">
         <v>-0.1859202832512676</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.33764853714582</v>
+        <v>-3.33928498716794</v>
       </c>
       <c r="G141">
         <v>-0.1873454259227154</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.341908498757328</v>
+        <v>-3.342598573555497</v>
       </c>
       <c r="G142">
         <v>-0.1934792086007699</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.332071138347483</v>
+        <v>-3.332290756784792</v>
       </c>
       <c r="G144">
         <v>-0.1873894903240181</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.333048700209451</v>
+        <v>-3.3369121268843</v>
       </c>
       <c r="G146">
         <v>-0.1921146943190786</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.328587250857969</v>
+        <v>-3.339008407572561</v>
       </c>
       <c r="G147">
         <v>-0.1895270660341437</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-3.312528362250829</v>
+        <v>-3.335186657538</v>
       </c>
       <c r="G148">
         <v>-0.1753419984935505</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.317740224965427</v>
+        <v>-3.330675181018711</v>
       </c>
       <c r="G149">
         <v>-0.1824276822746946</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.299771936829328</v>
+        <v>-3.335044703710503</v>
       </c>
       <c r="G150">
         <v>-0.1663332152051427</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.320759832466405</v>
+        <v>-3.330041407070499</v>
       </c>
       <c r="G151">
         <v>-0.1891949319087665</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.305961424060865</v>
+        <v>-3.309703388057911</v>
       </c>
       <c r="G153">
         <v>-0.178144165636319</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.299739787613246</v>
+        <v>-3.328430946276787</v>
       </c>
       <c r="G154">
         <v>-0.1737963502552471</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.292273032444355</v>
+        <v>-3.310370028796243</v>
       </c>
       <c r="G155">
         <v>-0.1682034161529027</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.307348193841781</v>
+        <v>-3.316266455041304</v>
       </c>
       <c r="G156">
         <v>-0.185152398616875</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.29422253724251</v>
+        <v>-3.300682103401476</v>
       </c>
       <c r="G157">
         <v>-0.1739005630841515</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.294815982681914</v>
+        <v>-3.299295587217972</v>
       </c>
       <c r="G158">
         <v>-0.1763678295901017</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.302103870521152</v>
+        <v>-3.307491720421812</v>
       </c>
       <c r="G159">
         <v>-0.1855295384958866</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.299963641886373</v>
+        <v>-3.306722473045498</v>
       </c>
       <c r="G160">
         <v>-0.1852631309276542</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.278310281897888</v>
+        <v>-3.294712557251464</v>
       </c>
       <c r="G162">
         <v>-0.1673574130722626</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.283625663095043</v>
+        <v>-3.294611448127625</v>
       </c>
       <c r="G163">
         <v>-0.1745466153359638</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.278099907090383</v>
+        <v>-3.290696094430003</v>
       </c>
       <c r="G164">
         <v>-0.1708946803978508</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.280348084373168</v>
+        <v>-3.288085671589028</v>
       </c>
       <c r="G165">
         <v>-0.1750166787471821</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.27286180571265</v>
+        <v>-3.2813157286557</v>
       </c>
       <c r="G166">
         <v>-0.169404221153211</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.253083059608207</v>
+        <v>-3.27657234849785</v>
       </c>
       <c r="G168">
         <v>-0.1533731171818609</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.264453336375833</v>
+        <v>-3.268450998306474</v>
       </c>
       <c r="G169">
         <v>-0.1666172150160337</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.255162107139615</v>
+        <v>-3.266816612069353</v>
       </c>
       <c r="G170">
         <v>-0.1591998068463625</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.256335504708077</v>
+        <v>-3.264286443675412</v>
       </c>
       <c r="G171">
         <v>-0.162247025481371</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.249061195806828</v>
+        <v>-3.262045287291698</v>
       </c>
       <c r="G172">
         <v>-0.156846537646669</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.248276809730327</v>
+        <v>-3.25507619992784</v>
       </c>
       <c r="G173">
         <v>-0.1579359726367138</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.241105298937784</v>
+        <v>-3.254353695449624</v>
       </c>
       <c r="G174">
         <v>-0.1526382829107171</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.243683387962632</v>
+        <v>-3.247315531716187</v>
       </c>
       <c r="G175">
         <v>-0.1570901930021121</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.233867604662143</v>
+        <v>-3.242115231324661</v>
       </c>
       <c r="G176">
         <v>-0.1491482307681697</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.225737040219359</v>
+        <v>-3.232410143243921</v>
       </c>
       <c r="G179">
         <v>-0.146639129525026</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.220687723448207</v>
+        <v>-3.225263515794295</v>
       </c>
       <c r="G180">
         <v>-0.1434636338204203</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.219774249352163</v>
+        <v>-3.222290722850111</v>
       </c>
       <c r="G181">
         <v>-0.144423980790923</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.217916833330687</v>
+        <v>-3.220159387791474</v>
       </c>
       <c r="G182">
         <v>-0.1444403858359941</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.19062465168685</v>
+        <v>-3.204722841660119</v>
       </c>
       <c r="G185">
         <v>-0.1227696673917965</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.195999693724426</v>
+        <v>-3.199982374785952</v>
       </c>
       <c r="G186">
         <v>-0.1300185304959197</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.182504315111539</v>
+        <v>-3.184329085737574</v>
       </c>
       <c r="G189">
         <v>-0.1221446150826729</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.178193165610887</v>
+        <v>-3.178920228532497</v>
       </c>
       <c r="G190">
         <v>-0.1197072866485669</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.167365412095787</v>
+        <v>-3.172116484264468</v>
       </c>
       <c r="G191">
         <v>-0.1107533542000132</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.158321269520087</v>
+        <v>-3.166697393647144</v>
       </c>
       <c r="G192">
         <v>-0.10358303269086</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.159258136097495</v>
+        <v>-3.162941048855683</v>
       </c>
       <c r="G193">
         <v>-0.1063937203348151</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.150563734875917</v>
+        <v>-3.15757648053355</v>
       </c>
       <c r="G194">
         <v>-0.09957314017978303</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.144712498305559</v>
+        <v>-3.146679834778245</v>
       </c>
       <c r="G196">
         <v>-0.09746954574251865</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.142214401356103</v>
+        <v>-3.143284732643587</v>
       </c>
       <c r="G197">
         <v>-0.0968452698596089</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.134127450321841</v>
+        <v>-3.139511660220732</v>
       </c>
       <c r="G198">
         <v>-0.09063213989189406</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.128781175540954</v>
+        <v>-3.135367116213624</v>
       </c>
       <c r="G199">
         <v>-0.08715968617755404</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.121695868918312</v>
+        <v>-3.1225785245043</v>
       </c>
       <c r="G201">
         <v>-0.08382202168800468</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.113923078647318</v>
+        <v>-3.116489015558555</v>
       </c>
       <c r="G202">
         <v>-0.0779230524835573</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.109291261705225</v>
+        <v>-3.11203677171655</v>
       </c>
       <c r="G203">
         <v>-0.07516505660801159</v>
@@ -5084,7 +5084,7 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.100789496653682</v>
+        <v>-3.104889747165103</v>
       </c>
       <c r="G204">
         <v>-0.06853711262301504</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.097930548461884</v>
+        <v>-3.10000336595665</v>
       </c>
       <c r="G205">
         <v>-0.06755198549776398</v>
@@ -5130,7 +5130,7 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.088922292161808</v>
+        <v>-3.094773449033352</v>
       </c>
       <c r="G206">
         <v>-0.06041755026423434</v>
@@ -5199,7 +5199,7 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.075058035180628</v>
+        <v>-3.075821238398244</v>
       </c>
       <c r="G209">
         <v>-0.05217475648269479</v>
@@ -5222,7 +5222,7 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.067786554383053</v>
+        <v>-3.069206568769648</v>
       </c>
       <c r="G210">
         <v>-0.04677709675166575</v>
@@ -5245,7 +5245,7 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-3.061082714319761</v>
+        <v>-3.062688399053582</v>
       </c>
       <c r="G211">
         <v>-0.04194707775491988</v>
@@ -5268,7 +5268,7 @@
         <v>140</v>
       </c>
       <c r="F212">
-        <v>-3.054589310246396</v>
+        <v>-3.055392152613306</v>
       </c>
       <c r="G212">
         <v>-0.03732749474810187</v>
@@ -5291,7 +5291,7 @@
         <v>141</v>
       </c>
       <c r="F213">
-        <v>-3.048046374887629</v>
+        <v>-3.048071140530329</v>
       </c>
       <c r="G213">
         <v>-0.03265838045588124</v>
@@ -5314,7 +5314,7 @@
         <v>142</v>
       </c>
       <c r="F214">
-        <v>-3.039947286080442</v>
+        <v>-3.040750128447352</v>
       </c>
       <c r="G214">
         <v>-0.02643311271524096</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-3.451600249485017</v>
+        <v>-3.47198018739747</v>
       </c>
       <c r="G223">
         <v>-0.1383220256511128</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.444486851835263</v>
+        <v>-3.453082635712214</v>
       </c>
       <c r="G224">
         <v>-0.1598427874999229</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.339726618206201</v>
+        <v>-3.342818897048026</v>
       </c>
       <c r="G227">
         <v>-0.1409850323665507</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.280001012701185</v>
+        <v>-3.28016468294583</v>
       </c>
       <c r="G228">
         <v>-0.1098935863600984</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.518963239091865</v>
+        <v>-3.523613068525923</v>
       </c>
       <c r="G234">
         <v>-0.1324936328895352</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.509750449874222</v>
+        <v>-3.510959908296409</v>
       </c>
       <c r="G235">
         <v>-0.1524054736928764</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.482128411622204</v>
+        <v>-3.492834635411241</v>
       </c>
       <c r="G236">
         <v>-0.1539080654618417</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.452368533861246</v>
+        <v>-3.455949622824186</v>
       </c>
       <c r="G237">
         <v>-0.1532728177218672</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.397722814750023</v>
+        <v>-3.403551416630377</v>
       </c>
       <c r="G238">
         <v>-0.1277517286316281</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.342702259260905</v>
+        <v>-3.344054296075411</v>
       </c>
       <c r="G239">
         <v>-0.1018558031634939</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.272349850900283</v>
+        <v>-3.27332458453326</v>
       </c>
       <c r="G240">
         <v>-0.06062802482385499</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-3.552050530688693</v>
+        <v>-3.557728211417198</v>
       </c>
       <c r="G243">
         <v>-0.05546468414183092</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.562228554980729</v>
+        <v>-3.566612720462932</v>
       </c>
       <c r="G244">
         <v>-0.09516203124752831</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.557518058496996</v>
+        <v>-3.564791741381179</v>
       </c>
       <c r="G245">
         <v>-0.1199708575774574</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.547361567841388</v>
+        <v>-3.552456429150987</v>
       </c>
       <c r="G246">
         <v>-0.1396545519400081</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.529777466286975</v>
+        <v>-3.529833209821204</v>
       </c>
       <c r="G247">
         <v>-0.1515897731992562</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.49155145437382</v>
+        <v>-3.497430017827175</v>
       </c>
       <c r="G248">
         <v>-0.1428830840997626</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.443295645368724</v>
+        <v>-3.448044302399088</v>
       </c>
       <c r="G249">
         <v>-0.1244674601128246</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.385216863161599</v>
+        <v>-3.388812630693883</v>
       </c>
       <c r="G250">
         <v>-0.09590800071936123</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.584448404084274</v>
+        <v>-3.589421314266661</v>
       </c>
       <c r="G254">
         <v>-0.04992046283838159</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.595797764427407</v>
+        <v>-3.597842510529846</v>
       </c>
       <c r="G255">
         <v>-0.09131248093877486</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.591428318135904</v>
+        <v>-3.595116623255159</v>
       </c>
       <c r="G256">
         <v>-0.1167741243921592</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.57862652973437</v>
+        <v>-3.584504615216548</v>
       </c>
       <c r="G257">
         <v>-0.1340149937478867</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.517946906469184</v>
+        <v>-3.521365674320223</v>
       </c>
       <c r="G259">
         <v>-0.1332091179848487</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.417295767169187</v>
+        <v>-3.419309269412888</v>
       </c>
       <c r="G261">
         <v>-0.09243172618699924</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.615277427257174</v>
+        <v>-3.616247100480599</v>
       </c>
       <c r="G265">
         <v>-0.05180063063708751</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.621032867254061</v>
+        <v>-3.623269317359118</v>
       </c>
       <c r="G266">
         <v>-0.08778218844965346</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.616680105522736</v>
+        <v>-3.619208876321566</v>
       </c>
       <c r="G267">
         <v>-0.1136555445340068</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.577681433237735</v>
+        <v>-3.579962807157839</v>
       </c>
       <c r="G269">
         <v>-0.1349623791531021</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.543485496268263</v>
+        <v>-3.543735548883673</v>
       </c>
       <c r="G270">
         <v>-0.1309925599993087</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.441263688723251</v>
+        <v>-3.441477861512364</v>
       </c>
       <c r="G272">
         <v>-0.08907625935839281</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.64173969948159</v>
+        <v>-3.645124464479503</v>
       </c>
       <c r="G277">
         <v>-0.08584027946086792</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.558120309785543</v>
+        <v>-3.561589498723825</v>
       </c>
       <c r="G281">
         <v>-0.1237646501395271</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.513738012605417</v>
+        <v>-3.516543749270973</v>
       </c>
       <c r="G282">
         <v>-0.1097682930530783</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.458594493617567</v>
+        <v>-3.460051311197996</v>
       </c>
       <c r="G283">
         <v>-0.08501071415890449</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.653345526871045</v>
+        <v>-3.653972144887498</v>
       </c>
       <c r="G287">
         <v>-0.04870735684947647</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.656798961740089</v>
+        <v>-3.657532346858809</v>
       </c>
       <c r="G288">
         <v>-0.08268444736177516</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.651799425938139</v>
+        <v>-3.652868187934388</v>
       </c>
       <c r="G289">
         <v>-0.1082085672030799</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.60834646187643</v>
+        <v>-3.60971073448804</v>
       </c>
       <c r="G291">
         <v>-0.1258029144278809</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.573683587924908</v>
+        <v>-3.575070860625366</v>
       </c>
       <c r="G292">
         <v>-0.1216636961196143</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.528140310169797</v>
+        <v>-3.528345634770956</v>
       </c>
       <c r="G293">
         <v>-0.1066440740077581</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-3.194700029806156</v>
+        <v>-3.214671432282695</v>
       </c>
       <c r="G24">
         <v>-0.164106779896946</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-3.211108785006676</v>
+        <v>-3.22356503701422</v>
       </c>
       <c r="G25">
         <v>-0.1842359146482244</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-3.22035635575719</v>
+        <v>-3.239416881127622</v>
       </c>
       <c r="G26">
         <v>-0.1737266100757977</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-3.2348894119918</v>
+        <v>-3.253949937362236</v>
       </c>
       <c r="G27">
         <v>-0.1979724530650411</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-3.242464228844538</v>
+        <v>-3.261524754214971</v>
       </c>
       <c r="G28">
         <v>-0.2116926980845379</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-3.22330098476303</v>
+        <v>-3.256997285079152</v>
       </c>
       <c r="G29">
         <v>-0.2161337419065972</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-3.242437023085973</v>
+        <v>-3.257607106021327</v>
       </c>
       <c r="G30">
         <v>-0.2399549816400963</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-3.247377668873504</v>
+        <v>-3.263354217041503</v>
       </c>
       <c r="G31">
         <v>-0.2063426865371363</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-3.244521138408916</v>
+        <v>-3.25882674790568</v>
       </c>
       <c r="G32">
         <v>-0.2309377511090549</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-3.22800965977369</v>
+        <v>-3.259436568847857</v>
       </c>
       <c r="G33">
         <v>-0.2393469740761067</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-3.234962449246356</v>
+        <v>-3.258431211099035</v>
       </c>
       <c r="G34">
         <v>-0.2042169486855263</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-3.214222183459161</v>
+        <v>-3.255810674659216</v>
       </c>
       <c r="G35">
         <v>-0.2266504141261185</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-3.210759656949096</v>
+        <v>-3.25313437823916</v>
       </c>
       <c r="G36">
         <v>-0.2013784769487663</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-3.2207901610234</v>
+        <v>-3.246991730412342</v>
       </c>
       <c r="G37">
         <v>-0.2473094941354026</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.220487795311571</v>
+        <v>-3.240737562625054</v>
       </c>
       <c r="G38">
         <v>-0.2259737070362386</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-3.214769380701917</v>
+        <v>-3.237402671305441</v>
       </c>
       <c r="G39">
         <v>-0.2534208436624279</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-3.206139324791008</v>
+        <v>-3.23478213486562</v>
       </c>
       <c r="G40">
         <v>-0.2417812525160432</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-3.202123923842725</v>
+        <v>-3.221906207260513</v>
       </c>
       <c r="G41">
         <v>-0.2395506093418593</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.185852437056667</v>
+        <v>-3.220956609491926</v>
       </c>
       <c r="G42">
         <v>-0.2370825844798983</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-3.194588836371272</v>
+        <v>-3.210089216888457</v>
       </c>
       <c r="G43">
         <v>-0.2373558458337717</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-3.181994557961926</v>
+        <v>-3.208081433022794</v>
       </c>
       <c r="G44">
         <v>-0.2451053362638271</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-3.18809910062217</v>
+        <v>-3.197826792993482</v>
       </c>
       <c r="G45">
         <v>-0.2326634415302968</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-3.1621167186377</v>
+        <v>-3.189000862723753</v>
       </c>
       <c r="G46">
         <v>-0.2345978997607117</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-3.161894890294975</v>
+        <v>-3.178746222694441</v>
       </c>
       <c r="G47">
         <v>-0.23868766774923</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-3.155705752546107</v>
+        <v>-3.167158378242911</v>
       </c>
       <c r="G48">
         <v>-0.2089250705634222</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-3.145617932015254</v>
+        <v>-3.156189383333803</v>
       </c>
       <c r="G49">
         <v>-0.2231893618386069</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.138467084904649</v>
+        <v>-3.148077807943871</v>
       </c>
       <c r="G50">
         <v>-0.2220161285488045</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-3.126403157151493</v>
+        <v>-3.137108813034766</v>
       </c>
       <c r="G51">
         <v>-0.2207577718812224</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-3.109693389648419</v>
+        <v>-3.127568527885245</v>
       </c>
       <c r="G52">
         <v>-0.2052484837556632</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.109159832794721</v>
+        <v>-3.119220633397525</v>
       </c>
       <c r="G53">
         <v>-0.2055444208970374</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.106608470881203</v>
+        <v>-3.110154426696533</v>
       </c>
       <c r="G54">
         <v>-0.1941203174884897</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.08836967144727</v>
+        <v>-3.095875795069885</v>
       </c>
       <c r="G55">
         <v>-0.1969848135932898</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.077300979862734</v>
+        <v>-3.085073432504833</v>
       </c>
       <c r="G56">
         <v>-0.1868126908096756</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-3.043273941237352</v>
+        <v>-3.058796090317859</v>
       </c>
       <c r="G58">
         <v>-0.1719775392870307</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-3.015533563535384</v>
+        <v>-3.025560347044009</v>
       </c>
       <c r="G60">
         <v>-0.1536075644061735</v>
@@ -1795,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-3.005993278385866</v>
+        <v>-3.006059470194545</v>
       </c>
       <c r="G61">
         <v>-0.1436819403220352</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-3.326825106531956</v>
+        <v>-3.327318530568242</v>
       </c>
       <c r="G79">
         <v>-0.05427828790344558</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-3.338118475758876</v>
+        <v>-3.341647574916139</v>
       </c>
       <c r="G81">
         <v>-0.06280670565521884</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-3.336536162903869</v>
+        <v>-3.342643151411696</v>
       </c>
       <c r="G83">
         <v>-0.06917071038399492</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-3.343626735144678</v>
+        <v>-3.351437847633486</v>
       </c>
       <c r="G84">
         <v>-0.08491722856037542</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-3.358128914092723</v>
+        <v>-3.359682364785948</v>
       </c>
       <c r="G86">
         <v>-0.09128144021679141</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-3.35146469324746</v>
+        <v>-3.358044917878718</v>
       </c>
       <c r="G87">
         <v>-0.09997524443083616</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-3.353334501981471</v>
+        <v>-3.378918345914331</v>
       </c>
       <c r="G88">
         <v>-0.09568951706089868</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-3.349385993561359</v>
+        <v>-3.369550890907878</v>
       </c>
       <c r="G89">
         <v>-0.1016441868778286</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.357459108889682</v>
+        <v>-3.368559425286306</v>
       </c>
       <c r="G90">
         <v>-0.1115911232726985</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-3.362343282741203</v>
+        <v>-3.374585827502897</v>
       </c>
       <c r="G91">
         <v>-0.1146741811878647</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-3.358936039545775</v>
+        <v>-3.373627716839512</v>
       </c>
       <c r="G92">
         <v>-0.1135572701637408</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-3.357045165652</v>
+        <v>-3.384135797965855</v>
       </c>
       <c r="G93">
         <v>-0.1068269036511351</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-3.359640810358435</v>
+        <v>-3.378826442017442</v>
       </c>
       <c r="G94">
         <v>-0.1123951760391328</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-3.366044539575852</v>
+        <v>-3.384007298175288</v>
       </c>
       <c r="G95">
         <v>-0.1295456592916011</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-3.374558492614508</v>
+        <v>-3.403086341311199</v>
       </c>
       <c r="G96">
         <v>-0.1399334333968039</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-3.368053470679448</v>
+        <v>-3.397624951283082</v>
       </c>
       <c r="G97">
         <v>-0.1148696831307214</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-3.375055007734169</v>
+        <v>-3.400907594780085</v>
       </c>
       <c r="G98">
         <v>-0.1289187896007187</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-3.357185702510499</v>
+        <v>-3.397934996278563</v>
       </c>
       <c r="G99">
         <v>-0.1225944236811123</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-3.367918931507982</v>
+        <v>-3.396732132023651</v>
       </c>
       <c r="G100">
         <v>-0.1220903446564487</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-3.379331123248686</v>
+        <v>-3.405381702825428</v>
       </c>
       <c r="G101">
         <v>-0.130825857071712</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-3.383970610186083</v>
+        <v>-3.405737019252546</v>
       </c>
       <c r="G102">
         <v>-0.1378715241415578</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-3.36607077746178</v>
+        <v>-3.407089639831062</v>
       </c>
       <c r="G103">
         <v>-0.1348156473416737</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-3.368318440242982</v>
+        <v>-3.401922990292971</v>
       </c>
       <c r="G104">
         <v>-0.143866073340674</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-3.370781194857792</v>
+        <v>-3.414416680058712</v>
       </c>
       <c r="G105">
         <v>-0.1511164409519146</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-3.374757115064892</v>
+        <v>-3.42461746900717</v>
       </c>
       <c r="G106">
         <v>-0.1307009955620728</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-3.368384676896227</v>
+        <v>-3.416225013171224</v>
       </c>
       <c r="G107">
         <v>-0.1543716494105367</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-3.380530272679219</v>
+        <v>-3.418791654724834</v>
       </c>
       <c r="G108">
         <v>-0.145929133688691</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-3.379238447271179</v>
+        <v>-3.425145891013763</v>
       </c>
       <c r="G109">
         <v>-0.1627471456538743</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-3.372291340042106</v>
+        <v>-3.427193956372929</v>
       </c>
       <c r="G110">
         <v>-0.1599365540498612</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-3.382353636952233</v>
+        <v>-3.428678216860296</v>
       </c>
       <c r="G111">
         <v>-0.1528076733315982</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-3.371717885631317</v>
+        <v>-3.412594774979671</v>
       </c>
       <c r="G112">
         <v>-0.1555852515436649</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-3.38090407577658</v>
+        <v>-3.42830424933172</v>
       </c>
       <c r="G113">
         <v>-0.1781339746901689</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-3.363980346870582</v>
+        <v>-3.424599883997261</v>
       </c>
       <c r="G114">
         <v>-0.1581768862147732</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-3.372051529553146</v>
+        <v>-3.429959231065225</v>
       </c>
       <c r="G115">
         <v>-0.1588296295445719</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-3.373952225635657</v>
+        <v>-3.423496570087788</v>
       </c>
       <c r="G116">
         <v>-0.176803587748886</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-3.383257281987717</v>
+        <v>-3.426620378312997</v>
       </c>
       <c r="G117">
         <v>-0.1635061699543621</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-3.374350012783151</v>
+        <v>-3.427227825231364</v>
       </c>
       <c r="G118">
         <v>-0.1584732655076091</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-3.380885567787473</v>
+        <v>-3.424287785597902</v>
       </c>
       <c r="G119">
         <v>-0.175825059800629</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-3.374106567186228</v>
+        <v>-3.411587706058315</v>
       </c>
       <c r="G120">
         <v>-0.1748097469282812</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-3.370878082876402</v>
+        <v>-3.419881908368607</v>
       </c>
       <c r="G121">
         <v>-0.1830985503223639</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-3.379468169672614</v>
+        <v>-3.41441762211455</v>
       </c>
       <c r="G122">
         <v>-0.1598091184388548</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-3.367783036738372</v>
+        <v>-3.411957316928986</v>
       </c>
       <c r="G123">
         <v>-0.1837511463174275</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-3.366382107354126</v>
+        <v>-3.416749604539269</v>
       </c>
       <c r="G124">
         <v>-0.1842240379997278</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-3.381053972155678</v>
+        <v>-3.412225372364481</v>
       </c>
       <c r="G125">
         <v>-0.1757630881946484</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-3.370076741189721</v>
+        <v>-3.405764188372934</v>
       </c>
       <c r="G126">
         <v>-0.1916663139684158</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-3.36089615443103</v>
+        <v>-3.40726088285884</v>
       </c>
       <c r="G127">
         <v>-0.1843595482762708</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-3.362780524715451</v>
+        <v>-3.40580386384383</v>
       </c>
       <c r="G128">
         <v>-0.1881177396272391</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-3.36004015753793</v>
+        <v>-3.405781118029785</v>
       </c>
       <c r="G129">
         <v>-0.175142848878882</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-3.365044951571961</v>
+        <v>-3.403484247730458</v>
       </c>
       <c r="G130">
         <v>-0.1776965354725037</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-3.365230782871719</v>
+        <v>-3.402697497030684</v>
       </c>
       <c r="G131">
         <v>-0.1665166473690183</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-3.36285862244159</v>
+        <v>-3.404335497176677</v>
       </c>
       <c r="G132">
         <v>-0.1860494721174757</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-3.355235423081056</v>
+        <v>-3.399240621788731</v>
       </c>
       <c r="G133">
         <v>-0.1897398034409017</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-3.364500222150353</v>
+        <v>-3.396481710330528</v>
       </c>
       <c r="G134">
         <v>-0.1781817297802391</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-3.354650395324893</v>
+        <v>-3.396573276275629</v>
       </c>
       <c r="G135">
         <v>-0.1818723554184607</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-3.36288943453756</v>
+        <v>-3.394770120030885</v>
       </c>
       <c r="G136">
         <v>-0.2032172179817222</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.340505046751903</v>
+        <v>-3.392187001677749</v>
       </c>
       <c r="G137">
         <v>-0.182706651262611</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.354817932536442</v>
+        <v>-3.390520877099599</v>
       </c>
       <c r="G138">
         <v>-0.1988933581136971</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.354200611664794</v>
+        <v>-3.389301129248983</v>
       </c>
       <c r="G139">
         <v>-0.1942238210479517</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.343367162065342</v>
+        <v>-3.385766222121864</v>
       </c>
       <c r="G140">
         <v>-0.1859202832512676</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.33928498716794</v>
+        <v>-3.380303769025382</v>
       </c>
       <c r="G141">
         <v>-0.1873454259227154</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.342598573555497</v>
+        <v>-3.378169027720442</v>
       </c>
       <c r="G142">
         <v>-0.1934792086007699</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.355459333280155</v>
+        <v>-3.376287467387829</v>
       </c>
       <c r="G143">
         <v>-0.2089038641901428</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.332290756784792</v>
+        <v>-3.368697151859907</v>
       </c>
       <c r="G144">
         <v>-0.1873894903240181</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.341756949092896</v>
+        <v>-3.369334991026156</v>
       </c>
       <c r="G145">
         <v>-0.1989491221359774</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.3369121268843</v>
+        <v>-3.364057046617379</v>
       </c>
       <c r="G146">
         <v>-0.1921146943190786</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.339008407572561</v>
+        <v>-3.358515276235682</v>
       </c>
       <c r="G147">
         <v>-0.1895270660341437</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-3.335186657538</v>
+        <v>-3.358427221179498</v>
       </c>
       <c r="G148">
         <v>-0.1753419984935505</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.330675181018711</v>
+        <v>-3.354586326314669</v>
       </c>
       <c r="G149">
         <v>-0.1824276822746946</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.335044703710503</v>
+        <v>-3.355536714764476</v>
       </c>
       <c r="G150">
         <v>-0.1663332152051427</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.330041407070499</v>
+        <v>-3.351176155353934</v>
       </c>
       <c r="G151">
         <v>-0.1891949319087665</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.333166907788889</v>
+        <v>-3.34422620404541</v>
       </c>
       <c r="G152">
         <v>-0.2034758282977966</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.309703388057911</v>
+        <v>-3.344604466392027</v>
       </c>
       <c r="G153">
         <v>-0.178144165636319</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.328430946276787</v>
+        <v>-3.341507954341812</v>
       </c>
       <c r="G154">
         <v>-0.1737963502552471</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.310370028796243</v>
+        <v>-3.330260477636488</v>
       </c>
       <c r="G155">
         <v>-0.1682034161529027</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.316266455041304</v>
+        <v>-3.331143256373175</v>
       </c>
       <c r="G156">
         <v>-0.185152398616875</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.300682103401476</v>
+        <v>-3.329429389397421</v>
       </c>
       <c r="G157">
         <v>-0.1739005630841515</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.299295587217972</v>
+        <v>-3.322094653118872</v>
       </c>
       <c r="G158">
         <v>-0.1763678295901017</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.307491720421812</v>
+        <v>-3.320325818403167</v>
       </c>
       <c r="G159">
         <v>-0.1855295384958866</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.306722473045498</v>
+        <v>-3.318394850282486</v>
       </c>
       <c r="G160">
         <v>-0.1852631309276542</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.293242472946651</v>
+        <v>-3.311502978934918</v>
       </c>
       <c r="G161">
         <v>-0.1804157830544784</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.294712557251464</v>
+        <v>-3.308680300856464</v>
       </c>
       <c r="G162">
         <v>-0.1673574130722626</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.294611448127625</v>
+        <v>-3.30704444398259</v>
       </c>
       <c r="G163">
         <v>-0.1745466153359638</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.290696094430003</v>
+        <v>-3.300400343697212</v>
       </c>
       <c r="G164">
         <v>-0.1708946803978508</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.288085671589028</v>
+        <v>-3.294958495635518</v>
       </c>
       <c r="G165">
         <v>-0.1750166787471821</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.2813157286557</v>
+        <v>-3.29481753275532</v>
       </c>
       <c r="G166">
         <v>-0.169404221153211</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.27364728003291</v>
+        <v>-3.289901750033379</v>
       </c>
       <c r="G167">
         <v>-0.1720635165400171</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.27657234849785</v>
+        <v>-3.285425398323405</v>
       </c>
       <c r="G168">
         <v>-0.1533731171818609</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.268450998306474</v>
+        <v>-3.281582498031876</v>
       </c>
       <c r="G169">
         <v>-0.1666172150160337</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.266816612069353</v>
+        <v>-3.276144772450232</v>
       </c>
       <c r="G170">
         <v>-0.1591998068463625</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.264286443675412</v>
+        <v>-3.272812814976036</v>
       </c>
       <c r="G171">
         <v>-0.162247025481371</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.262045287291698</v>
+        <v>-3.266774152873393</v>
       </c>
       <c r="G172">
         <v>-0.156846537646669</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.25507619992784</v>
+        <v>-3.266574659675033</v>
       </c>
       <c r="G173">
         <v>-0.1579359726367138</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.254353695449624</v>
+        <v>-3.259841632680306</v>
       </c>
       <c r="G174">
         <v>-0.1526382829107171</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.247315531716187</v>
+        <v>-3.254373832812592</v>
       </c>
       <c r="G175">
         <v>-0.1570901930021121</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.242115231324661</v>
+        <v>-3.25088699842845</v>
       </c>
       <c r="G176">
         <v>-0.1491482307681697</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.240390949673704</v>
+        <v>-3.246200582499571</v>
       </c>
       <c r="G177">
         <v>-0.1575453968462781</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.226950601387319</v>
+        <v>-3.241387554713698</v>
       </c>
       <c r="G178">
         <v>-0.1459788696264397</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.232410143243921</v>
+        <v>-3.237299862572547</v>
       </c>
       <c r="G179">
         <v>-0.146639129525026</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.225263515794295</v>
+        <v>-3.231140817168685</v>
       </c>
       <c r="G180">
         <v>-0.1434636338204203</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.222290722850111</v>
+        <v>-3.229166643709344</v>
       </c>
       <c r="G181">
         <v>-0.144423980790923</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.220159387791474</v>
+        <v>-3.224057992341281</v>
       </c>
       <c r="G182">
         <v>-0.1444403858359941</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.214364363766121</v>
+        <v>-3.218365884993</v>
       </c>
       <c r="G183">
         <v>-0.1427617373379741</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.204606964909266</v>
+        <v>-3.214135713679929</v>
       </c>
       <c r="G184">
         <v>-0.1348781595476662</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.204722841660119</v>
+        <v>-3.208681740850569</v>
       </c>
       <c r="G185">
         <v>-0.1227696673917965</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.199982374785952</v>
+        <v>-3.204060810493928</v>
       </c>
       <c r="G186">
         <v>-0.1300185304959197</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.194442021985358</v>
+        <v>-3.20080364706083</v>
       </c>
       <c r="G187">
         <v>-0.1303346798233985</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.190798259255495</v>
+        <v>-3.195856352044763</v>
       </c>
       <c r="G188">
         <v>-0.1285647381600822</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.184329085737574</v>
+        <v>-3.188568041078578</v>
       </c>
       <c r="G189">
         <v>-0.1221446150826729</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.178920228532497</v>
+        <v>-3.184915360719041</v>
       </c>
       <c r="G190">
         <v>-0.1197072866485669</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.172116484264468</v>
+        <v>-3.178234220417816</v>
       </c>
       <c r="G191">
         <v>-0.1107533542000132</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.166697393647144</v>
+        <v>-3.173862169440236</v>
       </c>
       <c r="G192">
         <v>-0.10358303269086</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.162941048855683</v>
+        <v>-3.168016917681692</v>
       </c>
       <c r="G193">
         <v>-0.1063937203348151</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.15757648053355</v>
+        <v>-3.162043564416561</v>
       </c>
       <c r="G194">
         <v>-0.09957314017978303</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.154736094830758</v>
+        <v>-3.158237038570465</v>
       </c>
       <c r="G195">
         <v>-0.1056193212011708</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.146679834778245</v>
+        <v>-3.152244288592148</v>
       </c>
       <c r="G196">
         <v>-0.09746954574251865</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.143284732643587</v>
+        <v>-3.148039132547528</v>
       </c>
       <c r="G197">
         <v>-0.0968452698596089</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.139511660220732</v>
+        <v>-3.142862123565941</v>
       </c>
       <c r="G198">
         <v>-0.09063213989189406</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.135367116213624</v>
+        <v>-3.137813879034651</v>
       </c>
       <c r="G199">
         <v>-0.08715968617755404</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.1225785245043</v>
+        <v>-3.126759221891396</v>
       </c>
       <c r="G201">
         <v>-0.08382202168800468</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.116489015558555</v>
+        <v>-3.119641316320515</v>
       </c>
       <c r="G202">
         <v>-0.0779230524835573</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.11203677171655</v>
+        <v>-3.115185098653424</v>
       </c>
       <c r="G203">
         <v>-0.07516505660801159</v>
@@ -5084,7 +5084,7 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.104889747165103</v>
+        <v>-3.109398037034439</v>
       </c>
       <c r="G204">
         <v>-0.06853711262301504</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.10000336595665</v>
+        <v>-3.102190961028862</v>
       </c>
       <c r="G205">
         <v>-0.06755198549776398</v>
@@ -5130,7 +5130,7 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.094773449033352</v>
+        <v>-3.097734743361773</v>
       </c>
       <c r="G206">
         <v>-0.06041755026423434</v>
@@ -5153,7 +5153,7 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-3.089700059346582</v>
+        <v>-3.090438496921498</v>
       </c>
       <c r="G207">
         <v>-0.06306913851555479</v>
@@ -5199,7 +5199,7 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.075821238398244</v>
+        <v>-3.077355188862236</v>
       </c>
       <c r="G209">
         <v>-0.05217475648269479</v>
@@ -5222,7 +5222,7 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.069206568769648</v>
+        <v>-3.07003417677926</v>
       </c>
       <c r="G210">
         <v>-0.04677709675166575</v>
@@ -5245,7 +5245,7 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-3.062688399053582</v>
+        <v>-3.062713164696283</v>
       </c>
       <c r="G211">
         <v>-0.04194707775491988</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-3.438903276480726</v>
+        <v>-3.448299812484902</v>
       </c>
       <c r="G221">
         <v>-0.0683567336496953</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-3.469116491615516</v>
+        <v>-3.491296033351548</v>
       </c>
       <c r="G222">
         <v>-0.1272041082830486</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-3.47198018739747</v>
+        <v>-3.487644463059026</v>
       </c>
       <c r="G223">
         <v>-0.1383220256511128</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.453082635712214</v>
+        <v>-3.480611494556529</v>
       </c>
       <c r="G224">
         <v>-0.1598427874999229</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.438478944805692</v>
+        <v>-3.455186721609733</v>
       </c>
       <c r="G225">
         <v>-0.1824690399689151</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.397225834880874</v>
+        <v>-3.415572816954017</v>
       </c>
       <c r="G226">
         <v>-0.1698500895426602</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.342818897048026</v>
+        <v>-3.357233844004795</v>
       </c>
       <c r="G227">
         <v>-0.1409850323665507</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.28016468294583</v>
+        <v>-3.286229226370005</v>
       </c>
       <c r="G228">
         <v>-0.1098935863600984</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.208995989266411</v>
+        <v>-3.209558779363877</v>
       </c>
       <c r="G229">
         <v>-0.06752272242388779</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-3.508388974192697</v>
+        <v>-3.519113086722597</v>
       </c>
       <c r="G232">
         <v>-0.06367010794840011</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-3.525093836374601</v>
+        <v>-3.536228372661523</v>
       </c>
       <c r="G233">
         <v>-0.1094996001512882</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.523613068525923</v>
+        <v>-3.544899366990866</v>
       </c>
       <c r="G234">
         <v>-0.1324936328895352</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.510959908296409</v>
+        <v>-3.522292189562747</v>
       </c>
       <c r="G235">
         <v>-0.1524054736928764</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.492834635411241</v>
+        <v>-3.507293547459064</v>
       </c>
       <c r="G236">
         <v>-0.1539080654618417</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.455949622824186</v>
+        <v>-3.462785041753201</v>
       </c>
       <c r="G237">
         <v>-0.1532728177218672</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.403551416630377</v>
+        <v>-3.419156690617318</v>
       </c>
       <c r="G238">
         <v>-0.1277517286316281</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.344054296075411</v>
+        <v>-3.354418408253722</v>
       </c>
       <c r="G239">
         <v>-0.1018558031634939</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.27332458453326</v>
+        <v>-3.274008462854498</v>
       </c>
       <c r="G240">
         <v>-0.06062802482385499</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-3.557728211417198</v>
+        <v>-3.565628916006665</v>
       </c>
       <c r="G243">
         <v>-0.05546468414183092</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.566612720462932</v>
+        <v>-3.574930239822935</v>
       </c>
       <c r="G244">
         <v>-0.09516203124752831</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.564791741381179</v>
+        <v>-3.574765458761278</v>
       </c>
       <c r="G245">
         <v>-0.1199708575774574</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.552456429150987</v>
+        <v>-3.559049740745127</v>
       </c>
       <c r="G246">
         <v>-0.1396545519400081</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.529833209821204</v>
+        <v>-3.539465066837531</v>
       </c>
       <c r="G247">
         <v>-0.1515897731992562</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.497430017827175</v>
+        <v>-3.504297153164734</v>
       </c>
       <c r="G248">
         <v>-0.1428830840997626</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.448044302399088</v>
+        <v>-3.458860463870272</v>
       </c>
       <c r="G249">
         <v>-0.1244674601128246</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.388812630693883</v>
+        <v>-3.39657830020765</v>
       </c>
       <c r="G250">
         <v>-0.09590800071936123</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.316784064418276</v>
+        <v>-3.322169377497156</v>
       </c>
       <c r="G251">
         <v>-0.0569945247896998</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.589421314266661</v>
+        <v>-3.594406145433845</v>
       </c>
       <c r="G254">
         <v>-0.04992046283838159</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.597842510529846</v>
+        <v>-3.603101458494799</v>
       </c>
       <c r="G255">
         <v>-0.09131248093877486</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.595116623255159</v>
+        <v>-3.611694333948777</v>
       </c>
       <c r="G256">
         <v>-0.1167741243921592</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.584504615216548</v>
+        <v>-3.591366783206482</v>
       </c>
       <c r="G257">
         <v>-0.1340149937478867</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.556431686645081</v>
+        <v>-3.579639571687117</v>
       </c>
       <c r="G258">
         <v>-0.1416512404034835</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.521365674320223</v>
+        <v>-3.530145463732027</v>
       </c>
       <c r="G259">
         <v>-0.1332091179848487</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.475108231618584</v>
+        <v>-3.489799022227608</v>
       </c>
       <c r="G260">
         <v>-0.1202015328791342</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.419309269412888</v>
+        <v>-3.427828873556771</v>
       </c>
       <c r="G261">
         <v>-0.09243172618699924</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.349158611088373</v>
+        <v>-3.355603287322084</v>
       </c>
       <c r="G262">
         <v>-0.05412565985107215</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.616247100480599</v>
+        <v>-3.619752773948439</v>
       </c>
       <c r="G265">
         <v>-0.05180063063708751</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.623269317359118</v>
+        <v>-3.626985340132829</v>
       </c>
       <c r="G266">
         <v>-0.08778218844965346</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.619208876321566</v>
+        <v>-3.625312736300212</v>
       </c>
       <c r="G267">
         <v>-0.1136555445340068</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.607412434028379</v>
+        <v>-3.614466730623649</v>
       </c>
       <c r="G268">
         <v>-0.1344672621280671</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.579962807157839</v>
+        <v>-3.588416340352662</v>
       </c>
       <c r="G269">
         <v>-0.1349623791531021</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.543735548883673</v>
+        <v>-3.551723801263357</v>
       </c>
       <c r="G270">
         <v>-0.1309925599993087</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.498135263241741</v>
+        <v>-3.504207582786444</v>
       </c>
       <c r="G271">
         <v>-0.1157217160612052</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.441477861512364</v>
+        <v>-3.45005395171331</v>
       </c>
       <c r="G272">
         <v>-0.08907625935839281</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.373125949464482</v>
+        <v>-3.381073720298376</v>
       </c>
       <c r="G273">
         <v>-0.05116463791530251</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.636523576113533</v>
+        <v>-3.639387027612128</v>
       </c>
       <c r="G276">
         <v>-0.05023821599913392</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.645124464479503</v>
+        <v>-3.648107472143773</v>
       </c>
       <c r="G277">
         <v>-0.08584027946086792</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.638299105313562</v>
+        <v>-3.64481071890612</v>
       </c>
       <c r="G278">
         <v>-0.1127856253865165</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.621144016774585</v>
+        <v>-3.630446127390022</v>
       </c>
       <c r="G279">
         <v>-0.1260164769412162</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.59830995749024</v>
+        <v>-3.606948308014804</v>
       </c>
       <c r="G280">
         <v>-0.1335683577505475</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.561589498723825</v>
+        <v>-3.570314366181163</v>
       </c>
       <c r="G281">
         <v>-0.1237646501395271</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.516543749270973</v>
+        <v>-3.524488596046716</v>
       </c>
       <c r="G282">
         <v>-0.1097682930530783</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.460051311197996</v>
+        <v>-3.468184330923827</v>
       </c>
       <c r="G283">
         <v>-0.08501071415890449</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.392997704967621</v>
+        <v>-3.400740745676043</v>
       </c>
       <c r="G284">
         <v>-0.04979986560263572</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.653972144887498</v>
+        <v>-3.655930205810172</v>
       </c>
       <c r="G287">
         <v>-0.04870735684947647</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.657532346858809</v>
+        <v>-3.661789606476509</v>
       </c>
       <c r="G288">
         <v>-0.08268444736177516</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.652868187934388</v>
+        <v>-3.660381612185369</v>
       </c>
       <c r="G289">
         <v>-0.1082085672030799</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.636597521284801</v>
+        <v>-3.645968933091532</v>
       </c>
       <c r="G290">
         <v>-0.1235303181929979</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.60971073448804</v>
+        <v>-3.630266052574699</v>
       </c>
       <c r="G291">
         <v>-0.1258029144278809</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.575070860625366</v>
+        <v>-3.585599192293591</v>
       </c>
       <c r="G292">
         <v>-0.1216636961196143</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.528345634770956</v>
+        <v>-3.538076751381655</v>
       </c>
       <c r="G293">
         <v>-0.1066440740077581</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.474101593252468</v>
+        <v>-3.48454762292997</v>
       </c>
       <c r="G294">
         <v>-0.08312901273368389</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.408670915188094</v>
+        <v>-3.416917940632678</v>
       </c>
       <c r="G295">
         <v>-0.04822199031256436</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-3.197500800290511</v>
+        <v>-3.198819588169294</v>
       </c>
       <c r="G23">
         <v>-0.151233080248089</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-3.22356503701422</v>
+        <v>-3.230523276396099</v>
       </c>
       <c r="G25">
         <v>-0.1842359146482244</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-3.25882674790568</v>
+        <v>-3.263964037983679</v>
       </c>
       <c r="G32">
         <v>-0.2309377511090549</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-3.259436568847857</v>
+        <v>-3.262958680234857</v>
       </c>
       <c r="G33">
         <v>-0.2393469740761067</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-3.255810674659216</v>
+        <v>-3.259332786046214</v>
       </c>
       <c r="G35">
         <v>-0.2266504141261185</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-3.25313437823916</v>
+        <v>-3.256712249606394</v>
       </c>
       <c r="G36">
         <v>-0.2013784769487663</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-3.246991730412342</v>
+        <v>-3.254091713166572</v>
       </c>
       <c r="G37">
         <v>-0.2473094941354026</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.240737562625054</v>
+        <v>-3.247178950479726</v>
       </c>
       <c r="G38">
         <v>-0.2259737070362386</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-3.221906207260513</v>
+        <v>-3.230732888666213</v>
       </c>
       <c r="G41">
         <v>-0.2395506093418593</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.220956609491926</v>
+        <v>-3.223820125979366</v>
       </c>
       <c r="G42">
         <v>-0.2370825844798983</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-3.210089216888457</v>
+        <v>-3.216907363292521</v>
       </c>
       <c r="G43">
         <v>-0.2373558458337717</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-3.197826792993482</v>
+        <v>-3.199255502753065</v>
       </c>
       <c r="G45">
         <v>-0.2326634415302968</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-3.189000862723753</v>
+        <v>-3.190429572483339</v>
       </c>
       <c r="G46">
         <v>-0.2345978997607117</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-3.178746222694441</v>
+        <v>-3.180174932454025</v>
       </c>
       <c r="G47">
         <v>-0.23868766774923</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-3.167158378242911</v>
+        <v>-3.171827037966305</v>
       </c>
       <c r="G48">
         <v>-0.2089250705634222</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.148077807943871</v>
+        <v>-3.149984553485461</v>
       </c>
       <c r="G50">
         <v>-0.2220161285488045</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-3.137108813034766</v>
+        <v>-3.137823167914558</v>
       </c>
       <c r="G51">
         <v>-0.2207577718812224</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-3.127568527885245</v>
+        <v>-3.131759151826634</v>
       </c>
       <c r="G52">
         <v>-0.2052484837556632</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.119220633397525</v>
+        <v>-3.121605414721119</v>
       </c>
       <c r="G53">
         <v>-0.2055444208970374</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.110154426696533</v>
+        <v>-3.113731598681925</v>
       </c>
       <c r="G54">
         <v>-0.1941203174884897</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.095875795069885</v>
+        <v>-3.097615908267422</v>
       </c>
       <c r="G55">
         <v>-0.1969848135932898</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.085073432504833</v>
+        <v>-3.08626582316663</v>
       </c>
       <c r="G56">
         <v>-0.1868126908096756</v>
@@ -1749,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-3.039229021659714</v>
+        <v>-3.045061223893473</v>
       </c>
       <c r="G59">
         <v>-0.1726178211199482</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-3.327318530568242</v>
+        <v>-3.327381654700435</v>
       </c>
       <c r="G79">
         <v>-0.05427828790344558</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-3.331884831981728</v>
+        <v>-3.335357539194275</v>
       </c>
       <c r="G80">
         <v>-0.0632353588268777</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-3.344110609655397</v>
+        <v>-3.346579682155719</v>
       </c>
       <c r="G82">
         <v>-0.08325205550603965</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-3.342643151411696</v>
+        <v>-3.348676911068883</v>
       </c>
       <c r="G83">
         <v>-0.06917071038399492</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-3.351437847633486</v>
+        <v>-3.354966946790749</v>
       </c>
       <c r="G84">
         <v>-0.08491722856037542</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-3.359222989784953</v>
+        <v>-3.362258664905928</v>
       </c>
       <c r="G85">
         <v>-0.08008688298158706</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-3.359682364785948</v>
+        <v>-3.362033873528266</v>
       </c>
       <c r="G86">
         <v>-0.09128144021679141</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-3.358044917878718</v>
+        <v>-3.361777936331834</v>
       </c>
       <c r="G87">
         <v>-0.09997524443083616</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-3.378918345914331</v>
+        <v>-3.380400570342097</v>
       </c>
       <c r="G88">
         <v>-0.09568951706089868</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-3.369550890907878</v>
+        <v>-3.370079953210015</v>
       </c>
       <c r="G89">
         <v>-0.1016441868778286</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.368559425286306</v>
+        <v>-3.375920305294732</v>
       </c>
       <c r="G90">
         <v>-0.1115911232726985</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-3.374585827502897</v>
+        <v>-3.374841308608644</v>
       </c>
       <c r="G91">
         <v>-0.1146741811878647</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-3.378826442017442</v>
+        <v>-3.382848965210977</v>
       </c>
       <c r="G94">
         <v>-0.1123951760391328</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-3.384007298175288</v>
+        <v>-3.3967534097281</v>
       </c>
       <c r="G95">
         <v>-0.1295456592916011</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-3.403086341311199</v>
+        <v>-3.404568565738949</v>
       </c>
       <c r="G96">
         <v>-0.1399334333968039</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-3.397624951283082</v>
+        <v>-3.408679033700927</v>
       </c>
       <c r="G97">
         <v>-0.1148696831307214</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-3.400907594780085</v>
+        <v>-3.401896395171554</v>
       </c>
       <c r="G98">
         <v>-0.1289187896007187</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-3.397934996278563</v>
+        <v>-3.404263269430531</v>
       </c>
       <c r="G99">
         <v>-0.1225944236811123</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-3.396732132023651</v>
+        <v>-3.401492259928987</v>
       </c>
       <c r="G100">
         <v>-0.1220903446564487</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-3.405381702825428</v>
+        <v>-3.411570616825386</v>
       </c>
       <c r="G101">
         <v>-0.130825857071712</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-3.405737019252546</v>
+        <v>-3.409581401383034</v>
       </c>
       <c r="G102">
         <v>-0.1378715241415578</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-3.401922990292971</v>
+        <v>-3.414450810682296</v>
       </c>
       <c r="G104">
         <v>-0.143866073340674</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-3.414416680058712</v>
+        <v>-3.421405266738944</v>
       </c>
       <c r="G105">
         <v>-0.1511164409519146</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-3.42461746900717</v>
+        <v>-3.429855251259359</v>
       </c>
       <c r="G106">
         <v>-0.1307009955620728</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-3.416225013171224</v>
+        <v>-3.423542783248471</v>
       </c>
       <c r="G107">
         <v>-0.1543716494105367</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-3.418791654724834</v>
+        <v>-3.42365852319375</v>
       </c>
       <c r="G108">
         <v>-0.145929133688691</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-3.425145891013763</v>
+        <v>-3.427319621003846</v>
       </c>
       <c r="G109">
         <v>-0.1627471456538743</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-3.427193956372929</v>
+        <v>-3.430982545668192</v>
       </c>
       <c r="G110">
         <v>-0.1599365540498612</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-3.428678216860296</v>
+        <v>-3.433458213342063</v>
       </c>
       <c r="G111">
         <v>-0.1528076733315982</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-3.412594774979671</v>
+        <v>-3.426339418497301</v>
       </c>
       <c r="G112">
         <v>-0.1555852515436649</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-3.424599883997261</v>
+        <v>-3.432820865935389</v>
       </c>
       <c r="G114">
         <v>-0.1581768862147732</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-3.426620378312997</v>
+        <v>-3.427657508938579</v>
       </c>
       <c r="G117">
         <v>-0.1635061699543621</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-3.427227825231364</v>
+        <v>-3.430304428678395</v>
       </c>
       <c r="G118">
         <v>-0.1584732655076091</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-3.424287785597902</v>
+        <v>-3.428740120066327</v>
       </c>
       <c r="G119">
         <v>-0.175825059800629</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-3.411587706058315</v>
+        <v>-3.422552203153189</v>
       </c>
       <c r="G120">
         <v>-0.1748097469282812</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-3.419881908368607</v>
+        <v>-3.419947858125987</v>
       </c>
       <c r="G121">
         <v>-0.1830985503223639</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-3.41441762211455</v>
+        <v>-3.420526904959377</v>
       </c>
       <c r="G122">
         <v>-0.1598091184388548</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-3.411957316928986</v>
+        <v>-3.415406942934897</v>
       </c>
       <c r="G123">
         <v>-0.1837511463174275</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-3.416749604539269</v>
+        <v>-3.419136554356138</v>
       </c>
       <c r="G124">
         <v>-0.1842240379997278</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-3.412225372364481</v>
+        <v>-3.412812410143581</v>
       </c>
       <c r="G125">
         <v>-0.1757630881946484</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-3.405764188372934</v>
+        <v>-3.414246432243941</v>
       </c>
       <c r="G126">
         <v>-0.1916663139684158</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-3.40580386384383</v>
+        <v>-3.408063545510836</v>
       </c>
       <c r="G128">
         <v>-0.1881177396272391</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-3.405781118029785</v>
+        <v>-3.407323663096309</v>
       </c>
       <c r="G129">
         <v>-0.175142848878882</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-3.402697497030684</v>
+        <v>-3.40463526115154</v>
       </c>
       <c r="G131">
         <v>-0.1665166473690183</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-3.404335497176677</v>
+        <v>-3.405039944237531</v>
       </c>
       <c r="G132">
         <v>-0.1860494721174757</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-3.396573276275629</v>
+        <v>-3.39869439943562</v>
       </c>
       <c r="G135">
         <v>-0.1818723554184607</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-3.394770120030885</v>
+        <v>-3.39621638363651</v>
       </c>
       <c r="G136">
         <v>-0.2032172179817222</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.392187001677749</v>
+        <v>-3.393506936055284</v>
       </c>
       <c r="G137">
         <v>-0.182706651262611</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.390520877099599</v>
+        <v>-3.391238610294355</v>
       </c>
       <c r="G138">
         <v>-0.1988933581136971</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.389301129248983</v>
+        <v>-3.389504529578548</v>
       </c>
       <c r="G139">
         <v>-0.1942238210479517</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.385766222121864</v>
+        <v>-3.386968972269207</v>
       </c>
       <c r="G140">
         <v>-0.1859202832512676</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.380303769025382</v>
+        <v>-3.38385387501224</v>
       </c>
       <c r="G141">
         <v>-0.1873454259227154</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.376287467387829</v>
+        <v>-3.376620778744365</v>
       </c>
       <c r="G143">
         <v>-0.2089038641901428</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.368697151859907</v>
+        <v>-3.372248999473714</v>
       </c>
       <c r="G144">
         <v>-0.1873894903240181</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.369334991026156</v>
+        <v>-3.369668302382693</v>
       </c>
       <c r="G145">
         <v>-0.1989491221359774</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.364057046617379</v>
+        <v>-3.364396841536559</v>
       </c>
       <c r="G146">
         <v>-0.1921146943190786</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.358515276235682</v>
+        <v>-3.359457272337641</v>
       </c>
       <c r="G147">
         <v>-0.1895270660341437</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-3.358427221179498</v>
+        <v>-3.358696188454547</v>
       </c>
       <c r="G148">
         <v>-0.1753419984935505</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.354586326314669</v>
+        <v>-3.356122281295392</v>
       </c>
       <c r="G149">
         <v>-0.1824276822746946</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.351176155353934</v>
+        <v>-3.35153436666904</v>
       </c>
       <c r="G151">
         <v>-0.1891949319087665</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.34422620404541</v>
+        <v>-3.345860364008082</v>
       </c>
       <c r="G152">
         <v>-0.2034758282977966</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.330260477636488</v>
+        <v>-3.331641655508017</v>
       </c>
       <c r="G155">
         <v>-0.1682034161529027</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.331143256373175</v>
+        <v>-3.331730294152274</v>
       </c>
       <c r="G156">
         <v>-0.185152398616875</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.329429389397421</v>
+        <v>-3.329467532753817</v>
       </c>
       <c r="G157">
         <v>-0.1739005630841515</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.322094653118872</v>
+        <v>-3.322485881041746</v>
       </c>
       <c r="G158">
         <v>-0.1763678295901017</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.320325818403167</v>
+        <v>-3.320829884382857</v>
       </c>
       <c r="G159">
         <v>-0.1855295384958866</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.318394850282486</v>
+        <v>-3.319601896197182</v>
       </c>
       <c r="G160">
         <v>-0.1852631309276542</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.311502978934918</v>
+        <v>-3.311553276321443</v>
       </c>
       <c r="G161">
         <v>-0.1804157830544784</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.308680300856464</v>
+        <v>-3.308817681358738</v>
       </c>
       <c r="G162">
         <v>-0.1673574130722626</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.30704444398259</v>
+        <v>-3.307490519460533</v>
       </c>
       <c r="G163">
         <v>-0.1745466153359638</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.300400343697212</v>
+        <v>-3.301292494653099</v>
       </c>
       <c r="G164">
         <v>-0.1708946803978508</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.294958495635518</v>
+        <v>-3.295500704971605</v>
       </c>
       <c r="G165">
         <v>-0.1750166787471821</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.29481753275532</v>
+        <v>-3.295046935799396</v>
       </c>
       <c r="G166">
         <v>-0.169404221153211</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.289901750033379</v>
+        <v>-3.290176511037929</v>
       </c>
       <c r="G167">
         <v>-0.1720635165400171</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.285425398323405</v>
+        <v>-3.28556277882568</v>
       </c>
       <c r="G168">
         <v>-0.1533731171818609</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.276144772450232</v>
+        <v>-3.276282152952506</v>
       </c>
       <c r="G170">
         <v>-0.1591998068463625</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.266774152873393</v>
+        <v>-3.268678459877802</v>
       </c>
       <c r="G172">
         <v>-0.156846537646669</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.259841632680306</v>
+        <v>-3.262463143362011</v>
       </c>
       <c r="G174">
         <v>-0.1526382829107171</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.25088699842845</v>
+        <v>-3.251024378930725</v>
       </c>
       <c r="G176">
         <v>-0.1491482307681697</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.246200582499571</v>
+        <v>-3.246612724006395</v>
       </c>
       <c r="G177">
         <v>-0.1575453968462781</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.231140817168685</v>
+        <v>-3.233204038463969</v>
       </c>
       <c r="G180">
         <v>-0.1434636338204203</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.214135713679929</v>
+        <v>-3.215155726928008</v>
       </c>
       <c r="G184">
         <v>-0.1348781595476662</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.208681740850569</v>
+        <v>-3.210032026683646</v>
       </c>
       <c r="G185">
         <v>-0.1227696673917965</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.204060810493928</v>
+        <v>-3.205078656801262</v>
       </c>
       <c r="G186">
         <v>-0.1300185304959197</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.20080364706083</v>
+        <v>-3.200990964660113</v>
       </c>
       <c r="G187">
         <v>-0.1303346798233985</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.195856352044763</v>
+        <v>-3.195992266682586</v>
       </c>
       <c r="G188">
         <v>-0.1285647381600822</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.188568041078578</v>
+        <v>-3.191490815844817</v>
       </c>
       <c r="G189">
         <v>-0.1221446150826729</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.184915360719041</v>
+        <v>-3.185702338117847</v>
       </c>
       <c r="G190">
         <v>-0.1197072866485669</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.178234220417816</v>
+        <v>-3.181110300737394</v>
       </c>
       <c r="G191">
         <v>-0.1107533542000132</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.173862169440236</v>
+        <v>-3.175300209600025</v>
       </c>
       <c r="G192">
         <v>-0.10358303269086</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.168016917681692</v>
+        <v>-3.169566377096468</v>
       </c>
       <c r="G193">
         <v>-0.1063937203348151</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.162043564416561</v>
+        <v>-3.164989418457649</v>
       </c>
       <c r="G194">
         <v>-0.09957314017978303</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.158237038570465</v>
+        <v>-3.159694475443441</v>
       </c>
       <c r="G195">
         <v>-0.1056193212011708</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.152244288592148</v>
+        <v>-3.153954158027582</v>
       </c>
       <c r="G196">
         <v>-0.09746954574251865</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.148039132547528</v>
+        <v>-3.148826109946333</v>
       </c>
       <c r="G197">
         <v>-0.0968452698596089</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.137813879034651</v>
+        <v>-3.137833275747837</v>
       </c>
       <c r="G199">
         <v>-0.08715968617755404</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.126759221891396</v>
+        <v>-3.127026733195487</v>
       </c>
       <c r="G201">
         <v>-0.08382202168800468</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.119641316320515</v>
+        <v>-3.121239671576502</v>
       </c>
       <c r="G202">
         <v>-0.0779230524835573</v>
@@ -5084,7 +5084,7 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.109398037034439</v>
+        <v>-3.109487207469137</v>
       </c>
       <c r="G204">
         <v>-0.06853711262301504</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.102190961028862</v>
+        <v>-3.103610975415454</v>
       </c>
       <c r="G205">
         <v>-0.06755198549776398</v>
@@ -5176,7 +5176,7 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-3.083823827292901</v>
+        <v>-3.084651435302513</v>
       </c>
       <c r="G208">
         <v>-0.05906672752842018</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-3.448299812484902</v>
+        <v>-3.449572221212636</v>
       </c>
       <c r="G221">
         <v>-0.0683567336496953</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-3.491296033351548</v>
+        <v>-3.494992507261546</v>
       </c>
       <c r="G222">
         <v>-0.1272041082830486</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-3.487644463059026</v>
+        <v>-3.511589459647722</v>
       </c>
       <c r="G223">
         <v>-0.1383220256511128</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.480611494556529</v>
+        <v>-3.491020972031968</v>
       </c>
       <c r="G224">
         <v>-0.1598427874999229</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.455186721609733</v>
+        <v>-3.474923042092788</v>
       </c>
       <c r="G225">
         <v>-0.1824690399689151</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.415572816954017</v>
+        <v>-3.416308398230182</v>
       </c>
       <c r="G226">
         <v>-0.1698500895426602</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.357233844004795</v>
+        <v>-3.357725325068828</v>
       </c>
       <c r="G227">
         <v>-0.1409850323665507</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.286229226370005</v>
+        <v>-3.288900723113632</v>
       </c>
       <c r="G228">
         <v>-0.1098935863600984</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.209558779363877</v>
+        <v>-3.210782635542401</v>
       </c>
       <c r="G229">
         <v>-0.06752272242388779</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-3.519113086722597</v>
+        <v>-3.524028049164114</v>
       </c>
       <c r="G232">
         <v>-0.06367010794840011</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-3.536228372661523</v>
+        <v>-3.548977345998264</v>
       </c>
       <c r="G233">
         <v>-0.1094996001512882</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.544899366990866</v>
+        <v>-3.546821107332393</v>
       </c>
       <c r="G234">
         <v>-0.1324936328895352</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.522292189562747</v>
+        <v>-3.555334557838378</v>
       </c>
       <c r="G235">
         <v>-0.1524054736928764</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.507293547459064</v>
+        <v>-3.516008453411626</v>
       </c>
       <c r="G236">
         <v>-0.1539080654618417</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.462785041753201</v>
+        <v>-3.475908105484411</v>
       </c>
       <c r="G237">
         <v>-0.1532728177218672</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.419156690617318</v>
+        <v>-3.419293261257809</v>
       </c>
       <c r="G238">
         <v>-0.1277517286316281</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.274008462854498</v>
+        <v>-3.275700649094512</v>
       </c>
       <c r="G240">
         <v>-0.06062802482385499</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-3.565628916006665</v>
+        <v>-3.570227719321536</v>
       </c>
       <c r="G243">
         <v>-0.05546468414183092</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.574930239822935</v>
+        <v>-3.58962521514128</v>
       </c>
       <c r="G244">
         <v>-0.09516203124752831</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.574765458761278</v>
+        <v>-3.597851018069099</v>
       </c>
       <c r="G245">
         <v>-0.1199708575774574</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.559049740745127</v>
+        <v>-3.584848254858509</v>
       </c>
       <c r="G246">
         <v>-0.1396545519400081</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.539465066837531</v>
+        <v>-3.559267473429141</v>
       </c>
       <c r="G247">
         <v>-0.1515897731992562</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.504297153164734</v>
+        <v>-3.512034032800067</v>
       </c>
       <c r="G248">
         <v>-0.1428830840997626</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.458860463870272</v>
+        <v>-3.45889041380284</v>
       </c>
       <c r="G249">
         <v>-0.1244674601128246</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.39657830020765</v>
+        <v>-3.396781826967026</v>
       </c>
       <c r="G250">
         <v>-0.09590800071936123</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.322169377497156</v>
+        <v>-3.322467623303072</v>
       </c>
       <c r="G251">
         <v>-0.0569945247896998</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.594406145433845</v>
+        <v>-3.600334548803812</v>
       </c>
       <c r="G254">
         <v>-0.04992046283838159</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.603101458494799</v>
+        <v>-3.62011124759155</v>
       </c>
       <c r="G255">
         <v>-0.09131248093877486</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.611694333948777</v>
+        <v>-3.611981141625151</v>
       </c>
       <c r="G256">
         <v>-0.1167741243921592</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.591366783206482</v>
+        <v>-3.60791809308775</v>
       </c>
       <c r="G257">
         <v>-0.1340149937478867</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.579639571687117</v>
+        <v>-3.580491839708207</v>
       </c>
       <c r="G258">
         <v>-0.1416512404034835</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.530145463732027</v>
+        <v>-3.540404396623209</v>
       </c>
       <c r="G259">
         <v>-0.1332091179848487</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.489799022227608</v>
+        <v>-3.490012376582869</v>
       </c>
       <c r="G260">
         <v>-0.1202015328791342</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.427828873556771</v>
+        <v>-3.42784385518471</v>
       </c>
       <c r="G261">
         <v>-0.09243172618699924</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.355603287322084</v>
+        <v>-3.356049594936271</v>
       </c>
       <c r="G262">
         <v>-0.05412565985107215</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.619752773948439</v>
+        <v>-3.625478020323545</v>
       </c>
       <c r="G265">
         <v>-0.05180063063708751</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.626985340132829</v>
+        <v>-3.63831983305894</v>
       </c>
       <c r="G266">
         <v>-0.08778218844965346</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.625312736300212</v>
+        <v>-3.637895939155015</v>
       </c>
       <c r="G267">
         <v>-0.1136555445340068</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.614466730623649</v>
+        <v>-3.626028933237668</v>
       </c>
       <c r="G268">
         <v>-0.1344672621280671</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.588416340352662</v>
+        <v>-3.598448863751876</v>
       </c>
       <c r="G269">
         <v>-0.1349623791531021</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.551723801263357</v>
+        <v>-3.561022362550779</v>
       </c>
       <c r="G270">
         <v>-0.1309925599993087</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.504207582786444</v>
+        <v>-3.510811944216276</v>
       </c>
       <c r="G271">
         <v>-0.1157217160612052</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.45005395171331</v>
+        <v>-3.450080888872783</v>
       </c>
       <c r="G272">
         <v>-0.08907625935839281</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.381073720298376</v>
+        <v>-3.381133167115901</v>
       </c>
       <c r="G273">
         <v>-0.05116463791530251</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.639387027612128</v>
+        <v>-3.646019583666483</v>
       </c>
       <c r="G276">
         <v>-0.05023821599913392</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.648107472143773</v>
+        <v>-3.656421401465631</v>
       </c>
       <c r="G277">
         <v>-0.08584027946086792</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.64481071890612</v>
+        <v>-3.652319262777709</v>
       </c>
       <c r="G278">
         <v>-0.1127856253865165</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.630446127390022</v>
+        <v>-3.638327169844152</v>
       </c>
       <c r="G279">
         <v>-0.1260164769412162</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.606948308014804</v>
+        <v>-3.615630874410429</v>
       </c>
       <c r="G280">
         <v>-0.1335683577505475</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.570314366181163</v>
+        <v>-3.577701411459049</v>
       </c>
       <c r="G281">
         <v>-0.1237646501395271</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.524488596046716</v>
+        <v>-3.530462205141251</v>
       </c>
       <c r="G282">
         <v>-0.1097682930530783</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.468184330923827</v>
+        <v>-3.468268391709471</v>
       </c>
       <c r="G283">
         <v>-0.08501071415890449</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.400740745676043</v>
+        <v>-3.400828239598782</v>
       </c>
       <c r="G284">
         <v>-0.04979986560263572</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.655930205810172</v>
+        <v>-3.661821294555078</v>
       </c>
       <c r="G287">
         <v>-0.04870735684947647</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.661789606476509</v>
+        <v>-3.667996137056264</v>
       </c>
       <c r="G288">
         <v>-0.08268444736177516</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.660381612185369</v>
+        <v>-3.666690714943987</v>
       </c>
       <c r="G289">
         <v>-0.1082085672030799</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.645968933091532</v>
+        <v>-3.65250032600014</v>
       </c>
       <c r="G290">
         <v>-0.1235303181929979</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.630266052574699</v>
+        <v>-3.631691114098809</v>
       </c>
       <c r="G291">
         <v>-0.1258029144278809</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.585599192293591</v>
+        <v>-3.592245132385204</v>
       </c>
       <c r="G292">
         <v>-0.1216636961196143</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.538076751381655</v>
+        <v>-3.543448090988547</v>
       </c>
       <c r="G293">
         <v>-0.1066440740077581</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.48454762292997</v>
+        <v>-3.48466341984264</v>
       </c>
       <c r="G294">
         <v>-0.08312901273368389</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.416917940632678</v>
+        <v>-3.417121195574439</v>
       </c>
       <c r="G295">
         <v>-0.04822199031256436</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-3.257607106021327</v>
+        <v>-3.262744396099325</v>
       </c>
       <c r="G30">
         <v>-0.2399549816400963</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-3.258431211099035</v>
+        <v>-3.261953322486035</v>
       </c>
       <c r="G34">
         <v>-0.2042169486855263</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-3.237402671305441</v>
+        <v>-3.244558414039905</v>
       </c>
       <c r="G39">
         <v>-0.2534208436624279</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-3.180174932454025</v>
+        <v>-3.181603642213611</v>
       </c>
       <c r="G47">
         <v>-0.23868766774923</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-3.156189383333803</v>
+        <v>-3.163001107696576</v>
       </c>
       <c r="G49">
         <v>-0.2231893618386069</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-3.131759151826634</v>
+        <v>-3.136528714473825</v>
       </c>
       <c r="G52">
         <v>-0.2052484837556632</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.121605414721119</v>
+        <v>-3.124533961246978</v>
       </c>
       <c r="G53">
         <v>-0.2055444208970374</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-3.327381654700435</v>
+        <v>-3.329428529429942</v>
       </c>
       <c r="G79">
         <v>-0.05427828790344558</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-3.335357539194275</v>
+        <v>-3.33683976362203</v>
       </c>
       <c r="G80">
         <v>-0.0632353588268777</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-3.341647574916139</v>
+        <v>-3.343757573777839</v>
       </c>
       <c r="G81">
         <v>-0.06280670565521884</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-3.346579682155719</v>
+        <v>-3.349121933240415</v>
       </c>
       <c r="G82">
         <v>-0.08325205550603965</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-3.348676911068883</v>
+        <v>-3.35065255953292</v>
       </c>
       <c r="G83">
         <v>-0.06917071038399492</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-3.362258664905928</v>
+        <v>-3.362294303171793</v>
       </c>
       <c r="G85">
         <v>-0.08008688298158706</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-3.361777936331834</v>
+        <v>-3.364813611452816</v>
       </c>
       <c r="G87">
         <v>-0.09997524443083616</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-3.370079953210015</v>
+        <v>-3.372126827939522</v>
       </c>
       <c r="G89">
         <v>-0.1016441868778286</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-3.373627716839512</v>
+        <v>-3.379625888497094</v>
       </c>
       <c r="G92">
         <v>-0.1135572701637408</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-3.384135797965855</v>
+        <v>-3.387558032591784</v>
       </c>
       <c r="G93">
         <v>-0.1068269036511351</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-3.382848965210977</v>
+        <v>-3.385993764268941</v>
       </c>
       <c r="G94">
         <v>-0.1123951760391328</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-3.408679033700927</v>
+        <v>-3.410581453314329</v>
       </c>
       <c r="G97">
         <v>-0.1148696831307214</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-3.401896395171554</v>
+        <v>-3.408845776635839</v>
       </c>
       <c r="G98">
         <v>-0.1289187896007187</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-3.401492259928987</v>
+        <v>-3.407180173167276</v>
       </c>
       <c r="G100">
         <v>-0.1220903446564487</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-3.411570616825386</v>
+        <v>-3.413052841253143</v>
       </c>
       <c r="G101">
         <v>-0.130825857071712</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-3.421405266738944</v>
+        <v>-3.422356476545646</v>
       </c>
       <c r="G105">
         <v>-0.1511164409519146</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-3.429855251259359</v>
+        <v>-3.430806461066061</v>
       </c>
       <c r="G106">
         <v>-0.1307009955620728</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-3.42365852319375</v>
+        <v>-3.425103157036734</v>
       </c>
       <c r="G108">
         <v>-0.145929133688691</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-3.430982545668192</v>
+        <v>-3.432427179511175</v>
       </c>
       <c r="G110">
         <v>-0.1599365540498612</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-3.429959231065225</v>
+        <v>-3.431489785727089</v>
       </c>
       <c r="G115">
         <v>-0.1588296295445719</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-3.428740120066327</v>
+        <v>-3.430220392175171</v>
       </c>
       <c r="G119">
         <v>-0.175825059800629</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-3.419947858125987</v>
+        <v>-3.425803169821137</v>
       </c>
       <c r="G121">
         <v>-0.1830985503223639</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-3.420526904959377</v>
+        <v>-3.421453714532021</v>
       </c>
       <c r="G122">
         <v>-0.1598091184388548</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-3.419136554356138</v>
+        <v>-3.420803310112217</v>
       </c>
       <c r="G124">
         <v>-0.1842240379997278</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-3.412812410143581</v>
+        <v>-3.416382471003694</v>
       </c>
       <c r="G125">
         <v>-0.1757630881946484</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-3.414246432243941</v>
+        <v>-3.420889410914565</v>
       </c>
       <c r="G126">
         <v>-0.1916663139684158</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-3.40726088285884</v>
+        <v>-3.408569648477553</v>
       </c>
       <c r="G127">
         <v>-0.1843595482762708</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-3.403484247730458</v>
+        <v>-3.403902446737506</v>
       </c>
       <c r="G130">
         <v>-0.1776965354725037</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-3.40463526115154</v>
+        <v>-3.406454779000018</v>
       </c>
       <c r="G131">
         <v>-0.1665166473690183</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-3.396481710330528</v>
+        <v>-3.398794652215288</v>
       </c>
       <c r="G134">
         <v>-0.1781817297802391</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-3.39621638363651</v>
+        <v>-3.396402503187317</v>
       </c>
       <c r="G136">
         <v>-0.2032172179817222</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.393506936055284</v>
+        <v>-3.394684730126925</v>
       </c>
       <c r="G137">
         <v>-0.182706651262611</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.391238610294355</v>
+        <v>-3.392369982454565</v>
       </c>
       <c r="G138">
         <v>-0.1988933581136971</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.38385387501224</v>
+        <v>-3.385229504827763</v>
       </c>
       <c r="G141">
         <v>-0.1873454259227154</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.378169027720442</v>
+        <v>-3.379516993550525</v>
       </c>
       <c r="G142">
         <v>-0.1934792086007699</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.372248999473714</v>
+        <v>-3.373368181227372</v>
       </c>
       <c r="G144">
         <v>-0.1873894903240181</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.359457272337641</v>
+        <v>-3.360110207630812</v>
       </c>
       <c r="G147">
         <v>-0.1895270660341437</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.355536714764476</v>
+        <v>-3.355747737789049</v>
       </c>
       <c r="G150">
         <v>-0.1663332152051427</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.35153436666904</v>
+        <v>-3.352094058307857</v>
       </c>
       <c r="G151">
         <v>-0.1891949319087665</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.345860364008082</v>
+        <v>-3.346526254866567</v>
       </c>
       <c r="G152">
         <v>-0.2034758282977966</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.331641655508017</v>
+        <v>-3.332571949820299</v>
       </c>
       <c r="G155">
         <v>-0.1682034161529027</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.322485881041746</v>
+        <v>-3.327985667701459</v>
       </c>
       <c r="G158">
         <v>-0.1763678295901017</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.319601896197182</v>
+        <v>-3.320443749766544</v>
       </c>
       <c r="G160">
         <v>-0.1852631309276542</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.311553276321443</v>
+        <v>-3.315823554375775</v>
       </c>
       <c r="G161">
         <v>-0.1804157830544784</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.290176511037929</v>
+        <v>-3.290622586515872</v>
       </c>
       <c r="G167">
         <v>-0.1720635165400171</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.28556277882568</v>
+        <v>-3.285792181869756</v>
       </c>
       <c r="G168">
         <v>-0.1533731171818609</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.281582498031876</v>
+        <v>-3.282186816589732</v>
       </c>
       <c r="G169">
         <v>-0.1666172150160337</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.276282152952506</v>
+        <v>-3.276957631474528</v>
       </c>
       <c r="G170">
         <v>-0.1591998068463625</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.268678459877802</v>
+        <v>-3.268925143700635</v>
       </c>
       <c r="G172">
         <v>-0.156846537646669</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.254373832812592</v>
+        <v>-3.254511213314867</v>
       </c>
       <c r="G175">
         <v>-0.1570901930021121</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.251024378930725</v>
+        <v>-3.2515119486168</v>
       </c>
       <c r="G176">
         <v>-0.1491482307681697</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.246612724006395</v>
+        <v>-3.24675010450867</v>
       </c>
       <c r="G177">
         <v>-0.1575453968462781</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.241387554713698</v>
+        <v>-3.242129253773831</v>
       </c>
       <c r="G178">
         <v>-0.1459788696264397</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.233204038463969</v>
+        <v>-3.233320556388605</v>
       </c>
       <c r="G180">
         <v>-0.1434636338204203</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.215155726928008</v>
+        <v>-3.215826186402178</v>
       </c>
       <c r="G184">
         <v>-0.1348781595476662</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.205078656801262</v>
+        <v>-3.205838286710128</v>
       </c>
       <c r="G186">
         <v>-0.1300185304959197</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.195992266682586</v>
+        <v>-3.196174925523536</v>
       </c>
       <c r="G188">
         <v>-0.1285647381600822</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.185702338117847</v>
+        <v>-3.185818856042483</v>
       </c>
       <c r="G190">
         <v>-0.1197072866485669</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.181110300737394</v>
+        <v>-3.183218800371353</v>
       </c>
       <c r="G191">
         <v>-0.1107533542000132</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.175300209600025</v>
+        <v>-3.175993698592579</v>
       </c>
       <c r="G192">
         <v>-0.10358303269086</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.169566377096468</v>
+        <v>-3.171067706065466</v>
       </c>
       <c r="G193">
         <v>-0.1063937203348151</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.164989418457649</v>
+        <v>-3.165705596181808</v>
       </c>
       <c r="G194">
         <v>-0.09957314017978303</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.159694475443441</v>
+        <v>-3.15987713428439</v>
       </c>
       <c r="G195">
         <v>-0.1056193212011708</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.153954158027582</v>
+        <v>-3.154090072665406</v>
       </c>
       <c r="G196">
         <v>-0.09746954574251865</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.142862123565941</v>
+        <v>-3.143827441834141</v>
       </c>
       <c r="G198">
         <v>-0.09063213989189406</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.13198580729208</v>
+        <v>-3.132074977726777</v>
       </c>
       <c r="G200">
         <v>-0.09223813899522659</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.127026733195487</v>
+        <v>-3.127115903630184</v>
       </c>
       <c r="G201">
         <v>-0.08382202168800468</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.103610975415454</v>
+        <v>-3.103700145850151</v>
       </c>
       <c r="G205">
         <v>-0.06755198549776398</v>
@@ -5130,7 +5130,7 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.097734743361773</v>
+        <v>-3.097823913796469</v>
       </c>
       <c r="G206">
         <v>-0.06041755026423434</v>
@@ -5153,7 +5153,7 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-3.090438496921498</v>
+        <v>-3.091947681742789</v>
       </c>
       <c r="G207">
         <v>-0.06306913851555479</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-3.449572221212636</v>
+        <v>-3.450747757291689</v>
       </c>
       <c r="G221">
         <v>-0.0683567336496953</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-3.494992507261546</v>
+        <v>-3.498223947086537</v>
       </c>
       <c r="G222">
         <v>-0.1272041082830486</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-3.511589459647722</v>
+        <v>-3.512746184054146</v>
       </c>
       <c r="G223">
         <v>-0.1383220256511128</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.491020972031968</v>
+        <v>-3.492254115884029</v>
       </c>
       <c r="G224">
         <v>-0.1598427874999229</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.474923042092788</v>
+        <v>-3.476079015660526</v>
       </c>
       <c r="G225">
         <v>-0.1824690399689151</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.416308398230182</v>
+        <v>-3.41683062528953</v>
       </c>
       <c r="G226">
         <v>-0.1698500895426602</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.357725325068828</v>
+        <v>-3.357931575278279</v>
       </c>
       <c r="G227">
         <v>-0.1409850323665507</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.210782635542401</v>
+        <v>-3.210910031589647</v>
       </c>
       <c r="G229">
         <v>-0.06752272242388779</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-3.524028049164114</v>
+        <v>-3.524536394082353</v>
       </c>
       <c r="G232">
         <v>-0.06367010794840011</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-3.548977345998264</v>
+        <v>-3.550261960062457</v>
       </c>
       <c r="G233">
         <v>-0.1094996001512882</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.546821107332393</v>
+        <v>-3.546950400261686</v>
       </c>
       <c r="G234">
         <v>-0.1324936328895352</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.555334557838378</v>
+        <v>-3.556012789047096</v>
       </c>
       <c r="G235">
         <v>-0.1524054736928764</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.516008453411626</v>
+        <v>-3.51657924830859</v>
       </c>
       <c r="G236">
         <v>-0.1539080654618417</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.475908105484411</v>
+        <v>-3.480575700030062</v>
       </c>
       <c r="G237">
         <v>-0.1532728177218672</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.419293261257809</v>
+        <v>-3.419422554187102</v>
       </c>
       <c r="G238">
         <v>-0.1277517286316281</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-3.570227719321536</v>
+        <v>-3.570536380760595</v>
       </c>
       <c r="G243">
         <v>-0.05546468414183092</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.58962521514128</v>
+        <v>-3.590321433278569</v>
       </c>
       <c r="G244">
         <v>-0.09516203124752831</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.597851018069099</v>
+        <v>-3.599820970244835</v>
       </c>
       <c r="G245">
         <v>-0.1199708575774574</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.584848254858509</v>
+        <v>-3.601076490031761</v>
       </c>
       <c r="G246">
         <v>-0.1396545519400081</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.559267473429141</v>
+        <v>-3.561473773757928</v>
       </c>
       <c r="G247">
         <v>-0.1515897731992562</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.512034032800067</v>
+        <v>-3.513661946763981</v>
       </c>
       <c r="G248">
         <v>-0.1428830840997626</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.396781826967026</v>
+        <v>-3.396944368536094</v>
       </c>
       <c r="G250">
         <v>-0.09590800071936123</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.322467623303072</v>
+        <v>-3.322503860871483</v>
       </c>
       <c r="G251">
         <v>-0.0569945247896998</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.600334548803812</v>
+        <v>-3.600382309580585</v>
       </c>
       <c r="G254">
         <v>-0.04992046283838159</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.62011124759155</v>
+        <v>-3.620815515683325</v>
       </c>
       <c r="G255">
         <v>-0.09131248093877486</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.60791809308775</v>
+        <v>-3.621767690297197</v>
       </c>
       <c r="G257">
         <v>-0.1340149937478867</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.580491839708207</v>
+        <v>-3.58054310001445</v>
       </c>
       <c r="G258">
         <v>-0.1416512404034835</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.540404396623209</v>
+        <v>-3.540984566425637</v>
       </c>
       <c r="G259">
         <v>-0.1332091179848487</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.490012376582869</v>
+        <v>-3.490152088682049</v>
       </c>
       <c r="G260">
         <v>-0.1202015328791342</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.42784385518471</v>
+        <v>-3.427879325927404</v>
       </c>
       <c r="G261">
         <v>-0.09243172618699924</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.625478020323545</v>
+        <v>-3.625893799373868</v>
       </c>
       <c r="G265">
         <v>-0.05180063063708751</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.63831983305894</v>
+        <v>-3.640413019611778</v>
       </c>
       <c r="G266">
         <v>-0.08778218844965346</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.637895939155015</v>
+        <v>-3.648650445159416</v>
       </c>
       <c r="G267">
         <v>-0.1136555445340068</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.626028933237668</v>
+        <v>-3.636534180483225</v>
       </c>
       <c r="G268">
         <v>-0.1344672621280671</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.598448863751876</v>
+        <v>-3.607688031948528</v>
       </c>
       <c r="G269">
         <v>-0.1349623791531021</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.561022362550779</v>
+        <v>-3.568590549616089</v>
       </c>
       <c r="G270">
         <v>-0.1309925599993087</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.510811944216276</v>
+        <v>-3.513818264561325</v>
       </c>
       <c r="G271">
         <v>-0.1157217160612052</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.450080888872783</v>
+        <v>-3.450125577162325</v>
       </c>
       <c r="G272">
         <v>-0.08907625935839281</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.381133167115901</v>
+        <v>-3.381310845999874</v>
       </c>
       <c r="G273">
         <v>-0.05116463791530251</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.646019583666483</v>
+        <v>-3.646660509348909</v>
       </c>
       <c r="G276">
         <v>-0.05023821599913392</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.656421401465631</v>
+        <v>-3.66246163278088</v>
       </c>
       <c r="G277">
         <v>-0.08584027946086792</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.652319262777709</v>
+        <v>-3.660169587957068</v>
       </c>
       <c r="G278">
         <v>-0.1127856253865165</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.638327169844152</v>
+        <v>-3.645764315762032</v>
       </c>
       <c r="G279">
         <v>-0.1260164769412162</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.615630874410429</v>
+        <v>-3.622195376379684</v>
       </c>
       <c r="G280">
         <v>-0.1335683577505475</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.577701411459049</v>
+        <v>-3.582411526465713</v>
       </c>
       <c r="G281">
         <v>-0.1237646501395271</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.530462205141251</v>
+        <v>-3.533432120910382</v>
       </c>
       <c r="G282">
         <v>-0.1097682930530783</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.400828239598782</v>
+        <v>-3.400859203289268</v>
       </c>
       <c r="G284">
         <v>-0.04979986560263572</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.661821294555078</v>
+        <v>-3.662505098397937</v>
       </c>
       <c r="G287">
         <v>-0.04870735684947647</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.667996137056264</v>
+        <v>-3.673389180865456</v>
       </c>
       <c r="G288">
         <v>-0.08268444736177516</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.666690714943987</v>
+        <v>-3.672734372040193</v>
       </c>
       <c r="G289">
         <v>-0.1082085672030799</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.65250032600014</v>
+        <v>-3.658041505470925</v>
       </c>
       <c r="G290">
         <v>-0.1235303181929979</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.631691114098809</v>
+        <v>-3.631747326963702</v>
       </c>
       <c r="G291">
         <v>-0.1258029144278809</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.592245132385204</v>
+        <v>-3.596923147439703</v>
       </c>
       <c r="G292">
         <v>-0.1216636961196143</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.543448090988547</v>
+        <v>-3.546416154189119</v>
       </c>
       <c r="G293">
         <v>-0.1066440740077581</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.48466341984264</v>
+        <v>-3.484721573868963</v>
       </c>
       <c r="G294">
         <v>-0.08312901273368389</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.149984553485461</v>
+        <v>-3.153460822547058</v>
       </c>
       <c r="G50">
         <v>-0.2220161285488045</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-3.329428529429942</v>
+        <v>-3.331475404159443</v>
       </c>
       <c r="G79">
         <v>-0.05427828790344558</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-3.33683976362203</v>
+        <v>-3.338886638351535</v>
       </c>
       <c r="G80">
         <v>-0.0632353588268777</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-3.343757573777839</v>
+        <v>-3.346297872543627</v>
       </c>
       <c r="G81">
         <v>-0.06280670565521884</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-3.354966946790749</v>
+        <v>-3.355955747182223</v>
       </c>
       <c r="G84">
         <v>-0.08491722856037542</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-3.362294303171793</v>
+        <v>-3.367269988490946</v>
       </c>
       <c r="G85">
         <v>-0.08008688298158706</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.375920305294732</v>
+        <v>-3.377366891456637</v>
       </c>
       <c r="G90">
         <v>-0.1115911232726985</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-3.374841308608644</v>
+        <v>-3.374876946874504</v>
       </c>
       <c r="G91">
         <v>-0.1146741811878647</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-3.385993764268941</v>
+        <v>-3.388040638998448</v>
       </c>
       <c r="G94">
         <v>-0.1123951760391328</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-3.404568565738949</v>
+        <v>-3.405555413811518</v>
       </c>
       <c r="G96">
         <v>-0.1399334333968039</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-3.404263269430531</v>
+        <v>-3.404792331732675</v>
       </c>
       <c r="G99">
         <v>-0.1225944236811123</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-3.407180173167276</v>
+        <v>-3.407929078309305</v>
       </c>
       <c r="G100">
         <v>-0.1220903446564487</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-3.407089639831062</v>
+        <v>-3.409029650029237</v>
       </c>
       <c r="G103">
         <v>-0.1348156473416737</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-3.423542783248471</v>
+        <v>-3.424529631321033</v>
       </c>
       <c r="G107">
         <v>-0.1543716494105367</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-3.407323663096309</v>
+        <v>-3.407883036889971</v>
       </c>
       <c r="G129">
         <v>-0.175142848878882</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-3.406454779000018</v>
+        <v>-3.406737180011726</v>
       </c>
       <c r="G131">
         <v>-0.1665166473690183</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-3.399240621788731</v>
+        <v>-3.400055963371162</v>
       </c>
       <c r="G133">
         <v>-0.1897398034409017</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.385229504827763</v>
+        <v>-3.385695264878605</v>
       </c>
       <c r="G141">
         <v>-0.1873454259227154</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.376620778744365</v>
+        <v>-3.376996793498892</v>
       </c>
       <c r="G143">
         <v>-0.2089038641901428</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.373368181227372</v>
+        <v>-3.374306502736857</v>
       </c>
       <c r="G144">
         <v>-0.1873894903240181</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.364396841536559</v>
+        <v>-3.365317190672195</v>
       </c>
       <c r="G146">
         <v>-0.1921146943190786</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.360110207630812</v>
+        <v>-3.363101502374493</v>
       </c>
       <c r="G147">
         <v>-0.1895270660341437</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-3.358696188454547</v>
+        <v>-3.359189612490828</v>
       </c>
       <c r="G148">
         <v>-0.1753419984935505</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.352094058307857</v>
+        <v>-3.352228335522394</v>
       </c>
       <c r="G151">
         <v>-0.1891949319087665</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.329467532753817</v>
+        <v>-3.329517830140341</v>
       </c>
       <c r="G157">
         <v>-0.1739005630841515</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.327985667701459</v>
+        <v>-3.328431743179401</v>
       </c>
       <c r="G158">
         <v>-0.1763678295901017</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.320829884382857</v>
+        <v>-3.321011267657633</v>
       </c>
       <c r="G159">
         <v>-0.1855295384958866</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.315823554375775</v>
+        <v>-3.315847349914711</v>
       </c>
       <c r="G161">
         <v>-0.1804157830544784</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.308817681358738</v>
+        <v>-3.309263756836681</v>
       </c>
       <c r="G162">
         <v>-0.1673574130722626</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.254511213314867</v>
+        <v>-3.255186691836889</v>
       </c>
       <c r="G175">
         <v>-0.1570901930021121</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.2515119486168</v>
+        <v>-3.252345670218735</v>
       </c>
       <c r="G176">
         <v>-0.1491482307681697</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.237299862572547</v>
+        <v>-3.237437243074822</v>
       </c>
       <c r="G179">
         <v>-0.146639129525026</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.233320556388605</v>
+        <v>-3.233549959432683</v>
       </c>
       <c r="G180">
         <v>-0.1434636338204203</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.229166643709344</v>
+        <v>-3.229842122231365</v>
       </c>
       <c r="G181">
         <v>-0.144423980790923</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.224057992341281</v>
+        <v>-3.225212699265273</v>
       </c>
       <c r="G182">
         <v>-0.1444403858359941</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.215826186402178</v>
+        <v>-3.216621114577736</v>
       </c>
       <c r="G184">
         <v>-0.1348781595476662</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.196174925523536</v>
+        <v>-3.196264095958233</v>
       </c>
       <c r="G188">
         <v>-0.1285647381600822</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.165705596181808</v>
+        <v>-3.165892913781091</v>
       </c>
       <c r="G194">
         <v>-0.09957314017978303</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.154090072665406</v>
+        <v>-3.154694391223262</v>
       </c>
       <c r="G196">
         <v>-0.09746954574251865</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.143827441834141</v>
+        <v>-3.143916612268837</v>
       </c>
       <c r="G198">
         <v>-0.09063213989189406</v>
@@ -5084,7 +5084,7 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.109487207469137</v>
+        <v>-3.109576377903835</v>
       </c>
       <c r="G204">
         <v>-0.06853711262301504</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-3.450747757291689</v>
+        <v>-3.453635140769645</v>
       </c>
       <c r="G221">
         <v>-0.0683567336496953</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-3.498223947086537</v>
+        <v>-3.498759291638731</v>
       </c>
       <c r="G222">
         <v>-0.1272041082830486</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.288900723113632</v>
+        <v>-3.289038223651933</v>
       </c>
       <c r="G228">
         <v>-0.1098935863600984</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-3.550261960062457</v>
+        <v>-3.551565660778712</v>
       </c>
       <c r="G233">
         <v>-0.1094996001512882</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.546950400261686</v>
+        <v>-3.549372260362651</v>
       </c>
       <c r="G234">
         <v>-0.1324936328895352</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.51657924830859</v>
+        <v>-3.516786106084883</v>
       </c>
       <c r="G236">
         <v>-0.1539080654618417</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.480575700030062</v>
+        <v>-3.480878774780725</v>
       </c>
       <c r="G237">
         <v>-0.1532728177218672</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.601076490031761</v>
+        <v>-3.601885681501344</v>
       </c>
       <c r="G246">
         <v>-0.1396545519400081</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.561473773757928</v>
+        <v>-3.562389194763612</v>
       </c>
       <c r="G247">
         <v>-0.1515897731992562</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.513661946763981</v>
+        <v>-3.513747813782856</v>
       </c>
       <c r="G248">
         <v>-0.1428830840997626</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.600382309580585</v>
+        <v>-3.600433569886828</v>
       </c>
       <c r="G254">
         <v>-0.04992046283838159</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.620815515683325</v>
+        <v>-3.620914333945928</v>
       </c>
       <c r="G255">
         <v>-0.09131248093877486</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.621767690297197</v>
+        <v>-3.631659610232927</v>
       </c>
       <c r="G257">
         <v>-0.1340149937478867</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.58054310001445</v>
+        <v>-3.580567854129237</v>
       </c>
       <c r="G258">
         <v>-0.1416512404034835</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.540984566425637</v>
+        <v>-3.541484825729917</v>
       </c>
       <c r="G259">
         <v>-0.1332091179848487</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.490152088682049</v>
+        <v>-3.490273259671118</v>
       </c>
       <c r="G260">
         <v>-0.1202015328791342</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.625893799373868</v>
+        <v>-3.6263060711898</v>
       </c>
       <c r="G265">
         <v>-0.05180063063708751</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.640413019611778</v>
+        <v>-3.641092695662286</v>
       </c>
       <c r="G266">
         <v>-0.08778218844965346</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.648650445159416</v>
+        <v>-3.653274052963564</v>
       </c>
       <c r="G267">
         <v>-0.1136555445340068</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.636534180483225</v>
+        <v>-3.643065236538322</v>
       </c>
       <c r="G268">
         <v>-0.1344672621280671</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.607688031948528</v>
+        <v>-3.613114339041386</v>
       </c>
       <c r="G269">
         <v>-0.1349623791531021</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.568590549616089</v>
+        <v>-3.569105646584638</v>
       </c>
       <c r="G270">
         <v>-0.1309925599993087</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.513818264561325</v>
+        <v>-3.515140951558337</v>
       </c>
       <c r="G271">
         <v>-0.1157217160612052</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.646660509348909</v>
+        <v>-3.646815513009424</v>
       </c>
       <c r="G276">
         <v>-0.05023821599913392</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.66246163278088</v>
+        <v>-3.662796731392311</v>
       </c>
       <c r="G277">
         <v>-0.08584027946086792</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.660169587957068</v>
+        <v>-3.666133039800864</v>
       </c>
       <c r="G278">
         <v>-0.1127856253865165</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.645764315762032</v>
+        <v>-3.649934624120899</v>
       </c>
       <c r="G279">
         <v>-0.1260164769412162</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.622195376379684</v>
+        <v>-3.625409333635147</v>
       </c>
       <c r="G280">
         <v>-0.1335683577505475</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.582411526465713</v>
+        <v>-3.585950009644884</v>
       </c>
       <c r="G281">
         <v>-0.1237646501395271</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.468268391709471</v>
+        <v>-3.468468468260052</v>
       </c>
       <c r="G283">
         <v>-0.08501071415890449</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.662505098397937</v>
+        <v>-3.662597433154225</v>
       </c>
       <c r="G287">
         <v>-0.04870735684947647</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.673389180865456</v>
+        <v>-3.676645275470819</v>
       </c>
       <c r="G288">
         <v>-0.08268444736177516</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.672734372040193</v>
+        <v>-3.676240586565128</v>
       </c>
       <c r="G289">
         <v>-0.1082085672030799</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.658041505470925</v>
+        <v>-3.661815853280998</v>
       </c>
       <c r="G290">
         <v>-0.1235303181929979</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.596923147439703</v>
+        <v>-3.600155317069476</v>
       </c>
       <c r="G292">
         <v>-0.1216636961196143</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.546416154189119</v>
+        <v>-3.546484441395704</v>
       </c>
       <c r="G293">
         <v>-0.1066440740077581</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.153460822547058</v>
+        <v>-3.154653213208857</v>
       </c>
       <c r="G50">
         <v>-0.2220161285488045</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-3.137823167914558</v>
+        <v>-3.141466069320209</v>
       </c>
       <c r="G51">
         <v>-0.2207577718812224</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-3.35065255953292</v>
+        <v>-3.35220601022615</v>
       </c>
       <c r="G83">
         <v>-0.06917071038399492</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.377366891456637</v>
+        <v>-3.378426918113572</v>
       </c>
       <c r="G90">
         <v>-0.1115911232726985</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-3.408845776635839</v>
+        <v>-3.409796986442543</v>
       </c>
       <c r="G98">
         <v>-0.1289187896007187</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-3.409029650029237</v>
+        <v>-3.410952609771476</v>
       </c>
       <c r="G103">
         <v>-0.1348156473416737</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-3.424529631321033</v>
+        <v>-3.424987417091454</v>
       </c>
       <c r="G107">
         <v>-0.1543716494105367</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-3.416382471003694</v>
+        <v>-3.418345817068026</v>
       </c>
       <c r="G125">
         <v>-0.1757630881946484</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-3.420889410914565</v>
+        <v>-3.421098510418089</v>
       </c>
       <c r="G126">
         <v>-0.1916663139684158</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-3.407883036889971</v>
+        <v>-3.408765242669211</v>
       </c>
       <c r="G129">
         <v>-0.175142848878882</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.394684730126925</v>
+        <v>-3.396953045092643</v>
       </c>
       <c r="G137">
         <v>-0.182706651262611</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.374306502736857</v>
+        <v>-3.375000471590211</v>
       </c>
       <c r="G144">
         <v>-0.1873894903240181</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.365317190672195</v>
+        <v>-3.366076406524129</v>
       </c>
       <c r="G146">
         <v>-0.1921146943190786</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.356122281295392</v>
+        <v>-3.356615705331674</v>
       </c>
       <c r="G149">
         <v>-0.1824276822746946</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.331730294152274</v>
+        <v>-3.331977537012194</v>
       </c>
       <c r="G156">
         <v>-0.185152398616875</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.328431743179401</v>
+        <v>-3.328744883553391</v>
       </c>
       <c r="G158">
         <v>-0.1763678295901017</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.321011267657633</v>
+        <v>-3.321294281627644</v>
       </c>
       <c r="G159">
         <v>-0.1855295384958866</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.309263756836681</v>
+        <v>-3.314018154579033</v>
       </c>
       <c r="G162">
         <v>-0.1673574130722626</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.301292494653099</v>
+        <v>-3.301967301964156</v>
       </c>
       <c r="G164">
         <v>-0.1708946803978508</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.225212699265273</v>
+        <v>-3.225395358106223</v>
       </c>
       <c r="G182">
         <v>-0.1444403858359941</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.216621114577736</v>
+        <v>-3.217296593099757</v>
       </c>
       <c r="G184">
         <v>-0.1348781595476662</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.183218800371353</v>
+        <v>-3.18330797080605</v>
       </c>
       <c r="G191">
         <v>-0.1107533542000132</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.175993698592579</v>
+        <v>-3.176916590629209</v>
       </c>
       <c r="G192">
         <v>-0.10358303269086</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.154694391223262</v>
+        <v>-3.154783561657958</v>
       </c>
       <c r="G196">
         <v>-0.09746954574251865</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.148826109946333</v>
+        <v>-3.149838172417659</v>
       </c>
       <c r="G197">
         <v>-0.0968452698596089</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.143916612268837</v>
+        <v>-3.144005782703533</v>
       </c>
       <c r="G198">
         <v>-0.09063213989189406</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.137833275747837</v>
+        <v>-3.137922446182534</v>
       </c>
       <c r="G199">
         <v>-0.08715968617755404</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.132074977726777</v>
+        <v>-3.132164148161474</v>
       </c>
       <c r="G200">
         <v>-0.09223813899522659</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.115185098653424</v>
+        <v>-3.11536343952282</v>
       </c>
       <c r="G203">
         <v>-0.07516505660801159</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-3.453635140769645</v>
+        <v>-3.456380167193139</v>
       </c>
       <c r="G221">
         <v>-0.0683567336496953</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.492254115884029</v>
+        <v>-3.49268990830685</v>
       </c>
       <c r="G224">
         <v>-0.1598427874999229</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.476079015660526</v>
+        <v>-3.476977059142459</v>
       </c>
       <c r="G225">
         <v>-0.1824690399689151</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.289038223651933</v>
+        <v>-3.290071421205587</v>
       </c>
       <c r="G228">
         <v>-0.1098935863600984</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-3.524536394082353</v>
+        <v>-3.525341176734517</v>
       </c>
       <c r="G232">
         <v>-0.06367010794840011</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-3.551565660778712</v>
+        <v>-3.551814908268169</v>
       </c>
       <c r="G233">
         <v>-0.1094996001512882</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.549372260362651</v>
+        <v>-3.549514728934179</v>
       </c>
       <c r="G234">
         <v>-0.1324936328895352</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.556012789047096</v>
+        <v>-3.556780741243709</v>
       </c>
       <c r="G235">
         <v>-0.1524054736928764</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.516786106084883</v>
+        <v>-3.517432778698861</v>
       </c>
       <c r="G236">
         <v>-0.1539080654618417</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.480878774780725</v>
+        <v>-3.4814292522867</v>
       </c>
       <c r="G237">
         <v>-0.1532728177218672</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.599820970244835</v>
+        <v>-3.600802250919257</v>
       </c>
       <c r="G245">
         <v>-0.1199708575774574</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.601885681501344</v>
+        <v>-3.602617385673787</v>
       </c>
       <c r="G246">
         <v>-0.1396545519400081</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.562389194763612</v>
+        <v>-3.562480199916579</v>
       </c>
       <c r="G247">
         <v>-0.1515897731992562</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.45889041380284</v>
+        <v>-3.458968998129313</v>
       </c>
       <c r="G249">
         <v>-0.1244674601128246</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.396944368536094</v>
+        <v>-3.396981152518116</v>
       </c>
       <c r="G250">
         <v>-0.09590800071936123</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.620914333945928</v>
+        <v>-3.621487430355227</v>
       </c>
       <c r="G255">
         <v>-0.09131248093877486</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.631659610232927</v>
+        <v>-3.631710870539169</v>
       </c>
       <c r="G257">
         <v>-0.1340149937478867</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.580567854129237</v>
+        <v>-3.580690637515025</v>
       </c>
       <c r="G258">
         <v>-0.1416512404034835</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.541484825729917</v>
+        <v>-3.541718626810435</v>
       </c>
       <c r="G259">
         <v>-0.1332091179848487</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.6263060711898</v>
+        <v>-3.626376594605778</v>
       </c>
       <c r="G265">
         <v>-0.05180063063708751</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.641092695662286</v>
+        <v>-3.641160672250318</v>
       </c>
       <c r="G266">
         <v>-0.08778218844965346</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.653274052963564</v>
+        <v>-3.653477261071203</v>
       </c>
       <c r="G267">
         <v>-0.1136555445340068</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.643065236538322</v>
+        <v>-3.64945139327123</v>
       </c>
       <c r="G268">
         <v>-0.1344672621280671</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.613114339041386</v>
+        <v>-3.614885165927495</v>
       </c>
       <c r="G269">
         <v>-0.1349623791531021</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.515140951558337</v>
+        <v>-3.515857845455814</v>
       </c>
       <c r="G271">
         <v>-0.1157217160612052</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.450125577162325</v>
+        <v>-3.450165630659544</v>
       </c>
       <c r="G272">
         <v>-0.08907625935839281</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.662796731392311</v>
+        <v>-3.662968096052582</v>
       </c>
       <c r="G277">
         <v>-0.08584027946086792</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.666133039800864</v>
+        <v>-3.669776877161748</v>
       </c>
       <c r="G278">
         <v>-0.1127856253865165</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.649934624120899</v>
+        <v>-3.654608545534774</v>
       </c>
       <c r="G279">
         <v>-0.1260164769412162</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.625409333635147</v>
+        <v>-3.629810561723101</v>
       </c>
       <c r="G280">
         <v>-0.1335683577505475</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.585950009644884</v>
+        <v>-3.586046170072671</v>
       </c>
       <c r="G281">
         <v>-0.1237646501395271</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.533432120910382</v>
+        <v>-3.533654874808775</v>
       </c>
       <c r="G282">
         <v>-0.1097682930530783</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.468468468260052</v>
+        <v>-3.46849718559842</v>
       </c>
       <c r="G283">
         <v>-0.08501071415890449</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.662597433154225</v>
+        <v>-3.662634908397489</v>
       </c>
       <c r="G287">
         <v>-0.04870735684947647</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.676645275470819</v>
+        <v>-3.679009584763559</v>
       </c>
       <c r="G288">
         <v>-0.08268444736177516</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.676240586565128</v>
+        <v>-3.680384132044963</v>
       </c>
       <c r="G289">
         <v>-0.1082085672030799</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.661815853280998</v>
+        <v>-3.665232408445341</v>
       </c>
       <c r="G290">
         <v>-0.1235303181929979</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.631747326963702</v>
+        <v>-3.631780910610614</v>
       </c>
       <c r="G291">
         <v>-0.1258029144278809</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.600155317069476</v>
+        <v>-3.602718073275186</v>
       </c>
       <c r="G292">
         <v>-0.1216636961196143</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.546484441395704</v>
+        <v>-3.546540497859262</v>
       </c>
       <c r="G293">
         <v>-0.1066440740077581</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.484721573868963</v>
+        <v>-3.484765866545152</v>
       </c>
       <c r="G294">
         <v>-0.08312901273368389</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-3.239416881127622</v>
+        <v>-3.246375120509501</v>
       </c>
       <c r="G26">
         <v>-0.1737266100757977</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-3.256997285079152</v>
+        <v>-3.262134575157149</v>
       </c>
       <c r="G29">
         <v>-0.2161337419065972</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.247178950479726</v>
+        <v>-3.251471176726751</v>
       </c>
       <c r="G38">
         <v>-0.2259737070362386</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-3.23478213486562</v>
+        <v>-3.23764565135306</v>
       </c>
       <c r="G40">
         <v>-0.2417812525160432</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-3.171827037966305</v>
+        <v>-3.172541392846098</v>
       </c>
       <c r="G48">
         <v>-0.2089250705634222</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-3.163001107696576</v>
+        <v>-3.163479143478585</v>
       </c>
       <c r="G49">
         <v>-0.2231893618386069</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-3.141466069320209</v>
+        <v>-3.145590963841342</v>
       </c>
       <c r="G51">
         <v>-0.2207577718812224</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.124533961246978</v>
+        <v>-3.127466465106311</v>
       </c>
       <c r="G53">
         <v>-0.2055444208970374</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.097615908267422</v>
+        <v>-3.100000689591017</v>
       </c>
       <c r="G55">
         <v>-0.1969848135932898</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-3.349121933240415</v>
+        <v>-3.353709106735715</v>
       </c>
       <c r="G82">
         <v>-0.08325205550603965</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-3.35220601022615</v>
+        <v>-3.359010342066104</v>
       </c>
       <c r="G83">
         <v>-0.06917071038399492</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-3.355955747182223</v>
+        <v>-3.364311577396493</v>
       </c>
       <c r="G84">
         <v>-0.08491722856037542</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-3.367269988490946</v>
+        <v>-3.369182512822797</v>
       </c>
       <c r="G85">
         <v>-0.08008688298158706</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-3.362033873528266</v>
+        <v>-3.374053448249097</v>
       </c>
       <c r="G86">
         <v>-0.09128144021679141</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-3.364813611452816</v>
+        <v>-3.378924383675396</v>
       </c>
       <c r="G87">
         <v>-0.09997524443083616</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-3.380400570342097</v>
+        <v>-3.383795319101689</v>
       </c>
       <c r="G88">
         <v>-0.09568951706089868</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-3.372126827939522</v>
+        <v>-3.388666254527988</v>
       </c>
       <c r="G89">
         <v>-0.1016441868778286</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.378426918113572</v>
+        <v>-3.392054965526536</v>
       </c>
       <c r="G90">
         <v>-0.1115911232726985</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-3.374876946874504</v>
+        <v>-3.395443676525089</v>
       </c>
       <c r="G91">
         <v>-0.1146741811878647</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-3.379625888497094</v>
+        <v>-3.398832387523628</v>
       </c>
       <c r="G92">
         <v>-0.1135572701637408</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-3.387558032591784</v>
+        <v>-3.402221098522172</v>
       </c>
       <c r="G93">
         <v>-0.1068269036511351</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-3.388040638998448</v>
+        <v>-3.405609809520716</v>
       </c>
       <c r="G94">
         <v>-0.1123951760391328</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-3.3967534097281</v>
+        <v>-3.408998520519257</v>
       </c>
       <c r="G95">
         <v>-0.1295456592916011</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-3.405555413811518</v>
+        <v>-3.412387231517801</v>
       </c>
       <c r="G96">
         <v>-0.1399334333968039</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-3.410581453314329</v>
+        <v>-3.415775942516345</v>
       </c>
       <c r="G97">
         <v>-0.1148696831307214</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-3.409796986442543</v>
+        <v>-3.419164653514888</v>
       </c>
       <c r="G98">
         <v>-0.1289187896007187</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-3.404792331732675</v>
+        <v>-3.42255336451343</v>
       </c>
       <c r="G99">
         <v>-0.1225944236811123</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-3.407929078309305</v>
+        <v>-3.42400401763271</v>
       </c>
       <c r="G100">
         <v>-0.1220903446564487</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-3.413052841253143</v>
+        <v>-3.425454670751989</v>
       </c>
       <c r="G101">
         <v>-0.130825857071712</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-3.409581401383034</v>
+        <v>-3.426905323871268</v>
       </c>
       <c r="G102">
         <v>-0.1378715241415578</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-3.410952609771476</v>
+        <v>-3.428355976990547</v>
       </c>
       <c r="G103">
         <v>-0.1348156473416737</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-3.414450810682296</v>
+        <v>-3.429806630109827</v>
       </c>
       <c r="G104">
         <v>-0.143866073340674</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-3.422356476545646</v>
+        <v>-3.430845784684962</v>
       </c>
       <c r="G105">
         <v>-0.1511164409519146</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-3.430806461066061</v>
+        <v>-3.431884939260098</v>
       </c>
       <c r="G106">
         <v>-0.1307009955620728</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-3.424987417091454</v>
+        <v>-3.432924093835232</v>
       </c>
       <c r="G107">
         <v>-0.1543716494105367</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-3.425103157036734</v>
+        <v>-3.433963248410367</v>
       </c>
       <c r="G108">
         <v>-0.145929133688691</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-3.427319621003846</v>
+        <v>-3.434746921879756</v>
       </c>
       <c r="G109">
         <v>-0.1627471456538743</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-3.432427179511175</v>
+        <v>-3.43529265241861</v>
       </c>
       <c r="G110">
         <v>-0.1599365540498612</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-3.433458213342063</v>
+        <v>-3.435838382957464</v>
       </c>
       <c r="G111">
         <v>-0.1528076733315982</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-3.426339418497301</v>
+        <v>-3.435890689460038</v>
       </c>
       <c r="G112">
         <v>-0.1555852515436649</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-3.42830424933172</v>
+        <v>-3.435942995962611</v>
       </c>
       <c r="G113">
         <v>-0.1781339746901689</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-3.432820865935389</v>
+        <v>-3.435995302465183</v>
       </c>
       <c r="G114">
         <v>-0.1581768862147732</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-3.431489785727089</v>
+        <v>-3.436047608967755</v>
       </c>
       <c r="G115">
         <v>-0.1588296295445719</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-3.423496570087788</v>
+        <v>-3.435962356122285</v>
       </c>
       <c r="G116">
         <v>-0.176803587748886</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-3.427657508938579</v>
+        <v>-3.435877103276817</v>
       </c>
       <c r="G117">
         <v>-0.1635061699543621</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-3.430304428678395</v>
+        <v>-3.435791850431346</v>
       </c>
       <c r="G118">
         <v>-0.1584732655076091</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-3.430220392175171</v>
+        <v>-3.43570659758588</v>
       </c>
       <c r="G119">
         <v>-0.175825059800629</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-3.422552203153189</v>
+        <v>-3.435158533896121</v>
       </c>
       <c r="G120">
         <v>-0.1748097469282812</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-3.425803169821137</v>
+        <v>-3.434610470206362</v>
       </c>
       <c r="G121">
         <v>-0.1830985503223639</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-3.421453714532021</v>
+        <v>-3.433599595672309</v>
       </c>
       <c r="G122">
         <v>-0.1598091184388548</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-3.415406942934897</v>
+        <v>-3.432588721138258</v>
       </c>
       <c r="G123">
         <v>-0.1837511463174275</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-3.420803310112217</v>
+        <v>-3.431577846604205</v>
       </c>
       <c r="G124">
         <v>-0.1842240379997278</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-3.418345817068026</v>
+        <v>-3.430566972070152</v>
       </c>
       <c r="G125">
         <v>-0.1757630881946484</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-3.421098510418089</v>
+        <v>-3.428653014097425</v>
       </c>
       <c r="G126">
         <v>-0.1916663139684158</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-3.408569648477553</v>
+        <v>-3.426739056124698</v>
       </c>
       <c r="G127">
         <v>-0.1843595482762708</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-3.408063545510836</v>
+        <v>-3.424825098151971</v>
       </c>
       <c r="G128">
         <v>-0.1881177396272391</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-3.408765242669211</v>
+        <v>-3.422911140179243</v>
       </c>
       <c r="G129">
         <v>-0.175142848878882</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-3.403902446737506</v>
+        <v>-3.420997182206516</v>
       </c>
       <c r="G130">
         <v>-0.1776965354725037</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-3.406737180011726</v>
+        <v>-3.419083224233789</v>
       </c>
       <c r="G131">
         <v>-0.1665166473690183</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-3.405039944237531</v>
+        <v>-3.417169266261062</v>
       </c>
       <c r="G132">
         <v>-0.1860494721174757</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-3.400055963371162</v>
+        <v>-3.415255308288335</v>
       </c>
       <c r="G133">
         <v>-0.1897398034409017</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-3.398794652215288</v>
+        <v>-3.413341350315608</v>
       </c>
       <c r="G134">
         <v>-0.1781817297802391</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-3.39869439943562</v>
+        <v>-3.411427392342881</v>
       </c>
       <c r="G135">
         <v>-0.1818723554184607</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-3.396402503187317</v>
+        <v>-3.408757097558301</v>
       </c>
       <c r="G136">
         <v>-0.2032172179817222</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.396953045092643</v>
+        <v>-3.40608680277372</v>
       </c>
       <c r="G137">
         <v>-0.182706651262611</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.392369982454565</v>
+        <v>-3.402695451732231</v>
       </c>
       <c r="G138">
         <v>-0.1988933581136971</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.389504529578548</v>
+        <v>-3.39903830887509</v>
       </c>
       <c r="G139">
         <v>-0.1942238210479517</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.386968972269207</v>
+        <v>-3.39591274964925</v>
       </c>
       <c r="G140">
         <v>-0.1859202832512676</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.385695264878605</v>
+        <v>-3.392255606792108</v>
       </c>
       <c r="G141">
         <v>-0.1873454259227154</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.379516993550525</v>
+        <v>-3.389130047566267</v>
       </c>
       <c r="G142">
         <v>-0.1934792086007699</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.376996793498892</v>
+        <v>-3.385738696524776</v>
       </c>
       <c r="G143">
         <v>-0.2089038641901428</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.375000471590211</v>
+        <v>-3.382081553667634</v>
       </c>
       <c r="G144">
         <v>-0.1873894903240181</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.369668302382693</v>
+        <v>-3.378955994441792</v>
       </c>
       <c r="G145">
         <v>-0.1989491221359774</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.366076406524129</v>
+        <v>-3.375564643400301</v>
       </c>
       <c r="G146">
         <v>-0.1921146943190786</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.363101502374493</v>
+        <v>-3.37190750054316</v>
       </c>
       <c r="G147">
         <v>-0.1895270660341437</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-3.359189612490828</v>
+        <v>-3.368761734083757</v>
       </c>
       <c r="G148">
         <v>-0.1753419984935505</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.356615705331674</v>
+        <v>-3.365104591226614</v>
       </c>
       <c r="G149">
         <v>-0.1824276822746946</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.355747737789049</v>
+        <v>-3.361938617533648</v>
       </c>
       <c r="G150">
         <v>-0.1663332152051427</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.352228335522394</v>
+        <v>-3.358527059258593</v>
       </c>
       <c r="G151">
         <v>-0.1891949319087665</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.346526254866567</v>
+        <v>-3.35486991640145</v>
       </c>
       <c r="G152">
         <v>-0.2034758282977966</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.344604466392027</v>
+        <v>-3.351212773544306</v>
       </c>
       <c r="G153">
         <v>-0.178144165636319</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.341507954341812</v>
+        <v>-3.347555630687163</v>
       </c>
       <c r="G154">
         <v>-0.1737963502552471</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.332571949820299</v>
+        <v>-3.343898487830022</v>
       </c>
       <c r="G155">
         <v>-0.1682034161529027</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.331977537012194</v>
+        <v>-3.340111358697114</v>
       </c>
       <c r="G156">
         <v>-0.185152398616875</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.329517830140341</v>
+        <v>-3.335827856699735</v>
       </c>
       <c r="G157">
         <v>-0.1739005630841515</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.328744883553391</v>
+        <v>-3.332486803044771</v>
       </c>
       <c r="G158">
         <v>-0.1763678295901017</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.321294281627644</v>
+        <v>-3.328649376525334</v>
       </c>
       <c r="G159">
         <v>-0.1855295384958866</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.320443749766544</v>
+        <v>-3.324811950005899</v>
       </c>
       <c r="G160">
         <v>-0.1852631309276542</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.315847349914711</v>
+        <v>-3.320974523486464</v>
       </c>
       <c r="G161">
         <v>-0.1804157830544784</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.314018154579033</v>
+        <v>-3.317137096967029</v>
       </c>
       <c r="G162">
         <v>-0.1673574130722626</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.307490519460533</v>
+        <v>-3.313299670447597</v>
       </c>
       <c r="G163">
         <v>-0.1745466153359638</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.301967301964156</v>
+        <v>-3.309462243928162</v>
       </c>
       <c r="G164">
         <v>-0.1708946803978508</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.295500704971605</v>
+        <v>-3.305725412181778</v>
       </c>
       <c r="G165">
         <v>-0.1750166787471821</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.295046935799396</v>
+        <v>-3.301391612797876</v>
       </c>
       <c r="G166">
         <v>-0.169404221153211</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.290622586515872</v>
+        <v>-3.298050559142908</v>
       </c>
       <c r="G167">
         <v>-0.1720635165400171</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.285792181869756</v>
+        <v>-3.293817354532056</v>
       </c>
       <c r="G168">
         <v>-0.1533731171818609</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.282186816589732</v>
+        <v>-3.290375706104039</v>
       </c>
       <c r="G169">
         <v>-0.1666172150160337</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.276957631474528</v>
+        <v>-3.285964051179708</v>
       </c>
       <c r="G170">
         <v>-0.1591998068463625</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.272812814976036</v>
+        <v>-3.280933673825302</v>
       </c>
       <c r="G171">
         <v>-0.162247025481371</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.268925143700635</v>
+        <v>-3.278193385544792</v>
       </c>
       <c r="G172">
         <v>-0.156846537646669</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.266574659675033</v>
+        <v>-3.2737551936509</v>
       </c>
       <c r="G173">
         <v>-0.1579359726367138</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.262463143362011</v>
+        <v>-3.269134998260132</v>
       </c>
       <c r="G174">
         <v>-0.1526382829107171</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.255186691836889</v>
+        <v>-3.262473099495792</v>
       </c>
       <c r="G175">
         <v>-0.1570901930021121</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.252345670218735</v>
+        <v>-3.259894607478594</v>
       </c>
       <c r="G176">
         <v>-0.1491482307681697</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.24675010450867</v>
+        <v>-3.253972286565861</v>
       </c>
       <c r="G177">
         <v>-0.1575453968462781</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.242129253773831</v>
+        <v>-3.250212504922889</v>
       </c>
       <c r="G178">
         <v>-0.1459788696264397</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.237437243074822</v>
+        <v>-3.245521769790058</v>
       </c>
       <c r="G179">
         <v>-0.146639129525026</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.233549959432683</v>
+        <v>-3.239157737103155</v>
       </c>
       <c r="G180">
         <v>-0.1434636338204203</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.229842122231365</v>
+        <v>-3.23402032213717</v>
       </c>
       <c r="G181">
         <v>-0.144423980790923</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.225395358106223</v>
+        <v>-3.22894043436703</v>
       </c>
       <c r="G182">
         <v>-0.1444403858359941</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.218365884993</v>
+        <v>-3.223849763604172</v>
       </c>
       <c r="G183">
         <v>-0.1427617373379741</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.217296593099757</v>
+        <v>-3.219978512949743</v>
       </c>
       <c r="G184">
         <v>-0.1348781595476662</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.210032026683646</v>
+        <v>-3.214916605784807</v>
       </c>
       <c r="G185">
         <v>-0.1227696673917965</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.205838286710128</v>
+        <v>-3.209807954416743</v>
       </c>
       <c r="G186">
         <v>-0.1300185304959197</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.200990964660113</v>
+        <v>-3.204623795247632</v>
       </c>
       <c r="G187">
         <v>-0.1303346798233985</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.196264095958233</v>
+        <v>-3.199590651680619</v>
       </c>
       <c r="G188">
         <v>-0.1285647381600822</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.191490815844817</v>
+        <v>-3.194453236714633</v>
       </c>
       <c r="G189">
         <v>-0.1221446150826729</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.185818856042483</v>
+        <v>-3.188061856537793</v>
       </c>
       <c r="G190">
         <v>-0.1197072866485669</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.18330797080605</v>
+        <v>-3.184133078687518</v>
       </c>
       <c r="G191">
         <v>-0.1107533542000132</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.176916590629209</v>
+        <v>-3.178995663721531</v>
       </c>
       <c r="G192">
         <v>-0.10358303269086</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.171067706065466</v>
+        <v>-3.17260428354469</v>
       </c>
       <c r="G193">
         <v>-0.1063937203348151</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.165892913781091</v>
+        <v>-3.167421540483562</v>
       </c>
       <c r="G194">
         <v>-0.09957314017978303</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.15987713428439</v>
+        <v>-3.162284125517574</v>
       </c>
       <c r="G195">
         <v>-0.1056193212011708</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.154783561657958</v>
+        <v>-3.156497063898589</v>
       </c>
       <c r="G196">
         <v>-0.09746954574251865</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.149838172417659</v>
+        <v>-3.150710002279605</v>
       </c>
       <c r="G197">
         <v>-0.0968452698596089</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.144005782703533</v>
+        <v>-3.144833770225924</v>
       </c>
       <c r="G198">
         <v>-0.09063213989189406</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.137922446182534</v>
+        <v>-3.138957538172243</v>
       </c>
       <c r="G199">
         <v>-0.08715968617755404</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.132164148161474</v>
+        <v>-3.133081306118562</v>
       </c>
       <c r="G200">
         <v>-0.09223813899522659</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.127115903630184</v>
+        <v>-3.127205074064881</v>
       </c>
       <c r="G201">
         <v>-0.08382202168800468</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.121239671576502</v>
+        <v>-3.121328842011199</v>
       </c>
       <c r="G202">
         <v>-0.0779230524835573</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.11536343952282</v>
+        <v>-3.115452609957517</v>
       </c>
       <c r="G203">
         <v>-0.07516505660801159</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-3.456380167193139</v>
+        <v>-3.477679058580017</v>
       </c>
       <c r="G221">
         <v>-0.0683567336496953</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-3.498759291638731</v>
+        <v>-3.517998846464646</v>
       </c>
       <c r="G222">
         <v>-0.1272041082830486</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-3.512746184054146</v>
+        <v>-3.531654341304324</v>
       </c>
       <c r="G223">
         <v>-0.1383220256511128</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.49268990830685</v>
+        <v>-3.517112099411067</v>
       </c>
       <c r="G224">
         <v>-0.1598427874999229</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.476977059142459</v>
+        <v>-3.48199879821635</v>
       </c>
       <c r="G225">
         <v>-0.1824690399689151</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.41683062528953</v>
+        <v>-3.432347545389617</v>
       </c>
       <c r="G226">
         <v>-0.1698500895426602</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.357931575278279</v>
+        <v>-3.371839455537045</v>
       </c>
       <c r="G227">
         <v>-0.1409850323665507</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.290071421205587</v>
+        <v>-3.303539482499337</v>
       </c>
       <c r="G228">
         <v>-0.1098935863600984</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.210910031589647</v>
+        <v>-3.215188105506606</v>
       </c>
       <c r="G229">
         <v>-0.06752272242388779</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-3.525341176734517</v>
+        <v>-3.544862674833108</v>
       </c>
       <c r="G232">
         <v>-0.06367010794840011</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-3.551814908268169</v>
+        <v>-3.579107414497092</v>
       </c>
       <c r="G233">
         <v>-0.1094996001512882</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.549514728934179</v>
+        <v>-3.59035941610411</v>
       </c>
       <c r="G234">
         <v>-0.1324936328895352</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.556780741243709</v>
+        <v>-3.5765428953554</v>
       </c>
       <c r="G235">
         <v>-0.1524054736928764</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.517432778698861</v>
+        <v>-3.541836139908808</v>
       </c>
       <c r="G236">
         <v>-0.1539080654618417</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.4814292522867</v>
+        <v>-3.491920292298855</v>
       </c>
       <c r="G237">
         <v>-0.1532728177218672</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.419422554187102</v>
+        <v>-3.433165563415725</v>
       </c>
       <c r="G238">
         <v>-0.1277517286316281</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.354418408253722</v>
+        <v>-3.363701236119961</v>
       </c>
       <c r="G239">
         <v>-0.1018558031634939</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.275700649094512</v>
+        <v>-3.281632334263421</v>
       </c>
       <c r="G240">
         <v>-0.06062802482385499</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-3.570536380760595</v>
+        <v>-3.590369494347905</v>
       </c>
       <c r="G243">
         <v>-0.05546468414183092</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.590321433278569</v>
+        <v>-3.619820772789155</v>
       </c>
       <c r="G244">
         <v>-0.09516203124752831</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.600802250919257</v>
+        <v>-3.62840365010051</v>
       </c>
       <c r="G245">
         <v>-0.1199708575774574</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.602617385673787</v>
+        <v>-3.61429775599076</v>
       </c>
       <c r="G246">
         <v>-0.1396545519400081</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.562480199916579</v>
+        <v>-3.582167060743044</v>
       </c>
       <c r="G247">
         <v>-0.1515897731992562</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.513747813782856</v>
+        <v>-3.534476571115426</v>
       </c>
       <c r="G248">
         <v>-0.1428830840997626</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.458968998129313</v>
+        <v>-3.476996440358511</v>
       </c>
       <c r="G249">
         <v>-0.1244674601128246</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.396981152518116</v>
+        <v>-3.406888311183707</v>
       </c>
       <c r="G250">
         <v>-0.09590800071936123</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.322503860871483</v>
+        <v>-3.327675088402592</v>
       </c>
       <c r="G251">
         <v>-0.0569945247896998</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.600433569886828</v>
+        <v>-3.623878410545022</v>
       </c>
       <c r="G254">
         <v>-0.04992046283838159</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.621487430355227</v>
+        <v>-3.649620408168238</v>
       </c>
       <c r="G255">
         <v>-0.09131248093877486</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.611981141625151</v>
+        <v>-3.657019106253768</v>
       </c>
       <c r="G256">
         <v>-0.1167741243921592</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.631710870539169</v>
+        <v>-3.642771804091536</v>
       </c>
       <c r="G257">
         <v>-0.1340149937478867</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.580690637515025</v>
+        <v>-3.610859849349753</v>
       </c>
       <c r="G258">
         <v>-0.1416512404034835</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.541718626810435</v>
+        <v>-3.564494999497953</v>
       </c>
       <c r="G259">
         <v>-0.1332091179848487</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.490273259671118</v>
+        <v>-3.507529287869902</v>
       </c>
       <c r="G260">
         <v>-0.1202015328791342</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.427879325927404</v>
+        <v>-3.438028897412917</v>
       </c>
       <c r="G261">
         <v>-0.09243172618699924</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.356049594936271</v>
+        <v>-3.360317416237682</v>
       </c>
       <c r="G262">
         <v>-0.05412565985107215</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.626376594605778</v>
+        <v>-3.649632027712891</v>
       </c>
       <c r="G265">
         <v>-0.05180063063708751</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.641160672250318</v>
+        <v>-3.671497944125919</v>
       </c>
       <c r="G266">
         <v>-0.08778218844965346</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.653477261071203</v>
+        <v>-3.677645941832106</v>
       </c>
       <c r="G267">
         <v>-0.1136555445340068</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.64945139327123</v>
+        <v>-3.663714149220207</v>
       </c>
       <c r="G268">
         <v>-0.1344672621280671</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.614885165927495</v>
+        <v>-3.632846213392509</v>
       </c>
       <c r="G269">
         <v>-0.1349623791531021</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.569105646584638</v>
+        <v>-3.58676964839846</v>
       </c>
       <c r="G270">
         <v>-0.1309925599993087</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.515857845455814</v>
+        <v>-3.530899108843122</v>
       </c>
       <c r="G271">
         <v>-0.1157217160612052</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.450165630659544</v>
+        <v>-3.462908415009031</v>
       </c>
       <c r="G272">
         <v>-0.08907625935839281</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.381310845999874</v>
+        <v>-3.385850503929271</v>
       </c>
       <c r="G273">
         <v>-0.05116463791530251</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.646815513009424</v>
+        <v>-3.669415248188495</v>
       </c>
       <c r="G276">
         <v>-0.05023821599913392</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.662968096052582</v>
+        <v>-3.688731275939149</v>
       </c>
       <c r="G277">
         <v>-0.08584027946086792</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.669776877161748</v>
+        <v>-3.693944995974805</v>
       </c>
       <c r="G278">
         <v>-0.1127856253865165</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.654608545534774</v>
+        <v>-3.679722465668174</v>
       </c>
       <c r="G279">
         <v>-0.1260164769412162</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.629810561723101</v>
+        <v>-3.649056381436555</v>
       </c>
       <c r="G280">
         <v>-0.1335683577505475</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.586046170072671</v>
+        <v>-3.604778590319858</v>
       </c>
       <c r="G281">
         <v>-0.1237646501395271</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.533654874808775</v>
+        <v>-3.54827278095318</v>
       </c>
       <c r="G282">
         <v>-0.1097682930530783</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.46849718559842</v>
+        <v>-3.481110814708197</v>
       </c>
       <c r="G283">
         <v>-0.08501071415890449</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.400859203289268</v>
+        <v>-3.405520021154074</v>
       </c>
       <c r="G284">
         <v>-0.04979986560263572</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.662634908397489</v>
+        <v>-3.685047922230773</v>
       </c>
       <c r="G287">
         <v>-0.04870735684947647</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.679009584763559</v>
+        <v>-3.702618822843812</v>
       </c>
       <c r="G288">
         <v>-0.08268444736177516</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.680384132044963</v>
+        <v>-3.706735350847907</v>
       </c>
       <c r="G289">
         <v>-0.1082085672030799</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.665232408445341</v>
+        <v>-3.692238555208412</v>
       </c>
       <c r="G290">
         <v>-0.1235303181929979</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.631780910610614</v>
+        <v>-3.662580118778294</v>
       </c>
       <c r="G291">
         <v>-0.1258029144278809</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.602718073275186</v>
+        <v>-3.618627007512187</v>
       </c>
       <c r="G292">
         <v>-0.1216636961196143</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.546540497859262</v>
+        <v>-3.56338874063994</v>
       </c>
       <c r="G293">
         <v>-0.1066440740077581</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.484765866545152</v>
+        <v>-3.496610256653696</v>
       </c>
       <c r="G294">
         <v>-0.08312901273368389</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.417121195574439</v>
+        <v>-3.421192785206269</v>
       </c>
       <c r="G295">
         <v>-0.04822199031256436</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.619820772789155</v>
+        <v>-3.619840032473018</v>
       </c>
       <c r="G244">
         <v>-0.09516203124752831</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.61429775599076</v>
+        <v>-3.614419259720474</v>
       </c>
       <c r="G246">
         <v>-0.1396545519400081</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.582167060743044</v>
+        <v>-3.582334374965426</v>
       </c>
       <c r="G247">
         <v>-0.1515897731992562</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.534476571115426</v>
+        <v>-3.534594097662723</v>
       </c>
       <c r="G248">
         <v>-0.1428830840997626</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.476996440358511</v>
+        <v>-3.477094348534798</v>
       </c>
       <c r="G249">
         <v>-0.1244674601128246</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.327675088402592</v>
+        <v>-3.32775628145016</v>
       </c>
       <c r="G251">
         <v>-0.0569945247896998</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.649620408168238</v>
+        <v>-3.649716239780308</v>
       </c>
       <c r="G255">
         <v>-0.09131248093877486</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.657019106253768</v>
+        <v>-3.657118352155993</v>
       </c>
       <c r="G256">
         <v>-0.1167741243921592</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.642771804091536</v>
+        <v>-3.642839749689297</v>
       </c>
       <c r="G257">
         <v>-0.1340149937478867</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.610859849349753</v>
+        <v>-3.611210529179609</v>
       </c>
       <c r="G258">
         <v>-0.1416512404034835</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.564494999497953</v>
+        <v>-3.564585799819016</v>
       </c>
       <c r="G259">
         <v>-0.1332091179848487</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.507529287869902</v>
+        <v>-3.507888397564565</v>
       </c>
       <c r="G260">
         <v>-0.1202015328791342</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.360317416237682</v>
+        <v>-3.36040375790584</v>
       </c>
       <c r="G262">
         <v>-0.05412565985107215</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.649632027712891</v>
+        <v>-3.649694149635224</v>
       </c>
       <c r="G265">
         <v>-0.05180063063708751</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.671497944125919</v>
+        <v>-3.671551463355808</v>
       </c>
       <c r="G266">
         <v>-0.08778218844965346</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.677645941832106</v>
+        <v>-3.677805692104653</v>
       </c>
       <c r="G267">
         <v>-0.1136555445340068</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.663714149220207</v>
+        <v>-3.663865219752168</v>
       </c>
       <c r="G268">
         <v>-0.1344672621280671</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.632846213392509</v>
+        <v>-3.633243072697562</v>
       </c>
       <c r="G269">
         <v>-0.1349623791531021</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.58676964839846</v>
+        <v>-3.586923764744752</v>
       </c>
       <c r="G270">
         <v>-0.1309925599993087</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.530899108843122</v>
+        <v>-3.531093287450766</v>
       </c>
       <c r="G271">
         <v>-0.1157217160612052</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.462908415009031</v>
+        <v>-3.463034506370118</v>
       </c>
       <c r="G272">
         <v>-0.08907625935839281</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.385850503929271</v>
+        <v>-3.385983516310003</v>
       </c>
       <c r="G273">
         <v>-0.05116463791530251</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.669415248188495</v>
+        <v>-3.669571729428351</v>
       </c>
       <c r="G276">
         <v>-0.05023821599913392</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.688731275939149</v>
+        <v>-3.688769647865221</v>
       </c>
       <c r="G277">
         <v>-0.08584027946086792</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.693944995974805</v>
+        <v>-3.694204478244469</v>
       </c>
       <c r="G278">
         <v>-0.1127856253865165</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.679722465668174</v>
+        <v>-3.680070400590449</v>
       </c>
       <c r="G279">
         <v>-0.1260164769412162</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.649056381436555</v>
+        <v>-3.649281543401828</v>
       </c>
       <c r="G280">
         <v>-0.1335683577505475</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.604778590319858</v>
+        <v>-3.604966252475588</v>
       </c>
       <c r="G281">
         <v>-0.1237646501395271</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.54827278095318</v>
+        <v>-3.548373599053782</v>
       </c>
       <c r="G282">
         <v>-0.1097682930530783</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.481110814708197</v>
+        <v>-3.4813021777027</v>
       </c>
       <c r="G283">
         <v>-0.08501071415890449</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.405520021154074</v>
+        <v>-3.40562796183323</v>
       </c>
       <c r="G284">
         <v>-0.04979986560263572</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.685047922230773</v>
+        <v>-3.685207780670651</v>
       </c>
       <c r="G287">
         <v>-0.04870735684947647</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.702618822843812</v>
+        <v>-3.702697918961871</v>
       </c>
       <c r="G288">
         <v>-0.08268444736177516</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.706735350847907</v>
+        <v>-3.706917176793916</v>
       </c>
       <c r="G289">
         <v>-0.1082085672030799</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.692238555208412</v>
+        <v>-3.692451126335796</v>
       </c>
       <c r="G290">
         <v>-0.1235303181929979</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.662580118778294</v>
+        <v>-3.662842434051539</v>
       </c>
       <c r="G291">
         <v>-0.1258029144278809</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.618627007512187</v>
+        <v>-3.618891745276668</v>
       </c>
       <c r="G292">
         <v>-0.1216636961196143</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.56338874063994</v>
+        <v>-3.563604910389651</v>
       </c>
       <c r="G293">
         <v>-0.1066440740077581</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.496610256653696</v>
+        <v>-3.496654421333475</v>
       </c>
       <c r="G294">
         <v>-0.08312901273368389</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.421192785206269</v>
+        <v>-3.421314924972766</v>
       </c>
       <c r="G295">
         <v>-0.04822199031256436</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AuCu_data.xlsx
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.541836139908808</v>
+        <v>-3.541931462236128</v>
       </c>
       <c r="G236">
         <v>-0.1539080654618417</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.491920292298855</v>
+        <v>-3.492179760182002</v>
       </c>
       <c r="G237">
         <v>-0.1532728177218672</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-3.590369494347905</v>
+        <v>-3.590448078674377</v>
       </c>
       <c r="G243">
         <v>-0.05546468414183092</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.619840032473018</v>
+        <v>-3.619886309393694</v>
       </c>
       <c r="G244">
         <v>-0.09516203124752831</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.614419259720474</v>
+        <v>-3.614586180327686</v>
       </c>
       <c r="G246">
         <v>-0.1396545519400081</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.582334374965426</v>
+        <v>-3.582439357597061</v>
       </c>
       <c r="G247">
         <v>-0.1515897731992562</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.534594097662723</v>
+        <v>-3.534758469386814</v>
       </c>
       <c r="G248">
         <v>-0.1428830840997626</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.657118352155993</v>
+        <v>-3.657277006276071</v>
       </c>
       <c r="G256">
         <v>-0.1167741243921592</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.642839749689297</v>
+        <v>-3.643036025815297</v>
       </c>
       <c r="G257">
         <v>-0.1340149937478867</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.611210529179609</v>
+        <v>-3.611562817556573</v>
       </c>
       <c r="G258">
         <v>-0.1416512404034835</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.564585799819016</v>
+        <v>-3.564706380335726</v>
       </c>
       <c r="G259">
         <v>-0.1332091179848487</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.507888397564565</v>
+        <v>-3.508079344792175</v>
       </c>
       <c r="G260">
         <v>-0.1202015328791342</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.438028897412917</v>
+        <v>-3.438055666536471</v>
       </c>
       <c r="G261">
         <v>-0.09243172618699924</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.649694149635224</v>
+        <v>-3.649735266008912</v>
       </c>
       <c r="G265">
         <v>-0.05180063063708751</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.671551463355808</v>
+        <v>-3.671587978399606</v>
       </c>
       <c r="G266">
         <v>-0.08778218844965346</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.677805692104653</v>
+        <v>-3.678077664496279</v>
       </c>
       <c r="G267">
         <v>-0.1136555445340068</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.663865219752168</v>
+        <v>-3.66403672601238</v>
       </c>
       <c r="G268">
         <v>-0.1344672621280671</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.633243072697562</v>
+        <v>-3.633511764125487</v>
       </c>
       <c r="G269">
         <v>-0.1349623791531021</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.586923764744752</v>
+        <v>-3.587039644304685</v>
       </c>
       <c r="G270">
         <v>-0.1309925599993087</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.531093287450766</v>
+        <v>-3.531250827914281</v>
       </c>
       <c r="G271">
         <v>-0.1157217160612052</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.463034506370118</v>
+        <v>-3.463200661640859</v>
       </c>
       <c r="G272">
         <v>-0.08907625935839281</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.669571729428351</v>
+        <v>-3.669715397775066</v>
       </c>
       <c r="G276">
         <v>-0.05023821599913392</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.688769647865221</v>
+        <v>-3.688794929612647</v>
       </c>
       <c r="G277">
         <v>-0.08584027946086792</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.694204478244469</v>
+        <v>-3.694471809108032</v>
       </c>
       <c r="G278">
         <v>-0.1127856253865165</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.680070400590449</v>
+        <v>-3.680376814285701</v>
       </c>
       <c r="G279">
         <v>-0.1260164769412162</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.649281543401828</v>
+        <v>-3.649639935620634</v>
       </c>
       <c r="G280">
         <v>-0.1335683577505475</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.604966252475588</v>
+        <v>-3.605391922897538</v>
       </c>
       <c r="G281">
         <v>-0.1237646501395271</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.548373599053782</v>
+        <v>-3.548697951870198</v>
       </c>
       <c r="G282">
         <v>-0.1097682930530783</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.4813021777027</v>
+        <v>-3.481487305499962</v>
       </c>
       <c r="G283">
         <v>-0.08501071415890449</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.40562796183323</v>
+        <v>-3.405740046816383</v>
       </c>
       <c r="G284">
         <v>-0.04979986560263572</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.685207780670651</v>
+        <v>-3.685389083435904</v>
       </c>
       <c r="G287">
         <v>-0.04870735684947647</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.702697918961871</v>
+        <v>-3.702716507845294</v>
       </c>
       <c r="G288">
         <v>-0.08268444736177516</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.706917176793916</v>
+        <v>-3.707382923325211</v>
       </c>
       <c r="G289">
         <v>-0.1082085672030799</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.692451126335796</v>
+        <v>-3.692801871524944</v>
       </c>
       <c r="G290">
         <v>-0.1235303181929979</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.662842434051539</v>
+        <v>-3.66322645483065</v>
       </c>
       <c r="G291">
         <v>-0.1258029144278809</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.618891745276668</v>
+        <v>-3.619215657435952</v>
       </c>
       <c r="G292">
         <v>-0.1216636961196143</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.563604910389651</v>
+        <v>-3.563765787562817</v>
       </c>
       <c r="G293">
         <v>-0.1066440740077581</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.496654421333475</v>
+        <v>-3.496755452240074</v>
       </c>
       <c r="G294">
         <v>-0.08312901273368389</v>
